--- a/file.xlsx
+++ b/file.xlsx
@@ -16,12 +16,615 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>haha</t>
-  </si>
-  <si>
-    <t>xixi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+  <si>
+    <t>比赛编号</t>
+  </si>
+  <si>
+    <t>赛事</t>
+  </si>
+  <si>
+    <t>主队</t>
+  </si>
+  <si>
+    <t>客队</t>
+  </si>
+  <si>
+    <t>胜</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>负</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>H0</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>G0</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>2020-06-27 17:40周六010</t>
+  </si>
+  <si>
+    <t>韩K联</t>
+  </si>
+  <si>
+    <t>釜山偶像</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>城南FC</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>1.089515</t>
+  </si>
+  <si>
+    <t>2020-06-27 19:10周六015</t>
+  </si>
+  <si>
+    <t>英冠</t>
+  </si>
+  <si>
+    <t>普雷斯顿</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>加的夫城</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>1.047190</t>
+  </si>
+  <si>
+    <t>2020-06-27 19:40周六019</t>
+  </si>
+  <si>
+    <t>巴恩斯利</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>米尔沃尔</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>1.004640</t>
+  </si>
+  <si>
+    <t>2020-06-27 21:40周六034</t>
+  </si>
+  <si>
+    <t>维冈竞技</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>布莱克本</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>1.005750</t>
+  </si>
+  <si>
+    <t>2020-06-27 22:40周六037</t>
+  </si>
+  <si>
+    <t>意甲</t>
+  </si>
+  <si>
+    <t>布雷西亚</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>热那亚</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>1.215480</t>
+  </si>
+  <si>
+    <t>2020-06-27 22:40周六038</t>
+  </si>
+  <si>
+    <t>挪超</t>
+  </si>
+  <si>
+    <t>斯　达</t>
+  </si>
+  <si>
+    <t>奥　德</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>1.067280</t>
+  </si>
+  <si>
+    <t>2020-06-27 22:40周六040</t>
+  </si>
+  <si>
+    <t>卡利亚里</t>
+  </si>
+  <si>
+    <t>都　灵</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>1.064912</t>
+  </si>
+  <si>
+    <t>2020-06-27 22:40周六041</t>
+  </si>
+  <si>
+    <t>西甲</t>
+  </si>
+  <si>
+    <t>奥萨苏纳</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>莱加内斯</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>1.115459</t>
+  </si>
+  <si>
+    <t>2020-06-28 16:40周日002</t>
+  </si>
+  <si>
+    <t>蔚山现代</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>全北现代</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>1.156220</t>
+  </si>
+  <si>
+    <t>2020-06-28 17:40周日004</t>
+  </si>
+  <si>
+    <t>水原三星</t>
+  </si>
+  <si>
+    <t>尚州尚武</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>0.909056</t>
+  </si>
+  <si>
+    <t>2020-06-28 18:40周日005</t>
+  </si>
+  <si>
+    <t>布　城</t>
+  </si>
+  <si>
+    <t>谢周三</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>1.215075</t>
+  </si>
+  <si>
+    <t>2020-06-28 19:40周日006</t>
+  </si>
+  <si>
+    <t>莱万特</t>
+  </si>
+  <si>
+    <t>贝蒂斯</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>1.151500</t>
+  </si>
+  <si>
+    <t>2020-06-28 20:10周日008</t>
+  </si>
+  <si>
+    <t>瑞典超</t>
+  </si>
+  <si>
+    <t>天狼星</t>
+  </si>
+  <si>
+    <t>哥德堡</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>1.049492</t>
+  </si>
+  <si>
+    <t>2020-06-28 20:55周日010</t>
+  </si>
+  <si>
+    <t>诺丁汉</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>哈德斯</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>1.090770</t>
+  </si>
+  <si>
+    <t>2020-06-28 21:10周日011</t>
+  </si>
+  <si>
+    <t>德乙</t>
+  </si>
+  <si>
+    <t>比勒费</t>
+  </si>
+  <si>
+    <t>海登海姆</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>1.197560</t>
+  </si>
+  <si>
+    <t>2020-06-28 22:40周日021</t>
+  </si>
+  <si>
+    <t>英足总杯</t>
+  </si>
+  <si>
+    <t>莱切斯特</t>
+  </si>
+  <si>
+    <t>3英超</t>
+  </si>
+  <si>
+    <t>切尔西</t>
+  </si>
+  <si>
+    <t>4英超</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>1.260000</t>
+  </si>
+  <si>
+    <t>2020-06-28 22:40周日023</t>
+  </si>
+  <si>
+    <t>AC米兰</t>
+  </si>
+  <si>
+    <t>罗　马</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>1.085250</t>
+  </si>
+  <si>
+    <t>2020-06-28 22:40周日024</t>
+  </si>
+  <si>
+    <t>英超</t>
+  </si>
+  <si>
+    <t>沃特福德</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>南安普敦</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>1.001832</t>
+  </si>
+  <si>
+    <t>2020-06-28 22:40周日025</t>
+  </si>
+  <si>
+    <t>索尔纳</t>
+  </si>
+  <si>
+    <t>马尔默</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>1.388665</t>
+  </si>
+  <si>
+    <t>2020-06-28 22:40周日028</t>
+  </si>
+  <si>
+    <t>姆延达伦</t>
+  </si>
+  <si>
+    <t>克里斯蒂</t>
+  </si>
+  <si>
+    <t>1.054560</t>
+  </si>
+  <si>
+    <t>2020-06-28 22:40周日030</t>
+  </si>
+  <si>
+    <t>桑纳菲</t>
+  </si>
+  <si>
+    <t>海于格松</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>1.170774</t>
+  </si>
+  <si>
+    <t>2020-06-28 22:40周日034</t>
+  </si>
+  <si>
+    <t>桑　普</t>
+  </si>
+  <si>
+    <t>博洛尼亚</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>1.041810</t>
+  </si>
+  <si>
+    <t>2020-06-28 22:40周日036</t>
+  </si>
+  <si>
+    <t>萨索洛</t>
+  </si>
+  <si>
+    <t>维罗纳</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>1.033158</t>
+  </si>
+  <si>
+    <t>2020-06-28 22:40周日037</t>
+  </si>
+  <si>
+    <t>格拉纳达</t>
+  </si>
+  <si>
+    <t>埃瓦尔</t>
+  </si>
+  <si>
+    <t>1.122672</t>
+  </si>
+  <si>
+    <t>2020-06-28 22:40周日038</t>
+  </si>
+  <si>
+    <t>布　兰</t>
+  </si>
+  <si>
+    <t>罗森博格</t>
+  </si>
+  <si>
+    <t>1.194480</t>
+  </si>
+  <si>
+    <t>2020-06-28 22:40周日041</t>
+  </si>
+  <si>
+    <t>葡超</t>
+  </si>
+  <si>
+    <t>博阿维斯</t>
+  </si>
+  <si>
+    <t>圣克拉拉</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>1.151228</t>
+  </si>
+  <si>
+    <t>2020-06-29 21:40周一005</t>
+  </si>
+  <si>
+    <t>赫塔费</t>
+  </si>
+  <si>
+    <t>皇家社会</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>1.082410</t>
   </si>
 </sst>
 </file>
@@ -391,7 +994,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -406,6 +1009,912 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" ht="28.3464567" customHeight="true">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" ht="28.3464567" customHeight="true">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" ht="28.3464567" customHeight="true">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" ht="28.3464567" customHeight="true">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" ht="28.3464567" customHeight="true">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" ht="28.3464567" customHeight="true">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" ht="28.3464567" customHeight="true">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" ht="28.3464567" customHeight="true">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" ht="28.3464567" customHeight="true">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" ht="28.3464567" customHeight="true">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" ht="28.3464567" customHeight="true">
+      <c r="A25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" ht="28.3464567" customHeight="true">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" ht="28.3464567" customHeight="true">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" ht="28.3464567" customHeight="true">
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/file.xlsx
+++ b/file.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="2020-06-27" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t>比赛编号</t>
   </si>
@@ -27,9 +27,15 @@
     <t>主队</t>
   </si>
   <si>
+    <t>主队排名</t>
+  </si>
+  <si>
     <t>客队</t>
   </si>
   <si>
+    <t>客队排名</t>
+  </si>
+  <si>
     <t>胜</t>
   </si>
   <si>
@@ -66,6 +72,87 @@
     <t>G3</t>
   </si>
   <si>
+    <t>2020-06-27 16:40周六003</t>
+  </si>
+  <si>
+    <t>日乙</t>
+  </si>
+  <si>
+    <t>甲府风林</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>新泻天鹅</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>0.801940</t>
+  </si>
+  <si>
+    <t>0.276680</t>
+  </si>
+  <si>
+    <t>0.355540</t>
+  </si>
+  <si>
+    <t>0.228430</t>
+  </si>
+  <si>
+    <t>0.097840</t>
+  </si>
+  <si>
+    <t>0.156170</t>
+  </si>
+  <si>
+    <t>0.290000</t>
+  </si>
+  <si>
+    <t>0.269270</t>
+  </si>
+  <si>
+    <t>0.166670</t>
+  </si>
+  <si>
+    <t>2020-06-27 16:40周六004</t>
+  </si>
+  <si>
+    <t>金泽塞维</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>松本山雅</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>1.089648</t>
+  </si>
+  <si>
     <t>2020-06-27 17:40周六010</t>
   </si>
   <si>
@@ -96,6 +183,30 @@
     <t>1.089515</t>
   </si>
   <si>
+    <t>0.564990</t>
+  </si>
+  <si>
+    <t>0.322610</t>
+  </si>
+  <si>
+    <t>0.092100</t>
+  </si>
+  <si>
+    <t>0.017530</t>
+  </si>
+  <si>
+    <t>0.424470</t>
+  </si>
+  <si>
+    <t>0.363770</t>
+  </si>
+  <si>
+    <t>0.155870</t>
+  </si>
+  <si>
+    <t>0.044520</t>
+  </si>
+  <si>
     <t>2020-06-27 19:10周六015</t>
   </si>
   <si>
@@ -126,6 +237,18 @@
     <t>1.047190</t>
   </si>
   <si>
+    <t>0.180170</t>
+  </si>
+  <si>
+    <t>0.308820</t>
+  </si>
+  <si>
+    <t>0.264650</t>
+  </si>
+  <si>
+    <t>0.151200</t>
+  </si>
+  <si>
     <t>2020-06-27 19:40周六019</t>
   </si>
   <si>
@@ -138,9 +261,6 @@
     <t>米尔沃尔</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>2.60</t>
   </si>
   <si>
@@ -153,15 +273,33 @@
     <t>1.004640</t>
   </si>
   <si>
+    <t>0.135360</t>
+  </si>
+  <si>
+    <t>0.270720</t>
+  </si>
+  <si>
+    <t>0.180480</t>
+  </si>
+  <si>
+    <t>0.319210</t>
+  </si>
+  <si>
+    <t>0.364540</t>
+  </si>
+  <si>
+    <t>0.208150</t>
+  </si>
+  <si>
+    <t>0.079230</t>
+  </si>
+  <si>
     <t>2020-06-27 21:40周六034</t>
   </si>
   <si>
     <t>维冈竞技</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>布莱克本</t>
   </si>
   <si>
@@ -180,6 +318,15 @@
     <t>1.005750</t>
   </si>
   <si>
+    <t>0.367910</t>
+  </si>
+  <si>
+    <t>0.183950</t>
+  </si>
+  <si>
+    <t>0.061310</t>
+  </si>
+  <si>
     <t>2020-06-27 22:40周六037</t>
   </si>
   <si>
@@ -195,252 +342,342 @@
     <t>热那亚</t>
   </si>
   <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>1.237185</t>
+  </si>
+  <si>
+    <t>0.489710</t>
+  </si>
+  <si>
+    <t>0.349650</t>
+  </si>
+  <si>
+    <t>0.124820</t>
+  </si>
+  <si>
+    <t>0.029700</t>
+  </si>
+  <si>
+    <t>2020-06-27 22:40周六038</t>
+  </si>
+  <si>
+    <t>挪超</t>
+  </si>
+  <si>
+    <t>斯　达</t>
+  </si>
+  <si>
+    <t>奥　德</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>1.067280</t>
+  </si>
+  <si>
+    <t>1.000000</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>2020-06-27 22:40周六040</t>
+  </si>
+  <si>
+    <t>卡利亚里</t>
+  </si>
+  <si>
+    <t>都　灵</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>1.064912</t>
+  </si>
+  <si>
+    <t>0.117440</t>
+  </si>
+  <si>
+    <t>0.251560</t>
+  </si>
+  <si>
+    <t>0.269430</t>
+  </si>
+  <si>
+    <t>0.192370</t>
+  </si>
+  <si>
+    <t>2020-06-27 22:40周六041</t>
+  </si>
+  <si>
+    <t>西甲</t>
+  </si>
+  <si>
+    <t>奥萨苏纳</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>莱加内斯</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>1.139814</t>
+  </si>
+  <si>
+    <t>0.239820</t>
+  </si>
+  <si>
+    <t>0.342460</t>
+  </si>
+  <si>
+    <t>0.244520</t>
+  </si>
+  <si>
+    <t>0.116390</t>
+  </si>
+  <si>
+    <t>0.651840</t>
+  </si>
+  <si>
+    <t>0.278980</t>
+  </si>
+  <si>
+    <t>0.059700</t>
+  </si>
+  <si>
+    <t>0.008510</t>
+  </si>
+  <si>
+    <t>2020-06-28 16:40周日001</t>
+  </si>
+  <si>
+    <t>京　都</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>磐田喜悦</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>1.062600</t>
+  </si>
+  <si>
+    <t>2020-06-28 16:40周日002</t>
+  </si>
+  <si>
+    <t>蔚山现代</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>全北现代</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>1.156220</t>
+  </si>
+  <si>
+    <t>2020-06-28 17:10周日003</t>
+  </si>
+  <si>
+    <t>琉球FC</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>福冈黄蜂</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>1.120262</t>
+  </si>
+  <si>
+    <t>2020-06-28 17:40周日004</t>
+  </si>
+  <si>
+    <t>水原三星</t>
+  </si>
+  <si>
+    <t>尚州尚武</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>0.909056</t>
+  </si>
+  <si>
+    <t>2020-06-28 18:40周日005</t>
+  </si>
+  <si>
+    <t>布　城</t>
+  </si>
+  <si>
+    <t>谢周三</t>
+  </si>
+  <si>
+    <t>1.215075</t>
+  </si>
+  <si>
+    <t>2020-06-28 19:40周日006</t>
+  </si>
+  <si>
+    <t>莱万特</t>
+  </si>
+  <si>
+    <t>贝蒂斯</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>1.151500</t>
+  </si>
+  <si>
+    <t>0.207870</t>
+  </si>
+  <si>
+    <t>0.326560</t>
+  </si>
+  <si>
+    <t>0.256510</t>
+  </si>
+  <si>
+    <t>0.134320</t>
+  </si>
+  <si>
+    <t>2020-06-28 20:10周日008</t>
+  </si>
+  <si>
+    <t>瑞典超</t>
+  </si>
+  <si>
+    <t>天狼星</t>
+  </si>
+  <si>
+    <t>哥德堡</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>1.049492</t>
+  </si>
+  <si>
+    <t>2020-06-28 20:55周日010</t>
+  </si>
+  <si>
+    <t>诺丁汉</t>
+  </si>
+  <si>
+    <t>哈德斯</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>1.090770</t>
+  </si>
+  <si>
+    <t>2020-06-28 21:10周日011</t>
+  </si>
+  <si>
+    <t>德乙</t>
+  </si>
+  <si>
+    <t>比勒费</t>
+  </si>
+  <si>
+    <t>海登海姆</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>1.197560</t>
+  </si>
+  <si>
+    <t>2020-06-28 22:40周日021</t>
+  </si>
+  <si>
+    <t>英足总杯</t>
+  </si>
+  <si>
+    <t>莱切斯特</t>
+  </si>
+  <si>
+    <t>3英超</t>
+  </si>
+  <si>
+    <t>切尔西</t>
+  </si>
+  <si>
+    <t>4英超</t>
+  </si>
+  <si>
     <t>2.80</t>
   </si>
   <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>1.215480</t>
-  </si>
-  <si>
-    <t>2020-06-27 22:40周六038</t>
-  </si>
-  <si>
-    <t>挪超</t>
-  </si>
-  <si>
-    <t>斯　达</t>
-  </si>
-  <si>
-    <t>奥　德</t>
-  </si>
-  <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>1.067280</t>
-  </si>
-  <si>
-    <t>2020-06-27 22:40周六040</t>
-  </si>
-  <si>
-    <t>卡利亚里</t>
-  </si>
-  <si>
-    <t>都　灵</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>2.98</t>
-  </si>
-  <si>
-    <t>2.74</t>
-  </si>
-  <si>
-    <t>1.064912</t>
-  </si>
-  <si>
-    <t>2020-06-27 22:40周六041</t>
-  </si>
-  <si>
-    <t>西甲</t>
-  </si>
-  <si>
-    <t>奥萨苏纳</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>莱加内斯</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>3.03</t>
-  </si>
-  <si>
-    <t>1.115459</t>
-  </si>
-  <si>
-    <t>2020-06-28 16:40周日002</t>
-  </si>
-  <si>
-    <t>蔚山现代</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>全北现代</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>1.156220</t>
-  </si>
-  <si>
-    <t>2020-06-28 17:40周日004</t>
-  </si>
-  <si>
-    <t>水原三星</t>
-  </si>
-  <si>
-    <t>尚州尚武</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2.90</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>0.909056</t>
-  </si>
-  <si>
-    <t>2020-06-28 18:40周日005</t>
-  </si>
-  <si>
-    <t>布　城</t>
-  </si>
-  <si>
-    <t>谢周三</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.06</t>
-  </si>
-  <si>
-    <t>1.215075</t>
-  </si>
-  <si>
-    <t>2020-06-28 19:40周日006</t>
-  </si>
-  <si>
-    <t>莱万特</t>
-  </si>
-  <si>
-    <t>贝蒂斯</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2.43</t>
-  </si>
-  <si>
-    <t>1.151500</t>
-  </si>
-  <si>
-    <t>2020-06-28 20:10周日008</t>
-  </si>
-  <si>
-    <t>瑞典超</t>
-  </si>
-  <si>
-    <t>天狼星</t>
-  </si>
-  <si>
-    <t>哥德堡</t>
-  </si>
-  <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>1.049492</t>
-  </si>
-  <si>
-    <t>2020-06-28 20:55周日010</t>
-  </si>
-  <si>
-    <t>诺丁汉</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>哈德斯</t>
-  </si>
-  <si>
-    <t>2.06</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>1.090770</t>
-  </si>
-  <si>
-    <t>2020-06-28 21:10周日011</t>
-  </si>
-  <si>
-    <t>德乙</t>
-  </si>
-  <si>
-    <t>比勒费</t>
-  </si>
-  <si>
-    <t>海登海姆</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>1.197560</t>
-  </si>
-  <si>
-    <t>2020-06-28 22:40周日021</t>
-  </si>
-  <si>
-    <t>英足总杯</t>
-  </si>
-  <si>
-    <t>莱切斯特</t>
-  </si>
-  <si>
-    <t>3英超</t>
-  </si>
-  <si>
-    <t>切尔西</t>
-  </si>
-  <si>
-    <t>4英超</t>
-  </si>
-  <si>
     <t>2.21</t>
   </si>
   <si>
@@ -454,9 +691,6 @@
   </si>
   <si>
     <t>罗　马</t>
-  </si>
-  <si>
-    <t>3.20</t>
   </si>
   <si>
     <t>2.32</t>
@@ -994,7 +1228,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1051,869 +1285,1747 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" ht="28.3464567" customHeight="true">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="Q3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="R3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" ht="28.3464567" customHeight="true">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="28.3464567" customHeight="true">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" ht="28.3464567" customHeight="true">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="28.3464567" customHeight="true">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="28.3464567" customHeight="true">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s">
-        <v>77</v>
+      <c r="P8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" ht="28.3464567" customHeight="true">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>121</v>
+      </c>
+      <c r="K9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" ht="28.3464567" customHeight="true">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>131</v>
+      </c>
+      <c r="K10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" t="s">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="28.3464567" customHeight="true">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>145</v>
+      </c>
+      <c r="K11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O11" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>152</v>
+      </c>
+      <c r="R11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" ht="28.3464567" customHeight="true">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="I12" t="s">
         <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>160</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>123</v>
+      </c>
+      <c r="R12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" ht="28.3464567" customHeight="true">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>166</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" t="s">
+        <v>132</v>
+      </c>
+      <c r="P13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>134</v>
+      </c>
+      <c r="R13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="14" ht="28.3464567" customHeight="true">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>172</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="28.3464567" customHeight="true">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>180</v>
+      </c>
+      <c r="K15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>101</v>
+      </c>
+      <c r="R15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" ht="28.3464567" customHeight="true">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>184</v>
+      </c>
+      <c r="K16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>123</v>
+      </c>
+      <c r="R16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17" ht="28.3464567" customHeight="true">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>190</v>
+      </c>
+      <c r="K17" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" t="s">
+        <v>192</v>
+      </c>
+      <c r="M17" t="s">
+        <v>193</v>
+      </c>
+      <c r="N17" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="28.3464567" customHeight="true">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>200</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="s">
+        <v>193</v>
+      </c>
+      <c r="N18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>113</v>
+      </c>
+      <c r="R18" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="19" ht="28.3464567" customHeight="true">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="H19" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>206</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="28.3464567" customHeight="true">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" t="s">
         <v>158</v>
       </c>
-      <c r="D20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" t="s">
-        <v>159</v>
-      </c>
-      <c r="F20" t="s">
-        <v>98</v>
-      </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>212</v>
+      </c>
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="28.3464567" customHeight="true">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21" t="s">
+        <v>219</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>220</v>
+      </c>
+      <c r="J21" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" t="s">
         <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="22" ht="28.3464567" customHeight="true">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>226</v>
+      </c>
+      <c r="K22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="23" ht="28.3464567" customHeight="true">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="H23" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>234</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>101</v>
+      </c>
+      <c r="R23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" ht="28.3464567" customHeight="true">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" t="s">
+        <v>237</v>
+      </c>
+      <c r="F24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" t="s">
         <v>178</v>
       </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" t="s">
-        <v>179</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H24" t="s">
-        <v>181</v>
-      </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>183</v>
+        <v>239</v>
+      </c>
+      <c r="K24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" t="s">
+        <v>90</v>
+      </c>
+      <c r="N24" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="28.3464567" customHeight="true">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="I25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J25" t="s">
-        <v>187</v>
+        <v>243</v>
+      </c>
+      <c r="K25" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" t="s">
+        <v>75</v>
+      </c>
+      <c r="N25" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>61</v>
+      </c>
+      <c r="R25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" ht="28.3464567" customHeight="true">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" t="s">
         <v>189</v>
       </c>
-      <c r="D26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" t="s">
-        <v>67</v>
-      </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
         <v>191</v>
+      </c>
+      <c r="L26" t="s">
+        <v>192</v>
+      </c>
+      <c r="M26" t="s">
+        <v>193</v>
+      </c>
+      <c r="N26" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>148</v>
+      </c>
+      <c r="R26" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27" ht="28.3464567" customHeight="true">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>254</v>
+      </c>
+      <c r="K27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L27" t="s">
+        <v>123</v>
+      </c>
+      <c r="M27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N27" t="s">
+        <v>123</v>
+      </c>
+      <c r="O27" t="s">
+        <v>122</v>
+      </c>
+      <c r="P27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>123</v>
+      </c>
+      <c r="R27" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" ht="28.3464567" customHeight="true">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" t="s">
+        <v>259</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>101</v>
+      </c>
+      <c r="R28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" ht="28.3464567" customHeight="true">
+      <c r="A29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>232</v>
+      </c>
+      <c r="H29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N29" t="s">
+        <v>102</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>61</v>
+      </c>
+      <c r="R29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" ht="28.3464567" customHeight="true">
+      <c r="A30" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" t="s">
+        <v>268</v>
+      </c>
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" t="s">
         <v>122</v>
       </c>
-      <c r="E28" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" t="s">
-        <v>201</v>
-      </c>
-      <c r="I28" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" t="s">
-        <v>202</v>
+      <c r="L30" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>123</v>
+      </c>
+      <c r="R30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" ht="28.3464567" customHeight="true">
+      <c r="A31" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>273</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31" t="s">
+        <v>100</v>
+      </c>
+      <c r="M31" t="s">
+        <v>101</v>
+      </c>
+      <c r="N31" t="s">
+        <v>102</v>
+      </c>
+      <c r="O31" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>57</v>
+      </c>
+      <c r="R31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" ht="28.3464567" customHeight="true">
+      <c r="A32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" t="s">
+        <v>279</v>
+      </c>
+      <c r="I32" t="s">
+        <v>178</v>
+      </c>
+      <c r="J32" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" t="s">
+        <v>88</v>
+      </c>
+      <c r="L32" t="s">
+        <v>89</v>
+      </c>
+      <c r="M32" t="s">
+        <v>90</v>
+      </c>
+      <c r="N32" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>90</v>
+      </c>
+      <c r="R32" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Go XLSX"/>
-  <workbookPr showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GOSources\src\myCPforGo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E90B8C6-6645-4131-A324-6ED0AA5CE6C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="204" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1" state="visible"/>
-    <sheet name="2020-06-29" sheetId="2" r:id="rId2" state="visible"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2020-06-29" sheetId="2" r:id="rId2"/>
+    <sheet name="2020-06-30" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="125">
   <si>
     <t>比赛编号</t>
   </si>
@@ -164,37 +169,281 @@
   </si>
   <si>
     <t>0.044520</t>
+  </si>
+  <si>
+    <t>2020-07-01 21:40周三005</t>
+  </si>
+  <si>
+    <t>挪超</t>
+  </si>
+  <si>
+    <t>奥勒松</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>姆延达伦</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>0.857310</t>
+  </si>
+  <si>
+    <t>2020-07-01 21:40周三008</t>
+  </si>
+  <si>
+    <t>斯塔贝克</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>斯特罗姆</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>0.855470</t>
+  </si>
+  <si>
+    <t>0.207870</t>
+  </si>
+  <si>
+    <t>0.326560</t>
+  </si>
+  <si>
+    <t>0.256510</t>
+  </si>
+  <si>
+    <t>0.134320</t>
+  </si>
+  <si>
+    <t>2020-07-01 21:40周三012</t>
+  </si>
+  <si>
+    <t>英冠</t>
+  </si>
+  <si>
+    <t>伯明翰</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>哈德斯</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>1.108140</t>
+  </si>
+  <si>
+    <t>2020-07-01 21:40周三019</t>
+  </si>
+  <si>
+    <t>巴伦西亚</t>
+  </si>
+  <si>
+    <t>毕尔巴鄂</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>1.028978</t>
+  </si>
+  <si>
+    <t>0.367910</t>
+  </si>
+  <si>
+    <t>0.183950</t>
+  </si>
+  <si>
+    <t>0.061310</t>
+  </si>
+  <si>
+    <t>2020-07-01 21:40周三020</t>
+  </si>
+  <si>
+    <t>阿拉维斯</t>
+  </si>
+  <si>
+    <t>格拉纳达</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>0.911676</t>
+  </si>
+  <si>
+    <t>0.564990</t>
+  </si>
+  <si>
+    <t>0.322610</t>
+  </si>
+  <si>
+    <t>0.092100</t>
+  </si>
+  <si>
+    <t>0.017530</t>
+  </si>
+  <si>
+    <t>2020-07-01 21:40周三021</t>
+  </si>
+  <si>
+    <t>葡超</t>
+  </si>
+  <si>
+    <t>比兰尼</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>通德拉</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>1.124591</t>
+  </si>
+  <si>
+    <t>2020-07-01 21:40周三029</t>
+  </si>
+  <si>
+    <t>贝蒂斯</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>比利亚雷</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>1.032250</t>
+  </si>
+  <si>
+    <t>0.156170</t>
+  </si>
+  <si>
+    <t>0.290000</t>
+  </si>
+  <si>
+    <t>0.269270</t>
+  </si>
+  <si>
+    <t>0.166670</t>
+  </si>
+  <si>
+    <t>0.489710</t>
+  </si>
+  <si>
+    <t>0.349650</t>
+  </si>
+  <si>
+    <t>0.124820</t>
+  </si>
+  <si>
+    <t>0.029700</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -203,24 +452,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -545,19 +803,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="28.35" customHeight="true">
+    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="28.35" customHeight="true">
+    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -669,7 +924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="28.35" customHeight="true">
+    <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -726,23 +981,155 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="28.3464567" customHeight="true">
+    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -798,62 +1185,400 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="28.3464567" customHeight="true">
+    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L6" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M6" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N6" t="s">
         <v>44</v>
       </c>
-      <c r="O2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
+      <c r="O6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file.xlsx
+++ b/file.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GOSources\src\myCPforGo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E90B8C6-6645-4131-A324-6ED0AA5CE6C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA92ADFB-7886-44E9-95E5-E29809CA8927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="204" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="298" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2020-06-29" sheetId="2" r:id="rId2"/>
     <sheet name="2020-06-30" sheetId="3" r:id="rId3"/>
+    <sheet name="2020-07-01" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="155">
   <si>
     <t>比赛编号</t>
   </si>
@@ -397,6 +398,96 @@
   </si>
   <si>
     <t>0.029700</t>
+  </si>
+  <si>
+    <t>2020-07-02 21:40周四004</t>
+  </si>
+  <si>
+    <t>瑞典超</t>
+  </si>
+  <si>
+    <t>法尔肯堡</t>
+  </si>
+  <si>
+    <t>天狼星</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>1.136320</t>
+  </si>
+  <si>
+    <t>2020-07-02 21:40周四006</t>
+  </si>
+  <si>
+    <t>赫尔辛堡</t>
+  </si>
+  <si>
+    <t>米亚尔比</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>1.180752</t>
+  </si>
+  <si>
+    <t>0.651840</t>
+  </si>
+  <si>
+    <t>0.278980</t>
+  </si>
+  <si>
+    <t>0.059700</t>
+  </si>
+  <si>
+    <t>0.008510</t>
+  </si>
+  <si>
+    <t>2020-07-02 21:40周四007</t>
+  </si>
+  <si>
+    <t>哥德堡</t>
+  </si>
+  <si>
+    <t>索尔纳</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>1.170960</t>
+  </si>
+  <si>
+    <t>0.117440</t>
+  </si>
+  <si>
+    <t>0.251560</t>
+  </si>
+  <si>
+    <t>0.269430</t>
+  </si>
+  <si>
+    <t>0.192370</t>
+  </si>
+  <si>
+    <t>0.239820</t>
+  </si>
+  <si>
+    <t>0.342460</t>
+  </si>
+  <si>
+    <t>0.244520</t>
+  </si>
+  <si>
+    <t>0.116390</t>
   </si>
 </sst>
 </file>
@@ -424,17 +515,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -458,13 +548,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -806,9 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -981,7 +1070,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -995,7 +1084,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1111,7 +1200,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1120,13 +1209,478 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
@@ -1187,398 +1741,174 @@
     </row>
     <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="Q3" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="R3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
         <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="R4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" t="s">
-        <v>88</v>
-      </c>
-      <c r="P5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>89</v>
-      </c>
-      <c r="R5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>100</v>
-      </c>
-      <c r="R6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" t="s">
-        <v>118</v>
-      </c>
-      <c r="M8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N8" t="s">
-        <v>120</v>
-      </c>
-      <c r="O8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P8" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file.xlsx
+++ b/file.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GOSources\src\myCPforGo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA92ADFB-7886-44E9-95E5-E29809CA8927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Go XLSX"/>
+  <workbookPr showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="298" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2020-06-29" sheetId="2" r:id="rId2"/>
-    <sheet name="2020-06-30" sheetId="3" r:id="rId3"/>
-    <sheet name="2020-07-01" sheetId="4" r:id="rId4"/>
+    <sheet name="1" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="2020-06-29" sheetId="2" r:id="rId2" state="visible"/>
+    <sheet name="2020-06-30" sheetId="3" r:id="rId3" state="visible"/>
+    <sheet name="2020-07-01" sheetId="4" r:id="rId4" state="visible"/>
+    <sheet name="2020-07-03" sheetId="5" r:id="rId5" state="visible"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>比赛编号</t>
   </si>
@@ -488,52 +485,462 @@
   </si>
   <si>
     <t>0.116390</t>
+  </si>
+  <si>
+    <t>2020-07-03 21:40周五004</t>
+  </si>
+  <si>
+    <t>查尔顿</t>
+  </si>
+  <si>
+    <t>米尔沃尔</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>1.403860</t>
+  </si>
+  <si>
+    <t>2020-07-04 16:40周六001</t>
+  </si>
+  <si>
+    <t>日职</t>
+  </si>
+  <si>
+    <t>大阪钢巴</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>大阪樱花</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>1.129144</t>
+  </si>
+  <si>
+    <t>0.180170</t>
+  </si>
+  <si>
+    <t>0.308820</t>
+  </si>
+  <si>
+    <t>0.264650</t>
+  </si>
+  <si>
+    <t>0.151200</t>
+  </si>
+  <si>
+    <t>0.135360</t>
+  </si>
+  <si>
+    <t>0.270720</t>
+  </si>
+  <si>
+    <t>0.180480</t>
+  </si>
+  <si>
+    <t>2020-07-04 16:40周六002</t>
+  </si>
+  <si>
+    <t>清水鼓动</t>
+  </si>
+  <si>
+    <t>名古屋鲸</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>1.071900</t>
+  </si>
+  <si>
+    <t>2020-07-04 16:40周六004</t>
+  </si>
+  <si>
+    <t>日乙</t>
+  </si>
+  <si>
+    <t>松本山雅</t>
+  </si>
+  <si>
+    <t>甲府风林</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>1.098052</t>
+  </si>
+  <si>
+    <t>2020-07-04 16:40周六005</t>
+  </si>
+  <si>
+    <t>新泻天鹅</t>
+  </si>
+  <si>
+    <t>金泽塞维</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>1.175490</t>
+  </si>
+  <si>
+    <t>2020-07-04 17:40周六008</t>
+  </si>
+  <si>
+    <t>柏太阳神</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>东京FC</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>1.115485</t>
+  </si>
+  <si>
+    <t>2020-07-04 17:40周六010</t>
+  </si>
+  <si>
+    <t>湘南海洋</t>
+  </si>
+  <si>
+    <t>仙台七夕</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>1.072000</t>
+  </si>
+  <si>
+    <t>2020-07-04 17:40周六013</t>
+  </si>
+  <si>
+    <t>町田泽维</t>
+  </si>
+  <si>
+    <t>山形山神</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>1.221532</t>
+  </si>
+  <si>
+    <t>0.752030</t>
+  </si>
+  <si>
+    <t>0.214330</t>
+  </si>
+  <si>
+    <t>0.030540</t>
+  </si>
+  <si>
+    <t>0.002900</t>
+  </si>
+  <si>
+    <t>2020-07-04 17:40周六015</t>
+  </si>
+  <si>
+    <t>水户蜀葵</t>
+  </si>
+  <si>
+    <t>千叶市原</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>1.036640</t>
+  </si>
+  <si>
+    <t>2020-07-04 18:10周六019</t>
+  </si>
+  <si>
+    <t>神户胜利</t>
+  </si>
+  <si>
+    <t>广岛三箭</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.916638</t>
+  </si>
+  <si>
+    <t>2020-07-04 18:40周六020</t>
+  </si>
+  <si>
+    <t>韩K联</t>
+  </si>
+  <si>
+    <t>水原三星</t>
+  </si>
+  <si>
+    <t>首尔FC</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>0.916082</t>
+  </si>
+  <si>
+    <t>2020-07-04 19:10周六021</t>
+  </si>
+  <si>
+    <t>英超</t>
+  </si>
+  <si>
+    <t>诺维奇</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>布赖顿</t>
+  </si>
+  <si>
+    <t>1.355200</t>
+  </si>
+  <si>
+    <t>2020-07-04 22:40周六032</t>
+  </si>
+  <si>
+    <t>0.866176</t>
+  </si>
+  <si>
+    <t>2020-07-04 22:40周六035</t>
+  </si>
+  <si>
+    <t>塞图巴尔</t>
+  </si>
+  <si>
+    <t>费雷拉</t>
+  </si>
+  <si>
+    <t>1.432530</t>
+  </si>
+  <si>
+    <t>2020-07-04 22:40周六038</t>
+  </si>
+  <si>
+    <t>巴利亚多</t>
+  </si>
+  <si>
+    <t>1.128470</t>
+  </si>
+  <si>
+    <t>2020-07-04 22:40周六046</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>1.320370</t>
+  </si>
+  <si>
+    <t>2020-07-05 16:40周日001</t>
+  </si>
+  <si>
+    <t>磐田喜悦</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>冈山绿雉</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>0.860036</t>
+  </si>
+  <si>
+    <t>1.000000</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>2020-07-05 17:40周日002</t>
+  </si>
+  <si>
+    <t>山口雷诺</t>
+  </si>
+  <si>
+    <t>爱媛FC</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>1.146684</t>
+  </si>
+  <si>
+    <t>2020-07-05 17:40周日003</t>
+  </si>
+  <si>
+    <t>枥木SC</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>东京绿茵</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>1.076530</t>
+  </si>
+  <si>
+    <t>2020-07-05 20:55周日013</t>
+  </si>
+  <si>
+    <t>纽卡斯尔</t>
+  </si>
+  <si>
+    <t>西汉姆联</t>
+  </si>
+  <si>
+    <t>1.164750</t>
+  </si>
+  <si>
+    <t>2020-07-05 22:40周日021</t>
+  </si>
+  <si>
+    <t>吉维森特</t>
+  </si>
+  <si>
+    <t>里奥阿维</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>1.463700</t>
+  </si>
+  <si>
+    <t>2020-07-05 22:40周日031</t>
+  </si>
+  <si>
+    <t>意甲</t>
+  </si>
+  <si>
+    <t>帕尔马</t>
+  </si>
+  <si>
+    <t>佛罗伦萨</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>1.383723</t>
+  </si>
+  <si>
+    <t>2020-07-05 22:40周日035</t>
+  </si>
+  <si>
+    <t>法马利康</t>
+  </si>
+  <si>
+    <t>1.408050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -542,34 +949,36 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="6">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyAlignment="1" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -894,14 +1303,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="28.35" customHeight="true">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +1371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="28.35" customHeight="true">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1013,7 +1427,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="28.35" customHeight="true">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1070,24 +1484,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col max="3" min="3" style="0" width="16.875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="28.35" customHeight="true">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="28.35" customHeight="true">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -1200,23 +1616,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col max="3" min="3" style="0" width="25.125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="28.35" customHeight="true">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="28.35" customHeight="true">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
@@ -1328,7 +1747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="28.35" customHeight="true">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
@@ -1384,7 +1803,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="28.35" customHeight="true">
       <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
@@ -1440,7 +1859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="28.35" customHeight="true">
       <c r="A5" s="3" t="s">
         <v>82</v>
       </c>
@@ -1496,7 +1915,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="28.35" customHeight="true">
       <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
@@ -1552,7 +1971,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="28.35" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
@@ -1608,7 +2027,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="28.35" customHeight="true">
       <c r="A8" s="3" t="s">
         <v>110</v>
       </c>
@@ -1665,25 +2084,267 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col max="2" min="2" style="0" width="24.5" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="28.35" customHeight="true">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="28.35" customHeight="true">
+      <c r="A2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" ht="28.35" customHeight="true">
+      <c r="A3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" ht="28.35" customHeight="true">
+      <c r="A4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1739,176 +2400,1294 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="28.3464567" customHeight="true">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N3" t="s">
+        <v>172</v>
+      </c>
+      <c r="O3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>153</v>
+      </c>
+      <c r="R5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N7" t="s">
+        <v>175</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" t="s">
+        <v>212</v>
+      </c>
+      <c r="L9" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" t="s">
+        <v>214</v>
+      </c>
+      <c r="N9" t="s">
+        <v>215</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M10" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" t="s">
+        <v>172</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>225</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="s">
+        <v>119</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>147</v>
+      </c>
+      <c r="P11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>149</v>
+      </c>
+      <c r="R11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" t="s">
         <v>94</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
+        <v>212</v>
+      </c>
+      <c r="P13" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>214</v>
+      </c>
+      <c r="R13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="s">
+        <v>153</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="28.3464567" customHeight="true">
+      <c r="A15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
         <v>129</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="28.3464567" customHeight="true">
+      <c r="A16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J16" t="s">
+        <v>246</v>
+      </c>
+      <c r="K16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" t="s">
         <v>98</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P16" t="s">
         <v>99</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q16" t="s">
         <v>100</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R16" t="s">
         <v>101</v>
       </c>
-      <c r="O2" t="s">
+    </row>
+    <row r="17" ht="28.3464567" customHeight="true">
+      <c r="A17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P17" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q17" t="s">
         <v>47</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="18" ht="28.3464567" customHeight="true">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>254</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" t="s">
+        <v>255</v>
+      </c>
+      <c r="K18" t="s">
+        <v>256</v>
+      </c>
+      <c r="L18" t="s">
+        <v>257</v>
+      </c>
+      <c r="M18" t="s">
+        <v>257</v>
+      </c>
+      <c r="N18" t="s">
+        <v>257</v>
+      </c>
+      <c r="O18" t="s">
+        <v>256</v>
+      </c>
+      <c r="P18" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>257</v>
+      </c>
+      <c r="R18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" ht="28.3464567" customHeight="true">
+      <c r="A19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H19" t="s">
+        <v>261</v>
+      </c>
+      <c r="I19" t="s">
+        <v>262</v>
+      </c>
+      <c r="J19" t="s">
+        <v>263</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="s">
+        <v>171</v>
+      </c>
+      <c r="N19" t="s">
+        <v>172</v>
+      </c>
+      <c r="O19" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>139</v>
+      </c>
+      <c r="R19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" ht="28.3464567" customHeight="true">
+      <c r="A20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>269</v>
+      </c>
+      <c r="J20" t="s">
+        <v>270</v>
+      </c>
+      <c r="K20" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" ht="28.3464567" customHeight="true">
+      <c r="A21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" t="s">
         <v>75</v>
       </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>274</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>119</v>
+      </c>
+      <c r="R21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" ht="28.3464567" customHeight="true">
+      <c r="A22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" t="s">
+        <v>279</v>
+      </c>
+      <c r="I22" t="s">
+        <v>280</v>
+      </c>
+      <c r="J22" t="s">
+        <v>281</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" ht="28.3464567" customHeight="true">
+      <c r="A23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" t="s">
         <v>112</v>
       </c>
-      <c r="G3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" t="s">
-        <v>137</v>
-      </c>
-      <c r="P3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" t="s">
-        <v>148</v>
-      </c>
-      <c r="M4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P4" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>153</v>
-      </c>
-      <c r="R4" t="s">
-        <v>154</v>
+      <c r="G23" t="s">
+        <v>286</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" t="s">
+        <v>287</v>
+      </c>
+      <c r="J23" t="s">
+        <v>288</v>
+      </c>
+      <c r="K23" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M23" t="s">
+        <v>174</v>
+      </c>
+      <c r="N23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" ht="28.3464567" customHeight="true">
+      <c r="A24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>278</v>
+      </c>
+      <c r="H24" t="s">
+        <v>279</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" t="s">
+        <v>291</v>
+      </c>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" t="s">
+        <v>212</v>
+      </c>
+      <c r="P24" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>214</v>
+      </c>
+      <c r="R24" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file.xlsx
+++ b/file.xlsx
@@ -1,34 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GOSources\src\myCPforGo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB708752-6085-4C4D-9A6A-620929DE6008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Go XLSX"/>
+  <workbookPr showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="578" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2020-06-29" sheetId="2" r:id="rId2"/>
-    <sheet name="2020-06-30" sheetId="3" r:id="rId3"/>
-    <sheet name="2020-07-01" sheetId="4" r:id="rId4"/>
-    <sheet name="2020-07-03" sheetId="5" r:id="rId5"/>
-    <sheet name="2020-07-041" sheetId="6" r:id="rId6"/>
-    <sheet name="2020-07-042" sheetId="7" r:id="rId7"/>
-    <sheet name="2020-07-04" sheetId="8" r:id="rId8"/>
-    <sheet name="2020-07-05" sheetId="9" r:id="rId9"/>
+    <sheet name="1" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="2020-06-29" sheetId="2" r:id="rId2" state="visible"/>
+    <sheet name="2020-06-30" sheetId="3" r:id="rId3" state="visible"/>
+    <sheet name="2020-07-01" sheetId="4" r:id="rId4" state="visible"/>
+    <sheet name="2020-07-03" sheetId="5" r:id="rId5" state="visible"/>
+    <sheet name="2020-07-041" sheetId="6" r:id="rId6" state="visible"/>
+    <sheet name="2020-07-042" sheetId="7" r:id="rId7" state="visible"/>
+    <sheet name="2020-07-04" sheetId="8" r:id="rId8" state="visible"/>
+    <sheet name="2020-07-05" sheetId="9" r:id="rId9" state="visible"/>
+    <sheet name="2020-07-06" sheetId="10" r:id="rId10" state="visible"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="452">
   <si>
     <t>比赛编号</t>
   </si>
@@ -1273,173 +1270,193 @@
   </si>
   <si>
     <t>0.000200</t>
-  </si>
-  <si>
-    <t>0.090240</t>
-  </si>
-  <si>
-    <t>1.208350</t>
-  </si>
-  <si>
-    <t>0.834058</t>
-  </si>
-  <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>1.196848</t>
-  </si>
-  <si>
-    <t>1.426600</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>1.397700</t>
-  </si>
-  <si>
-    <t>1.367982</t>
-  </si>
-  <si>
-    <t>1.385840</t>
-  </si>
-  <si>
-    <t>1.441872</t>
-  </si>
-  <si>
-    <t>2020-07-06 21:40周一001</t>
-  </si>
-  <si>
-    <t>英甲</t>
-  </si>
-  <si>
-    <t>牛津联</t>
-  </si>
-  <si>
-    <t>朴茨茅斯</t>
-  </si>
-  <si>
-    <t>1.156462</t>
-  </si>
-  <si>
-    <t>2020-07-06 21:40周一007</t>
-  </si>
-  <si>
-    <t>威科姆</t>
-  </si>
-  <si>
-    <t>福利特</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>1.258890</t>
-  </si>
-  <si>
-    <t>1-1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <family val="3"/>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
       </rPr>
       <t>爱媛</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
       </rPr>
       <t>FC</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.090240</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>1.208350</t>
+  </si>
+  <si>
+    <t>0.834058</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>1.196848</t>
+  </si>
+  <si>
+    <t>1.426600</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>1.397700</t>
+  </si>
+  <si>
+    <t>1.367982</t>
+  </si>
+  <si>
+    <t>1.385840</t>
+  </si>
+  <si>
+    <t>1.441872</t>
+  </si>
+  <si>
+    <t>2020-07-06 21:40周一001</t>
+  </si>
+  <si>
+    <t>英甲</t>
+  </si>
+  <si>
+    <t>牛津联</t>
+  </si>
+  <si>
+    <t>朴茨茅斯</t>
+  </si>
+  <si>
+    <t>1.156462</t>
+  </si>
+  <si>
+    <t>2020-07-06 21:40周一007</t>
+  </si>
+  <si>
+    <t>威科姆</t>
+  </si>
+  <si>
+    <t>福利特</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>1.258890</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>0.057450</t>
+  </si>
+  <si>
+    <t>0.164150</t>
+  </si>
+  <si>
+    <t>0.234490</t>
+  </si>
+  <si>
+    <t>0.223320</t>
+  </si>
+  <si>
+    <t>0.159500</t>
+  </si>
+  <si>
+    <t>2020-07-06 21:40周一004</t>
+  </si>
+  <si>
+    <t>厄斯特松</t>
+  </si>
+  <si>
+    <t>1.108230</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>1.225120</t>
+  </si>
+  <si>
+    <t>1.224162</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FF9C5700"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1447,13 +1464,16 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1463,48 +1483,50 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="1">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="10">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyAlignment="1" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="2">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="常规" xfId="0"/>
+    <cellStyle name="好" xfId="1"/>
+    <cellStyle name="适中" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1829,14 +1851,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="28.35" customHeight="true">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1892,7 +1919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="28.35" customHeight="true">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1948,7 +1975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="28.35" customHeight="true">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -2005,23 +2032,353 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>391</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" t="s">
+        <v>441</v>
+      </c>
+      <c r="L2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M2" t="s">
+        <v>443</v>
+      </c>
+      <c r="N2" t="s">
+        <v>444</v>
+      </c>
+      <c r="O2" t="s">
+        <v>445</v>
+      </c>
+      <c r="P2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" t="s">
+        <v>440</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>449</v>
+      </c>
+      <c r="J4" t="s">
+        <v>450</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>395</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" t="s">
+        <v>451</v>
+      </c>
+      <c r="K5" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" t="s">
+        <v>172</v>
+      </c>
+      <c r="O5" t="s">
+        <v>404</v>
+      </c>
+      <c r="P5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col max="8" min="8" style="0" width="16.875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="28.35" customHeight="true">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="28.35" customHeight="true">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -2134,23 +2491,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col max="8" min="8" style="0" width="25.125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="28.35" customHeight="true">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="28.35" customHeight="true">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
@@ -2262,7 +2622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="28.35" customHeight="true">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
@@ -2318,7 +2678,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="28.35" customHeight="true">
       <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
@@ -2374,7 +2734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="28.35" customHeight="true">
       <c r="A5" s="3" t="s">
         <v>82</v>
       </c>
@@ -2430,7 +2790,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="28.35" customHeight="true">
       <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
@@ -2486,7 +2846,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="28.35" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
@@ -2542,7 +2902,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="28.35" customHeight="true">
       <c r="A8" s="3" t="s">
         <v>110</v>
       </c>
@@ -2599,25 +2959,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col max="4" min="4" style="0" width="22.875" customWidth="true"/>
+    <col max="5" min="5" style="0" width="19" customWidth="true"/>
+    <col max="7" min="7" style="0" width="24.5" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="28.35" customHeight="true">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2673,7 +3036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="28.35" customHeight="true">
       <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
@@ -2729,7 +3092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="28.35" customHeight="true">
       <c r="A3" s="3" t="s">
         <v>131</v>
       </c>
@@ -2785,7 +3148,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="28.35" customHeight="true">
       <c r="A4" s="3" t="s">
         <v>141</v>
       </c>
@@ -2842,23 +3205,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col max="4" min="4" style="0" width="23.25" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="28.35" customHeight="true">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2914,7 +3280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="28.35" customHeight="true">
       <c r="A2" s="2" t="s">
         <v>155</v>
       </c>
@@ -2970,7 +3336,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="28.35" customHeight="true">
       <c r="A3" s="2" t="s">
         <v>161</v>
       </c>
@@ -3026,7 +3392,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="28.35" customHeight="true">
       <c r="A4" s="2" t="s">
         <v>176</v>
       </c>
@@ -3082,7 +3448,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.35" customHeight="true">
       <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
@@ -3138,7 +3504,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.35" customHeight="true">
       <c r="A6" s="2" t="s">
         <v>188</v>
       </c>
@@ -3194,7 +3560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="28.35" customHeight="true">
       <c r="A7" s="2" t="s">
         <v>195</v>
       </c>
@@ -3250,7 +3616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="28.35" customHeight="true">
       <c r="A8" s="2" t="s">
         <v>201</v>
       </c>
@@ -3306,7 +3672,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="28.35" customHeight="true">
       <c r="A9" s="2" t="s">
         <v>206</v>
       </c>
@@ -3362,7 +3728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="28.35" customHeight="true">
       <c r="A10" s="2" t="s">
         <v>216</v>
       </c>
@@ -3418,7 +3784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="28.35" customHeight="true">
       <c r="A11" s="2" t="s">
         <v>221</v>
       </c>
@@ -3474,7 +3840,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="28.35" customHeight="true">
       <c r="A12" s="2" t="s">
         <v>226</v>
       </c>
@@ -3530,7 +3896,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="28.35" customHeight="true">
       <c r="A13" s="2" t="s">
         <v>232</v>
       </c>
@@ -3586,7 +3952,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="28.35" customHeight="true">
       <c r="A14" s="2" t="s">
         <v>238</v>
       </c>
@@ -3642,7 +4008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="28.35" customHeight="true">
       <c r="A15" s="2" t="s">
         <v>240</v>
       </c>
@@ -3698,7 +4064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="28.35" customHeight="true">
       <c r="A16" s="2" t="s">
         <v>244</v>
       </c>
@@ -3754,7 +4120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="28.35" customHeight="true">
       <c r="A17" s="2" t="s">
         <v>247</v>
       </c>
@@ -3810,7 +4176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="28.35" customHeight="true">
       <c r="A18" s="2" t="s">
         <v>250</v>
       </c>
@@ -3866,7 +4232,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="28.35" customHeight="true">
       <c r="A19" s="2" t="s">
         <v>258</v>
       </c>
@@ -3922,7 +4288,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="28.35" customHeight="true">
       <c r="A20" s="2" t="s">
         <v>264</v>
       </c>
@@ -3978,7 +4344,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="28.35" customHeight="true">
       <c r="A21" s="2" t="s">
         <v>271</v>
       </c>
@@ -4034,7 +4400,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="28.35" customHeight="true">
       <c r="A22" s="2" t="s">
         <v>275</v>
       </c>
@@ -4090,7 +4456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="28.35" customHeight="true">
       <c r="A23" s="2" t="s">
         <v>282</v>
       </c>
@@ -4146,7 +4512,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="28.35" customHeight="true">
       <c r="A24" s="2" t="s">
         <v>289</v>
       </c>
@@ -4203,26 +4569,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col max="4" min="4" style="0" width="26.625" customWidth="true"/>
+    <col max="5" min="5" style="0" width="29.375" customWidth="true"/>
+    <col max="6" min="6" style="0" width="16.75" customWidth="true"/>
+    <col max="7" min="7" style="0" width="18.375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="28.35" customHeight="true">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4278,7 +4647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="28.35" customHeight="true">
       <c r="A2" s="3" t="s">
         <v>161</v>
       </c>
@@ -4334,7 +4703,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="28.35" customHeight="true">
       <c r="A3" s="3" t="s">
         <v>176</v>
       </c>
@@ -4390,7 +4759,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="28.35" customHeight="true">
       <c r="A4" s="3" t="s">
         <v>182</v>
       </c>
@@ -4446,7 +4815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="28.35" customHeight="true">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -4502,7 +4871,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="28.35" customHeight="true">
       <c r="A6" s="3" t="s">
         <v>195</v>
       </c>
@@ -4558,7 +4927,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="28.35" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>201</v>
       </c>
@@ -4614,7 +4983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="28.35" customHeight="true">
       <c r="A8" s="3" t="s">
         <v>206</v>
       </c>
@@ -4670,7 +5039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="28.35" customHeight="true">
       <c r="A9" s="3" t="s">
         <v>311</v>
       </c>
@@ -4726,7 +5095,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="28.35" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>319</v>
       </c>
@@ -4782,7 +5151,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="28.35" customHeight="true">
       <c r="A11" s="3" t="s">
         <v>240</v>
       </c>
@@ -4838,7 +5207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="28.35" customHeight="true">
       <c r="A12" s="3" t="s">
         <v>326</v>
       </c>
@@ -4894,7 +5263,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="28.35" customHeight="true">
       <c r="A13" s="3" t="s">
         <v>330</v>
       </c>
@@ -4950,7 +5319,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="28.35" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>247</v>
       </c>
@@ -5006,7 +5375,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="28.35" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>250</v>
       </c>
@@ -5062,7 +5431,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="28.35" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
@@ -5118,7 +5487,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="28.35" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>264</v>
       </c>
@@ -5174,7 +5543,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="28.35" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>339</v>
       </c>
@@ -5230,7 +5599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="28.35" customHeight="true">
       <c r="A19" s="3" t="s">
         <v>343</v>
       </c>
@@ -5286,7 +5655,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="28.35" customHeight="true">
       <c r="A20" s="3" t="s">
         <v>347</v>
       </c>
@@ -5342,7 +5711,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="28.35" customHeight="true">
       <c r="A21" s="3" t="s">
         <v>271</v>
       </c>
@@ -5398,7 +5767,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="28.35" customHeight="true">
       <c r="A22" s="3" t="s">
         <v>352</v>
       </c>
@@ -5454,7 +5823,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="28.35" customHeight="true">
       <c r="A23" s="3" t="s">
         <v>358</v>
       </c>
@@ -5510,7 +5879,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="28.35" customHeight="true">
       <c r="A24" s="3" t="s">
         <v>362</v>
       </c>
@@ -5566,7 +5935,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="28.35" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>275</v>
       </c>
@@ -5622,7 +5991,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="28.35" customHeight="true">
       <c r="A26" s="3" t="s">
         <v>367</v>
       </c>
@@ -5678,7 +6047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="28.35" customHeight="true">
       <c r="A27" s="3" t="s">
         <v>282</v>
       </c>
@@ -5734,7 +6103,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="28.35" customHeight="true">
       <c r="A28" s="3" t="s">
         <v>372</v>
       </c>
@@ -5790,7 +6159,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="28.35" customHeight="true">
       <c r="A29" s="3" t="s">
         <v>289</v>
       </c>
@@ -5846,7 +6215,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="28.35" customHeight="true">
       <c r="A30" s="3" t="s">
         <v>376</v>
       </c>
@@ -5902,7 +6271,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="28.35" customHeight="true">
       <c r="A31" s="3" t="s">
         <v>380</v>
       </c>
@@ -5958,7 +6327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="28.35" customHeight="true">
       <c r="A32" s="3" t="s">
         <v>384</v>
       </c>
@@ -6015,5172 +6384,5273 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col max="4" min="4" style="0" width="29.5" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="28.35" customHeight="true">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="28.35" customHeight="true">
+      <c r="A2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="28.35" customHeight="true">
+      <c r="A3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="28.35" customHeight="true">
+      <c r="A4" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" ht="28.35" customHeight="true">
+      <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" ht="28.35" customHeight="true">
+      <c r="A6" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="28.35" customHeight="true">
+      <c r="A7" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="28.35" customHeight="true">
+      <c r="A8" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="28.35" customHeight="true">
+      <c r="A9" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="28.35" customHeight="true">
+      <c r="A10" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="28.35" customHeight="true">
+      <c r="A11" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="12" ht="28.35" customHeight="true">
+      <c r="A12" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="13" ht="28.35" customHeight="true">
+      <c r="A13" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" ht="28.35" customHeight="true">
+      <c r="A14" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" ht="28.35" customHeight="true">
+      <c r="A15" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+    <row r="16" ht="28.35" customHeight="true">
+      <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+    <row r="17" ht="28.35" customHeight="true">
+      <c r="A17" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="18" ht="28.35" customHeight="true">
+      <c r="A18" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="19" ht="28.35" customHeight="true">
+      <c r="A19" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+    <row r="20" ht="28.35" customHeight="true">
+      <c r="A20" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="21" ht="28.35" customHeight="true">
+      <c r="A21" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="22" ht="28.35" customHeight="true">
+      <c r="A22" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="23" ht="28.35" customHeight="true">
+      <c r="A23" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" ht="28.35" customHeight="true">
+      <c r="A24" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="P24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="Q24" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+    <row r="25" ht="28.35" customHeight="true">
+      <c r="A25" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="P25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="Q25" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+    <row r="26" ht="28.35" customHeight="true">
+      <c r="A26" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="P26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="Q26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="R26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="27" ht="28.35" customHeight="true">
+      <c r="A27" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+    <row r="28" ht="28.35" customHeight="true">
+      <c r="A28" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="O28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P28" s="5" t="s">
+      <c r="P28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="Q28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="29" ht="28.35" customHeight="true">
+      <c r="A29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="O29" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P29" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+    <row r="30" ht="28.35" customHeight="true">
+      <c r="A30" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="R30" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+    <row r="31" ht="28.35" customHeight="true">
+      <c r="A31" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P31" s="5" t="s">
+      <c r="P31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+    <row r="32" ht="28.35" customHeight="true">
+      <c r="A32" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="O32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="P32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="Q32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="3" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.75" customWidth="1"/>
+    <col max="2" min="2" style="0" width="31.75" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="28.35" customHeight="true">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="28.35" customHeight="true">
+      <c r="A2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="28.35" customHeight="true">
+      <c r="A3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="28.35" customHeight="true">
+      <c r="A4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="28.35" customHeight="true">
+      <c r="A5" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" ht="28.35" customHeight="true">
+      <c r="A6" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="28.35" customHeight="true">
+      <c r="A7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="28.35" customHeight="true">
+      <c r="A8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" ht="28.35" customHeight="true">
+      <c r="A9" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="28.35" customHeight="true">
+      <c r="A10" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="28.35" customHeight="true">
+      <c r="A11" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="T11" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" ht="28.35" customHeight="true">
+      <c r="A12" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" ht="28.35" customHeight="true">
+      <c r="A13" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" ht="28.35" customHeight="true">
+      <c r="A14" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="T14" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" ht="28.35" customHeight="true">
+      <c r="A15" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" ht="28.35" customHeight="true">
+      <c r="A16" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" ht="28.35" customHeight="true">
+      <c r="A17" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="T17" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" ht="28.35" customHeight="true">
+      <c r="A18" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="S18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="T18" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" ht="28.35" customHeight="true">
+      <c r="A19" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="S19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="T19" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="20" ht="28.35" customHeight="true">
+      <c r="A20" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="P20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="R20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="T20" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="21" ht="28.35" customHeight="true">
+      <c r="A21" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="T21" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="22" ht="28.35" customHeight="true">
+      <c r="A22" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="R22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="S22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T22" s="6" t="s">
+      <c r="T22" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" ht="28.35" customHeight="true">
+      <c r="A23" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="S23" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="T23" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="24" ht="28.35" customHeight="true">
+      <c r="A24" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="S24" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="T24" s="6" t="s">
+      <c r="T24" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="25" ht="28.35" customHeight="true">
+      <c r="A25" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="P25" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="R25" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="S25" s="6" t="s">
+      <c r="S25" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="T25" s="6" t="s">
+      <c r="T25" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="26" ht="28.35" customHeight="true">
+      <c r="A26" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O26" s="6" t="s">
+      <c r="O26" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="P26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="R26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="S26" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="6" t="s">
+      <c r="T26" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="27" ht="28.35" customHeight="true">
+      <c r="A27" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O27" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="P27" s="6" t="s">
+      <c r="O27" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="R27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="S27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T27" s="6" t="s">
+      <c r="T27" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="28" ht="28.35" customHeight="true">
+      <c r="A28" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="N28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O28" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="P28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Q28" s="6" t="s">
+      <c r="Q28" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="R28" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="S28" s="6" t="s">
+      <c r="S28" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="T28" s="6" t="s">
+      <c r="T28" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" ht="28.35" customHeight="true">
+      <c r="A29" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="N29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S29" s="6" t="s">
+      <c r="S29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="T29" s="6" t="s">
+      <c r="T29" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="30" ht="28.35" customHeight="true">
+      <c r="A30" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="N30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="O30" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="P30" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="Q30" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="R30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="S30" s="6" t="s">
+      <c r="S30" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="T30" s="6" t="s">
+      <c r="T30" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" ht="28.35" customHeight="true">
+      <c r="A31" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="N31" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O31" s="6" t="s">
+      <c r="O31" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="P31" s="6" t="s">
+      <c r="P31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="R31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="S31" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="T31" s="6" t="s">
+      <c r="T31" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+    <row r="32" ht="28.35" customHeight="true">
+      <c r="A32" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="N32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="6" t="s">
+      <c r="O32" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="P32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="6" t="s">
+      <c r="Q32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R32" s="6" t="s">
+      <c r="R32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="S32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T32" s="6" t="s">
+      <c r="T32" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="33" ht="28.35" customHeight="true">
+      <c r="A33" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="N33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="O33" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="P33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q33" s="6" t="s">
+      <c r="Q33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="R33" s="6" t="s">
+      <c r="R33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S33" s="6" t="s">
+      <c r="S33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="T33" s="6" t="s">
+      <c r="T33" s="2" t="s">
         <v>406</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-    <col min="11" max="11" width="9" style="8"/>
-    <col min="12" max="12" width="9" style="7"/>
-    <col min="13" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="9" style="7"/>
-    <col min="15" max="15" width="9" style="8"/>
-    <col min="16" max="16" width="9" style="7"/>
-    <col min="17" max="17" width="9" style="8"/>
-    <col min="18" max="18" width="9" style="7"/>
-    <col min="19" max="19" width="9" style="8"/>
-    <col min="20" max="20" width="9" style="7"/>
+    <col max="2" min="2" style="0" width="27.875" customWidth="true"/>
+    <col max="12" min="12" style="6" width="9"/>
+    <col max="13" min="13" style="7" width="9"/>
+    <col max="14" min="14" style="6" width="9"/>
+    <col max="15" min="15" style="7" width="9"/>
+    <col max="16" min="16" style="6" width="9"/>
+    <col max="17" min="17" style="7" width="9"/>
+    <col max="18" min="18" style="6" width="9"/>
+    <col max="19" min="19" style="7" width="9"/>
+    <col max="20" min="20" style="6" width="9"/>
+    <col max="21" min="21" style="7" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" ht="28.35" customHeight="true">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>391</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="U1" t="s">
+        <v/>
+      </c>
+      <c r="V1" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="2" ht="28.35" customHeight="true">
+      <c r="A2" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>212</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>213</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>214</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>215</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="6" t="s">
         <v>414</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="8">
         <v>1</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" ht="28.35" customHeight="true">
+      <c r="A3" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>169</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>170</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>171</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>172</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="6" t="s">
         <v>404</v>
       </c>
       <c r="T3" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="8">
         <v>0</v>
       </c>
-      <c r="V3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="V3" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" ht="28.35" customHeight="true">
+      <c r="A4" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>46</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="6" t="s">
         <v>47</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="6" t="s">
         <v>48</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="6" t="s">
         <v>413</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="V4" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="28.35" customHeight="true">
+      <c r="A5" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="6" t="s">
         <v>398</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="V5" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.5" customHeight="true">
+      <c r="A6" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>88</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>88</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="6" t="s">
         <v>89</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="6" t="s">
         <v>90</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="6" t="s">
         <v>406</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="V6" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.35" customHeight="true">
+      <c r="A7" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="J7" t="s">
-        <v>417</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="J7" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="6" t="s">
         <v>257</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="6" t="s">
         <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="6" t="s">
         <v>257</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="6" t="s">
         <v>257</v>
       </c>
       <c r="T7" s="7" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="U7" t="s">
+        <v/>
+      </c>
+      <c r="V7" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="28.35" customHeight="true">
+      <c r="A8" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G8" t="s">
-        <v>418</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="I8" t="s">
-        <v>419</v>
-      </c>
-      <c r="J8" t="s">
-        <v>420</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="I8" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="6" t="s">
         <v>88</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="6" t="s">
         <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="6" t="s">
         <v>90</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="6" t="s">
         <v>406</v>
       </c>
       <c r="T8" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="U8" t="s">
+        <v/>
+      </c>
+      <c r="V8" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="28.35" customHeight="true">
+      <c r="A9" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>256</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="6" t="s">
         <v>257</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="6" t="s">
         <v>257</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="6" t="s">
         <v>257</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="6" t="s">
         <v>257</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="U9" t="s">
+        <v/>
+      </c>
+      <c r="V9" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="28.35" customHeight="true">
+      <c r="A10" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="6" t="s">
         <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="6" t="s">
         <v>170</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="6" t="s">
         <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="6" t="s">
         <v>172</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="6" t="s">
         <v>404</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="U10" t="s">
+        <v/>
+      </c>
+      <c r="V10" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.35" customHeight="true">
+      <c r="A11" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J11" t="s">
-        <v>421</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="J11" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="6" t="s">
         <v>152</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="6" t="s">
         <v>154</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="6" t="s">
         <v>401</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="U11" t="s">
+        <v/>
+      </c>
+      <c r="V11" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="28.35" customHeight="true">
+      <c r="A12" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I12" t="s">
-        <v>422</v>
-      </c>
-      <c r="J12" t="s">
-        <v>423</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="I12" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>173</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="6" t="s">
         <v>174</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="6" t="s">
         <v>174</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="6" t="s">
         <v>175</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S12" s="8" t="s">
-        <v>415</v>
+      <c r="S12" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="T12" s="7" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="U12" t="s">
+        <v/>
+      </c>
+      <c r="V12" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="28.35" customHeight="true">
+      <c r="A13" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="J13" t="s">
-        <v>424</v>
-      </c>
-      <c r="K13" s="8" t="s">
+      <c r="J13" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="6" t="s">
         <v>46</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="6" t="s">
         <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="6" t="s">
         <v>48</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="S13" s="6" t="s">
         <v>413</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="U13" t="s">
+        <v/>
+      </c>
+      <c r="V13" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="28.35" customHeight="true">
+      <c r="A14" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="6" t="s">
         <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="6" t="s">
         <v>48</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="6" t="s">
         <v>413</v>
       </c>
       <c r="T14" s="7" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="U14" t="s">
+        <v/>
+      </c>
+      <c r="V14" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="28.35" customHeight="true">
+      <c r="A15" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J15" t="s">
-        <v>425</v>
-      </c>
-      <c r="K15" s="8" t="s">
+      <c r="J15" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="6" t="s">
         <v>42</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="S15" s="6" t="s">
         <v>398</v>
       </c>
       <c r="T15" s="7" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="U15" t="s">
+        <v/>
+      </c>
+      <c r="V15" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="28.35" customHeight="true">
+      <c r="A16" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J16" t="s">
-        <v>426</v>
-      </c>
-      <c r="K16" s="8" t="s">
+      <c r="J16" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="6" t="s">
         <v>170</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="6" t="s">
         <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="6" t="s">
         <v>172</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="S16" s="8" t="s">
+      <c r="S16" s="6" t="s">
         <v>404</v>
       </c>
       <c r="T16" s="7" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>427</v>
-      </c>
-      <c r="B17" t="s">
-        <v>428</v>
-      </c>
-      <c r="C17" t="s">
-        <v>429</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="U16" t="s">
+        <v/>
+      </c>
+      <c r="V16" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="28.35" customHeight="true">
+      <c r="A17" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E17" t="s">
-        <v>430</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G17" t="s">
-        <v>418</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I17" t="s">
-        <v>418</v>
-      </c>
-      <c r="J17" t="s">
-        <v>431</v>
-      </c>
-      <c r="K17" s="8" t="s">
+      <c r="I17" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="6" t="s">
         <v>300</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="6" t="s">
         <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="6" t="s">
         <v>302</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="S17" s="6" t="s">
         <v>400</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="U17" t="s">
+        <v/>
+      </c>
+      <c r="V17" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="28.35" customHeight="true">
+      <c r="A18" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="6" t="s">
         <v>31</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="S18" s="6" t="s">
         <v>395</v>
       </c>
       <c r="T18" s="7" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="U18" t="s">
+        <v/>
+      </c>
+      <c r="V18" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="28.35" customHeight="true">
+      <c r="A19" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="6" t="s">
         <v>28</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="6" t="s">
         <v>29</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="S19" s="6" t="s">
         <v>395</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>432</v>
-      </c>
-      <c r="B20" t="s">
-        <v>428</v>
-      </c>
-      <c r="C20" t="s">
-        <v>433</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="U19" t="s">
+        <v/>
+      </c>
+      <c r="V19" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="28.35" customHeight="true">
+      <c r="A20" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s">
-        <v>434</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="I20" t="s">
-        <v>435</v>
-      </c>
-      <c r="J20" t="s">
-        <v>436</v>
-      </c>
-      <c r="K20" s="8" t="s">
+      <c r="I20" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>169</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="6" t="s">
         <v>170</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="6" t="s">
         <v>171</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="6" t="s">
         <v>172</v>
       </c>
       <c r="R20" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="S20" s="8" t="s">
+      <c r="S20" s="6" t="s">
         <v>404</v>
       </c>
       <c r="T20" s="7" t="s">
         <v>401</v>
       </c>
+      <c r="U20" t="s">
+        <v/>
+      </c>
+      <c r="V20" t="s">
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file.xlsx
+++ b/file.xlsx
@@ -18,6 +18,11 @@
     <sheet name="2020-07-04" sheetId="8" r:id="rId8" state="visible"/>
     <sheet name="2020-07-05" sheetId="9" r:id="rId9" state="visible"/>
     <sheet name="2020-07-06" sheetId="10" r:id="rId10" state="visible"/>
+    <sheet name="2020-07-071" sheetId="11" r:id="rId11" state="visible"/>
+    <sheet name="2020-07-072" sheetId="12" r:id="rId12" state="visible"/>
+    <sheet name="2020-07-073" sheetId="13" r:id="rId13" state="visible"/>
+    <sheet name="2020-07-075" sheetId="14" r:id="rId14" state="visible"/>
+    <sheet name="2020-07-07" sheetId="15" r:id="rId15" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="597">
   <si>
     <t>比赛编号</t>
   </si>
@@ -1399,6 +1404,441 @@
   </si>
   <si>
     <t>1.224162</t>
+  </si>
+  <si>
+    <t>2020-07-07 21:40周二002</t>
+  </si>
+  <si>
+    <t>诺丁汉</t>
+  </si>
+  <si>
+    <t>富勒姆</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>1.138432</t>
+  </si>
+  <si>
+    <t>0.272560</t>
+  </si>
+  <si>
+    <t>0.354330</t>
+  </si>
+  <si>
+    <t>0.230320</t>
+  </si>
+  <si>
+    <t>0.099800</t>
+  </si>
+  <si>
+    <t>0.032430</t>
+  </si>
+  <si>
+    <t>0.201930</t>
+  </si>
+  <si>
+    <t>0.323080</t>
+  </si>
+  <si>
+    <t>0.258470</t>
+  </si>
+  <si>
+    <t>0.137850</t>
+  </si>
+  <si>
+    <t>0.055140</t>
+  </si>
+  <si>
+    <t>2020-07-07 21:40周二007</t>
+  </si>
+  <si>
+    <t>雷　丁</t>
+  </si>
+  <si>
+    <t>1.228590</t>
+  </si>
+  <si>
+    <t>2020-07-07 21:40周二008</t>
+  </si>
+  <si>
+    <t>卢　顿</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>巴恩斯利</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1.178455</t>
+  </si>
+  <si>
+    <t>2020-07-08 16:40周三002</t>
+  </si>
+  <si>
+    <t>浦和红钻</t>
+  </si>
+  <si>
+    <t>1.318200</t>
+  </si>
+  <si>
+    <t>0.182710</t>
+  </si>
+  <si>
+    <t>0.310610</t>
+  </si>
+  <si>
+    <t>0.264020</t>
+  </si>
+  <si>
+    <t>0.149610</t>
+  </si>
+  <si>
+    <t>0.063580</t>
+  </si>
+  <si>
+    <t>0.301230</t>
+  </si>
+  <si>
+    <t>0.361470</t>
+  </si>
+  <si>
+    <t>0.216880</t>
+  </si>
+  <si>
+    <t>0.086750</t>
+  </si>
+  <si>
+    <t>0.026020</t>
+  </si>
+  <si>
+    <t>2020-07-08 17:40周三004</t>
+  </si>
+  <si>
+    <t>鹿岛鹿角</t>
+  </si>
+  <si>
+    <t>札幌冈萨</t>
+  </si>
+  <si>
+    <t>0.838187</t>
+  </si>
+  <si>
+    <t>0.110820</t>
+  </si>
+  <si>
+    <t>0.243820</t>
+  </si>
+  <si>
+    <t>0.268200</t>
+  </si>
+  <si>
+    <t>0.196680</t>
+  </si>
+  <si>
+    <t>0.108170</t>
+  </si>
+  <si>
+    <t>2020-07-08 18:10周三008</t>
+  </si>
+  <si>
+    <t>川崎前锋</t>
+  </si>
+  <si>
+    <t>1.413600</t>
+  </si>
+  <si>
+    <t>0.548840</t>
+  </si>
+  <si>
+    <t>0.329300</t>
+  </si>
+  <si>
+    <t>0.098790</t>
+  </si>
+  <si>
+    <t>0.019750</t>
+  </si>
+  <si>
+    <t>0.002960</t>
+  </si>
+  <si>
+    <t>2020-07-08 18:10周三009</t>
+  </si>
+  <si>
+    <t>1.098504</t>
+  </si>
+  <si>
+    <t>2020-07-08 21:40周三010</t>
+  </si>
+  <si>
+    <t>1.100068</t>
+  </si>
+  <si>
+    <t>0.670340</t>
+  </si>
+  <si>
+    <t>0.268130</t>
+  </si>
+  <si>
+    <t>0.053620</t>
+  </si>
+  <si>
+    <t>0.007150</t>
+  </si>
+  <si>
+    <t>0.000710</t>
+  </si>
+  <si>
+    <t>2020-07-08 21:40周三016</t>
+  </si>
+  <si>
+    <t>1.066095</t>
+  </si>
+  <si>
+    <t>0.246630</t>
+  </si>
+  <si>
+    <t>0.345280</t>
+  </si>
+  <si>
+    <t>0.241700</t>
+  </si>
+  <si>
+    <t>0.112790</t>
+  </si>
+  <si>
+    <t>0.039470</t>
+  </si>
+  <si>
+    <t>2020-07-08 21:40周三021</t>
+  </si>
+  <si>
+    <t>1.045045</t>
+  </si>
+  <si>
+    <t>2020-07-08 21:40周三024</t>
+  </si>
+  <si>
+    <t>博阿维斯</t>
+  </si>
+  <si>
+    <t>马里迪莫</t>
+  </si>
+  <si>
+    <t>1.082410</t>
+  </si>
+  <si>
+    <t>0.406600</t>
+  </si>
+  <si>
+    <t>0.365940</t>
+  </si>
+  <si>
+    <t>0.164670</t>
+  </si>
+  <si>
+    <t>0.049400</t>
+  </si>
+  <si>
+    <t>0.011110</t>
+  </si>
+  <si>
+    <t>2020-07-07 21:40周二001</t>
+  </si>
+  <si>
+    <t>俄超</t>
+  </si>
+  <si>
+    <t>坦波夫</t>
+  </si>
+  <si>
+    <t>格罗兹尼</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>0.332900</t>
+  </si>
+  <si>
+    <t>0.366190</t>
+  </si>
+  <si>
+    <t>0.201400</t>
+  </si>
+  <si>
+    <t>0.073850</t>
+  </si>
+  <si>
+    <t>0.020300</t>
+  </si>
+  <si>
+    <t>0.223160</t>
+  </si>
+  <si>
+    <t>0.334740</t>
+  </si>
+  <si>
+    <t>0.251060</t>
+  </si>
+  <si>
+    <t>0.125530</t>
+  </si>
+  <si>
+    <t>0.047070</t>
+  </si>
+  <si>
+    <t>0.149590</t>
+  </si>
+  <si>
+    <t>0.284230</t>
+  </si>
+  <si>
+    <t>0.270020</t>
+  </si>
+  <si>
+    <t>0.171010</t>
+  </si>
+  <si>
+    <t>0.081230</t>
+  </si>
+  <si>
+    <t>0.496620</t>
+  </si>
+  <si>
+    <t>0.347630</t>
+  </si>
+  <si>
+    <t>0.121670</t>
+  </si>
+  <si>
+    <t>0.028390</t>
+  </si>
+  <si>
+    <t>0.004960</t>
+  </si>
+  <si>
+    <t>GCount</t>
+  </si>
+  <si>
+    <t>GWinNumber</t>
+  </si>
+  <si>
+    <t>GWinDC</t>
+  </si>
+  <si>
+    <t>GTieNumber</t>
+  </si>
+  <si>
+    <t>GTietDC</t>
+  </si>
+  <si>
+    <t>GDefeatNumber</t>
+  </si>
+  <si>
+    <t>GDefeatDC</t>
+  </si>
+  <si>
+    <t>1.238416</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1.147326</t>
+  </si>
+  <si>
+    <t>100.000%</t>
+  </si>
+  <si>
+    <t>0.000%</t>
+  </si>
+  <si>
+    <t>25.000%</t>
+  </si>
+  <si>
+    <t>37.500%</t>
+  </si>
+  <si>
+    <t>20.000%</t>
+  </si>
+  <si>
+    <t>40.000%</t>
+  </si>
+  <si>
+    <t>18.182%</t>
+  </si>
+  <si>
+    <t>45.455%</t>
+  </si>
+  <si>
+    <t>36.364%</t>
+  </si>
+  <si>
+    <t>60.000%</t>
+  </si>
+  <si>
+    <t>50.000%</t>
+  </si>
+  <si>
+    <t>28.571%</t>
+  </si>
+  <si>
+    <t>42.857%</t>
+  </si>
+  <si>
+    <t>41.667%</t>
+  </si>
+  <si>
+    <t>33.333%</t>
+  </si>
+  <si>
+    <t>62.500%</t>
+  </si>
+  <si>
+    <t>12.500%</t>
+  </si>
+  <si>
+    <t>66.667%</t>
+  </si>
+  <si>
+    <t>16.667%</t>
+  </si>
+  <si>
+    <t>44.444%</t>
+  </si>
+  <si>
+    <t>22.222%</t>
+  </si>
+  <si>
+    <t>符合总比赛数</t>
+  </si>
+  <si>
+    <t>胜场</t>
+  </si>
+  <si>
+    <t>胜场占比</t>
+  </si>
+  <si>
+    <t>平场</t>
+  </si>
+  <si>
+    <t>平场占比</t>
+  </si>
+  <si>
+    <t>负场</t>
+  </si>
+  <si>
+    <t>负场占比</t>
   </si>
 </sst>
 </file>
@@ -1509,23 +1949,21 @@
     <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="2">
+    <xf applyAlignment="1" applyBorder="0" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="1">
+    <xf applyAlignment="1" applyBorder="0" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0"/>
-    <cellStyle name="好" xfId="1"/>
-    <cellStyle name="适中" xfId="2"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2046,6 +2484,4117 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="28.35" customHeight="true">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" ht="28.35" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" ht="28.35" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" ht="28.35" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" ht="28.35" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="28.35" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" ht="28.35" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" ht="28.35" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" ht="28.35" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" ht="28.35" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" ht="28.35" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" ht="28.35" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" ht="28.35" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" ht="28.35" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" ht="28.35" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" ht="28.35" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" ht="28.35" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col max="4" min="4" style="0" width="24.5" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.35" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" ht="28.35" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.238416</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" ht="28.35" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" ht="28.35" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" ht="28.35" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" ht="28.35" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" ht="28.35" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" ht="28.35" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" ht="28.35" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" ht="28.35" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11" ht="28.35" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="12" ht="28.35" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" ht="28.35" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="28.35" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2" ht="28.35" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="V2" t="s">
+        <v/>
+      </c>
+      <c r="W2" t="s">
+        <v/>
+      </c>
+      <c r="X2" t="s">
+        <v/>
+      </c>
+      <c r="Y2" t="s">
+        <v/>
+      </c>
+      <c r="Z2" t="s">
+        <v/>
+      </c>
+      <c r="AA2" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="28.35" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="V3" t="s">
+        <v/>
+      </c>
+      <c r="W3" t="s">
+        <v/>
+      </c>
+      <c r="X3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="28.35" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="V4" t="s">
+        <v/>
+      </c>
+      <c r="W4" t="s">
+        <v/>
+      </c>
+      <c r="X4" t="s">
+        <v/>
+      </c>
+      <c r="Y4" t="s">
+        <v/>
+      </c>
+      <c r="Z4" t="s">
+        <v/>
+      </c>
+      <c r="AA4" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="28.35" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="V5" t="s">
+        <v/>
+      </c>
+      <c r="W5" t="s">
+        <v/>
+      </c>
+      <c r="X5" t="s">
+        <v/>
+      </c>
+      <c r="Y5" t="s">
+        <v/>
+      </c>
+      <c r="Z5" t="s">
+        <v/>
+      </c>
+      <c r="AA5" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.35" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="V6" t="s">
+        <v/>
+      </c>
+      <c r="W6" t="s">
+        <v/>
+      </c>
+      <c r="X6" t="s">
+        <v/>
+      </c>
+      <c r="Y6" t="s">
+        <v/>
+      </c>
+      <c r="Z6" t="s">
+        <v/>
+      </c>
+      <c r="AA6" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.35" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="V7" t="s">
+        <v/>
+      </c>
+      <c r="W7" t="s">
+        <v/>
+      </c>
+      <c r="X7" t="s">
+        <v/>
+      </c>
+      <c r="Y7" t="s">
+        <v/>
+      </c>
+      <c r="Z7" t="s">
+        <v/>
+      </c>
+      <c r="AA7" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="28.35" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="V8" t="s">
+        <v/>
+      </c>
+      <c r="W8" t="s">
+        <v/>
+      </c>
+      <c r="X8" t="s">
+        <v/>
+      </c>
+      <c r="Y8" t="s">
+        <v/>
+      </c>
+      <c r="Z8" t="s">
+        <v/>
+      </c>
+      <c r="AA8" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="28.35" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="V9" t="s">
+        <v/>
+      </c>
+      <c r="W9" t="s">
+        <v/>
+      </c>
+      <c r="X9" t="s">
+        <v/>
+      </c>
+      <c r="Y9" t="s">
+        <v/>
+      </c>
+      <c r="Z9" t="s">
+        <v/>
+      </c>
+      <c r="AA9" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="28.35" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="V10" t="s">
+        <v/>
+      </c>
+      <c r="W10" t="s">
+        <v/>
+      </c>
+      <c r="X10" t="s">
+        <v/>
+      </c>
+      <c r="Y10" t="s">
+        <v/>
+      </c>
+      <c r="Z10" t="s">
+        <v/>
+      </c>
+      <c r="AA10" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.35" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="V11" t="s">
+        <v/>
+      </c>
+      <c r="W11" t="s">
+        <v/>
+      </c>
+      <c r="X11" t="s">
+        <v/>
+      </c>
+      <c r="Y11" t="s">
+        <v/>
+      </c>
+      <c r="Z11" t="s">
+        <v/>
+      </c>
+      <c r="AA11" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="28.35" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="V12" t="s">
+        <v/>
+      </c>
+      <c r="W12" t="s">
+        <v/>
+      </c>
+      <c r="X12" t="s">
+        <v/>
+      </c>
+      <c r="Y12" t="s">
+        <v/>
+      </c>
+      <c r="Z12" t="s">
+        <v/>
+      </c>
+      <c r="AA12" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="28.35" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="V13" t="s">
+        <v/>
+      </c>
+      <c r="W13" t="s">
+        <v/>
+      </c>
+      <c r="X13" t="s">
+        <v/>
+      </c>
+      <c r="Y13" t="s">
+        <v/>
+      </c>
+      <c r="Z13" t="s">
+        <v/>
+      </c>
+      <c r="AA13" t="s">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col max="23" min="23" style="0" width="11.75" customWidth="true"/>
+    <col max="25" min="25" style="0" width="10.625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.35" customHeight="true">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2" ht="28.35" customHeight="true">
+      <c r="A2" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" ht="28.35" customHeight="true">
+      <c r="A3" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" ht="28.35" customHeight="true">
+      <c r="A4" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="5" ht="28.35" customHeight="true">
+      <c r="A5" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" ht="28.35" customHeight="true">
+      <c r="A6" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" ht="28.35" customHeight="true">
+      <c r="A7" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" ht="28.35" customHeight="true">
+      <c r="A8" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" ht="28.35" customHeight="true">
+      <c r="A9" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" ht="28.35" customHeight="true">
+      <c r="A10" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="11" ht="28.35" customHeight="true">
+      <c r="A11" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" ht="28.35" customHeight="true">
+      <c r="A12" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" ht="28.35" customHeight="true">
+      <c r="A13" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
@@ -2109,253 +6658,1022 @@
       <c r="T1" t="s">
         <v>392</v>
       </c>
+      <c r="U1" t="s">
+        <v>590</v>
+      </c>
+      <c r="V1" t="s">
+        <v>591</v>
+      </c>
+      <c r="W1" t="s">
+        <v>592</v>
+      </c>
+      <c r="X1" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="2" ht="28.3464567" customHeight="true">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>534</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>535</v>
       </c>
       <c r="C2" t="s">
-        <v>432</v>
+        <v>536</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>433</v>
+        <v>537</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
-        <v>440</v>
+        <v>538</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>566</v>
       </c>
       <c r="K2" t="s">
-        <v>441</v>
+        <v>518</v>
       </c>
       <c r="L2" t="s">
-        <v>442</v>
+        <v>519</v>
       </c>
       <c r="M2" t="s">
-        <v>443</v>
+        <v>520</v>
       </c>
       <c r="N2" t="s">
-        <v>444</v>
+        <v>521</v>
       </c>
       <c r="O2" t="s">
-        <v>445</v>
+        <v>522</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>539</v>
       </c>
       <c r="Q2" t="s">
-        <v>152</v>
+        <v>540</v>
       </c>
       <c r="R2" t="s">
-        <v>153</v>
+        <v>541</v>
       </c>
       <c r="S2" t="s">
-        <v>154</v>
+        <v>542</v>
       </c>
       <c r="T2" t="s">
-        <v>401</v>
+        <v>543</v>
+      </c>
+      <c r="U2" t="s">
+        <v>197</v>
+      </c>
+      <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
+        <v>569</v>
+      </c>
+      <c r="X2" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>454</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>388</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>448</v>
+        <v>568</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>518</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>519</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>520</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>521</v>
       </c>
       <c r="O3" t="s">
-        <v>413</v>
+        <v>522</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>458</v>
       </c>
       <c r="Q3" t="s">
-        <v>46</v>
+        <v>459</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>460</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>461</v>
       </c>
       <c r="T3" t="s">
-        <v>413</v>
+        <v>462</v>
+      </c>
+      <c r="U3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" t="s">
+        <v>197</v>
+      </c>
+      <c r="W3" t="s">
+        <v>571</v>
+      </c>
+      <c r="X3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="4" ht="28.3464567" customHeight="true">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>381</v>
+        <v>469</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
-        <v>440</v>
+        <v>262</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>449</v>
+        <v>166</v>
       </c>
       <c r="J4" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="O4" t="s">
-        <v>395</v>
+        <v>257</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="S4" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="T4" t="s">
-        <v>395</v>
+        <v>257</v>
+      </c>
+      <c r="U4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
+        <v>573</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="5" ht="28.3464567" customHeight="true">
       <c r="A5" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="D5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" t="s">
+        <v>476</v>
+      </c>
+      <c r="K5" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5" t="s">
+        <v>257</v>
+      </c>
+      <c r="O5" t="s">
+        <v>257</v>
+      </c>
+      <c r="P5" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>257</v>
+      </c>
+      <c r="R5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S5" t="s">
+        <v>257</v>
+      </c>
+      <c r="T5" t="s">
+        <v>257</v>
+      </c>
+      <c r="U5" t="s">
+        <v>158</v>
+      </c>
+      <c r="V5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" t="s">
+        <v>575</v>
+      </c>
+      <c r="X5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>478</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>479</v>
+      </c>
+      <c r="K6" t="s">
+        <v>458</v>
+      </c>
+      <c r="L6" t="s">
+        <v>459</v>
+      </c>
+      <c r="M6" t="s">
+        <v>460</v>
+      </c>
+      <c r="N6" t="s">
+        <v>461</v>
+      </c>
+      <c r="O6" t="s">
+        <v>462</v>
+      </c>
+      <c r="P6" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>503</v>
+      </c>
+      <c r="R6" t="s">
+        <v>504</v>
+      </c>
+      <c r="S6" t="s">
+        <v>505</v>
+      </c>
+      <c r="T6" t="s">
+        <v>506</v>
+      </c>
+      <c r="U6" t="s">
+        <v>164</v>
+      </c>
+      <c r="V6" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" t="s">
+        <v>574</v>
+      </c>
+      <c r="X6" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L7" t="s">
+        <v>545</v>
+      </c>
+      <c r="M7" t="s">
+        <v>546</v>
+      </c>
+      <c r="N7" t="s">
+        <v>547</v>
+      </c>
+      <c r="O7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>486</v>
+      </c>
+      <c r="R7" t="s">
+        <v>487</v>
+      </c>
+      <c r="S7" t="s">
+        <v>488</v>
+      </c>
+      <c r="T7" t="s">
+        <v>489</v>
+      </c>
+      <c r="U7" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
-        <v>437</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="V7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" t="s">
+        <v>579</v>
+      </c>
+      <c r="X7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" t="s">
+        <v>334</v>
+      </c>
+      <c r="J8" t="s">
+        <v>501</v>
+      </c>
+      <c r="K8" t="s">
+        <v>463</v>
+      </c>
+      <c r="L8" t="s">
+        <v>464</v>
+      </c>
+      <c r="M8" t="s">
+        <v>465</v>
+      </c>
+      <c r="N8" t="s">
+        <v>466</v>
+      </c>
+      <c r="O8" t="s">
+        <v>467</v>
+      </c>
+      <c r="P8" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>459</v>
+      </c>
+      <c r="R8" t="s">
+        <v>460</v>
+      </c>
+      <c r="S8" t="s">
+        <v>461</v>
+      </c>
+      <c r="T8" t="s">
+        <v>462</v>
+      </c>
+      <c r="U8" t="s">
+        <v>224</v>
+      </c>
+      <c r="V8" t="s">
+        <v>224</v>
+      </c>
+      <c r="W8" t="s">
+        <v>569</v>
+      </c>
+      <c r="X8" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>508</v>
+      </c>
+      <c r="K9" t="s">
+        <v>485</v>
+      </c>
+      <c r="L9" t="s">
+        <v>486</v>
+      </c>
+      <c r="M9" t="s">
+        <v>487</v>
+      </c>
+      <c r="N9" t="s">
+        <v>488</v>
+      </c>
+      <c r="O9" t="s">
+        <v>489</v>
+      </c>
+      <c r="P9" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>459</v>
+      </c>
+      <c r="R9" t="s">
+        <v>460</v>
+      </c>
+      <c r="S9" t="s">
+        <v>461</v>
+      </c>
+      <c r="T9" t="s">
+        <v>462</v>
+      </c>
+      <c r="U9" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W9" t="s">
+        <v>580</v>
+      </c>
+      <c r="X9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>370</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>510</v>
+      </c>
+      <c r="K10" t="s">
+        <v>458</v>
+      </c>
+      <c r="L10" t="s">
+        <v>459</v>
+      </c>
+      <c r="M10" t="s">
+        <v>460</v>
+      </c>
+      <c r="N10" t="s">
+        <v>461</v>
+      </c>
+      <c r="O10" t="s">
+        <v>462</v>
+      </c>
+      <c r="P10" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>530</v>
+      </c>
+      <c r="R10" t="s">
+        <v>531</v>
+      </c>
+      <c r="S10" t="s">
+        <v>532</v>
+      </c>
+      <c r="T10" t="s">
+        <v>533</v>
+      </c>
+      <c r="U10" t="s">
+        <v>252</v>
+      </c>
+      <c r="V10" t="s">
         <v>164</v>
       </c>
-      <c r="G5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" t="s">
-        <v>451</v>
-      </c>
-      <c r="K5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M5" t="s">
-        <v>171</v>
-      </c>
-      <c r="N5" t="s">
-        <v>172</v>
-      </c>
-      <c r="O5" t="s">
-        <v>404</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="W10" t="s">
+        <v>582</v>
+      </c>
+      <c r="X10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>517</v>
+      </c>
+      <c r="K11" t="s">
+        <v>549</v>
+      </c>
+      <c r="L11" t="s">
+        <v>550</v>
+      </c>
+      <c r="M11" t="s">
+        <v>551</v>
+      </c>
+      <c r="N11" t="s">
+        <v>552</v>
+      </c>
+      <c r="O11" t="s">
+        <v>553</v>
+      </c>
+      <c r="P11" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>540</v>
+      </c>
+      <c r="R11" t="s">
+        <v>541</v>
+      </c>
+      <c r="S11" t="s">
+        <v>542</v>
+      </c>
+      <c r="T11" t="s">
+        <v>543</v>
+      </c>
+      <c r="U11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" t="s">
+        <v>584</v>
+      </c>
+      <c r="X11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>305</v>
+      </c>
+      <c r="J12" t="s">
+        <v>524</v>
+      </c>
+      <c r="K12" t="s">
+        <v>458</v>
+      </c>
+      <c r="L12" t="s">
+        <v>459</v>
+      </c>
+      <c r="M12" t="s">
+        <v>460</v>
+      </c>
+      <c r="N12" t="s">
+        <v>461</v>
+      </c>
+      <c r="O12" t="s">
+        <v>462</v>
+      </c>
+      <c r="P12" t="s">
         <v>88</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q12" t="s">
         <v>88</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R12" t="s">
         <v>89</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S12" t="s">
         <v>90</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T12" t="s">
         <v>406</v>
+      </c>
+      <c r="U12" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" t="s">
+        <v>63</v>
+      </c>
+      <c r="W12" t="s">
+        <v>586</v>
+      </c>
+      <c r="X12" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>305</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s">
+        <v>528</v>
+      </c>
+      <c r="K13" t="s">
+        <v>529</v>
+      </c>
+      <c r="L13" t="s">
+        <v>530</v>
+      </c>
+      <c r="M13" t="s">
+        <v>531</v>
+      </c>
+      <c r="N13" t="s">
+        <v>532</v>
+      </c>
+      <c r="O13" t="s">
+        <v>533</v>
+      </c>
+      <c r="P13" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>555</v>
+      </c>
+      <c r="R13" t="s">
+        <v>556</v>
+      </c>
+      <c r="S13" t="s">
+        <v>557</v>
+      </c>
+      <c r="T13" t="s">
+        <v>558</v>
+      </c>
+      <c r="U13" t="s">
+        <v>61</v>
+      </c>
+      <c r="V13" t="s">
+        <v>63</v>
+      </c>
+      <c r="W13" t="s">
+        <v>588</v>
+      </c>
+      <c r="X13" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -2375,7 +7693,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="8" min="8" style="0" width="16.875" customWidth="true"/>
+    <col max="13" min="13" style="0" width="16.875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -2507,7 +7825,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="8" min="8" style="0" width="25.125" customWidth="true"/>
+    <col max="13" min="13" style="0" width="25.125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -2975,9 +8293,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="4" min="4" style="0" width="22.875" customWidth="true"/>
-    <col max="5" min="5" style="0" width="19" customWidth="true"/>
-    <col max="7" min="7" style="0" width="24.5" customWidth="true"/>
+    <col max="9" min="9" style="0" width="22.875" customWidth="true"/>
+    <col max="10" min="10" style="0" width="19" customWidth="true"/>
+    <col max="12" min="12" style="0" width="24.5" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -3221,7 +8539,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="4" min="4" style="0" width="23.25" customWidth="true"/>
+    <col max="9" min="9" style="0" width="23.25" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -4585,10 +9903,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="4" min="4" style="0" width="26.625" customWidth="true"/>
-    <col max="5" min="5" style="0" width="29.375" customWidth="true"/>
-    <col max="6" min="6" style="0" width="16.75" customWidth="true"/>
-    <col max="7" min="7" style="0" width="18.375" customWidth="true"/>
+    <col max="9" min="9" style="0" width="26.625" customWidth="true"/>
+    <col max="10" min="10" style="0" width="29.375" customWidth="true"/>
+    <col max="11" min="11" style="0" width="16.75" customWidth="true"/>
+    <col max="12" min="12" style="0" width="18.375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -6400,7 +11718,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="4" min="4" style="0" width="29.5" customWidth="true"/>
+    <col max="9" min="9" style="0" width="29.5" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -8212,7 +13530,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="2" min="2" style="0" width="31.75" customWidth="true"/>
+    <col max="7" min="7" style="0" width="31.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -10278,48 +15596,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="2" min="2" style="0" width="27.875" customWidth="true"/>
-    <col max="12" min="12" style="6" width="9"/>
-    <col max="13" min="13" style="7" width="9"/>
-    <col max="14" min="14" style="6" width="9"/>
-    <col max="15" min="15" style="7" width="9"/>
-    <col max="16" min="16" style="6" width="9"/>
-    <col max="17" min="17" style="7" width="9"/>
-    <col max="18" min="18" style="6" width="9"/>
-    <col max="19" min="19" style="7" width="9"/>
-    <col max="20" min="20" style="6" width="9"/>
-    <col max="21" min="21" style="7" width="9"/>
+    <col max="7" min="7" style="0" width="27.875" customWidth="true"/>
+    <col max="17" min="17" style="6" width="9"/>
+    <col max="18" min="18" style="7" width="9"/>
+    <col max="19" min="19" style="6" width="9"/>
+    <col max="20" min="20" style="7" width="9"/>
+    <col max="21" min="21" style="6" width="9"/>
+    <col max="22" min="22" style="7" width="9"/>
+    <col max="23" min="23" style="6" width="9"/>
+    <col max="24" min="24" style="7" width="9"/>
+    <col max="25" min="25" style="6" width="9"/>
+    <col max="26" min="26" style="7" width="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -10352,42 +15670,51 @@
       <c r="T1" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2">
         <v/>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2">
         <v/>
       </c>
+      <c r="W1" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X1" s="7">
+        <v/>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="2" ht="28.35" customHeight="true">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="3" t="s">
         <v>337</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -10420,42 +15747,51 @@
       <c r="T2" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="3">
         <v>1</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>417</v>
       </c>
+      <c r="W2" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X2" s="7">
+        <v/>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="3" ht="28.35" customHeight="true">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="3" t="s">
         <v>338</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -10488,42 +15824,51 @@
       <c r="T3" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="3">
         <v>0</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="3" t="s">
         <v>418</v>
       </c>
+      <c r="W3" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="7">
+        <v/>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="4" ht="28.35" customHeight="true">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="3" t="s">
         <v>270</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -10556,42 +15901,51 @@
       <c r="T4" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="3">
         <v>1</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="2">
         <v/>
       </c>
+      <c r="W4" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X4" s="7">
+        <v/>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="5" ht="28.35" customHeight="true">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="3" t="s">
         <v>419</v>
       </c>
       <c r="K5" s="6" t="s">
@@ -10624,42 +15978,51 @@
       <c r="T5" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="3">
         <v>1</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="2">
         <v/>
       </c>
+      <c r="W5" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="7">
+        <v/>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="6" ht="28.5" customHeight="true">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="3" t="s">
         <v>346</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -10692,42 +16055,51 @@
       <c r="T6" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="3">
         <v>3</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="2">
         <v/>
       </c>
+      <c r="W6" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="7">
+        <v/>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="7" ht="28.35" customHeight="true">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="3" t="s">
         <v>420</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -10760,42 +16132,51 @@
       <c r="T7" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="2">
         <v/>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="2">
         <v/>
       </c>
+      <c r="W7" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X7" s="7">
+        <v/>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="8" ht="28.35" customHeight="true">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="3" t="s">
         <v>423</v>
       </c>
       <c r="K8" s="6" t="s">
@@ -10828,42 +16209,51 @@
       <c r="T8" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="2">
         <v/>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="2">
         <v/>
       </c>
+      <c r="W8" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X8" s="7">
+        <v/>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="9" ht="28.35" customHeight="true">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="3" t="s">
         <v>361</v>
       </c>
       <c r="K9" s="6" t="s">
@@ -10896,42 +16286,51 @@
       <c r="T9" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="2">
         <v/>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="2">
         <v/>
       </c>
+      <c r="W9" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X9" s="7">
+        <v/>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="10" ht="28.35" customHeight="true">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="3" t="s">
         <v>365</v>
       </c>
       <c r="K10" s="6" t="s">
@@ -10964,42 +16363,51 @@
       <c r="T10" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="2">
         <v/>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="2">
         <v/>
       </c>
+      <c r="W10" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X10" s="7">
+        <v/>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="11" ht="28.35" customHeight="true">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="3" t="s">
         <v>424</v>
       </c>
       <c r="K11" s="6" t="s">
@@ -11032,42 +16440,51 @@
       <c r="T11" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="2">
         <v/>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="2">
         <v/>
       </c>
+      <c r="W11" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X11" s="7">
+        <v/>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="12" ht="28.35" customHeight="true">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="3" t="s">
         <v>426</v>
       </c>
       <c r="K12" s="6" t="s">
@@ -11100,42 +16517,51 @@
       <c r="T12" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="2">
         <v/>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="2">
         <v/>
       </c>
+      <c r="W12" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X12" s="7">
+        <v/>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="13" ht="28.35" customHeight="true">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="3" t="s">
         <v>427</v>
       </c>
       <c r="K13" s="6" t="s">
@@ -11168,42 +16594,51 @@
       <c r="T13" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="2">
         <v/>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="2">
         <v/>
       </c>
+      <c r="W13" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X13" s="7">
+        <v/>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="14" ht="28.35" customHeight="true">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="3" t="s">
         <v>375</v>
       </c>
       <c r="K14" s="6" t="s">
@@ -11236,42 +16671,51 @@
       <c r="T14" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="2">
         <v/>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="2">
         <v/>
       </c>
+      <c r="W14" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X14" s="7">
+        <v/>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="15" ht="28.35" customHeight="true">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="3" t="s">
         <v>428</v>
       </c>
       <c r="K15" s="6" t="s">
@@ -11304,42 +16748,51 @@
       <c r="T15" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="2">
         <v/>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="2">
         <v/>
       </c>
+      <c r="W15" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X15" s="7">
+        <v/>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="16" ht="28.35" customHeight="true">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="3" t="s">
         <v>429</v>
       </c>
       <c r="K16" s="6" t="s">
@@ -11372,42 +16825,51 @@
       <c r="T16" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="2">
         <v/>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" s="2">
         <v/>
       </c>
+      <c r="W16" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X16" s="7">
+        <v/>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="17" ht="28.35" customHeight="true">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="3" t="s">
         <v>434</v>
       </c>
       <c r="K17" s="6" t="s">
@@ -11440,42 +16902,51 @@
       <c r="T17" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="2">
         <v/>
       </c>
-      <c r="V17" t="s">
+      <c r="V17" s="2">
         <v/>
       </c>
+      <c r="W17" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X17" s="7">
+        <v/>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="18" ht="28.35" customHeight="true">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="3" t="s">
         <v>383</v>
       </c>
       <c r="K18" s="6" t="s">
@@ -11508,42 +16979,51 @@
       <c r="T18" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="2">
         <v/>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" s="2">
         <v/>
       </c>
+      <c r="W18" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X18" s="7">
+        <v/>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="19" ht="28.35" customHeight="true">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="3" t="s">
         <v>387</v>
       </c>
       <c r="K19" s="6" t="s">
@@ -11576,42 +17056,51 @@
       <c r="T19" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="2">
         <v/>
       </c>
-      <c r="V19" t="s">
+      <c r="V19" s="2">
         <v/>
       </c>
+      <c r="W19" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X19" s="7">
+        <v/>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="20" ht="28.35" customHeight="true">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="3" t="s">
         <v>439</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -11644,10 +17133,19 @@
       <c r="T20" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" s="2">
         <v/>
       </c>
-      <c r="V20" t="s">
+      <c r="V20" s="2">
+        <v/>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X20" s="7">
+        <v/>
+      </c>
+      <c r="Y20" s="7" t="s">
         <v/>
       </c>
     </row>

--- a/file.xlsx
+++ b/file.xlsx
@@ -23,6 +23,7 @@
     <sheet name="2020-07-073" sheetId="13" r:id="rId13" state="visible"/>
     <sheet name="2020-07-075" sheetId="14" r:id="rId14" state="visible"/>
     <sheet name="2020-07-07" sheetId="15" r:id="rId15" state="visible"/>
+    <sheet name="2020-07-08" sheetId="16" r:id="rId16" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="615">
   <si>
     <t>比赛编号</t>
   </si>
@@ -1839,6 +1840,60 @@
   </si>
   <si>
     <t>负场占比</t>
+  </si>
+  <si>
+    <t>1.088832</t>
+  </si>
+  <si>
+    <t>14.286%</t>
+  </si>
+  <si>
+    <t>57.143%</t>
+  </si>
+  <si>
+    <t>2020-07-09 21:40周四005</t>
+  </si>
+  <si>
+    <t>费拉拉</t>
+  </si>
+  <si>
+    <t>乌迪内斯</t>
+  </si>
+  <si>
+    <t>1.334025</t>
+  </si>
+  <si>
+    <t>2020-07-09 21:40周四007</t>
+  </si>
+  <si>
+    <t>埃瓦尔</t>
+  </si>
+  <si>
+    <t>1.048275</t>
+  </si>
+  <si>
+    <t>0.606560</t>
+  </si>
+  <si>
+    <t>0.303280</t>
+  </si>
+  <si>
+    <t>0.075820</t>
+  </si>
+  <si>
+    <t>0.012630</t>
+  </si>
+  <si>
+    <t>0.001570</t>
+  </si>
+  <si>
+    <t>2020-07-09 21:40周四012</t>
+  </si>
+  <si>
+    <t>塞维利亚</t>
+  </si>
+  <si>
+    <t>1.185800</t>
   </si>
 </sst>
 </file>
@@ -1930,7 +1985,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1956,6 +2011,9 @@
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -3575,7 +3633,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="4" min="4" style="0" width="24.5" customWidth="true"/>
+    <col max="5" min="5" style="0" width="24.5" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -4548,22 +4606,22 @@
       <c r="U2" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="9" t="s">
         <v/>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="9" t="s">
         <v/>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="9" t="s">
         <v/>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="9" t="s">
         <v/>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="9" t="s">
         <v/>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="9" t="s">
         <v/>
       </c>
     </row>
@@ -4631,22 +4689,22 @@
       <c r="U3" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="9" t="s">
         <v/>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="9" t="s">
         <v/>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="9" t="s">
         <v/>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="9" t="s">
         <v/>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="9" t="s">
         <v/>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="9" t="s">
         <v/>
       </c>
     </row>
@@ -4714,22 +4772,22 @@
       <c r="U4" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="9" t="s">
         <v/>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="9" t="s">
         <v/>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="9" t="s">
         <v/>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="9" t="s">
         <v/>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="9" t="s">
         <v/>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="9" t="s">
         <v/>
       </c>
     </row>
@@ -4797,22 +4855,22 @@
       <c r="U5" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="9" t="s">
         <v/>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="9" t="s">
         <v/>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="9" t="s">
         <v/>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="9" t="s">
         <v/>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="9" t="s">
         <v/>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="9" t="s">
         <v/>
       </c>
     </row>
@@ -4880,22 +4938,22 @@
       <c r="U6" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="9" t="s">
         <v/>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="9" t="s">
         <v/>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="9" t="s">
         <v/>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="9" t="s">
         <v/>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="9" t="s">
         <v/>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="9" t="s">
         <v/>
       </c>
     </row>
@@ -4963,22 +5021,22 @@
       <c r="U7" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="9" t="s">
         <v/>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="9" t="s">
         <v/>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" s="9" t="s">
         <v/>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="9" t="s">
         <v/>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="9" t="s">
         <v/>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" s="9" t="s">
         <v/>
       </c>
     </row>
@@ -5046,22 +5104,22 @@
       <c r="U8" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="9" t="s">
         <v/>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="9" t="s">
         <v/>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="9" t="s">
         <v/>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="9" t="s">
         <v/>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="9" t="s">
         <v/>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" s="9" t="s">
         <v/>
       </c>
     </row>
@@ -5129,22 +5187,22 @@
       <c r="U9" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="9" t="s">
         <v/>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="9" t="s">
         <v/>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="9" t="s">
         <v/>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="9" t="s">
         <v/>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="9" t="s">
         <v/>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="9" t="s">
         <v/>
       </c>
     </row>
@@ -5212,22 +5270,22 @@
       <c r="U10" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="9" t="s">
         <v/>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="9" t="s">
         <v/>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="9" t="s">
         <v/>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="9" t="s">
         <v/>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="9" t="s">
         <v/>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="9" t="s">
         <v/>
       </c>
     </row>
@@ -5295,22 +5353,22 @@
       <c r="U11" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="9" t="s">
         <v/>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="9" t="s">
         <v/>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="9" t="s">
         <v/>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="9" t="s">
         <v/>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z11" s="9" t="s">
         <v/>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA11" s="9" t="s">
         <v/>
       </c>
     </row>
@@ -5378,22 +5436,22 @@
       <c r="U12" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="9" t="s">
         <v/>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="9" t="s">
         <v/>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="9" t="s">
         <v/>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="9" t="s">
         <v/>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="9" t="s">
         <v/>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="9" t="s">
         <v/>
       </c>
     </row>
@@ -5461,22 +5519,22 @@
       <c r="U13" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="9" t="s">
         <v/>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" s="9" t="s">
         <v/>
       </c>
-      <c r="X13" t="s">
+      <c r="X13" s="9" t="s">
         <v/>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="9" t="s">
         <v/>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="9" t="s">
         <v/>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="9" t="s">
         <v/>
       </c>
     </row>
@@ -5497,1086 +5555,1086 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="23" min="23" style="0" width="11.75" customWidth="true"/>
-    <col max="25" min="25" style="0" width="10.625" customWidth="true"/>
+    <col max="24" min="24" style="0" width="11.75" customWidth="true"/>
+    <col max="26" min="26" style="0" width="10.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="10" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="2" ht="28.35" customHeight="true">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="10" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="3" ht="28.35" customHeight="true">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="10" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="4" ht="28.35" customHeight="true">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="P4" s="9" t="s">
+      <c r="L4" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="U4" s="9" t="s">
+      <c r="Q4" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="10" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="5" ht="28.35" customHeight="true">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="P5" s="9" t="s">
+      <c r="L5" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P5" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="U5" s="9" t="s">
+      <c r="Q5" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="Z5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AA5" s="10" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="6" ht="28.35" customHeight="true">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="Z6" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="10" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="7" ht="28.35" customHeight="true">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="Z7" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="10" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="8" ht="28.35" customHeight="true">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T8" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="V8" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="W8" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="X8" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="Y8" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="Z8" s="9" t="s">
+      <c r="Z8" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="AA8" s="9" t="s">
+      <c r="AA8" s="10" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="9" ht="28.35" customHeight="true">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="U9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="W9" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="X9" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="Y9" s="9" t="s">
+      <c r="Y9" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="Z9" s="9" t="s">
+      <c r="Z9" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AA9" s="9" t="s">
+      <c r="AA9" s="10" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="10" ht="28.35" customHeight="true">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="T10" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="X10" s="9" t="s">
+      <c r="X10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y10" s="9" t="s">
+      <c r="Y10" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="Z10" s="9" t="s">
+      <c r="Z10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AA10" s="9" t="s">
+      <c r="AA10" s="10" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="11" ht="28.35" customHeight="true">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="S11" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="T11" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="U11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="V11" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="W11" s="9" t="s">
+      <c r="W11" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="X11" s="9" t="s">
+      <c r="X11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y11" s="9" t="s">
+      <c r="Y11" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="Z11" s="9" t="s">
+      <c r="Z11" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AA11" s="9" t="s">
+      <c r="AA11" s="10" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="12" ht="28.35" customHeight="true">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="T12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="U12" s="9" t="s">
+      <c r="U12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="9" t="s">
+      <c r="V12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="W12" s="9" t="s">
+      <c r="W12" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="X12" s="9" t="s">
+      <c r="X12" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="Y12" s="9" t="s">
+      <c r="Y12" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="Z12" s="9" t="s">
+      <c r="Z12" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="AA12" s="9" t="s">
+      <c r="AA12" s="10" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="13" ht="28.35" customHeight="true">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="T13" s="9" t="s">
+      <c r="T13" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="U13" s="9" t="s">
+      <c r="U13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="V13" s="9" t="s">
+      <c r="V13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="W13" s="9" t="s">
+      <c r="W13" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="X13" s="9" t="s">
+      <c r="X13" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="Y13" s="9" t="s">
+      <c r="Y13" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z13" s="9" t="s">
+      <c r="Z13" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AA13" s="9" t="s">
+      <c r="AA13" s="10" t="s">
         <v>583</v>
       </c>
     </row>
@@ -6598,6 +6656,1102 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6682,73 +7836,73 @@
     </row>
     <row r="2" ht="28.3464567" customHeight="true">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>536</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>537</v>
+        <v>478</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>538</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>566</v>
+        <v>479</v>
       </c>
       <c r="K2" t="s">
-        <v>518</v>
+        <v>458</v>
       </c>
       <c r="L2" t="s">
-        <v>519</v>
+        <v>459</v>
       </c>
       <c r="M2" t="s">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="N2" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="O2" t="s">
-        <v>522</v>
+        <v>462</v>
       </c>
       <c r="P2" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
       <c r="Q2" t="s">
-        <v>540</v>
+        <v>503</v>
       </c>
       <c r="R2" t="s">
-        <v>541</v>
+        <v>504</v>
       </c>
       <c r="S2" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="T2" t="s">
-        <v>543</v>
+        <v>506</v>
       </c>
       <c r="U2" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="V2" t="s">
         <v>197</v>
       </c>
       <c r="W2" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="X2" t="s">
         <v>567</v>
@@ -6757,291 +7911,291 @@
         <v>570</v>
       </c>
       <c r="Z2" t="s">
-        <v>567</v>
+        <v>144</v>
       </c>
       <c r="AA2" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>454</v>
+        <v>492</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>568</v>
+        <v>493</v>
       </c>
       <c r="K3" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="L3" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="M3" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="N3" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="O3" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="P3" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="Q3" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="R3" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="S3" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="T3" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="U3" t="s">
         <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="X3" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="Z3" t="s">
-        <v>144</v>
+        <v>567</v>
       </c>
       <c r="AA3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" ht="28.3464567" customHeight="true">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>469</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>500</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>166</v>
+        <v>334</v>
       </c>
       <c r="J4" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="K4" t="s">
-        <v>256</v>
+        <v>463</v>
       </c>
       <c r="L4" t="s">
-        <v>257</v>
+        <v>464</v>
       </c>
       <c r="M4" t="s">
-        <v>257</v>
+        <v>465</v>
       </c>
       <c r="N4" t="s">
-        <v>257</v>
+        <v>466</v>
       </c>
       <c r="O4" t="s">
-        <v>257</v>
+        <v>467</v>
       </c>
       <c r="P4" t="s">
-        <v>256</v>
+        <v>458</v>
       </c>
       <c r="Q4" t="s">
-        <v>257</v>
+        <v>459</v>
       </c>
       <c r="R4" t="s">
-        <v>257</v>
+        <v>460</v>
       </c>
       <c r="S4" t="s">
-        <v>257</v>
+        <v>461</v>
       </c>
       <c r="T4" t="s">
-        <v>257</v>
+        <v>462</v>
       </c>
       <c r="U4" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="V4" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="W4" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>567</v>
       </c>
       <c r="Y4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="Z4" t="s">
-        <v>63</v>
+        <v>567</v>
       </c>
       <c r="AA4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" ht="28.3464567" customHeight="true">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>473</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>474</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>475</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="J5" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="K5" t="s">
-        <v>256</v>
+        <v>485</v>
       </c>
       <c r="L5" t="s">
-        <v>257</v>
+        <v>486</v>
       </c>
       <c r="M5" t="s">
-        <v>257</v>
+        <v>487</v>
       </c>
       <c r="N5" t="s">
-        <v>257</v>
+        <v>488</v>
       </c>
       <c r="O5" t="s">
-        <v>257</v>
+        <v>489</v>
       </c>
       <c r="P5" t="s">
-        <v>256</v>
+        <v>458</v>
       </c>
       <c r="Q5" t="s">
-        <v>257</v>
+        <v>459</v>
       </c>
       <c r="R5" t="s">
-        <v>257</v>
+        <v>460</v>
       </c>
       <c r="S5" t="s">
-        <v>257</v>
+        <v>461</v>
       </c>
       <c r="T5" t="s">
-        <v>257</v>
+        <v>462</v>
       </c>
       <c r="U5" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="V5" t="s">
         <v>197</v>
       </c>
       <c r="W5" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="X5" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="Y5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="Z5" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="AA5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" ht="28.3464567" customHeight="true">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>478</v>
+        <v>348</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>479</v>
+        <v>597</v>
       </c>
       <c r="K6" t="s">
         <v>458</v>
@@ -7059,621 +8213,538 @@
         <v>462</v>
       </c>
       <c r="P6" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="Q6" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="R6" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="S6" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="T6" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="U6" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="V6" t="s">
         <v>197</v>
       </c>
       <c r="W6" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="X6" t="s">
-        <v>567</v>
+        <v>63</v>
       </c>
       <c r="Y6" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="Z6" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="AA6" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" ht="28.3464567" customHeight="true">
       <c r="A7" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>491</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>386</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="K7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="L7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="M7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="N7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="O7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="P7" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="Q7" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="R7" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="S7" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="T7" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="W7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="X7" t="s">
         <v>63</v>
       </c>
       <c r="Y7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="Z7" t="s">
-        <v>567</v>
+        <v>197</v>
       </c>
       <c r="AA7" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" ht="28.3464567" customHeight="true">
       <c r="A8" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>500</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>305</v>
+      </c>
+      <c r="J8" t="s">
+        <v>524</v>
+      </c>
+      <c r="K8" t="s">
+        <v>458</v>
+      </c>
+      <c r="L8" t="s">
+        <v>459</v>
+      </c>
+      <c r="M8" t="s">
+        <v>460</v>
+      </c>
+      <c r="N8" t="s">
+        <v>461</v>
+      </c>
+      <c r="O8" t="s">
+        <v>462</v>
+      </c>
+      <c r="P8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S8" t="s">
+        <v>90</v>
+      </c>
+      <c r="T8" t="s">
+        <v>406</v>
+      </c>
+      <c r="U8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" t="s">
-        <v>334</v>
-      </c>
-      <c r="J8" t="s">
-        <v>501</v>
-      </c>
-      <c r="K8" t="s">
-        <v>463</v>
-      </c>
-      <c r="L8" t="s">
-        <v>464</v>
-      </c>
-      <c r="M8" t="s">
-        <v>465</v>
-      </c>
-      <c r="N8" t="s">
-        <v>466</v>
-      </c>
-      <c r="O8" t="s">
-        <v>467</v>
-      </c>
-      <c r="P8" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>459</v>
-      </c>
-      <c r="R8" t="s">
-        <v>460</v>
-      </c>
-      <c r="S8" t="s">
-        <v>461</v>
-      </c>
-      <c r="T8" t="s">
-        <v>462</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W8" t="s">
+        <v>586</v>
+      </c>
+      <c r="X8" t="s">
         <v>224</v>
       </c>
-      <c r="V8" t="s">
+      <c r="Y8" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z8" t="s">
         <v>224</v>
       </c>
-      <c r="W8" t="s">
-        <v>569</v>
-      </c>
-      <c r="X8" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>570</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>567</v>
-      </c>
       <c r="AA8" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" ht="28.3464567" customHeight="true">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>526</v>
       </c>
       <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>528</v>
+      </c>
+      <c r="K9" t="s">
+        <v>529</v>
+      </c>
+      <c r="L9" t="s">
+        <v>530</v>
+      </c>
+      <c r="M9" t="s">
+        <v>531</v>
+      </c>
+      <c r="N9" t="s">
+        <v>532</v>
+      </c>
+      <c r="O9" t="s">
+        <v>533</v>
+      </c>
+      <c r="P9" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>555</v>
+      </c>
+      <c r="R9" t="s">
+        <v>556</v>
+      </c>
+      <c r="S9" t="s">
+        <v>557</v>
+      </c>
+      <c r="T9" t="s">
+        <v>558</v>
+      </c>
+      <c r="U9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" t="s">
-        <v>508</v>
-      </c>
-      <c r="K9" t="s">
-        <v>485</v>
-      </c>
-      <c r="L9" t="s">
-        <v>486</v>
-      </c>
-      <c r="M9" t="s">
-        <v>487</v>
-      </c>
-      <c r="N9" t="s">
-        <v>488</v>
-      </c>
-      <c r="O9" t="s">
-        <v>489</v>
-      </c>
-      <c r="P9" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>459</v>
-      </c>
-      <c r="R9" t="s">
-        <v>460</v>
-      </c>
-      <c r="S9" t="s">
-        <v>461</v>
-      </c>
-      <c r="T9" t="s">
-        <v>462</v>
-      </c>
-      <c r="U9" t="s">
-        <v>23</v>
-      </c>
-      <c r="V9" t="s">
-        <v>197</v>
-      </c>
       <c r="W9" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="X9" t="s">
         <v>197</v>
       </c>
       <c r="Y9" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="Z9" t="s">
         <v>144</v>
       </c>
       <c r="AA9" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" ht="28.3464567" customHeight="true">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>600</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>601</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="E10" t="s">
-        <v>348</v>
+        <v>602</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>510</v>
+        <v>603</v>
       </c>
       <c r="K10" t="s">
-        <v>458</v>
+        <v>554</v>
       </c>
       <c r="L10" t="s">
-        <v>459</v>
+        <v>555</v>
       </c>
       <c r="M10" t="s">
-        <v>460</v>
+        <v>556</v>
       </c>
       <c r="N10" t="s">
-        <v>461</v>
+        <v>557</v>
       </c>
       <c r="O10" t="s">
-        <v>462</v>
+        <v>558</v>
       </c>
       <c r="P10" t="s">
-        <v>529</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>530</v>
+        <v>88</v>
       </c>
       <c r="R10" t="s">
-        <v>531</v>
+        <v>89</v>
       </c>
       <c r="S10" t="s">
-        <v>532</v>
+        <v>90</v>
       </c>
       <c r="T10" t="s">
-        <v>533</v>
+        <v>406</v>
       </c>
       <c r="U10" t="s">
-        <v>252</v>
+        <v>63</v>
       </c>
       <c r="V10" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="W10" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="X10" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="Y10" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="Z10" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="AA10" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" ht="28.3464567" customHeight="true">
       <c r="A11" t="s">
-        <v>516</v>
+        <v>604</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>605</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>268</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>517</v>
+        <v>606</v>
       </c>
       <c r="K11" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="L11" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="M11" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="N11" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="O11" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="P11" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="Q11" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="R11" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="S11" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="T11" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="U11" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V11" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="X11" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="Y11" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="Z11" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="AA11" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" ht="28.3464567" customHeight="true">
       <c r="A12" t="s">
-        <v>523</v>
+        <v>612</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>613</v>
       </c>
       <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" t="s">
+        <v>614</v>
+      </c>
+      <c r="K12" t="s">
+        <v>529</v>
+      </c>
+      <c r="L12" t="s">
+        <v>530</v>
+      </c>
+      <c r="M12" t="s">
+        <v>531</v>
+      </c>
+      <c r="N12" t="s">
+        <v>532</v>
+      </c>
+      <c r="O12" t="s">
+        <v>533</v>
+      </c>
+      <c r="P12" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>519</v>
+      </c>
+      <c r="R12" t="s">
+        <v>520</v>
+      </c>
+      <c r="S12" t="s">
+        <v>521</v>
+      </c>
+      <c r="T12" t="s">
+        <v>522</v>
+      </c>
+      <c r="U12" t="s">
         <v>164</v>
       </c>
-      <c r="G12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s">
-        <v>305</v>
-      </c>
-      <c r="J12" t="s">
-        <v>524</v>
-      </c>
-      <c r="K12" t="s">
-        <v>458</v>
-      </c>
-      <c r="L12" t="s">
-        <v>459</v>
-      </c>
-      <c r="M12" t="s">
-        <v>460</v>
-      </c>
-      <c r="N12" t="s">
-        <v>461</v>
-      </c>
-      <c r="O12" t="s">
-        <v>462</v>
-      </c>
-      <c r="P12" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>88</v>
-      </c>
-      <c r="R12" t="s">
-        <v>89</v>
-      </c>
-      <c r="S12" t="s">
-        <v>90</v>
-      </c>
-      <c r="T12" t="s">
-        <v>406</v>
-      </c>
-      <c r="U12" t="s">
-        <v>21</v>
-      </c>
       <c r="V12" t="s">
-        <v>63</v>
+        <v>567</v>
       </c>
       <c r="W12" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="X12" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="Z12" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="AA12" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="13" ht="28.3464567" customHeight="true">
-      <c r="A13" t="s">
-        <v>525</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>526</v>
-      </c>
-      <c r="D13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" t="s">
-        <v>527</v>
-      </c>
-      <c r="F13" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" t="s">
-        <v>305</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" t="s">
-        <v>528</v>
-      </c>
-      <c r="K13" t="s">
-        <v>529</v>
-      </c>
-      <c r="L13" t="s">
-        <v>530</v>
-      </c>
-      <c r="M13" t="s">
-        <v>531</v>
-      </c>
-      <c r="N13" t="s">
-        <v>532</v>
-      </c>
-      <c r="O13" t="s">
-        <v>533</v>
-      </c>
-      <c r="P13" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>555</v>
-      </c>
-      <c r="R13" t="s">
-        <v>556</v>
-      </c>
-      <c r="S13" t="s">
-        <v>557</v>
-      </c>
-      <c r="T13" t="s">
-        <v>558</v>
-      </c>
-      <c r="U13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V13" t="s">
-        <v>63</v>
-      </c>
-      <c r="W13" t="s">
-        <v>588</v>
-      </c>
-      <c r="X13" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>589</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -7693,7 +8764,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="13" min="13" style="0" width="16.875" customWidth="true"/>
+    <col max="14" min="14" style="0" width="16.875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -7825,7 +8896,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="13" min="13" style="0" width="25.125" customWidth="true"/>
+    <col max="14" min="14" style="0" width="25.125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -8293,9 +9364,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="9" min="9" style="0" width="22.875" customWidth="true"/>
-    <col max="10" min="10" style="0" width="19" customWidth="true"/>
-    <col max="12" min="12" style="0" width="24.5" customWidth="true"/>
+    <col max="10" min="10" style="0" width="22.875" customWidth="true"/>
+    <col max="11" min="11" style="0" width="19" customWidth="true"/>
+    <col max="13" min="13" style="0" width="24.5" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -8539,7 +9610,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="9" min="9" style="0" width="23.25" customWidth="true"/>
+    <col max="10" min="10" style="0" width="23.25" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -9903,10 +10974,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="9" min="9" style="0" width="26.625" customWidth="true"/>
-    <col max="10" min="10" style="0" width="29.375" customWidth="true"/>
-    <col max="11" min="11" style="0" width="16.75" customWidth="true"/>
-    <col max="12" min="12" style="0" width="18.375" customWidth="true"/>
+    <col max="10" min="10" style="0" width="26.625" customWidth="true"/>
+    <col max="11" min="11" style="0" width="29.375" customWidth="true"/>
+    <col max="12" min="12" style="0" width="16.75" customWidth="true"/>
+    <col max="13" min="13" style="0" width="18.375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -11718,7 +12789,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="9" min="9" style="0" width="29.5" customWidth="true"/>
+    <col max="10" min="10" style="0" width="29.5" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -13530,7 +14601,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="7" min="7" style="0" width="31.75" customWidth="true"/>
+    <col max="8" min="8" style="0" width="31.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -15596,17 +16667,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="7" min="7" style="0" width="27.875" customWidth="true"/>
-    <col max="17" min="17" style="6" width="9"/>
-    <col max="18" min="18" style="7" width="9"/>
-    <col max="19" min="19" style="6" width="9"/>
-    <col max="20" min="20" style="7" width="9"/>
-    <col max="21" min="21" style="6" width="9"/>
-    <col max="22" min="22" style="7" width="9"/>
-    <col max="23" min="23" style="6" width="9"/>
-    <col max="24" min="24" style="7" width="9"/>
-    <col max="25" min="25" style="6" width="9"/>
-    <col max="26" min="26" style="7" width="9"/>
+    <col max="8" min="8" style="0" width="27.875" customWidth="true"/>
+    <col max="18" min="18" style="6" width="9"/>
+    <col max="19" min="19" style="7" width="9"/>
+    <col max="20" min="20" style="6" width="9"/>
+    <col max="21" min="21" style="7" width="9"/>
+    <col max="22" min="22" style="6" width="9"/>
+    <col max="23" min="23" style="7" width="9"/>
+    <col max="24" min="24" style="6" width="9"/>
+    <col max="25" min="25" style="7" width="9"/>
+    <col max="26" min="26" style="6" width="9"/>
+    <col max="27" min="27" style="7" width="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">

--- a/file.xlsx
+++ b/file.xlsx
@@ -21,6 +21,7 @@
     <sheet name="2020-07-29" sheetId="11" r:id="rId11" state="visible"/>
     <sheet name="2020-08-03" sheetId="12" r:id="rId12" state="visible"/>
     <sheet name="2020-08-06" sheetId="13" r:id="rId13" state="visible"/>
+    <sheet name="2020-08-10" sheetId="14" r:id="rId14" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="1145">
   <si>
     <t>比赛编号</t>
   </si>
@@ -3268,6 +3269,201 @@
   </si>
   <si>
     <t>1西甲</t>
+  </si>
+  <si>
+    <t>2020-08-10 17:10周一001</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>1.098273</t>
+  </si>
+  <si>
+    <t>2020-08-10 21:40周一002</t>
+  </si>
+  <si>
+    <t>1.791170</t>
+  </si>
+  <si>
+    <t>2020-08-10 21:40周一003</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>0.847504</t>
+  </si>
+  <si>
+    <t>2020-08-10 21:40周一004</t>
+  </si>
+  <si>
+    <t>0.642972</t>
+  </si>
+  <si>
+    <t>0.036890</t>
+  </si>
+  <si>
+    <t>0.121750</t>
+  </si>
+  <si>
+    <t>0.200890</t>
+  </si>
+  <si>
+    <t>0.220980</t>
+  </si>
+  <si>
+    <t>0.182310</t>
+  </si>
+  <si>
+    <t>2020-08-10 21:40周一005</t>
+  </si>
+  <si>
+    <t>3英超</t>
+  </si>
+  <si>
+    <t>哥本哈根</t>
+  </si>
+  <si>
+    <t>2丹超</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>5.55</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>0.513000</t>
+  </si>
+  <si>
+    <t>2020-08-10 21:40周一006</t>
+  </si>
+  <si>
+    <t>2意甲</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>0.841500</t>
+  </si>
+  <si>
+    <t>2020-08-10 21:40周一007</t>
+  </si>
+  <si>
+    <t>俄超</t>
+  </si>
+  <si>
+    <t>乌拉尔</t>
+  </si>
+  <si>
+    <t>莫迪纳摩</t>
+  </si>
+  <si>
+    <t>1.389120</t>
+  </si>
+  <si>
+    <t>2020-08-10 21:40周一008</t>
+  </si>
+  <si>
+    <t>比甲</t>
+  </si>
+  <si>
+    <t>奥德赫维</t>
+  </si>
+  <si>
+    <t>欧　本</t>
+  </si>
+  <si>
+    <t>0.996128</t>
+  </si>
+  <si>
+    <t>2020-08-10 21:40周一009</t>
+  </si>
+  <si>
+    <t>奥斯坦德</t>
+  </si>
+  <si>
+    <t>维尔里吉</t>
+  </si>
+  <si>
+    <t>0.959754</t>
+  </si>
+  <si>
+    <t>2020-08-11 17:10周二001</t>
+  </si>
+  <si>
+    <t>墨尔本城</t>
+  </si>
+  <si>
+    <t>0.824600</t>
+  </si>
+  <si>
+    <t>2020-08-11 21:40周二002</t>
+  </si>
+  <si>
+    <t>顿矿工</t>
+  </si>
+  <si>
+    <t>1乌超</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>0.805500</t>
+  </si>
+  <si>
+    <t>2020-08-11 21:40周二003</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>1.485000</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>13.889%</t>
+  </si>
+  <si>
+    <t>41.667%</t>
+  </si>
+  <si>
+    <t>2020-08-11 21:40周二004</t>
+  </si>
+  <si>
+    <t>波特兰</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>1.234544</t>
+  </si>
+  <si>
+    <t>2020-08-12 21:40周三023</t>
+  </si>
+  <si>
+    <t>3意甲</t>
+  </si>
+  <si>
+    <t>巴黎圣曼</t>
+  </si>
+  <si>
+    <t>1法甲</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>1.395000</t>
   </si>
 </sst>
 </file>
@@ -3711,8 +3907,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="3" min="3" style="0" width="38.375" customWidth="true"/>
-    <col max="4" min="4" style="0" width="36.625" customWidth="true"/>
+    <col max="4" min="4" style="0" width="38.375" customWidth="true"/>
+    <col max="5" min="5" style="0" width="36.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -5587,10 +5783,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="3" min="3" style="0" width="25.5" customWidth="true"/>
-    <col hidden="true" max="22" min="8" style="0" width="0" customWidth="true"/>
-    <col max="23" min="23" style="0" width="17.25" customWidth="true"/>
-    <col max="24" min="24" style="0" width="13.375" customWidth="true"/>
+    <col max="4" min="4" style="0" width="25.5" customWidth="true"/>
+    <col hidden="true" max="23" min="9" style="0" width="0" customWidth="true"/>
+    <col max="24" min="24" style="0" width="17.25" customWidth="true"/>
+    <col max="25" min="25" style="0" width="13.375" customWidth="true"/>
   </cols>
   <autoFilter ref="A1:AA33"/>
   <sheetData>
@@ -8898,6 +9094,1351 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="15" ht="28.3464567" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="28.3464567" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA15"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8982,16 +10523,16 @@
     </row>
     <row r="2" ht="28.3464567" customHeight="true">
       <c r="A2" t="s">
-        <v>1022</v>
+        <v>1080</v>
       </c>
       <c r="B2" t="s">
         <v>617</v>
       </c>
       <c r="C2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>618</v>
@@ -9000,46 +10541,46 @@
         <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>189</v>
+        <v>1081</v>
       </c>
       <c r="H2" t="s">
-        <v>463</v>
+        <v>176</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="J2" t="s">
-        <v>1023</v>
+        <v>1082</v>
       </c>
       <c r="K2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s">
         <v>62</v>
@@ -9065,147 +10606,147 @@
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
       <c r="A3" t="s">
-        <v>1024</v>
+        <v>1083</v>
       </c>
       <c r="B3" t="s">
-        <v>1025</v>
+        <v>405</v>
       </c>
       <c r="C3" t="s">
-        <v>1026</v>
+        <v>419</v>
       </c>
       <c r="D3" t="s">
-        <v>1027</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>1028</v>
+        <v>512</v>
       </c>
       <c r="F3" t="s">
-        <v>1029</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>413</v>
+        <v>547</v>
       </c>
       <c r="H3" t="s">
-        <v>277</v>
+        <v>414</v>
       </c>
       <c r="I3" t="s">
-        <v>948</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>1030</v>
+        <v>1084</v>
       </c>
       <c r="K3" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="N3" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="O3" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="P3" t="s">
-        <v>352</v>
+        <v>124</v>
       </c>
       <c r="Q3" t="s">
-        <v>353</v>
+        <v>125</v>
       </c>
       <c r="R3" t="s">
-        <v>354</v>
+        <v>126</v>
       </c>
       <c r="S3" t="s">
-        <v>355</v>
+        <v>127</v>
       </c>
       <c r="T3" t="s">
-        <v>356</v>
+        <v>128</v>
       </c>
       <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" t="s">
         <v>62</v>
       </c>
-      <c r="V3" t="s">
-        <v/>
-      </c>
       <c r="W3" t="s">
-        <v/>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v/>
+        <v>30</v>
       </c>
       <c r="Y3" t="s">
-        <v/>
+        <v>170</v>
       </c>
       <c r="Z3" t="s">
-        <v/>
+        <v>62</v>
       </c>
       <c r="AA3" t="s">
-        <v/>
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="28.3464567" customHeight="true">
       <c r="A4" t="s">
-        <v>1031</v>
+        <v>1085</v>
       </c>
       <c r="B4" t="s">
-        <v>1025</v>
+        <v>405</v>
       </c>
       <c r="C4" t="s">
-        <v>586</v>
+        <v>407</v>
       </c>
       <c r="D4" t="s">
-        <v>1032</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>453</v>
+        <v>533</v>
       </c>
       <c r="F4" t="s">
-        <v>1033</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>852</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>1086</v>
       </c>
       <c r="J4" t="s">
-        <v>1034</v>
+        <v>1087</v>
       </c>
       <c r="K4" t="s">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="L4" t="s">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c r="M4" t="s">
-        <v>155</v>
+        <v>251</v>
       </c>
       <c r="N4" t="s">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="O4" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
       <c r="P4" t="s">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="Q4" t="s">
-        <v>251</v>
+        <v>120</v>
       </c>
       <c r="R4" t="s">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c r="S4" t="s">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="T4" t="s">
-        <v>253</v>
+        <v>123</v>
       </c>
       <c r="U4" t="s">
         <v>62</v>
@@ -9231,64 +10772,64 @@
     </row>
     <row r="5" ht="28.3464567" customHeight="true">
       <c r="A5" t="s">
-        <v>1035</v>
+        <v>1088</v>
       </c>
       <c r="B5" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
       <c r="C5" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>507</v>
+        <v>448</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>1036</v>
+        <v>936</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>652</v>
       </c>
       <c r="I5" t="s">
-        <v>325</v>
+        <v>582</v>
       </c>
       <c r="J5" t="s">
-        <v>1037</v>
+        <v>1089</v>
       </c>
       <c r="K5" t="s">
-        <v>232</v>
+        <v>1090</v>
       </c>
       <c r="L5" t="s">
-        <v>233</v>
+        <v>1091</v>
       </c>
       <c r="M5" t="s">
-        <v>234</v>
+        <v>1092</v>
       </c>
       <c r="N5" t="s">
-        <v>235</v>
+        <v>1093</v>
       </c>
       <c r="O5" t="s">
-        <v>236</v>
+        <v>1094</v>
       </c>
       <c r="P5" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="Q5" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="R5" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="S5" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="T5" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="U5" t="s">
         <v>62</v>
@@ -9314,34 +10855,34 @@
     </row>
     <row r="6" ht="28.3464567" customHeight="true">
       <c r="A6" t="s">
-        <v>1038</v>
+        <v>1095</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>1025</v>
       </c>
       <c r="C6" t="s">
-        <v>506</v>
+        <v>590</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>1096</v>
       </c>
       <c r="E6" t="s">
-        <v>512</v>
+        <v>1097</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>1098</v>
       </c>
       <c r="G6" t="s">
-        <v>1039</v>
+        <v>1099</v>
       </c>
       <c r="H6" t="s">
-        <v>378</v>
+        <v>1100</v>
       </c>
       <c r="I6" t="s">
-        <v>365</v>
+        <v>1101</v>
       </c>
       <c r="J6" t="s">
-        <v>1040</v>
+        <v>1102</v>
       </c>
       <c r="K6" t="s">
         <v>59</v>
@@ -9374,87 +10915,87 @@
         <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="V6" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="W6" t="s">
-        <v>185</v>
+        <v/>
       </c>
       <c r="X6" t="s">
-        <v>62</v>
+        <v/>
       </c>
       <c r="Y6" t="s">
-        <v>63</v>
+        <v/>
       </c>
       <c r="Z6" t="s">
-        <v>30</v>
+        <v/>
       </c>
       <c r="AA6" t="s">
-        <v>184</v>
+        <v/>
       </c>
     </row>
     <row r="7" ht="28.3464567" customHeight="true">
       <c r="A7" t="s">
-        <v>1041</v>
+        <v>1103</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>1025</v>
       </c>
       <c r="C7" t="s">
-        <v>418</v>
+        <v>601</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>1104</v>
       </c>
       <c r="E7" t="s">
-        <v>527</v>
+        <v>1026</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>1027</v>
       </c>
       <c r="G7" t="s">
-        <v>413</v>
+        <v>606</v>
       </c>
       <c r="H7" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="I7" t="s">
-        <v>415</v>
+        <v>1105</v>
       </c>
       <c r="J7" t="s">
-        <v>1042</v>
+        <v>1106</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="Q7" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="R7" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="S7" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="T7" t="s">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="U7" t="s">
         <v>62</v>
@@ -9480,117 +11021,117 @@
     </row>
     <row r="8" ht="28.3464567" customHeight="true">
       <c r="A8" t="s">
-        <v>1043</v>
+        <v>1107</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>1108</v>
       </c>
       <c r="C8" t="s">
-        <v>523</v>
+        <v>1109</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>513</v>
+        <v>1110</v>
       </c>
       <c r="F8" t="s">
         <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="H8" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="I8" t="s">
-        <v>283</v>
+        <v>542</v>
       </c>
       <c r="J8" t="s">
-        <v>1044</v>
+        <v>1111</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="Q8" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="R8" t="s">
-        <v>265</v>
+        <v>126</v>
       </c>
       <c r="S8" t="s">
-        <v>266</v>
+        <v>127</v>
       </c>
       <c r="T8" t="s">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="V8" t="s">
-        <v/>
+        <v>64</v>
       </c>
       <c r="W8" t="s">
-        <v/>
+        <v>255</v>
       </c>
       <c r="X8" t="s">
-        <v/>
+        <v>30</v>
       </c>
       <c r="Y8" t="s">
-        <v/>
+        <v>50</v>
       </c>
       <c r="Z8" t="s">
-        <v/>
+        <v>32</v>
       </c>
       <c r="AA8" t="s">
-        <v/>
+        <v>254</v>
       </c>
     </row>
     <row r="9" ht="28.3464567" customHeight="true">
       <c r="A9" t="s">
-        <v>1045</v>
+        <v>1112</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>1113</v>
       </c>
       <c r="C9" t="s">
-        <v>534</v>
+        <v>1114</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>407</v>
+        <v>1115</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>1046</v>
+        <v>718</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>378</v>
       </c>
       <c r="I9" t="s">
-        <v>449</v>
+        <v>315</v>
       </c>
       <c r="J9" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="K9" t="s">
         <v>81</v>
@@ -9608,19 +11149,19 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>268</v>
+        <v>124</v>
       </c>
       <c r="Q9" t="s">
-        <v>269</v>
+        <v>125</v>
       </c>
       <c r="R9" t="s">
-        <v>270</v>
+        <v>126</v>
       </c>
       <c r="S9" t="s">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="T9" t="s">
-        <v>272</v>
+        <v>128</v>
       </c>
       <c r="U9" t="s">
         <v>62</v>
@@ -9646,147 +11187,147 @@
     </row>
     <row r="10" ht="28.3464567" customHeight="true">
       <c r="A10" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B10" t="s">
-        <v>1025</v>
+        <v>1113</v>
       </c>
       <c r="C10" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="D10" t="s">
-        <v>1050</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>1051</v>
+        <v>1119</v>
       </c>
       <c r="F10" t="s">
-        <v>1052</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>189</v>
+        <v>377</v>
       </c>
       <c r="H10" t="s">
-        <v>1053</v>
+        <v>378</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>379</v>
       </c>
       <c r="J10" t="s">
-        <v>1054</v>
+        <v>1120</v>
       </c>
       <c r="K10" t="s">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c r="L10" t="s">
-        <v>353</v>
+        <v>233</v>
       </c>
       <c r="M10" t="s">
-        <v>354</v>
+        <v>234</v>
       </c>
       <c r="N10" t="s">
-        <v>355</v>
+        <v>235</v>
       </c>
       <c r="O10" t="s">
-        <v>356</v>
+        <v>236</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="Q10" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="R10" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="S10" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="T10" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="U10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="V10" t="s">
-        <v>97</v>
+        <v/>
       </c>
       <c r="W10" t="s">
-        <v>1055</v>
+        <v/>
       </c>
       <c r="X10" t="s">
-        <v>48</v>
+        <v/>
       </c>
       <c r="Y10" t="s">
-        <v>1056</v>
+        <v/>
       </c>
       <c r="Z10" t="s">
-        <v>86</v>
+        <v/>
       </c>
       <c r="AA10" t="s">
-        <v>999</v>
+        <v/>
       </c>
     </row>
     <row r="11" ht="28.3464567" customHeight="true">
       <c r="A11" t="s">
-        <v>1057</v>
+        <v>1121</v>
       </c>
       <c r="B11" t="s">
-        <v>1025</v>
+        <v>617</v>
       </c>
       <c r="C11" t="s">
-        <v>384</v>
+        <v>1122</v>
       </c>
       <c r="D11" t="s">
-        <v>1058</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>1059</v>
+        <v>761</v>
       </c>
       <c r="F11" t="s">
-        <v>1060</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>864</v>
+        <v>464</v>
       </c>
       <c r="H11" t="s">
+        <v>414</v>
+      </c>
+      <c r="I11" t="s">
         <v>366</v>
       </c>
-      <c r="I11" t="s">
-        <v>948</v>
-      </c>
       <c r="J11" t="s">
-        <v>1061</v>
+        <v>1123</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="R11" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="S11" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="T11" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="U11" t="s">
         <v>62</v>
@@ -9812,64 +11353,64 @@
     </row>
     <row r="12" ht="28.3464567" customHeight="true">
       <c r="A12" t="s">
-        <v>1062</v>
+        <v>1124</v>
       </c>
       <c r="B12" t="s">
-        <v>632</v>
+        <v>1025</v>
       </c>
       <c r="C12" t="s">
-        <v>847</v>
+        <v>1125</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>1126</v>
       </c>
       <c r="E12" t="s">
-        <v>644</v>
+        <v>1049</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>1050</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>1127</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>366</v>
       </c>
       <c r="I12" t="s">
-        <v>537</v>
+        <v>636</v>
       </c>
       <c r="J12" t="s">
-        <v>1063</v>
+        <v>1128</v>
       </c>
       <c r="K12" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="L12" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="N12" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="O12" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Q12" t="s">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="S12" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="U12" t="s">
         <v>62</v>
@@ -9895,334 +11436,251 @@
     </row>
     <row r="13" ht="28.3464567" customHeight="true">
       <c r="A13" t="s">
-        <v>1064</v>
+        <v>1129</v>
       </c>
       <c r="B13" t="s">
-        <v>617</v>
+        <v>1025</v>
       </c>
       <c r="C13" t="s">
-        <v>1065</v>
+        <v>384</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>1058</v>
       </c>
       <c r="E13" t="s">
-        <v>1066</v>
+        <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>1032</v>
       </c>
       <c r="G13" t="s">
-        <v>1067</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>208</v>
+        <v>1130</v>
       </c>
       <c r="I13" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="J13" t="s">
-        <v>1068</v>
+        <v>1131</v>
       </c>
       <c r="K13" t="s">
-        <v>295</v>
+        <v>59</v>
       </c>
       <c r="L13" t="s">
-        <v>296</v>
+        <v>60</v>
       </c>
       <c r="M13" t="s">
-        <v>297</v>
+        <v>60</v>
       </c>
       <c r="N13" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>299</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="Q13" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="S13" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="T13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>30</v>
+        <v>1132</v>
       </c>
       <c r="V13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>109</v>
+        <v>1133</v>
       </c>
       <c r="X13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Y13" t="s">
-        <v>63</v>
+        <v>1134</v>
       </c>
       <c r="Z13" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="AA13" t="s">
-        <v>109</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" ht="28.3464567" customHeight="true">
       <c r="A14" t="s">
-        <v>1069</v>
+        <v>1135</v>
       </c>
       <c r="B14" t="s">
-        <v>680</v>
+        <v>632</v>
       </c>
       <c r="C14" t="s">
-        <v>721</v>
+        <v>1136</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>792</v>
+        <v>847</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>713</v>
+        <v>225</v>
       </c>
       <c r="H14" t="s">
         <v>106</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>1137</v>
       </c>
       <c r="J14" t="s">
-        <v>1070</v>
+        <v>1138</v>
       </c>
       <c r="K14" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="N14" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="Q14" t="s">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="R14" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="S14" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="T14" t="s">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="U14" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="V14" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="W14" t="s">
-        <v>867</v>
+        <v>185</v>
       </c>
       <c r="X14" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="Y14" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="Z14" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="AA14" t="s">
-        <v>867</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" ht="28.3464567" customHeight="true">
       <c r="A15" t="s">
-        <v>1071</v>
+        <v>1139</v>
       </c>
       <c r="B15" t="s">
         <v>1072</v>
       </c>
       <c r="C15" t="s">
-        <v>473</v>
+        <v>725</v>
       </c>
       <c r="D15" t="s">
-        <v>1073</v>
+        <v>1140</v>
       </c>
       <c r="E15" t="s">
-        <v>1074</v>
+        <v>1141</v>
       </c>
       <c r="F15" t="s">
-        <v>1075</v>
+        <v>1142</v>
       </c>
       <c r="G15" t="s">
-        <v>956</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>799</v>
+        <v>463</v>
       </c>
       <c r="I15" t="s">
-        <v>350</v>
+        <v>1143</v>
       </c>
       <c r="J15" t="s">
-        <v>1076</v>
+        <v>1144</v>
       </c>
       <c r="K15" t="s">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="M15" t="s">
-        <v>251</v>
+        <v>155</v>
       </c>
       <c r="N15" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="P15" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="Q15" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="R15" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="S15" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="T15" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="U15" t="s">
+        <v>72</v>
+      </c>
+      <c r="V15" t="s">
         <v>62</v>
       </c>
-      <c r="V15" t="s">
-        <v/>
-      </c>
       <c r="W15" t="s">
-        <v/>
+        <v>63</v>
       </c>
       <c r="X15" t="s">
-        <v/>
+        <v>32</v>
       </c>
       <c r="Y15" t="s">
-        <v/>
+        <v>185</v>
       </c>
       <c r="Z15" t="s">
-        <v/>
+        <v>97</v>
       </c>
       <c r="AA15" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="28.3464567" customHeight="true">
-      <c r="A16" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C16" t="s">
-        <v>855</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E16" t="s">
-        <v>579</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G16" t="s">
-        <v>864</v>
-      </c>
-      <c r="H16" t="s">
-        <v>994</v>
-      </c>
-      <c r="I16" t="s">
-        <v>581</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1061</v>
-      </c>
-      <c r="K16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>60</v>
-      </c>
-      <c r="R16" t="s">
-        <v>60</v>
-      </c>
-      <c r="S16" t="s">
-        <v>60</v>
-      </c>
-      <c r="T16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U16" t="s">
-        <v>62</v>
-      </c>
-      <c r="V16" t="s">
-        <v/>
-      </c>
-      <c r="W16" t="s">
-        <v/>
-      </c>
-      <c r="X16" t="s">
-        <v/>
-      </c>
-      <c r="Y16" t="s">
-        <v/>
-      </c>
-      <c r="Z16" t="s">
-        <v/>
-      </c>
-      <c r="AA16" t="s">
-        <v/>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -25699,7 +27157,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="9" min="9" style="0" width="20.75" customWidth="true"/>
+    <col max="10" min="10" style="0" width="20.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -28624,8 +30082,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="4" min="4" style="0" width="24.25" customWidth="true"/>
-    <col hidden="true" max="23" min="14" style="0" width="0" customWidth="true"/>
+    <col max="5" min="5" style="0" width="24.25" customWidth="true"/>
+    <col hidden="true" max="24" min="15" style="0" width="0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">

--- a/file.xlsx
+++ b/file.xlsx
@@ -22,6 +22,7 @@
     <sheet name="2020-08-03" sheetId="12" r:id="rId12" state="visible"/>
     <sheet name="2020-08-06" sheetId="13" r:id="rId13" state="visible"/>
     <sheet name="2020-08-10" sheetId="14" r:id="rId14" state="visible"/>
+    <sheet name="2020-08-11" sheetId="15" r:id="rId15" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="1237">
   <si>
     <t>比赛编号</t>
   </si>
@@ -3464,6 +3465,282 @@
   </si>
   <si>
     <t>1.395000</t>
+  </si>
+  <si>
+    <t>0.876432</t>
+  </si>
+  <si>
+    <t>0.765000</t>
+  </si>
+  <si>
+    <t>1.584000</t>
+  </si>
+  <si>
+    <t>46.667%</t>
+  </si>
+  <si>
+    <t>2020-08-11 21:40周二005</t>
+  </si>
+  <si>
+    <t>伏尔格勒</t>
+  </si>
+  <si>
+    <t>泽尼特</t>
+  </si>
+  <si>
+    <t>9.20</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>4.091240</t>
+  </si>
+  <si>
+    <t>2020-08-11 21:40周二006</t>
+  </si>
+  <si>
+    <t>喀　山</t>
+  </si>
+  <si>
+    <t>莫火车头</t>
+  </si>
+  <si>
+    <t>1.423040</t>
+  </si>
+  <si>
+    <t>2020-08-12 15:15周三001</t>
+  </si>
+  <si>
+    <t>0.990290</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:10周三002</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>1.050147</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三003</t>
+  </si>
+  <si>
+    <t>1.008297</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三004</t>
+  </si>
+  <si>
+    <t>1.265734</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三005</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>1.202519</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三006</t>
+  </si>
+  <si>
+    <t>1.295406</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>32.143%</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三007</t>
+  </si>
+  <si>
+    <t>1.171912</t>
+  </si>
+  <si>
+    <t>45.000%</t>
+  </si>
+  <si>
+    <t>35.000%</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三008</t>
+  </si>
+  <si>
+    <t>0.997326</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三009</t>
+  </si>
+  <si>
+    <t>0.833478</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三010</t>
+  </si>
+  <si>
+    <t>1.004108</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三011</t>
+  </si>
+  <si>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>0.752142</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三012</t>
+  </si>
+  <si>
+    <t>日联杯</t>
+  </si>
+  <si>
+    <t>4日职</t>
+  </si>
+  <si>
+    <t>1日职</t>
+  </si>
+  <si>
+    <t>1.575000</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三013</t>
+  </si>
+  <si>
+    <t>14日职</t>
+  </si>
+  <si>
+    <t>12日职</t>
+  </si>
+  <si>
+    <t>1.417500</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三014</t>
+  </si>
+  <si>
+    <t>13日职</t>
+  </si>
+  <si>
+    <t>3日职</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三015</t>
+  </si>
+  <si>
+    <t>9日职</t>
+  </si>
+  <si>
+    <t>17日职</t>
+  </si>
+  <si>
+    <t>0.666000</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三016</t>
+  </si>
+  <si>
+    <t>8日职</t>
+  </si>
+  <si>
+    <t>15日职</t>
+  </si>
+  <si>
+    <t>0.657000</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三017</t>
+  </si>
+  <si>
+    <t>5日职</t>
+  </si>
+  <si>
+    <t>16日职</t>
+  </si>
+  <si>
+    <t>0.684000</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:40周三018</t>
+  </si>
+  <si>
+    <t>18日职</t>
+  </si>
+  <si>
+    <t>2日职</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>1.507500</t>
+  </si>
+  <si>
+    <t>2020-08-12 17:50周三019</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>2020-08-12 18:10周三020</t>
+  </si>
+  <si>
+    <t>1.238900</t>
+  </si>
+  <si>
+    <t>30.769%</t>
+  </si>
+  <si>
+    <t>19.231%</t>
+  </si>
+  <si>
+    <t>2020-08-12 21:40周三021</t>
+  </si>
+  <si>
+    <t>0.678528</t>
+  </si>
+  <si>
+    <t>2020-08-12 21:40周三022</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>0.597240</t>
+  </si>
+  <si>
+    <t>1.440000</t>
+  </si>
+  <si>
+    <t>2020-08-13 21:40周四008</t>
+  </si>
+  <si>
+    <t>莱红牛</t>
+  </si>
+  <si>
+    <t>3德甲</t>
+  </si>
+  <si>
+    <t>3西甲</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>1.318500</t>
   </si>
 </sst>
 </file>
@@ -3907,8 +4184,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="4" min="4" style="0" width="38.375" customWidth="true"/>
-    <col max="5" min="5" style="0" width="36.625" customWidth="true"/>
+    <col max="5" min="5" style="0" width="38.375" customWidth="true"/>
+    <col max="6" min="6" style="0" width="36.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -5783,10 +6060,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="4" min="4" style="0" width="25.5" customWidth="true"/>
-    <col hidden="true" max="23" min="9" style="0" width="0" customWidth="true"/>
-    <col max="24" min="24" style="0" width="17.25" customWidth="true"/>
-    <col max="25" min="25" style="0" width="13.375" customWidth="true"/>
+    <col max="5" min="5" style="0" width="25.5" customWidth="true"/>
+    <col hidden="true" max="24" min="10" style="0" width="0" customWidth="true"/>
+    <col max="25" min="25" style="0" width="17.25" customWidth="true"/>
+    <col max="26" min="26" style="0" width="13.375" customWidth="true"/>
   </cols>
   <autoFilter ref="A1:AA33"/>
   <sheetData>
@@ -10439,6 +10716,1268 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" ht="28.3464567" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA31"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10523,64 +12062,64 @@
     </row>
     <row r="2" ht="28.3464567" customHeight="true">
       <c r="A2" t="s">
-        <v>1080</v>
+        <v>1121</v>
       </c>
       <c r="B2" t="s">
         <v>617</v>
       </c>
       <c r="C2" t="s">
-        <v>760</v>
+        <v>1122</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>618</v>
+        <v>761</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>1081</v>
+        <v>571</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="I2" t="s">
-        <v>371</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>1082</v>
+        <v>1145</v>
       </c>
       <c r="K2" t="s">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="R2" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="S2" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="T2" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="U2" t="s">
         <v>62</v>
@@ -10606,283 +12145,283 @@
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
       <c r="A3" t="s">
-        <v>1083</v>
+        <v>1124</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>1025</v>
       </c>
       <c r="C3" t="s">
-        <v>419</v>
+        <v>1125</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>1126</v>
       </c>
       <c r="E3" t="s">
-        <v>512</v>
+        <v>1049</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>1050</v>
       </c>
       <c r="G3" t="s">
-        <v>547</v>
+        <v>663</v>
       </c>
       <c r="H3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" t="s">
         <v>414</v>
       </c>
-      <c r="I3" t="s">
-        <v>827</v>
-      </c>
       <c r="J3" t="s">
-        <v>1084</v>
+        <v>1146</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="Q3" t="s">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="R3" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="S3" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="T3" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="U3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>62</v>
+        <v/>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v/>
       </c>
       <c r="X3" t="s">
-        <v>30</v>
+        <v/>
       </c>
       <c r="Y3" t="s">
-        <v>170</v>
+        <v/>
       </c>
       <c r="Z3" t="s">
-        <v>62</v>
+        <v/>
       </c>
       <c r="AA3" t="s">
-        <v>63</v>
+        <v/>
       </c>
     </row>
     <row r="4" ht="28.3464567" customHeight="true">
       <c r="A4" t="s">
-        <v>1085</v>
+        <v>1129</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>1025</v>
       </c>
       <c r="C4" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>1058</v>
       </c>
       <c r="E4" t="s">
-        <v>533</v>
+        <v>586</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>1032</v>
       </c>
       <c r="G4" t="s">
-        <v>852</v>
+        <v>1053</v>
       </c>
       <c r="H4" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>1086</v>
+        <v>688</v>
       </c>
       <c r="J4" t="s">
-        <v>1087</v>
+        <v>1147</v>
       </c>
       <c r="K4" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="Q4" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="R4" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="S4" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="T4" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="V4" t="s">
-        <v/>
+        <v>47</v>
       </c>
       <c r="W4" t="s">
-        <v/>
+        <v>1148</v>
       </c>
       <c r="X4" t="s">
-        <v/>
+        <v>32</v>
       </c>
       <c r="Y4" t="s">
-        <v/>
+        <v>99</v>
       </c>
       <c r="Z4" t="s">
-        <v/>
+        <v>32</v>
       </c>
       <c r="AA4" t="s">
-        <v/>
+        <v>99</v>
       </c>
     </row>
     <row r="5" ht="28.3464567" customHeight="true">
       <c r="A5" t="s">
-        <v>1088</v>
+        <v>1135</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>632</v>
       </c>
       <c r="C5" t="s">
-        <v>346</v>
+        <v>1136</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>448</v>
+        <v>847</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>936</v>
+        <v>189</v>
       </c>
       <c r="H5" t="s">
-        <v>652</v>
+        <v>260</v>
       </c>
       <c r="I5" t="s">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="J5" t="s">
-        <v>1089</v>
+        <v>191</v>
       </c>
       <c r="K5" t="s">
-        <v>1090</v>
+        <v>153</v>
       </c>
       <c r="L5" t="s">
-        <v>1091</v>
+        <v>154</v>
       </c>
       <c r="M5" t="s">
-        <v>1092</v>
+        <v>155</v>
       </c>
       <c r="N5" t="s">
-        <v>1093</v>
+        <v>156</v>
       </c>
       <c r="O5" t="s">
-        <v>1094</v>
+        <v>157</v>
       </c>
       <c r="P5" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="Q5" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="R5" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="S5" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="T5" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="V5" t="s">
-        <v/>
+        <v>64</v>
       </c>
       <c r="W5" t="s">
-        <v/>
+        <v>185</v>
       </c>
       <c r="X5" t="s">
-        <v/>
+        <v>64</v>
       </c>
       <c r="Y5" t="s">
-        <v/>
+        <v>185</v>
       </c>
       <c r="Z5" t="s">
-        <v/>
+        <v>64</v>
       </c>
       <c r="AA5" t="s">
-        <v/>
+        <v>185</v>
       </c>
     </row>
     <row r="6" ht="28.3464567" customHeight="true">
       <c r="A6" t="s">
-        <v>1095</v>
+        <v>1149</v>
       </c>
       <c r="B6" t="s">
-        <v>1025</v>
+        <v>1108</v>
       </c>
       <c r="C6" t="s">
-        <v>590</v>
+        <v>1150</v>
       </c>
       <c r="D6" t="s">
-        <v>1096</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>1097</v>
+        <v>1151</v>
       </c>
       <c r="F6" t="s">
-        <v>1098</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>1099</v>
+        <v>1152</v>
       </c>
       <c r="H6" t="s">
-        <v>1100</v>
+        <v>623</v>
       </c>
       <c r="I6" t="s">
-        <v>1101</v>
+        <v>1153</v>
       </c>
       <c r="J6" t="s">
-        <v>1102</v>
+        <v>1154</v>
       </c>
       <c r="K6" t="s">
         <v>59</v>
@@ -10938,298 +12477,298 @@
     </row>
     <row r="7" ht="28.3464567" customHeight="true">
       <c r="A7" t="s">
-        <v>1103</v>
+        <v>1155</v>
       </c>
       <c r="B7" t="s">
-        <v>1025</v>
+        <v>1108</v>
       </c>
       <c r="C7" t="s">
-        <v>601</v>
+        <v>1156</v>
       </c>
       <c r="D7" t="s">
-        <v>1104</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>1026</v>
+        <v>1157</v>
       </c>
       <c r="F7" t="s">
-        <v>1027</v>
+        <v>199</v>
       </c>
       <c r="G7" t="s">
-        <v>606</v>
+        <v>260</v>
       </c>
       <c r="H7" t="s">
-        <v>366</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
-        <v>1105</v>
+        <v>611</v>
       </c>
       <c r="J7" t="s">
-        <v>1106</v>
+        <v>1158</v>
       </c>
       <c r="K7" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="Q7" t="s">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="R7" t="s">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="S7" t="s">
-        <v>271</v>
+        <v>60</v>
       </c>
       <c r="T7" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="V7" t="s">
-        <v/>
+        <v>30</v>
       </c>
       <c r="W7" t="s">
-        <v/>
+        <v>185</v>
       </c>
       <c r="X7" t="s">
-        <v/>
+        <v>64</v>
       </c>
       <c r="Y7" t="s">
-        <v/>
+        <v>88</v>
       </c>
       <c r="Z7" t="s">
-        <v/>
+        <v>48</v>
       </c>
       <c r="AA7" t="s">
-        <v/>
+        <v>109</v>
       </c>
     </row>
     <row r="8" ht="28.3464567" customHeight="true">
       <c r="A8" t="s">
-        <v>1107</v>
+        <v>1159</v>
       </c>
       <c r="B8" t="s">
-        <v>1108</v>
+        <v>617</v>
       </c>
       <c r="C8" t="s">
-        <v>1109</v>
+        <v>649</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>1110</v>
+        <v>1065</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>542</v>
+        <v>225</v>
       </c>
       <c r="J8" t="s">
-        <v>1111</v>
+        <v>1160</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="Q8" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="R8" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="S8" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="T8" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="V8" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="W8" t="s">
-        <v>255</v>
+        <v/>
       </c>
       <c r="X8" t="s">
-        <v>30</v>
+        <v/>
       </c>
       <c r="Y8" t="s">
-        <v>50</v>
+        <v/>
       </c>
       <c r="Z8" t="s">
-        <v>32</v>
+        <v/>
       </c>
       <c r="AA8" t="s">
-        <v>254</v>
+        <v/>
       </c>
     </row>
     <row r="9" ht="28.3464567" customHeight="true">
       <c r="A9" t="s">
-        <v>1112</v>
+        <v>1161</v>
       </c>
       <c r="B9" t="s">
-        <v>1113</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>1114</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>1115</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>718</v>
+        <v>1162</v>
       </c>
       <c r="H9" t="s">
-        <v>378</v>
+        <v>283</v>
       </c>
       <c r="I9" t="s">
-        <v>315</v>
+        <v>1163</v>
       </c>
       <c r="J9" t="s">
-        <v>1116</v>
+        <v>1164</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="Q9" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="R9" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="S9" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="T9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" t="s">
         <v>62</v>
       </c>
-      <c r="V9" t="s">
-        <v/>
-      </c>
       <c r="W9" t="s">
-        <v/>
+        <v>63</v>
       </c>
       <c r="X9" t="s">
-        <v/>
+        <v>64</v>
       </c>
       <c r="Y9" t="s">
-        <v/>
+        <v>170</v>
       </c>
       <c r="Z9" t="s">
-        <v/>
+        <v>62</v>
       </c>
       <c r="AA9" t="s">
-        <v/>
+        <v>63</v>
       </c>
     </row>
     <row r="10" ht="28.3464567" customHeight="true">
       <c r="A10" t="s">
-        <v>1117</v>
+        <v>1165</v>
       </c>
       <c r="B10" t="s">
-        <v>1113</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>1118</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>1119</v>
+        <v>281</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>377</v>
+        <v>989</v>
       </c>
       <c r="H10" t="s">
-        <v>378</v>
+        <v>536</v>
       </c>
       <c r="I10" t="s">
-        <v>379</v>
+        <v>201</v>
       </c>
       <c r="J10" t="s">
-        <v>1120</v>
+        <v>1166</v>
       </c>
       <c r="K10" t="s">
-        <v>232</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="N10" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="P10" t="s">
         <v>179</v>
@@ -11270,417 +12809,1745 @@
     </row>
     <row r="11" ht="28.3464567" customHeight="true">
       <c r="A11" t="s">
-        <v>1121</v>
+        <v>1167</v>
       </c>
       <c r="B11" t="s">
-        <v>617</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>1122</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>761</v>
+        <v>238</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>464</v>
+        <v>713</v>
       </c>
       <c r="H11" t="s">
-        <v>414</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
-        <v>366</v>
+        <v>1137</v>
       </c>
       <c r="J11" t="s">
-        <v>1123</v>
+        <v>1168</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="Q11" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="R11" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="S11" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="T11" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="U11" t="s">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="V11" t="s">
-        <v/>
+        <v>113</v>
       </c>
       <c r="W11" t="s">
-        <v/>
+        <v>984</v>
       </c>
       <c r="X11" t="s">
-        <v/>
+        <v>32</v>
       </c>
       <c r="Y11" t="s">
-        <v/>
+        <v>317</v>
       </c>
       <c r="Z11" t="s">
-        <v/>
+        <v>113</v>
       </c>
       <c r="AA11" t="s">
-        <v/>
+        <v>984</v>
       </c>
     </row>
     <row r="12" ht="28.3464567" customHeight="true">
       <c r="A12" t="s">
-        <v>1124</v>
+        <v>1169</v>
       </c>
       <c r="B12" t="s">
-        <v>1025</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>1125</v>
+        <v>198</v>
       </c>
       <c r="D12" t="s">
-        <v>1126</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>1049</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
-        <v>1050</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>1127</v>
+        <v>1170</v>
       </c>
       <c r="H12" t="s">
-        <v>366</v>
+        <v>116</v>
       </c>
       <c r="I12" t="s">
-        <v>636</v>
+        <v>989</v>
       </c>
       <c r="J12" t="s">
-        <v>1128</v>
+        <v>1171</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="N12" t="s">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="P12" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="Q12" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="R12" t="s">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="S12" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="T12" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="U12" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="V12" t="s">
-        <v/>
+        <v>86</v>
       </c>
       <c r="W12" t="s">
-        <v/>
+        <v>867</v>
       </c>
       <c r="X12" t="s">
-        <v/>
+        <v>61</v>
       </c>
       <c r="Y12" t="s">
-        <v/>
+        <v>971</v>
       </c>
       <c r="Z12" t="s">
-        <v/>
+        <v>61</v>
       </c>
       <c r="AA12" t="s">
-        <v/>
+        <v>971</v>
       </c>
     </row>
     <row r="13" ht="28.3464567" customHeight="true">
       <c r="A13" t="s">
-        <v>1129</v>
+        <v>1172</v>
       </c>
       <c r="B13" t="s">
-        <v>1025</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>384</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>1058</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>586</v>
+        <v>282</v>
       </c>
       <c r="F13" t="s">
-        <v>1032</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="H13" t="s">
-        <v>1130</v>
+        <v>1016</v>
       </c>
       <c r="I13" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="J13" t="s">
-        <v>1131</v>
+        <v>1173</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M13" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="Q13" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>1132</v>
+        <v>1174</v>
       </c>
       <c r="V13" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s">
-        <v>1133</v>
+        <v>49</v>
       </c>
       <c r="X13" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="Y13" t="s">
-        <v>1134</v>
+        <v>1175</v>
       </c>
       <c r="Z13" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="AA13" t="s">
-        <v>776</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" ht="28.3464567" customHeight="true">
       <c r="A14" t="s">
-        <v>1135</v>
+        <v>1176</v>
       </c>
       <c r="B14" t="s">
-        <v>632</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>1136</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" t="s">
+        <v>629</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K14" t="s">
+        <v>263</v>
+      </c>
+      <c r="L14" t="s">
+        <v>264</v>
+      </c>
+      <c r="M14" t="s">
+        <v>265</v>
+      </c>
+      <c r="N14" t="s">
+        <v>266</v>
+      </c>
+      <c r="O14" t="s">
+        <v>267</v>
+      </c>
+      <c r="P14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>82</v>
+      </c>
+      <c r="R14" t="s">
+        <v>83</v>
+      </c>
+      <c r="S14" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14" t="s">
+        <v>134</v>
+      </c>
+      <c r="V14" t="s">
+        <v>113</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1178</v>
+      </c>
+      <c r="X14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" t="s">
-        <v>847</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" t="s">
-        <v>225</v>
-      </c>
-      <c r="H14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1137</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1138</v>
-      </c>
-      <c r="K14" t="s">
-        <v>153</v>
-      </c>
-      <c r="L14" t="s">
-        <v>154</v>
-      </c>
-      <c r="M14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N14" t="s">
-        <v>156</v>
-      </c>
-      <c r="O14" t="s">
-        <v>157</v>
-      </c>
-      <c r="P14" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>287</v>
-      </c>
-      <c r="R14" t="s">
-        <v>288</v>
-      </c>
-      <c r="S14" t="s">
-        <v>289</v>
-      </c>
-      <c r="T14" t="s">
-        <v>290</v>
-      </c>
-      <c r="U14" t="s">
-        <v>48</v>
-      </c>
-      <c r="V14" t="s">
-        <v>64</v>
-      </c>
-      <c r="W14" t="s">
-        <v>185</v>
-      </c>
-      <c r="X14" t="s">
-        <v>64</v>
-      </c>
       <c r="Y14" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="Z14" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="AA14" t="s">
-        <v>185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="15" ht="28.3464567" customHeight="true">
       <c r="A15" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" t="s">
+        <v>989</v>
+      </c>
+      <c r="H15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>246</v>
+      </c>
+      <c r="R15" t="s">
+        <v>247</v>
+      </c>
+      <c r="S15" t="s">
+        <v>248</v>
+      </c>
+      <c r="T15" t="s">
+        <v>249</v>
+      </c>
+      <c r="U15" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" t="s">
+        <v/>
+      </c>
+      <c r="W15" t="s">
+        <v/>
+      </c>
+      <c r="X15" t="s">
+        <v/>
+      </c>
+      <c r="Y15" t="s">
+        <v/>
+      </c>
+      <c r="Z15" t="s">
+        <v/>
+      </c>
+      <c r="AA15" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="28.3464567" customHeight="true">
+      <c r="A16" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" t="s">
+        <v>624</v>
+      </c>
+      <c r="H16" t="s">
+        <v>884</v>
+      </c>
+      <c r="I16" t="s">
+        <v>259</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K16" t="s">
+        <v>307</v>
+      </c>
+      <c r="L16" t="s">
+        <v>308</v>
+      </c>
+      <c r="M16" t="s">
+        <v>309</v>
+      </c>
+      <c r="N16" t="s">
+        <v>310</v>
+      </c>
+      <c r="O16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" t="s">
+        <v/>
+      </c>
+      <c r="W16" t="s">
+        <v/>
+      </c>
+      <c r="X16" t="s">
+        <v/>
+      </c>
+      <c r="Y16" t="s">
+        <v/>
+      </c>
+      <c r="Z16" t="s">
+        <v/>
+      </c>
+      <c r="AA16" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="28.3464567" customHeight="true">
+      <c r="A17" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" t="s">
+        <v>379</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="s">
+        <v>155</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>157</v>
+      </c>
+      <c r="P17" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>233</v>
+      </c>
+      <c r="R17" t="s">
+        <v>234</v>
+      </c>
+      <c r="S17" t="s">
+        <v>235</v>
+      </c>
+      <c r="T17" t="s">
+        <v>236</v>
+      </c>
+      <c r="U17" t="s">
+        <v>62</v>
+      </c>
+      <c r="V17" t="s">
+        <v/>
+      </c>
+      <c r="W17" t="s">
+        <v/>
+      </c>
+      <c r="X17" t="s">
+        <v/>
+      </c>
+      <c r="Y17" t="s">
+        <v/>
+      </c>
+      <c r="Z17" t="s">
+        <v/>
+      </c>
+      <c r="AA17" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="28.3464567" customHeight="true">
+      <c r="A18" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" t="s">
+        <v>530</v>
+      </c>
+      <c r="H18" t="s">
+        <v>740</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K18" t="s">
+        <v>232</v>
+      </c>
+      <c r="L18" t="s">
+        <v>233</v>
+      </c>
+      <c r="M18" t="s">
+        <v>234</v>
+      </c>
+      <c r="N18" t="s">
+        <v>235</v>
+      </c>
+      <c r="O18" t="s">
+        <v>236</v>
+      </c>
+      <c r="P18" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>246</v>
+      </c>
+      <c r="R18" t="s">
+        <v>247</v>
+      </c>
+      <c r="S18" t="s">
+        <v>248</v>
+      </c>
+      <c r="T18" t="s">
+        <v>249</v>
+      </c>
+      <c r="U18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" t="s">
+        <v/>
+      </c>
+      <c r="W18" t="s">
+        <v/>
+      </c>
+      <c r="X18" t="s">
+        <v/>
+      </c>
+      <c r="Y18" t="s">
+        <v/>
+      </c>
+      <c r="Z18" t="s">
+        <v/>
+      </c>
+      <c r="AA18" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="28.3464567" customHeight="true">
+      <c r="A19" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C19" t="s">
+        <v>661</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>672</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I19" t="s">
+        <v>635</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>218</v>
+      </c>
+      <c r="R19" t="s">
+        <v>219</v>
+      </c>
+      <c r="S19" t="s">
+        <v>220</v>
+      </c>
+      <c r="T19" t="s">
+        <v>221</v>
+      </c>
+      <c r="U19" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19" t="s">
+        <v>62</v>
+      </c>
+      <c r="W19" t="s">
+        <v>63</v>
+      </c>
+      <c r="X19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" ht="28.3464567" customHeight="true">
+      <c r="A20" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C20" t="s">
+        <v>706</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E20" t="s">
+        <v>656</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>385</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s">
+        <v>852</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" t="s">
+        <v/>
+      </c>
+      <c r="W20" t="s">
+        <v/>
+      </c>
+      <c r="X20" t="s">
+        <v/>
+      </c>
+      <c r="Y20" t="s">
+        <v/>
+      </c>
+      <c r="Z20" t="s">
+        <v/>
+      </c>
+      <c r="AA20" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="28.3464567" customHeight="true">
+      <c r="A21" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C21" t="s">
+        <v>666</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E21" t="s">
+        <v>701</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>378</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" t="s">
+        <v>60</v>
+      </c>
+      <c r="T21" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" t="s">
+        <v>62</v>
+      </c>
+      <c r="V21" t="s">
+        <v/>
+      </c>
+      <c r="W21" t="s">
+        <v/>
+      </c>
+      <c r="X21" t="s">
+        <v/>
+      </c>
+      <c r="Y21" t="s">
+        <v/>
+      </c>
+      <c r="Z21" t="s">
+        <v/>
+      </c>
+      <c r="AA21" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="28.3464567" customHeight="true">
+      <c r="A22" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C22" t="s">
+        <v>667</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E22" t="s">
+        <v>671</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" t="s">
+        <v>799</v>
+      </c>
+      <c r="I22" t="s">
+        <v>443</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>674</v>
+      </c>
+      <c r="L22" t="s">
+        <v>675</v>
+      </c>
+      <c r="M22" t="s">
+        <v>676</v>
+      </c>
+      <c r="N22" t="s">
+        <v>677</v>
+      </c>
+      <c r="O22" t="s">
+        <v>678</v>
+      </c>
+      <c r="P22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>60</v>
+      </c>
+      <c r="R22" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" t="s">
+        <v>62</v>
+      </c>
+      <c r="V22" t="s">
+        <v/>
+      </c>
+      <c r="W22" t="s">
+        <v/>
+      </c>
+      <c r="X22" t="s">
+        <v/>
+      </c>
+      <c r="Y22" t="s">
+        <v/>
+      </c>
+      <c r="Z22" t="s">
+        <v/>
+      </c>
+      <c r="AA22" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="28.3464567" customHeight="true">
+      <c r="A23" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C23" t="s">
+        <v>700</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E23" t="s">
+        <v>662</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>947</v>
+      </c>
+      <c r="H23" t="s">
+        <v>414</v>
+      </c>
+      <c r="I23" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>889</v>
+      </c>
+      <c r="R23" t="s">
+        <v>890</v>
+      </c>
+      <c r="S23" t="s">
+        <v>891</v>
+      </c>
+      <c r="T23" t="s">
+        <v>60</v>
+      </c>
+      <c r="U23" t="s">
+        <v>62</v>
+      </c>
+      <c r="V23" t="s">
+        <v/>
+      </c>
+      <c r="W23" t="s">
+        <v/>
+      </c>
+      <c r="X23" t="s">
+        <v/>
+      </c>
+      <c r="Y23" t="s">
+        <v/>
+      </c>
+      <c r="Z23" t="s">
+        <v/>
+      </c>
+      <c r="AA23" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="28.3464567" customHeight="true">
+      <c r="A24" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C24" t="s">
+        <v>695</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E24" t="s">
+        <v>692</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>827</v>
+      </c>
+      <c r="H24" t="s">
+        <v>456</v>
+      </c>
+      <c r="I24" t="s">
+        <v>623</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K24" t="s">
+        <v>888</v>
+      </c>
+      <c r="L24" t="s">
+        <v>889</v>
+      </c>
+      <c r="M24" t="s">
+        <v>890</v>
+      </c>
+      <c r="N24" t="s">
+        <v>891</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" t="s">
+        <v/>
+      </c>
+      <c r="W24" t="s">
+        <v/>
+      </c>
+      <c r="X24" t="s">
+        <v/>
+      </c>
+      <c r="Y24" t="s">
+        <v/>
+      </c>
+      <c r="Z24" t="s">
+        <v/>
+      </c>
+      <c r="AA24" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="28.3464567" customHeight="true">
+      <c r="A25" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>696</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E25" t="s">
+        <v>691</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>366</v>
+      </c>
+      <c r="H25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>60</v>
+      </c>
+      <c r="R25" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" t="s">
+        <v>60</v>
+      </c>
+      <c r="T25" t="s">
+        <v>60</v>
+      </c>
+      <c r="U25" t="s">
+        <v>62</v>
+      </c>
+      <c r="V25" t="s">
+        <v/>
+      </c>
+      <c r="W25" t="s">
+        <v/>
+      </c>
+      <c r="X25" t="s">
+        <v/>
+      </c>
+      <c r="Y25" t="s">
+        <v/>
+      </c>
+      <c r="Z25" t="s">
+        <v/>
+      </c>
+      <c r="AA25" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="28.3464567" customHeight="true">
+      <c r="A26" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B26" t="s">
+        <v>617</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>860</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" t="s">
+        <v>401</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J26" t="s">
+        <v>630</v>
+      </c>
+      <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" t="s">
+        <v>247</v>
+      </c>
+      <c r="N26" t="s">
+        <v>248</v>
+      </c>
+      <c r="O26" t="s">
+        <v>249</v>
+      </c>
+      <c r="P26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26" t="s">
+        <v/>
+      </c>
+      <c r="W26" t="s">
+        <v/>
+      </c>
+      <c r="X26" t="s">
+        <v/>
+      </c>
+      <c r="Y26" t="s">
+        <v/>
+      </c>
+      <c r="Z26" t="s">
+        <v/>
+      </c>
+      <c r="AA26" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="28.3464567" customHeight="true">
+      <c r="A27" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" t="s">
+        <v>294</v>
+      </c>
+      <c r="I27" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L27" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" t="s">
+        <v>265</v>
+      </c>
+      <c r="N27" t="s">
+        <v>266</v>
+      </c>
+      <c r="O27" t="s">
+        <v>267</v>
+      </c>
+      <c r="P27" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>269</v>
+      </c>
+      <c r="R27" t="s">
+        <v>270</v>
+      </c>
+      <c r="S27" t="s">
+        <v>271</v>
+      </c>
+      <c r="T27" t="s">
+        <v>272</v>
+      </c>
+      <c r="U27" t="s">
+        <v>813</v>
+      </c>
+      <c r="V27" t="s">
+        <v>97</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1223</v>
+      </c>
+      <c r="X27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>1224</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" ht="28.3464567" customHeight="true">
+      <c r="A28" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B28" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" t="s">
+        <v>411</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>534</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" t="s">
+        <v>413</v>
+      </c>
+      <c r="H28" t="s">
+        <v>884</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" t="s">
+        <v>194</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" t="s">
+        <v>196</v>
+      </c>
+      <c r="P28" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>233</v>
+      </c>
+      <c r="R28" t="s">
+        <v>234</v>
+      </c>
+      <c r="S28" t="s">
+        <v>235</v>
+      </c>
+      <c r="T28" t="s">
+        <v>236</v>
+      </c>
+      <c r="U28" t="s">
+        <v>62</v>
+      </c>
+      <c r="V28" t="s">
+        <v/>
+      </c>
+      <c r="W28" t="s">
+        <v/>
+      </c>
+      <c r="X28" t="s">
+        <v/>
+      </c>
+      <c r="Y28" t="s">
+        <v/>
+      </c>
+      <c r="Z28" t="s">
+        <v/>
+      </c>
+      <c r="AA28" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="28.3464567" customHeight="true">
+      <c r="A29" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C29" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>513</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H29" t="s">
+        <v>961</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1229</v>
+      </c>
+      <c r="K29" t="s">
+        <v>286</v>
+      </c>
+      <c r="L29" t="s">
+        <v>287</v>
+      </c>
+      <c r="M29" t="s">
+        <v>288</v>
+      </c>
+      <c r="N29" t="s">
+        <v>289</v>
+      </c>
+      <c r="O29" t="s">
+        <v>290</v>
+      </c>
+      <c r="P29" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>308</v>
+      </c>
+      <c r="R29" t="s">
+        <v>309</v>
+      </c>
+      <c r="S29" t="s">
+        <v>310</v>
+      </c>
+      <c r="T29" t="s">
+        <v>311</v>
+      </c>
+      <c r="U29" t="s">
+        <v>62</v>
+      </c>
+      <c r="V29" t="s">
+        <v/>
+      </c>
+      <c r="W29" t="s">
+        <v/>
+      </c>
+      <c r="X29" t="s">
+        <v/>
+      </c>
+      <c r="Y29" t="s">
+        <v/>
+      </c>
+      <c r="Z29" t="s">
+        <v/>
+      </c>
+      <c r="AA29" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="28.3464567" customHeight="true">
+      <c r="A30" t="s">
         <v>1139</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B30" t="s">
         <v>1072</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C30" t="s">
         <v>725</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D30" t="s">
         <v>1140</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E30" t="s">
         <v>1141</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F30" t="s">
         <v>1142</v>
       </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G30" t="s">
+        <v>260</v>
+      </c>
+      <c r="H30" t="s">
         <v>463</v>
       </c>
-      <c r="I15" t="s">
-        <v>1143</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1144</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="I30" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K30" t="s">
         <v>153</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L30" t="s">
         <v>154</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M30" t="s">
         <v>155</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N30" t="s">
         <v>156</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O30" t="s">
         <v>157</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P30" t="s">
         <v>153</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q30" t="s">
         <v>154</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R30" t="s">
         <v>155</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S30" t="s">
         <v>156</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T30" t="s">
         <v>157</v>
       </c>
-      <c r="U15" t="s">
-        <v>72</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="U30" t="s">
+        <v>129</v>
+      </c>
+      <c r="V30" t="s">
         <v>62</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W30" t="s">
         <v>63</v>
       </c>
-      <c r="X15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z15" t="s">
+      <c r="X30" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z30" t="s">
         <v>97</v>
       </c>
-      <c r="AA15" t="s">
-        <v>184</v>
+      <c r="AA30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" ht="28.3464567" customHeight="true">
+      <c r="A31" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E31" t="s">
+        <v>557</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>379</v>
+      </c>
+      <c r="H31" t="s">
+        <v>324</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R31" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" t="s">
+        <v>104</v>
+      </c>
+      <c r="V31" t="s">
+        <v>86</v>
+      </c>
+      <c r="W31" t="s">
+        <v>867</v>
+      </c>
+      <c r="X31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>844</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -27157,7 +30024,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="10" min="10" style="0" width="20.75" customWidth="true"/>
+    <col max="11" min="11" style="0" width="20.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -30082,8 +32949,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="5" min="5" style="0" width="24.25" customWidth="true"/>
-    <col hidden="true" max="24" min="15" style="0" width="0" customWidth="true"/>
+    <col max="6" min="6" style="0" width="24.25" customWidth="true"/>
+    <col hidden="true" max="25" min="16" style="0" width="0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">

--- a/file.xlsx
+++ b/file.xlsx
@@ -23,6 +23,7 @@
     <sheet name="2020-08-06" sheetId="13" r:id="rId13" state="visible"/>
     <sheet name="2020-08-10" sheetId="14" r:id="rId14" state="visible"/>
     <sheet name="2020-08-11" sheetId="15" r:id="rId15" state="visible"/>
+    <sheet name="2020-08-12" sheetId="16" r:id="rId16" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="1252">
   <si>
     <t>比赛编号</t>
   </si>
@@ -3741,6 +3742,51 @@
   </si>
   <si>
     <t>1.318500</t>
+  </si>
+  <si>
+    <t>2020-08-13 17:10周四001</t>
+  </si>
+  <si>
+    <t>1.150050</t>
+  </si>
+  <si>
+    <t>2020-08-13 21:40周四002</t>
+  </si>
+  <si>
+    <t>2020-08-13 21:40周四003</t>
+  </si>
+  <si>
+    <t>0.747216</t>
+  </si>
+  <si>
+    <t>2020-08-13 21:40周四004</t>
+  </si>
+  <si>
+    <t>0.833961</t>
+  </si>
+  <si>
+    <t>2020-08-13 21:40周四005</t>
+  </si>
+  <si>
+    <t>0.785334</t>
+  </si>
+  <si>
+    <t>2020-08-13 21:40周四006</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>1.150365</t>
+  </si>
+  <si>
+    <t>2020-08-13 21:40周四007</t>
+  </si>
+  <si>
+    <t>1.522240</t>
+  </si>
+  <si>
+    <t>1.341000</t>
   </si>
 </sst>
 </file>
@@ -4184,8 +4230,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="5" min="5" style="0" width="38.375" customWidth="true"/>
-    <col max="6" min="6" style="0" width="36.625" customWidth="true"/>
+    <col max="6" min="6" style="0" width="38.375" customWidth="true"/>
+    <col max="7" min="7" style="0" width="36.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -6060,10 +6106,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="5" min="5" style="0" width="25.5" customWidth="true"/>
-    <col hidden="true" max="24" min="10" style="0" width="0" customWidth="true"/>
-    <col max="25" min="25" style="0" width="17.25" customWidth="true"/>
-    <col max="26" min="26" style="0" width="13.375" customWidth="true"/>
+    <col max="6" min="6" style="0" width="25.5" customWidth="true"/>
+    <col hidden="true" max="25" min="11" style="0" width="0" customWidth="true"/>
+    <col max="26" min="26" style="0" width="17.25" customWidth="true"/>
+    <col max="27" min="27" style="0" width="13.375" customWidth="true"/>
   </cols>
   <autoFilter ref="A1:AA33"/>
   <sheetData>
@@ -11978,6 +12024,2596 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="15" ht="28.3464567" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="28.3464567" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="28.3464567" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="28.3464567" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="28.3464567" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" ht="28.3464567" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="28.3464567" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="28.3464567" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="28.3464567" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="28.3464567" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="28.3464567" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="28.3464567" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="28.3464567" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" ht="28.3464567" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="28.3464567" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="28.3464567" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" ht="28.3464567" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA9"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12062,147 +14698,147 @@
     </row>
     <row r="2" ht="28.3464567" customHeight="true">
       <c r="A2" t="s">
-        <v>1121</v>
+        <v>1237</v>
       </c>
       <c r="B2" t="s">
         <v>617</v>
       </c>
       <c r="C2" t="s">
-        <v>1122</v>
+        <v>851</v>
       </c>
       <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2" t="s">
+        <v>636</v>
+      </c>
+      <c r="I2" t="s">
+        <v>597</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" t="s">
+        <v>248</v>
+      </c>
+      <c r="O2" t="s">
+        <v>249</v>
+      </c>
+      <c r="P2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
-        <v>761</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>571</v>
-      </c>
-      <c r="H2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>166</v>
-      </c>
-      <c r="R2" t="s">
-        <v>167</v>
-      </c>
-      <c r="S2" t="s">
-        <v>168</v>
-      </c>
-      <c r="T2" t="s">
-        <v>169</v>
-      </c>
-      <c r="U2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" t="s">
-        <v/>
-      </c>
       <c r="W2" t="s">
-        <v/>
+        <v>50</v>
       </c>
       <c r="X2" t="s">
-        <v/>
+        <v>32</v>
       </c>
       <c r="Y2" t="s">
-        <v/>
+        <v>254</v>
       </c>
       <c r="Z2" t="s">
-        <v/>
+        <v>64</v>
       </c>
       <c r="AA2" t="s">
-        <v/>
+        <v>255</v>
       </c>
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
       <c r="A3" t="s">
-        <v>1124</v>
+        <v>1239</v>
       </c>
       <c r="B3" t="s">
-        <v>1025</v>
+        <v>405</v>
       </c>
       <c r="C3" t="s">
-        <v>1125</v>
+        <v>406</v>
       </c>
       <c r="D3" t="s">
-        <v>1126</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>1049</v>
+        <v>527</v>
       </c>
       <c r="F3" t="s">
-        <v>1050</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>663</v>
+        <v>455</v>
       </c>
       <c r="H3" t="s">
-        <v>208</v>
+        <v>463</v>
       </c>
       <c r="I3" t="s">
-        <v>414</v>
+        <v>603</v>
       </c>
       <c r="J3" t="s">
-        <v>1146</v>
+        <v>458</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="Q3" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="R3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="S3" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="T3" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="U3" t="s">
         <v>62</v>
@@ -12228,230 +14864,230 @@
     </row>
     <row r="4" ht="28.3464567" customHeight="true">
       <c r="A4" t="s">
-        <v>1129</v>
+        <v>1240</v>
       </c>
       <c r="B4" t="s">
-        <v>1025</v>
+        <v>405</v>
       </c>
       <c r="C4" t="s">
-        <v>384</v>
+        <v>507</v>
       </c>
       <c r="D4" t="s">
-        <v>1058</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>586</v>
+        <v>412</v>
       </c>
       <c r="F4" t="s">
-        <v>1032</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>1053</v>
+        <v>413</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="I4" t="s">
-        <v>688</v>
+        <v>163</v>
       </c>
       <c r="J4" t="s">
-        <v>1147</v>
+        <v>1241</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="P4" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="R4" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="T4" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="U4" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>47</v>
+        <v/>
       </c>
       <c r="W4" t="s">
-        <v>1148</v>
+        <v/>
       </c>
       <c r="X4" t="s">
-        <v>32</v>
+        <v/>
       </c>
       <c r="Y4" t="s">
-        <v>99</v>
+        <v/>
       </c>
       <c r="Z4" t="s">
-        <v>32</v>
+        <v/>
       </c>
       <c r="AA4" t="s">
-        <v>99</v>
+        <v/>
       </c>
     </row>
     <row r="5" ht="28.3464567" customHeight="true">
       <c r="A5" t="s">
-        <v>1135</v>
+        <v>1242</v>
       </c>
       <c r="B5" t="s">
-        <v>632</v>
+        <v>405</v>
       </c>
       <c r="C5" t="s">
-        <v>1136</v>
+        <v>512</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>847</v>
+        <v>524</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>1127</v>
       </c>
       <c r="H5" t="s">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>646</v>
+        <v>463</v>
       </c>
       <c r="J5" t="s">
-        <v>191</v>
+        <v>1243</v>
       </c>
       <c r="K5" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="L5" t="s">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="M5" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="N5" t="s">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="O5" t="s">
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="P5" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="Q5" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="R5" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="S5" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="T5" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="U5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="V5" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="W5" t="s">
-        <v>185</v>
+        <v/>
       </c>
       <c r="X5" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="Y5" t="s">
-        <v>185</v>
+        <v/>
       </c>
       <c r="Z5" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="AA5" t="s">
-        <v>185</v>
+        <v/>
       </c>
     </row>
     <row r="6" ht="28.3464567" customHeight="true">
       <c r="A6" t="s">
-        <v>1149</v>
+        <v>1244</v>
       </c>
       <c r="B6" t="s">
-        <v>1108</v>
+        <v>405</v>
       </c>
       <c r="C6" t="s">
-        <v>1150</v>
+        <v>407</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>1151</v>
+        <v>419</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>1152</v>
+        <v>392</v>
       </c>
       <c r="H6" t="s">
-        <v>623</v>
+        <v>242</v>
       </c>
       <c r="I6" t="s">
-        <v>1153</v>
+        <v>799</v>
       </c>
       <c r="J6" t="s">
-        <v>1154</v>
+        <v>1245</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>287</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>289</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="P6" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="Q6" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R6" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="T6" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="U6" t="s">
         <v>62</v>
@@ -12477,82 +15113,82 @@
     </row>
     <row r="7" ht="28.3464567" customHeight="true">
       <c r="A7" t="s">
-        <v>1155</v>
+        <v>1246</v>
       </c>
       <c r="B7" t="s">
-        <v>1108</v>
+        <v>405</v>
       </c>
       <c r="C7" t="s">
-        <v>1156</v>
+        <v>523</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>1157</v>
+        <v>418</v>
       </c>
       <c r="F7" t="s">
         <v>199</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>611</v>
+        <v>1247</v>
       </c>
       <c r="J7" t="s">
-        <v>1158</v>
+        <v>1248</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="Q7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="V7" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="W7" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="X7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" t="s">
         <v>64</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>48</v>
       </c>
       <c r="AA7" t="s">
         <v>109</v>
@@ -12560,1994 +15196,168 @@
     </row>
     <row r="8" ht="28.3464567" customHeight="true">
       <c r="A8" t="s">
-        <v>1159</v>
+        <v>1249</v>
       </c>
       <c r="B8" t="s">
-        <v>617</v>
+        <v>405</v>
       </c>
       <c r="C8" t="s">
-        <v>649</v>
+        <v>533</v>
       </c>
       <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="J8" t="s">
-        <v>1160</v>
+        <v>1250</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="Q8" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R8" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="S8" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="T8" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" t="s">
         <v>62</v>
       </c>
-      <c r="V8" t="s">
-        <v/>
-      </c>
       <c r="W8" t="s">
-        <v/>
+        <v>63</v>
       </c>
       <c r="X8" t="s">
-        <v/>
+        <v>30</v>
       </c>
       <c r="Y8" t="s">
-        <v/>
+        <v>170</v>
       </c>
       <c r="Z8" t="s">
-        <v/>
+        <v>62</v>
       </c>
       <c r="AA8" t="s">
-        <v/>
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="28.3464567" customHeight="true">
       <c r="A9" t="s">
-        <v>1161</v>
+        <v>1231</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>1072</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>1232</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>1233</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>557</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>1234</v>
       </c>
       <c r="G9" t="s">
-        <v>1162</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="I9" t="s">
-        <v>1163</v>
+        <v>1137</v>
       </c>
       <c r="J9" t="s">
-        <v>1164</v>
+        <v>1251</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="Q9" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="R9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="V9" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="W9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X9" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="Z9" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" ht="28.3464567" customHeight="true">
-      <c r="A10" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" t="s">
-        <v>989</v>
-      </c>
-      <c r="H10" t="s">
-        <v>536</v>
-      </c>
-      <c r="I10" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1166</v>
-      </c>
-      <c r="K10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M10" t="s">
-        <v>121</v>
-      </c>
-      <c r="N10" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>180</v>
-      </c>
-      <c r="R10" t="s">
-        <v>181</v>
-      </c>
-      <c r="S10" t="s">
-        <v>182</v>
-      </c>
-      <c r="T10" t="s">
-        <v>183</v>
-      </c>
-      <c r="U10" t="s">
-        <v>62</v>
-      </c>
-      <c r="V10" t="s">
-        <v/>
-      </c>
-      <c r="W10" t="s">
-        <v/>
-      </c>
-      <c r="X10" t="s">
-        <v/>
-      </c>
-      <c r="Y10" t="s">
-        <v/>
-      </c>
-      <c r="Z10" t="s">
-        <v/>
-      </c>
-      <c r="AA10" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="28.3464567" customHeight="true">
-      <c r="A11" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" t="s">
-        <v>713</v>
-      </c>
-      <c r="H11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1137</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1168</v>
-      </c>
-      <c r="K11" t="s">
-        <v>245</v>
-      </c>
-      <c r="L11" t="s">
-        <v>246</v>
-      </c>
-      <c r="M11" t="s">
-        <v>247</v>
-      </c>
-      <c r="N11" t="s">
-        <v>248</v>
-      </c>
-      <c r="O11" t="s">
-        <v>249</v>
-      </c>
-      <c r="P11" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>120</v>
-      </c>
-      <c r="R11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S11" t="s">
-        <v>122</v>
-      </c>
-      <c r="T11" t="s">
-        <v>123</v>
-      </c>
-      <c r="U11" t="s">
-        <v>240</v>
-      </c>
-      <c r="V11" t="s">
-        <v>113</v>
-      </c>
-      <c r="W11" t="s">
-        <v>984</v>
-      </c>
-      <c r="X11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="12" ht="28.3464567" customHeight="true">
-      <c r="A12" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>274</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" t="s">
-        <v>989</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1171</v>
-      </c>
-      <c r="K12" t="s">
-        <v>268</v>
-      </c>
-      <c r="L12" t="s">
-        <v>269</v>
-      </c>
-      <c r="M12" t="s">
-        <v>270</v>
-      </c>
-      <c r="N12" t="s">
-        <v>271</v>
-      </c>
-      <c r="O12" t="s">
-        <v>272</v>
-      </c>
-      <c r="P12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>125</v>
-      </c>
-      <c r="R12" t="s">
-        <v>126</v>
-      </c>
-      <c r="S12" t="s">
-        <v>127</v>
-      </c>
-      <c r="T12" t="s">
-        <v>128</v>
-      </c>
-      <c r="U12" t="s">
-        <v>104</v>
-      </c>
-      <c r="V12" t="s">
-        <v>86</v>
-      </c>
-      <c r="W12" t="s">
-        <v>867</v>
-      </c>
-      <c r="X12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>971</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="13" ht="28.3464567" customHeight="true">
-      <c r="A13" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" t="s">
-        <v>283</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1173</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>77</v>
-      </c>
-      <c r="R13" t="s">
-        <v>78</v>
-      </c>
-      <c r="S13" t="s">
-        <v>79</v>
-      </c>
-      <c r="T13" t="s">
-        <v>80</v>
-      </c>
-      <c r="U13" t="s">
-        <v>1174</v>
-      </c>
-      <c r="V13" t="s">
-        <v>72</v>
-      </c>
-      <c r="W13" t="s">
-        <v>49</v>
-      </c>
-      <c r="X13" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>1175</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" ht="28.3464567" customHeight="true">
-      <c r="A14" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" t="s">
-        <v>629</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1177</v>
-      </c>
-      <c r="K14" t="s">
-        <v>263</v>
-      </c>
-      <c r="L14" t="s">
-        <v>264</v>
-      </c>
-      <c r="M14" t="s">
-        <v>265</v>
-      </c>
-      <c r="N14" t="s">
-        <v>266</v>
-      </c>
-      <c r="O14" t="s">
-        <v>267</v>
-      </c>
-      <c r="P14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>82</v>
-      </c>
-      <c r="R14" t="s">
-        <v>83</v>
-      </c>
-      <c r="S14" t="s">
-        <v>84</v>
-      </c>
-      <c r="T14" t="s">
-        <v>85</v>
-      </c>
-      <c r="U14" t="s">
-        <v>134</v>
-      </c>
-      <c r="V14" t="s">
-        <v>113</v>
-      </c>
-      <c r="W14" t="s">
-        <v>1178</v>
-      </c>
-      <c r="X14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="15" ht="28.3464567" customHeight="true">
-      <c r="A15" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" t="s">
-        <v>293</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F15" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15" t="s">
-        <v>989</v>
-      </c>
-      <c r="H15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1181</v>
-      </c>
-      <c r="K15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N15" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" t="s">
-        <v>85</v>
-      </c>
-      <c r="P15" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>246</v>
-      </c>
-      <c r="R15" t="s">
-        <v>247</v>
-      </c>
-      <c r="S15" t="s">
-        <v>248</v>
-      </c>
-      <c r="T15" t="s">
-        <v>249</v>
-      </c>
-      <c r="U15" t="s">
-        <v>62</v>
-      </c>
-      <c r="V15" t="s">
-        <v/>
-      </c>
-      <c r="W15" t="s">
-        <v/>
-      </c>
-      <c r="X15" t="s">
-        <v/>
-      </c>
-      <c r="Y15" t="s">
-        <v/>
-      </c>
-      <c r="Z15" t="s">
-        <v/>
-      </c>
-      <c r="AA15" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="28.3464567" customHeight="true">
-      <c r="A16" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" t="s">
-        <v>624</v>
-      </c>
-      <c r="H16" t="s">
-        <v>884</v>
-      </c>
-      <c r="I16" t="s">
-        <v>259</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1183</v>
-      </c>
-      <c r="K16" t="s">
-        <v>307</v>
-      </c>
-      <c r="L16" t="s">
-        <v>308</v>
-      </c>
-      <c r="M16" t="s">
-        <v>309</v>
-      </c>
-      <c r="N16" t="s">
-        <v>310</v>
-      </c>
-      <c r="O16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R16" t="s">
-        <v>44</v>
-      </c>
-      <c r="S16" t="s">
-        <v>45</v>
-      </c>
-      <c r="T16" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" t="s">
-        <v>62</v>
-      </c>
-      <c r="V16" t="s">
-        <v/>
-      </c>
-      <c r="W16" t="s">
-        <v/>
-      </c>
-      <c r="X16" t="s">
-        <v/>
-      </c>
-      <c r="Y16" t="s">
-        <v/>
-      </c>
-      <c r="Z16" t="s">
-        <v/>
-      </c>
-      <c r="AA16" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="28.3464567" customHeight="true">
-      <c r="A17" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>175</v>
-      </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" t="s">
-        <v>379</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1185</v>
-      </c>
-      <c r="K17" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" t="s">
-        <v>154</v>
-      </c>
-      <c r="M17" t="s">
-        <v>155</v>
-      </c>
-      <c r="N17" t="s">
-        <v>156</v>
-      </c>
-      <c r="O17" t="s">
-        <v>157</v>
-      </c>
-      <c r="P17" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>233</v>
-      </c>
-      <c r="R17" t="s">
-        <v>234</v>
-      </c>
-      <c r="S17" t="s">
-        <v>235</v>
-      </c>
-      <c r="T17" t="s">
-        <v>236</v>
-      </c>
-      <c r="U17" t="s">
-        <v>62</v>
-      </c>
-      <c r="V17" t="s">
-        <v/>
-      </c>
-      <c r="W17" t="s">
-        <v/>
-      </c>
-      <c r="X17" t="s">
-        <v/>
-      </c>
-      <c r="Y17" t="s">
-        <v/>
-      </c>
-      <c r="Z17" t="s">
-        <v/>
-      </c>
-      <c r="AA17" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="28.3464567" customHeight="true">
-      <c r="A18" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" t="s">
-        <v>240</v>
-      </c>
-      <c r="G18" t="s">
-        <v>530</v>
-      </c>
-      <c r="H18" t="s">
-        <v>740</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1188</v>
-      </c>
-      <c r="K18" t="s">
-        <v>232</v>
-      </c>
-      <c r="L18" t="s">
-        <v>233</v>
-      </c>
-      <c r="M18" t="s">
-        <v>234</v>
-      </c>
-      <c r="N18" t="s">
-        <v>235</v>
-      </c>
-      <c r="O18" t="s">
-        <v>236</v>
-      </c>
-      <c r="P18" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>246</v>
-      </c>
-      <c r="R18" t="s">
-        <v>247</v>
-      </c>
-      <c r="S18" t="s">
-        <v>248</v>
-      </c>
-      <c r="T18" t="s">
-        <v>249</v>
-      </c>
-      <c r="U18" t="s">
-        <v>62</v>
-      </c>
-      <c r="V18" t="s">
-        <v/>
-      </c>
-      <c r="W18" t="s">
-        <v/>
-      </c>
-      <c r="X18" t="s">
-        <v/>
-      </c>
-      <c r="Y18" t="s">
-        <v/>
-      </c>
-      <c r="Z18" t="s">
-        <v/>
-      </c>
-      <c r="AA18" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="28.3464567" customHeight="true">
-      <c r="A19" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C19" t="s">
-        <v>661</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E19" t="s">
-        <v>672</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s">
-        <v>463</v>
-      </c>
-      <c r="I19" t="s">
-        <v>635</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>218</v>
-      </c>
-      <c r="R19" t="s">
-        <v>219</v>
-      </c>
-      <c r="S19" t="s">
-        <v>220</v>
-      </c>
-      <c r="T19" t="s">
-        <v>221</v>
-      </c>
-      <c r="U19" t="s">
-        <v>64</v>
-      </c>
-      <c r="V19" t="s">
-        <v>62</v>
-      </c>
-      <c r="W19" t="s">
-        <v>63</v>
-      </c>
-      <c r="X19" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" ht="28.3464567" customHeight="true">
-      <c r="A20" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C20" t="s">
-        <v>706</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E20" t="s">
-        <v>656</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G20" t="s">
-        <v>385</v>
-      </c>
-      <c r="H20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" t="s">
-        <v>852</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K20" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M20" t="s">
-        <v>60</v>
-      </c>
-      <c r="N20" t="s">
-        <v>60</v>
-      </c>
-      <c r="O20" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>60</v>
-      </c>
-      <c r="R20" t="s">
-        <v>60</v>
-      </c>
-      <c r="S20" t="s">
-        <v>60</v>
-      </c>
-      <c r="T20" t="s">
-        <v>60</v>
-      </c>
-      <c r="U20" t="s">
-        <v>62</v>
-      </c>
-      <c r="V20" t="s">
-        <v/>
-      </c>
-      <c r="W20" t="s">
-        <v/>
-      </c>
-      <c r="X20" t="s">
-        <v/>
-      </c>
-      <c r="Y20" t="s">
-        <v/>
-      </c>
-      <c r="Z20" t="s">
-        <v/>
-      </c>
-      <c r="AA20" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="28.3464567" customHeight="true">
-      <c r="A21" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C21" t="s">
-        <v>666</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E21" t="s">
-        <v>701</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1200</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s">
-        <v>378</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1201</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1144</v>
-      </c>
-      <c r="K21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21" t="s">
-        <v>60</v>
-      </c>
-      <c r="O21" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>60</v>
-      </c>
-      <c r="R21" t="s">
-        <v>60</v>
-      </c>
-      <c r="S21" t="s">
-        <v>60</v>
-      </c>
-      <c r="T21" t="s">
-        <v>60</v>
-      </c>
-      <c r="U21" t="s">
-        <v>62</v>
-      </c>
-      <c r="V21" t="s">
-        <v/>
-      </c>
-      <c r="W21" t="s">
-        <v/>
-      </c>
-      <c r="X21" t="s">
-        <v/>
-      </c>
-      <c r="Y21" t="s">
-        <v/>
-      </c>
-      <c r="Z21" t="s">
-        <v/>
-      </c>
-      <c r="AA21" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="28.3464567" customHeight="true">
-      <c r="A22" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C22" t="s">
-        <v>667</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E22" t="s">
-        <v>671</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G22" t="s">
-        <v>241</v>
-      </c>
-      <c r="H22" t="s">
-        <v>799</v>
-      </c>
-      <c r="I22" t="s">
-        <v>443</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1205</v>
-      </c>
-      <c r="K22" t="s">
-        <v>674</v>
-      </c>
-      <c r="L22" t="s">
-        <v>675</v>
-      </c>
-      <c r="M22" t="s">
-        <v>676</v>
-      </c>
-      <c r="N22" t="s">
-        <v>677</v>
-      </c>
-      <c r="O22" t="s">
-        <v>678</v>
-      </c>
-      <c r="P22" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>60</v>
-      </c>
-      <c r="R22" t="s">
-        <v>60</v>
-      </c>
-      <c r="S22" t="s">
-        <v>60</v>
-      </c>
-      <c r="T22" t="s">
-        <v>60</v>
-      </c>
-      <c r="U22" t="s">
-        <v>62</v>
-      </c>
-      <c r="V22" t="s">
-        <v/>
-      </c>
-      <c r="W22" t="s">
-        <v/>
-      </c>
-      <c r="X22" t="s">
-        <v/>
-      </c>
-      <c r="Y22" t="s">
-        <v/>
-      </c>
-      <c r="Z22" t="s">
-        <v/>
-      </c>
-      <c r="AA22" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="28.3464567" customHeight="true">
-      <c r="A23" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C23" t="s">
-        <v>700</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E23" t="s">
-        <v>662</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1208</v>
-      </c>
-      <c r="G23" t="s">
-        <v>947</v>
-      </c>
-      <c r="H23" t="s">
-        <v>414</v>
-      </c>
-      <c r="I23" t="s">
-        <v>243</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1209</v>
-      </c>
-      <c r="K23" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23" t="s">
-        <v>60</v>
-      </c>
-      <c r="M23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N23" t="s">
-        <v>60</v>
-      </c>
-      <c r="O23" t="s">
-        <v>60</v>
-      </c>
-      <c r="P23" t="s">
-        <v>888</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>889</v>
-      </c>
-      <c r="R23" t="s">
-        <v>890</v>
-      </c>
-      <c r="S23" t="s">
-        <v>891</v>
-      </c>
-      <c r="T23" t="s">
-        <v>60</v>
-      </c>
-      <c r="U23" t="s">
-        <v>62</v>
-      </c>
-      <c r="V23" t="s">
-        <v/>
-      </c>
-      <c r="W23" t="s">
-        <v/>
-      </c>
-      <c r="X23" t="s">
-        <v/>
-      </c>
-      <c r="Y23" t="s">
-        <v/>
-      </c>
-      <c r="Z23" t="s">
-        <v/>
-      </c>
-      <c r="AA23" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="28.3464567" customHeight="true">
-      <c r="A24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C24" t="s">
-        <v>695</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E24" t="s">
-        <v>692</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G24" t="s">
-        <v>827</v>
-      </c>
-      <c r="H24" t="s">
-        <v>456</v>
-      </c>
-      <c r="I24" t="s">
-        <v>623</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1213</v>
-      </c>
-      <c r="K24" t="s">
-        <v>888</v>
-      </c>
-      <c r="L24" t="s">
-        <v>889</v>
-      </c>
-      <c r="M24" t="s">
-        <v>890</v>
-      </c>
-      <c r="N24" t="s">
-        <v>891</v>
-      </c>
-      <c r="O24" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>60</v>
-      </c>
-      <c r="R24" t="s">
-        <v>60</v>
-      </c>
-      <c r="S24" t="s">
-        <v>60</v>
-      </c>
-      <c r="T24" t="s">
-        <v>60</v>
-      </c>
-      <c r="U24" t="s">
-        <v>62</v>
-      </c>
-      <c r="V24" t="s">
-        <v/>
-      </c>
-      <c r="W24" t="s">
-        <v/>
-      </c>
-      <c r="X24" t="s">
-        <v/>
-      </c>
-      <c r="Y24" t="s">
-        <v/>
-      </c>
-      <c r="Z24" t="s">
-        <v/>
-      </c>
-      <c r="AA24" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="28.3464567" customHeight="true">
-      <c r="A25" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C25" t="s">
-        <v>696</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E25" t="s">
-        <v>691</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G25" t="s">
-        <v>366</v>
-      </c>
-      <c r="H25" t="s">
-        <v>242</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1217</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1218</v>
-      </c>
-      <c r="K25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" t="s">
-        <v>60</v>
-      </c>
-      <c r="N25" t="s">
-        <v>60</v>
-      </c>
-      <c r="O25" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>60</v>
-      </c>
-      <c r="R25" t="s">
-        <v>60</v>
-      </c>
-      <c r="S25" t="s">
-        <v>60</v>
-      </c>
-      <c r="T25" t="s">
-        <v>60</v>
-      </c>
-      <c r="U25" t="s">
-        <v>62</v>
-      </c>
-      <c r="V25" t="s">
-        <v/>
-      </c>
-      <c r="W25" t="s">
-        <v/>
-      </c>
-      <c r="X25" t="s">
-        <v/>
-      </c>
-      <c r="Y25" t="s">
-        <v/>
-      </c>
-      <c r="Z25" t="s">
-        <v/>
-      </c>
-      <c r="AA25" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="28.3464567" customHeight="true">
-      <c r="A26" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B26" t="s">
-        <v>617</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" t="s">
-        <v>860</v>
-      </c>
-      <c r="F26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" t="s">
-        <v>401</v>
-      </c>
-      <c r="H26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1220</v>
-      </c>
-      <c r="J26" t="s">
-        <v>630</v>
-      </c>
-      <c r="K26" t="s">
-        <v>245</v>
-      </c>
-      <c r="L26" t="s">
-        <v>246</v>
-      </c>
-      <c r="M26" t="s">
-        <v>247</v>
-      </c>
-      <c r="N26" t="s">
-        <v>248</v>
-      </c>
-      <c r="O26" t="s">
-        <v>249</v>
-      </c>
-      <c r="P26" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>38</v>
-      </c>
-      <c r="R26" t="s">
-        <v>39</v>
-      </c>
-      <c r="S26" t="s">
-        <v>40</v>
-      </c>
-      <c r="T26" t="s">
-        <v>41</v>
-      </c>
-      <c r="U26" t="s">
-        <v>62</v>
-      </c>
-      <c r="V26" t="s">
-        <v/>
-      </c>
-      <c r="W26" t="s">
-        <v/>
-      </c>
-      <c r="X26" t="s">
-        <v/>
-      </c>
-      <c r="Y26" t="s">
-        <v/>
-      </c>
-      <c r="Z26" t="s">
-        <v/>
-      </c>
-      <c r="AA26" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="28.3464567" customHeight="true">
-      <c r="A27" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" t="s">
-        <v>189</v>
-      </c>
-      <c r="H27" t="s">
-        <v>294</v>
-      </c>
-      <c r="I27" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1222</v>
-      </c>
-      <c r="K27" t="s">
-        <v>263</v>
-      </c>
-      <c r="L27" t="s">
-        <v>264</v>
-      </c>
-      <c r="M27" t="s">
-        <v>265</v>
-      </c>
-      <c r="N27" t="s">
-        <v>266</v>
-      </c>
-      <c r="O27" t="s">
-        <v>267</v>
-      </c>
-      <c r="P27" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>269</v>
-      </c>
-      <c r="R27" t="s">
-        <v>270</v>
-      </c>
-      <c r="S27" t="s">
-        <v>271</v>
-      </c>
-      <c r="T27" t="s">
-        <v>272</v>
-      </c>
-      <c r="U27" t="s">
-        <v>813</v>
-      </c>
-      <c r="V27" t="s">
-        <v>97</v>
-      </c>
-      <c r="W27" t="s">
-        <v>1223</v>
-      </c>
-      <c r="X27" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>1224</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" ht="28.3464567" customHeight="true">
-      <c r="A28" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B28" t="s">
-        <v>405</v>
-      </c>
-      <c r="C28" t="s">
-        <v>411</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>534</v>
-      </c>
-      <c r="F28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" t="s">
-        <v>413</v>
-      </c>
-      <c r="H28" t="s">
-        <v>884</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1226</v>
-      </c>
-      <c r="K28" t="s">
-        <v>192</v>
-      </c>
-      <c r="L28" t="s">
-        <v>193</v>
-      </c>
-      <c r="M28" t="s">
-        <v>194</v>
-      </c>
-      <c r="N28" t="s">
-        <v>195</v>
-      </c>
-      <c r="O28" t="s">
-        <v>196</v>
-      </c>
-      <c r="P28" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>233</v>
-      </c>
-      <c r="R28" t="s">
-        <v>234</v>
-      </c>
-      <c r="S28" t="s">
-        <v>235</v>
-      </c>
-      <c r="T28" t="s">
-        <v>236</v>
-      </c>
-      <c r="U28" t="s">
-        <v>62</v>
-      </c>
-      <c r="V28" t="s">
-        <v/>
-      </c>
-      <c r="W28" t="s">
-        <v/>
-      </c>
-      <c r="X28" t="s">
-        <v/>
-      </c>
-      <c r="Y28" t="s">
-        <v/>
-      </c>
-      <c r="Z28" t="s">
-        <v/>
-      </c>
-      <c r="AA28" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="28.3464567" customHeight="true">
-      <c r="A29" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B29" t="s">
-        <v>405</v>
-      </c>
-      <c r="C29" t="s">
-        <v>528</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H29" t="s">
-        <v>961</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1152</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1229</v>
-      </c>
-      <c r="K29" t="s">
-        <v>286</v>
-      </c>
-      <c r="L29" t="s">
-        <v>287</v>
-      </c>
-      <c r="M29" t="s">
-        <v>288</v>
-      </c>
-      <c r="N29" t="s">
-        <v>289</v>
-      </c>
-      <c r="O29" t="s">
-        <v>290</v>
-      </c>
-      <c r="P29" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>308</v>
-      </c>
-      <c r="R29" t="s">
-        <v>309</v>
-      </c>
-      <c r="S29" t="s">
-        <v>310</v>
-      </c>
-      <c r="T29" t="s">
-        <v>311</v>
-      </c>
-      <c r="U29" t="s">
-        <v>62</v>
-      </c>
-      <c r="V29" t="s">
-        <v/>
-      </c>
-      <c r="W29" t="s">
-        <v/>
-      </c>
-      <c r="X29" t="s">
-        <v/>
-      </c>
-      <c r="Y29" t="s">
-        <v/>
-      </c>
-      <c r="Z29" t="s">
-        <v/>
-      </c>
-      <c r="AA29" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="28.3464567" customHeight="true">
-      <c r="A30" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C30" t="s">
-        <v>725</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G30" t="s">
-        <v>260</v>
-      </c>
-      <c r="H30" t="s">
-        <v>463</v>
-      </c>
-      <c r="I30" t="s">
-        <v>284</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1230</v>
-      </c>
-      <c r="K30" t="s">
-        <v>153</v>
-      </c>
-      <c r="L30" t="s">
-        <v>154</v>
-      </c>
-      <c r="M30" t="s">
-        <v>155</v>
-      </c>
-      <c r="N30" t="s">
-        <v>156</v>
-      </c>
-      <c r="O30" t="s">
-        <v>157</v>
-      </c>
-      <c r="P30" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>154</v>
-      </c>
-      <c r="R30" t="s">
-        <v>155</v>
-      </c>
-      <c r="S30" t="s">
-        <v>156</v>
-      </c>
-      <c r="T30" t="s">
-        <v>157</v>
-      </c>
-      <c r="U30" t="s">
-        <v>129</v>
-      </c>
-      <c r="V30" t="s">
-        <v>62</v>
-      </c>
-      <c r="W30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X30" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" ht="28.3464567" customHeight="true">
-      <c r="A31" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E31" t="s">
-        <v>557</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G31" t="s">
-        <v>379</v>
-      </c>
-      <c r="H31" t="s">
-        <v>324</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1235</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1236</v>
-      </c>
-      <c r="K31" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31" t="s">
-        <v>39</v>
-      </c>
-      <c r="N31" t="s">
-        <v>40</v>
-      </c>
-      <c r="O31" t="s">
-        <v>41</v>
-      </c>
-      <c r="P31" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>38</v>
-      </c>
-      <c r="R31" t="s">
-        <v>39</v>
-      </c>
-      <c r="S31" t="s">
-        <v>40</v>
-      </c>
-      <c r="T31" t="s">
-        <v>41</v>
-      </c>
-      <c r="U31" t="s">
-        <v>104</v>
-      </c>
-      <c r="V31" t="s">
-        <v>86</v>
-      </c>
-      <c r="W31" t="s">
-        <v>867</v>
-      </c>
-      <c r="X31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>844</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -30024,7 +30834,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="11" min="11" style="0" width="20.75" customWidth="true"/>
+    <col max="12" min="12" style="0" width="20.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -32949,8 +33759,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="6" min="6" style="0" width="24.25" customWidth="true"/>
-    <col hidden="true" max="25" min="16" style="0" width="0" customWidth="true"/>
+    <col max="7" min="7" style="0" width="24.25" customWidth="true"/>
+    <col hidden="true" max="26" min="17" style="0" width="0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">

--- a/file.xlsx
+++ b/file.xlsx
@@ -24,6 +24,7 @@
     <sheet name="2020-08-10" sheetId="14" r:id="rId14" state="visible"/>
     <sheet name="2020-08-11" sheetId="15" r:id="rId15" state="visible"/>
     <sheet name="2020-08-12" sheetId="16" r:id="rId16" state="visible"/>
+    <sheet name="2020-08-13" sheetId="17" r:id="rId17" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1282">
   <si>
     <t>比赛编号</t>
   </si>
@@ -3787,6 +3788,96 @@
   </si>
   <si>
     <t>1.341000</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>1.204416</t>
+  </si>
+  <si>
+    <t>0.706800</t>
+  </si>
+  <si>
+    <t>0.838292</t>
+  </si>
+  <si>
+    <t>1.650880</t>
+  </si>
+  <si>
+    <t>22.222%</t>
+  </si>
+  <si>
+    <t>1.597500</t>
+  </si>
+  <si>
+    <t>2020-08-13 21:40周四009</t>
+  </si>
+  <si>
+    <t>巴甲</t>
+  </si>
+  <si>
+    <t>圣保罗</t>
+  </si>
+  <si>
+    <t>福塔雷萨</t>
+  </si>
+  <si>
+    <t>6.15</t>
+  </si>
+  <si>
+    <t>0.698610</t>
+  </si>
+  <si>
+    <t>2020-08-13 21:40周四010</t>
+  </si>
+  <si>
+    <t>巴西国际</t>
+  </si>
+  <si>
+    <t>桑托斯</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>0.819984</t>
+  </si>
+  <si>
+    <t>2020-08-13 21:40周四011</t>
+  </si>
+  <si>
+    <t>达伽马</t>
+  </si>
+  <si>
+    <t>累体育</t>
+  </si>
+  <si>
+    <t>0.682840</t>
+  </si>
+  <si>
+    <t>2020-08-14 18:10周五001</t>
+  </si>
+  <si>
+    <t>1.127478</t>
+  </si>
+  <si>
+    <t>2020-08-14 21:40周五002</t>
+  </si>
+  <si>
+    <t>巴　萨</t>
+  </si>
+  <si>
+    <t>2西甲</t>
+  </si>
+  <si>
+    <t>拜　仁</t>
+  </si>
+  <si>
+    <t>1德甲</t>
+  </si>
+  <si>
+    <t>1.530000</t>
   </si>
 </sst>
 </file>
@@ -4230,8 +4321,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="6" min="6" style="0" width="38.375" customWidth="true"/>
-    <col max="7" min="7" style="0" width="36.625" customWidth="true"/>
+    <col max="7" min="7" style="0" width="38.375" customWidth="true"/>
+    <col max="8" min="8" style="0" width="36.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -6106,10 +6197,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="6" min="6" style="0" width="25.5" customWidth="true"/>
-    <col hidden="true" max="25" min="11" style="0" width="0" customWidth="true"/>
-    <col max="26" min="26" style="0" width="17.25" customWidth="true"/>
-    <col max="27" min="27" style="0" width="13.375" customWidth="true"/>
+    <col max="7" min="7" style="0" width="25.5" customWidth="true"/>
+    <col hidden="true" max="26" min="12" style="0" width="0" customWidth="true"/>
+    <col max="27" min="27" style="0" width="17.25" customWidth="true"/>
+    <col max="28" min="28" style="0" width="13.375" customWidth="true"/>
   </cols>
   <autoFilter ref="A1:AA33"/>
   <sheetData>
@@ -14614,6 +14705,770 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14716,16 +15571,16 @@
         <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>294</v>
+        <v>1252</v>
       </c>
       <c r="H2" t="s">
-        <v>636</v>
+        <v>208</v>
       </c>
       <c r="I2" t="s">
-        <v>597</v>
+        <v>688</v>
       </c>
       <c r="J2" t="s">
-        <v>1238</v>
+        <v>1253</v>
       </c>
       <c r="K2" t="s">
         <v>245</v>
@@ -14758,25 +15613,25 @@
         <v>80</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="X2" t="s">
         <v>32</v>
       </c>
       <c r="Y2" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="Z2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
@@ -14799,16 +15654,16 @@
         <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>455</v>
+        <v>1007</v>
       </c>
       <c r="H3" t="s">
-        <v>463</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>603</v>
+        <v>750</v>
       </c>
       <c r="J3" t="s">
-        <v>458</v>
+        <v>1254</v>
       </c>
       <c r="K3" t="s">
         <v>232</v>
@@ -14956,7 +15811,7 @@
         <v>512</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>524</v>
@@ -14965,16 +15820,16 @@
         <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>1127</v>
+        <v>209</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>463</v>
       </c>
       <c r="I5" t="s">
-        <v>463</v>
+        <v>176</v>
       </c>
       <c r="J5" t="s">
-        <v>1243</v>
+        <v>1255</v>
       </c>
       <c r="K5" t="s">
         <v>307</v>
@@ -15214,16 +16069,16 @@
         <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>884</v>
       </c>
       <c r="H8" t="s">
         <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
       <c r="J8" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="K8" t="s">
         <v>77</v>
@@ -15256,25 +16111,25 @@
         <v>123</v>
       </c>
       <c r="U8" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="V8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="X8" t="s">
         <v>30</v>
       </c>
       <c r="Y8" t="s">
-        <v>170</v>
+        <v>1257</v>
       </c>
       <c r="Z8" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="s">
-        <v>63</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" ht="28.3464567" customHeight="true">
@@ -15297,16 +16152,16 @@
         <v>1234</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="H9" t="s">
-        <v>324</v>
+        <v>117</v>
       </c>
       <c r="I9" t="s">
-        <v>1137</v>
+        <v>502</v>
       </c>
       <c r="J9" t="s">
-        <v>1251</v>
+        <v>1258</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
@@ -15339,25 +16194,440 @@
         <v>41</v>
       </c>
       <c r="U9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="V9" t="s">
         <v>30</v>
       </c>
       <c r="W9" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
+        <v>833</v>
+      </c>
+      <c r="H10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R10" t="s">
+        <v>126</v>
+      </c>
+      <c r="S10" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" t="s">
+        <v>128</v>
+      </c>
+      <c r="U10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" t="s">
+        <v/>
+      </c>
+      <c r="W10" t="s">
+        <v/>
+      </c>
+      <c r="X10" t="s">
+        <v/>
+      </c>
+      <c r="Y10" t="s">
+        <v/>
+      </c>
+      <c r="Z10" t="s">
+        <v/>
+      </c>
+      <c r="AA10" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" t="s">
+        <v>740</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" t="s">
+        <v>127</v>
+      </c>
+      <c r="T11" t="s">
+        <v>128</v>
+      </c>
+      <c r="U11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" t="s">
+        <v/>
+      </c>
+      <c r="W11" t="s">
+        <v/>
+      </c>
+      <c r="X11" t="s">
+        <v/>
+      </c>
+      <c r="Y11" t="s">
+        <v/>
+      </c>
+      <c r="Z11" t="s">
+        <v/>
+      </c>
+      <c r="AA11" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>620</v>
+      </c>
+      <c r="H12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" t="s">
+        <v>623</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>233</v>
+      </c>
+      <c r="R12" t="s">
+        <v>234</v>
+      </c>
+      <c r="S12" t="s">
+        <v>235</v>
+      </c>
+      <c r="T12" t="s">
+        <v>236</v>
+      </c>
+      <c r="U12" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" t="s">
+        <v/>
+      </c>
+      <c r="W12" t="s">
+        <v/>
+      </c>
+      <c r="X12" t="s">
+        <v/>
+      </c>
+      <c r="Y12" t="s">
+        <v/>
+      </c>
+      <c r="Z12" t="s">
+        <v/>
+      </c>
+      <c r="AA12" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B13" t="s">
+        <v>680</v>
+      </c>
+      <c r="C13" t="s">
+        <v>787</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>681</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>535</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I13" t="s">
+        <v>762</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" t="s">
+        <v>123</v>
+      </c>
+      <c r="U13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" t="s">
+        <v>63</v>
+      </c>
+      <c r="X13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G14" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>861</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14" t="s">
+        <v>63</v>
+      </c>
+      <c r="X14" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>145</v>
+      <c r="Y14" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -30834,7 +32104,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="12" min="12" style="0" width="20.75" customWidth="true"/>
+    <col max="13" min="13" style="0" width="20.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -33759,8 +35029,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="7" min="7" style="0" width="24.25" customWidth="true"/>
-    <col hidden="true" max="26" min="17" style="0" width="0" customWidth="true"/>
+    <col max="8" min="8" style="0" width="24.25" customWidth="true"/>
+    <col hidden="true" max="27" min="18" style="0" width="0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">

--- a/file.xlsx
+++ b/file.xlsx
@@ -25,6 +25,7 @@
     <sheet name="2020-08-11" sheetId="15" r:id="rId15" state="visible"/>
     <sheet name="2020-08-12" sheetId="16" r:id="rId16" state="visible"/>
     <sheet name="2020-08-13" sheetId="17" r:id="rId17" state="visible"/>
+    <sheet name="2020-08-17" sheetId="18" r:id="rId18" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="1296">
   <si>
     <t>比赛编号</t>
   </si>
@@ -3878,6 +3879,48 @@
   </si>
   <si>
     <t>1.530000</t>
+  </si>
+  <si>
+    <t>2020-08-17 21:40周一001</t>
+  </si>
+  <si>
+    <t>0.654968</t>
+  </si>
+  <si>
+    <t>2020-08-17 21:40周一002</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>1.166670</t>
+  </si>
+  <si>
+    <t>2020-08-17 21:40周一003</t>
+  </si>
+  <si>
+    <t>1.135475</t>
+  </si>
+  <si>
+    <t>2020-08-17 21:40周一004</t>
+  </si>
+  <si>
+    <t>1.372588</t>
+  </si>
+  <si>
+    <t>2020-08-17 21:40周一005</t>
+  </si>
+  <si>
+    <t>1.210850</t>
+  </si>
+  <si>
+    <t>2020-08-17 21:40周一006</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>0.706500</t>
   </si>
 </sst>
 </file>
@@ -4321,8 +4364,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="7" min="7" style="0" width="38.375" customWidth="true"/>
-    <col max="8" min="8" style="0" width="36.625" customWidth="true"/>
+    <col max="8" min="8" style="0" width="38.375" customWidth="true"/>
+    <col max="9" min="9" style="0" width="36.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -6197,10 +6240,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="7" min="7" style="0" width="25.5" customWidth="true"/>
-    <col hidden="true" max="26" min="12" style="0" width="0" customWidth="true"/>
-    <col max="27" min="27" style="0" width="17.25" customWidth="true"/>
-    <col max="28" min="28" style="0" width="13.375" customWidth="true"/>
+    <col max="8" min="8" style="0" width="25.5" customWidth="true"/>
+    <col hidden="true" max="27" min="13" style="0" width="0" customWidth="true"/>
+    <col max="28" min="28" style="0" width="17.25" customWidth="true"/>
+    <col max="29" min="29" style="0" width="13.375" customWidth="true"/>
   </cols>
   <autoFilter ref="A1:AA33"/>
   <sheetData>
@@ -15469,6 +15512,1185 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15553,117 +16775,117 @@
     </row>
     <row r="2" ht="28.3464567" customHeight="true">
       <c r="A2" t="s">
-        <v>1237</v>
+        <v>1282</v>
       </c>
       <c r="B2" t="s">
-        <v>617</v>
+        <v>405</v>
       </c>
       <c r="C2" t="s">
-        <v>851</v>
+        <v>506</v>
       </c>
       <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F2" t="s">
         <v>113</v>
       </c>
-      <c r="E2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
       <c r="G2" t="s">
-        <v>1252</v>
+        <v>956</v>
       </c>
       <c r="H2" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="I2" t="s">
-        <v>688</v>
+        <v>955</v>
       </c>
       <c r="J2" t="s">
-        <v>1253</v>
+        <v>1283</v>
       </c>
       <c r="K2" t="s">
-        <v>245</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>249</v>
+        <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="R2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="T2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v/>
       </c>
       <c r="W2" t="s">
-        <v>185</v>
+        <v/>
       </c>
       <c r="X2" t="s">
-        <v>32</v>
+        <v/>
       </c>
       <c r="Y2" t="s">
-        <v>185</v>
+        <v/>
       </c>
       <c r="Z2" t="s">
-        <v>32</v>
+        <v/>
       </c>
       <c r="AA2" t="s">
-        <v>185</v>
+        <v/>
       </c>
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
       <c r="A3" t="s">
-        <v>1239</v>
+        <v>1284</v>
       </c>
       <c r="B3" t="s">
         <v>405</v>
       </c>
       <c r="C3" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>527</v>
+        <v>407</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>1007</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>366</v>
       </c>
       <c r="I3" t="s">
-        <v>750</v>
+        <v>1285</v>
       </c>
       <c r="J3" t="s">
-        <v>1254</v>
+        <v>1286</v>
       </c>
       <c r="K3" t="s">
         <v>232</v>
@@ -15681,953 +16903,372 @@
         <v>236</v>
       </c>
       <c r="P3" t="s">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="Q3" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="R3" t="s">
-        <v>265</v>
+        <v>126</v>
       </c>
       <c r="S3" t="s">
-        <v>266</v>
+        <v>127</v>
       </c>
       <c r="T3" t="s">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X3" t="s">
         <v>62</v>
       </c>
-      <c r="V3" t="s">
-        <v/>
-      </c>
-      <c r="W3" t="s">
-        <v/>
-      </c>
-      <c r="X3" t="s">
-        <v/>
-      </c>
       <c r="Y3" t="s">
-        <v/>
+        <v>63</v>
       </c>
       <c r="Z3" t="s">
-        <v/>
+        <v>30</v>
       </c>
       <c r="AA3" t="s">
-        <v/>
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="28.3464567" customHeight="true">
       <c r="A4" t="s">
-        <v>1240</v>
+        <v>1287</v>
       </c>
       <c r="B4" t="s">
         <v>405</v>
       </c>
       <c r="C4" t="s">
-        <v>507</v>
+        <v>418</v>
       </c>
       <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" t="s">
+        <v>512</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H4" t="s">
+        <v>378</v>
+      </c>
+      <c r="I4" t="s">
+        <v>702</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" t="s">
+        <v>128</v>
+      </c>
+      <c r="U4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>412</v>
-      </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>413</v>
-      </c>
-      <c r="H4" t="s">
-        <v>259</v>
-      </c>
-      <c r="I4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1241</v>
-      </c>
-      <c r="K4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M4" t="s">
-        <v>194</v>
-      </c>
-      <c r="N4" t="s">
-        <v>195</v>
-      </c>
-      <c r="O4" t="s">
-        <v>196</v>
-      </c>
-      <c r="P4" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R4" t="s">
-        <v>155</v>
-      </c>
-      <c r="S4" t="s">
-        <v>156</v>
-      </c>
-      <c r="T4" t="s">
-        <v>157</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" t="s">
         <v>62</v>
       </c>
-      <c r="V4" t="s">
-        <v/>
-      </c>
-      <c r="W4" t="s">
-        <v/>
-      </c>
-      <c r="X4" t="s">
-        <v/>
-      </c>
       <c r="Y4" t="s">
-        <v/>
+        <v>63</v>
       </c>
       <c r="Z4" t="s">
-        <v/>
+        <v>64</v>
       </c>
       <c r="AA4" t="s">
-        <v/>
+        <v>109</v>
       </c>
     </row>
     <row r="5" ht="28.3464567" customHeight="true">
       <c r="A5" t="s">
-        <v>1242</v>
+        <v>1289</v>
       </c>
       <c r="B5" t="s">
         <v>405</v>
       </c>
       <c r="C5" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>523</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K5" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5" t="s">
+        <v>264</v>
+      </c>
+      <c r="M5" t="s">
+        <v>265</v>
+      </c>
+      <c r="N5" t="s">
+        <v>266</v>
+      </c>
+      <c r="O5" t="s">
+        <v>267</v>
+      </c>
+      <c r="P5" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>264</v>
+      </c>
+      <c r="R5" t="s">
+        <v>265</v>
+      </c>
+      <c r="S5" t="s">
+        <v>266</v>
+      </c>
+      <c r="T5" t="s">
+        <v>267</v>
+      </c>
+      <c r="U5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
-        <v>524</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H5" t="s">
-        <v>463</v>
-      </c>
-      <c r="I5" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="K5" t="s">
-        <v>307</v>
-      </c>
-      <c r="L5" t="s">
-        <v>308</v>
-      </c>
-      <c r="M5" t="s">
-        <v>309</v>
-      </c>
-      <c r="N5" t="s">
-        <v>310</v>
-      </c>
-      <c r="O5" t="s">
-        <v>311</v>
-      </c>
-      <c r="P5" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>341</v>
-      </c>
-      <c r="R5" t="s">
-        <v>342</v>
-      </c>
-      <c r="S5" t="s">
-        <v>343</v>
-      </c>
-      <c r="T5" t="s">
-        <v>344</v>
-      </c>
-      <c r="U5" t="s">
-        <v>62</v>
-      </c>
       <c r="V5" t="s">
-        <v/>
+        <v>64</v>
       </c>
       <c r="W5" t="s">
-        <v/>
+        <v>110</v>
       </c>
       <c r="X5" t="s">
-        <v/>
+        <v>64</v>
       </c>
       <c r="Y5" t="s">
-        <v/>
+        <v>110</v>
       </c>
       <c r="Z5" t="s">
-        <v/>
+        <v>30</v>
       </c>
       <c r="AA5" t="s">
-        <v/>
+        <v>109</v>
       </c>
     </row>
     <row r="6" ht="28.3464567" customHeight="true">
       <c r="A6" t="s">
-        <v>1244</v>
+        <v>1291</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
       <c r="C6" t="s">
-        <v>407</v>
+        <v>545</v>
       </c>
       <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" t="s">
+        <v>463</v>
+      </c>
+      <c r="I6" t="s">
+        <v>968</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" t="s">
+        <v>484</v>
+      </c>
+      <c r="V6" t="s">
+        <v>97</v>
+      </c>
+      <c r="W6" t="s">
+        <v>185</v>
+      </c>
+      <c r="X6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
-        <v>419</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>392</v>
-      </c>
-      <c r="H6" t="s">
-        <v>242</v>
-      </c>
-      <c r="I6" t="s">
-        <v>799</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1245</v>
-      </c>
-      <c r="K6" t="s">
-        <v>286</v>
-      </c>
-      <c r="L6" t="s">
-        <v>287</v>
-      </c>
-      <c r="M6" t="s">
-        <v>288</v>
-      </c>
-      <c r="N6" t="s">
-        <v>289</v>
-      </c>
-      <c r="O6" t="s">
-        <v>290</v>
-      </c>
-      <c r="P6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>120</v>
-      </c>
-      <c r="R6" t="s">
-        <v>121</v>
-      </c>
-      <c r="S6" t="s">
-        <v>122</v>
-      </c>
-      <c r="T6" t="s">
-        <v>123</v>
-      </c>
-      <c r="U6" t="s">
-        <v>62</v>
-      </c>
-      <c r="V6" t="s">
-        <v/>
-      </c>
-      <c r="W6" t="s">
-        <v/>
-      </c>
-      <c r="X6" t="s">
-        <v/>
-      </c>
       <c r="Y6" t="s">
-        <v/>
+        <v>992</v>
       </c>
       <c r="Z6" t="s">
-        <v/>
+        <v>113</v>
       </c>
       <c r="AA6" t="s">
-        <v/>
+        <v>867</v>
       </c>
     </row>
     <row r="7" ht="28.3464567" customHeight="true">
       <c r="A7" t="s">
-        <v>1246</v>
+        <v>1293</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>1025</v>
       </c>
       <c r="C7" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>1104</v>
       </c>
       <c r="E7" t="s">
-        <v>418</v>
+        <v>1125</v>
       </c>
       <c r="F7" t="s">
-        <v>199</v>
+        <v>1126</v>
       </c>
       <c r="G7" t="s">
-        <v>325</v>
+        <v>1294</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="I7" t="s">
-        <v>1247</v>
+        <v>278</v>
       </c>
       <c r="J7" t="s">
-        <v>1248</v>
+        <v>1295</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="Q7" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="R7" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="S7" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="T7" t="s">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="U7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="V7" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="W7" t="s">
-        <v>109</v>
+        <v/>
       </c>
       <c r="X7" t="s">
-        <v>62</v>
+        <v/>
       </c>
       <c r="Y7" t="s">
-        <v>63</v>
+        <v/>
       </c>
       <c r="Z7" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="AA7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" ht="28.3464567" customHeight="true">
-      <c r="A8" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C8" t="s">
-        <v>533</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" t="s">
-        <v>506</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s">
-        <v>884</v>
-      </c>
-      <c r="H8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" t="s">
-        <v>464</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1256</v>
-      </c>
-      <c r="K8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>120</v>
-      </c>
-      <c r="R8" t="s">
-        <v>121</v>
-      </c>
-      <c r="S8" t="s">
-        <v>122</v>
-      </c>
-      <c r="T8" t="s">
-        <v>123</v>
-      </c>
-      <c r="U8" t="s">
-        <v>113</v>
-      </c>
-      <c r="V8" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" t="s">
-        <v>185</v>
-      </c>
-      <c r="X8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>1257</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="9" ht="28.3464567" customHeight="true">
-      <c r="A9" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E9" t="s">
-        <v>557</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" t="s">
-        <v>502</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1258</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" t="s">
-        <v>97</v>
-      </c>
-      <c r="V9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W9" t="s">
-        <v>110</v>
-      </c>
-      <c r="X9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" ht="28.3464567" customHeight="true">
-      <c r="A10" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" t="s">
-        <v>833</v>
-      </c>
-      <c r="H10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1263</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1264</v>
-      </c>
-      <c r="K10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>125</v>
-      </c>
-      <c r="R10" t="s">
-        <v>126</v>
-      </c>
-      <c r="S10" t="s">
-        <v>127</v>
-      </c>
-      <c r="T10" t="s">
-        <v>128</v>
-      </c>
-      <c r="U10" t="s">
-        <v>62</v>
-      </c>
-      <c r="V10" t="s">
-        <v/>
-      </c>
-      <c r="W10" t="s">
-        <v/>
-      </c>
-      <c r="X10" t="s">
-        <v/>
-      </c>
-      <c r="Y10" t="s">
-        <v/>
-      </c>
-      <c r="Z10" t="s">
-        <v/>
-      </c>
-      <c r="AA10" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="28.3464567" customHeight="true">
-      <c r="A11" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1268</v>
-      </c>
-      <c r="H11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" t="s">
-        <v>740</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1269</v>
-      </c>
-      <c r="K11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" t="s">
-        <v>120</v>
-      </c>
-      <c r="M11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R11" t="s">
-        <v>126</v>
-      </c>
-      <c r="S11" t="s">
-        <v>127</v>
-      </c>
-      <c r="T11" t="s">
-        <v>128</v>
-      </c>
-      <c r="U11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V11" t="s">
-        <v/>
-      </c>
-      <c r="W11" t="s">
-        <v/>
-      </c>
-      <c r="X11" t="s">
-        <v/>
-      </c>
-      <c r="Y11" t="s">
-        <v/>
-      </c>
-      <c r="Z11" t="s">
-        <v/>
-      </c>
-      <c r="AA11" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="28.3464567" customHeight="true">
-      <c r="A12" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>620</v>
-      </c>
-      <c r="H12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" t="s">
-        <v>623</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1273</v>
-      </c>
-      <c r="K12" t="s">
-        <v>124</v>
-      </c>
-      <c r="L12" t="s">
-        <v>125</v>
-      </c>
-      <c r="M12" t="s">
-        <v>126</v>
-      </c>
-      <c r="N12" t="s">
-        <v>127</v>
-      </c>
-      <c r="O12" t="s">
-        <v>128</v>
-      </c>
-      <c r="P12" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>233</v>
-      </c>
-      <c r="R12" t="s">
-        <v>234</v>
-      </c>
-      <c r="S12" t="s">
-        <v>235</v>
-      </c>
-      <c r="T12" t="s">
-        <v>236</v>
-      </c>
-      <c r="U12" t="s">
-        <v>62</v>
-      </c>
-      <c r="V12" t="s">
-        <v/>
-      </c>
-      <c r="W12" t="s">
-        <v/>
-      </c>
-      <c r="X12" t="s">
-        <v/>
-      </c>
-      <c r="Y12" t="s">
-        <v/>
-      </c>
-      <c r="Z12" t="s">
-        <v/>
-      </c>
-      <c r="AA12" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="28.3464567" customHeight="true">
-      <c r="A13" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B13" t="s">
-        <v>680</v>
-      </c>
-      <c r="C13" t="s">
-        <v>787</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" t="s">
-        <v>681</v>
-      </c>
-      <c r="F13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" t="s">
-        <v>535</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1252</v>
-      </c>
-      <c r="I13" t="s">
-        <v>762</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1275</v>
-      </c>
-      <c r="K13" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" t="s">
-        <v>84</v>
-      </c>
-      <c r="O13" t="s">
-        <v>85</v>
-      </c>
-      <c r="P13" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>120</v>
-      </c>
-      <c r="R13" t="s">
-        <v>121</v>
-      </c>
-      <c r="S13" t="s">
-        <v>122</v>
-      </c>
-      <c r="T13" t="s">
-        <v>123</v>
-      </c>
-      <c r="U13" t="s">
-        <v>64</v>
-      </c>
-      <c r="V13" t="s">
-        <v>62</v>
-      </c>
-      <c r="W13" t="s">
-        <v>63</v>
-      </c>
-      <c r="X13" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" ht="28.3464567" customHeight="true">
-      <c r="A14" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G14" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>861</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1281</v>
-      </c>
-      <c r="K14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>60</v>
-      </c>
-      <c r="R14" t="s">
-        <v>60</v>
-      </c>
-      <c r="S14" t="s">
-        <v>60</v>
-      </c>
-      <c r="T14" t="s">
-        <v>60</v>
-      </c>
-      <c r="U14" t="s">
-        <v>47</v>
-      </c>
-      <c r="V14" t="s">
-        <v>62</v>
-      </c>
-      <c r="W14" t="s">
-        <v>63</v>
-      </c>
-      <c r="X14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>49</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -32104,7 +32745,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="13" min="13" style="0" width="20.75" customWidth="true"/>
+    <col max="14" min="14" style="0" width="20.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -35029,8 +35670,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="8" min="8" style="0" width="24.25" customWidth="true"/>
-    <col hidden="true" max="27" min="18" style="0" width="0" customWidth="true"/>
+    <col max="9" min="9" style="0" width="24.25" customWidth="true"/>
+    <col hidden="true" max="28" min="19" style="0" width="0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">

--- a/file.xlsx
+++ b/file.xlsx
@@ -26,6 +26,7 @@
     <sheet name="2020-08-12" sheetId="16" r:id="rId16" state="visible"/>
     <sheet name="2020-08-13" sheetId="17" r:id="rId17" state="visible"/>
     <sheet name="2020-08-17" sheetId="18" r:id="rId18" state="visible"/>
+    <sheet name="2020-08-18" sheetId="19" r:id="rId19" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1359">
   <si>
     <t>比赛编号</t>
   </si>
@@ -3921,6 +3922,195 @@
   </si>
   <si>
     <t>0.706500</t>
+  </si>
+  <si>
+    <t>2020-08-18 21:40周二001</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>1.957500</t>
+  </si>
+  <si>
+    <t>2020-08-18 21:40周二002</t>
+  </si>
+  <si>
+    <t>多伦多</t>
+  </si>
+  <si>
+    <t>温哥华</t>
+  </si>
+  <si>
+    <t>6.45</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:10周三001</t>
+  </si>
+  <si>
+    <t>1.250208</t>
+  </si>
+  <si>
+    <t>15.385%</t>
+  </si>
+  <si>
+    <t>53.846%</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三002</t>
+  </si>
+  <si>
+    <t>0.810666</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三003</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>0.682950</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三004</t>
+  </si>
+  <si>
+    <t>0.917632</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三005</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>1.367415</t>
+  </si>
+  <si>
+    <t>7.143%</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三006</t>
+  </si>
+  <si>
+    <t>1.638730</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三007</t>
+  </si>
+  <si>
+    <t>0.913952</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三008</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>1.694000</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三009</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>1.119258</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三010</t>
+  </si>
+  <si>
+    <t>1.271712</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>37.931%</t>
+  </si>
+  <si>
+    <t>24.138%</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三011</t>
+  </si>
+  <si>
+    <t>0.966012</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三012</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>1.023802</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三013</t>
+  </si>
+  <si>
+    <t>0.922740</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三014</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>1.133652</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三015</t>
+  </si>
+  <si>
+    <t>0.774620</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三016</t>
+  </si>
+  <si>
+    <t>1.112824</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三017</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>0.857584</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三018</t>
+  </si>
+  <si>
+    <t>0.912108</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:40周三019</t>
+  </si>
+  <si>
+    <t>2020-08-19 18:10周三020</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>0.777480</t>
+  </si>
+  <si>
+    <t>2020-08-19 21:40周三021</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>4.950000</t>
   </si>
 </sst>
 </file>
@@ -4364,8 +4554,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="8" min="8" style="0" width="38.375" customWidth="true"/>
-    <col max="9" min="9" style="0" width="36.625" customWidth="true"/>
+    <col max="9" min="9" style="0" width="38.375" customWidth="true"/>
+    <col max="10" min="10" style="0" width="36.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -6240,10 +6430,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="8" min="8" style="0" width="25.5" customWidth="true"/>
-    <col hidden="true" max="27" min="13" style="0" width="0" customWidth="true"/>
-    <col max="28" min="28" style="0" width="17.25" customWidth="true"/>
-    <col max="29" min="29" style="0" width="13.375" customWidth="true"/>
+    <col max="9" min="9" style="0" width="25.5" customWidth="true"/>
+    <col hidden="true" max="28" min="14" style="0" width="0" customWidth="true"/>
+    <col max="29" min="29" style="0" width="17.25" customWidth="true"/>
+    <col max="30" min="30" style="0" width="13.375" customWidth="true"/>
   </cols>
   <autoFilter ref="A1:AA33"/>
   <sheetData>
@@ -16691,6 +16881,604 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16775,64 +17563,64 @@
     </row>
     <row r="2" ht="28.3464567" customHeight="true">
       <c r="A2" t="s">
-        <v>1282</v>
+        <v>1296</v>
       </c>
       <c r="B2" t="s">
-        <v>405</v>
+        <v>1072</v>
       </c>
       <c r="C2" t="s">
-        <v>506</v>
+        <v>1232</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>1233</v>
       </c>
       <c r="E2" t="s">
-        <v>533</v>
+        <v>1141</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>1142</v>
       </c>
       <c r="G2" t="s">
-        <v>956</v>
+        <v>1297</v>
       </c>
       <c r="H2" t="s">
-        <v>259</v>
+        <v>799</v>
       </c>
       <c r="I2" t="s">
-        <v>955</v>
+        <v>827</v>
       </c>
       <c r="J2" t="s">
-        <v>1283</v>
+        <v>1298</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s">
         <v>62</v>
@@ -16858,396 +17646,396 @@
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
       <c r="A3" t="s">
-        <v>1284</v>
+        <v>1299</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>632</v>
       </c>
       <c r="C3" t="s">
-        <v>419</v>
+        <v>1300</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>407</v>
+        <v>1301</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>348</v>
       </c>
       <c r="H3" t="s">
-        <v>366</v>
+        <v>592</v>
       </c>
       <c r="I3" t="s">
-        <v>1285</v>
+        <v>1302</v>
       </c>
       <c r="J3" t="s">
-        <v>1286</v>
+        <v>351</v>
       </c>
       <c r="K3" t="s">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="Q3" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="R3" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="S3" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="T3" t="s">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="W3" t="s">
-        <v>185</v>
+        <v/>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v/>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v/>
       </c>
       <c r="Z3" t="s">
-        <v>30</v>
+        <v/>
       </c>
       <c r="AA3" t="s">
-        <v>184</v>
+        <v/>
       </c>
     </row>
     <row r="4" ht="28.3464567" customHeight="true">
       <c r="A4" t="s">
-        <v>1287</v>
+        <v>1303</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>617</v>
       </c>
       <c r="C4" t="s">
-        <v>418</v>
+        <v>1065</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>512</v>
+        <v>1122</v>
       </c>
       <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" t="s">
+        <v>502</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K4" t="s">
+        <v>307</v>
+      </c>
+      <c r="L4" t="s">
+        <v>308</v>
+      </c>
+      <c r="M4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N4" t="s">
+        <v>310</v>
+      </c>
+      <c r="O4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" t="s">
+        <v>156</v>
+      </c>
+      <c r="T4" t="s">
+        <v>157</v>
+      </c>
+      <c r="U4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
-        <v>294</v>
-      </c>
-      <c r="H4" t="s">
-        <v>378</v>
-      </c>
-      <c r="I4" t="s">
-        <v>702</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1288</v>
-      </c>
-      <c r="K4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N4" t="s">
-        <v>156</v>
-      </c>
-      <c r="O4" t="s">
-        <v>157</v>
-      </c>
-      <c r="P4" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>125</v>
-      </c>
-      <c r="R4" t="s">
-        <v>126</v>
-      </c>
-      <c r="S4" t="s">
-        <v>127</v>
-      </c>
-      <c r="T4" t="s">
-        <v>128</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="X4" t="s">
         <v>30</v>
       </c>
-      <c r="V4" t="s">
-        <v>64</v>
-      </c>
-      <c r="W4" t="s">
-        <v>109</v>
-      </c>
-      <c r="X4" t="s">
-        <v>62</v>
-      </c>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>1305</v>
       </c>
       <c r="Z4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="AA4" t="s">
-        <v>109</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="5" ht="28.3464567" customHeight="true">
       <c r="A5" t="s">
-        <v>1289</v>
+        <v>1307</v>
       </c>
       <c r="B5" t="s">
-        <v>405</v>
+        <v>655</v>
       </c>
       <c r="C5" t="s">
-        <v>527</v>
+        <v>691</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>523</v>
+        <v>687</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>636</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="J5" t="s">
-        <v>1290</v>
+        <v>1308</v>
       </c>
       <c r="K5" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="L5" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="M5" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="N5" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="O5" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="P5" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="Q5" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="R5" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="S5" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="T5" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="V5" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="W5" t="s">
-        <v>110</v>
+        <v/>
       </c>
       <c r="X5" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="Y5" t="s">
-        <v>110</v>
+        <v/>
       </c>
       <c r="Z5" t="s">
-        <v>30</v>
+        <v/>
       </c>
       <c r="AA5" t="s">
-        <v>109</v>
+        <v/>
       </c>
     </row>
     <row r="6" ht="28.3464567" customHeight="true">
       <c r="A6" t="s">
-        <v>1291</v>
+        <v>1309</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
+        <v>672</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>375</v>
+        <v>701</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>1007</v>
       </c>
       <c r="H6" t="s">
-        <v>463</v>
+        <v>884</v>
       </c>
       <c r="I6" t="s">
-        <v>968</v>
+        <v>1310</v>
       </c>
       <c r="J6" t="s">
-        <v>1292</v>
+        <v>1311</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="P6" t="s">
-        <v>59</v>
+        <v>335</v>
       </c>
       <c r="Q6" t="s">
-        <v>60</v>
+        <v>336</v>
       </c>
       <c r="R6" t="s">
-        <v>60</v>
+        <v>337</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>338</v>
       </c>
       <c r="T6" t="s">
-        <v>60</v>
+        <v>339</v>
       </c>
       <c r="U6" t="s">
-        <v>484</v>
+        <v>62</v>
       </c>
       <c r="V6" t="s">
-        <v>97</v>
+        <v/>
       </c>
       <c r="W6" t="s">
-        <v>185</v>
+        <v/>
       </c>
       <c r="X6" t="s">
-        <v>47</v>
+        <v/>
       </c>
       <c r="Y6" t="s">
-        <v>992</v>
+        <v/>
       </c>
       <c r="Z6" t="s">
-        <v>113</v>
+        <v/>
       </c>
       <c r="AA6" t="s">
-        <v>867</v>
+        <v/>
       </c>
     </row>
     <row r="7" ht="28.3464567" customHeight="true">
       <c r="A7" t="s">
-        <v>1293</v>
+        <v>1312</v>
       </c>
       <c r="B7" t="s">
-        <v>1025</v>
+        <v>655</v>
       </c>
       <c r="C7" t="s">
-        <v>601</v>
+        <v>700</v>
       </c>
       <c r="D7" t="s">
-        <v>1104</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>1125</v>
+        <v>686</v>
       </c>
       <c r="F7" t="s">
-        <v>1126</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>1294</v>
+        <v>202</v>
       </c>
       <c r="H7" t="s">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>278</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>1295</v>
+        <v>1313</v>
       </c>
       <c r="K7" t="s">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>253</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>268</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="s">
-        <v>269</v>
+        <v>125</v>
       </c>
       <c r="R7" t="s">
-        <v>270</v>
+        <v>126</v>
       </c>
       <c r="S7" t="s">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="T7" t="s">
-        <v>272</v>
+        <v>128</v>
       </c>
       <c r="U7" t="s">
         <v>62</v>
@@ -17268,6 +18056,1417 @@
         <v/>
       </c>
       <c r="AA7" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C8" t="s">
+        <v>706</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>657</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>385</v>
+      </c>
+      <c r="H8" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8" t="s">
+        <v>155</v>
+      </c>
+      <c r="N8" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>246</v>
+      </c>
+      <c r="R8" t="s">
+        <v>247</v>
+      </c>
+      <c r="S8" t="s">
+        <v>248</v>
+      </c>
+      <c r="T8" t="s">
+        <v>249</v>
+      </c>
+      <c r="U8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V8" t="s">
+        <v>86</v>
+      </c>
+      <c r="W8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C9" t="s">
+        <v>696</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>661</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>391</v>
+      </c>
+      <c r="H9" t="s">
+        <v>884</v>
+      </c>
+      <c r="I9" t="s">
+        <v>793</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" t="s">
+        <v>141</v>
+      </c>
+      <c r="N9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O9" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" t="s">
+        <v>122</v>
+      </c>
+      <c r="T9" t="s">
+        <v>123</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" t="s">
+        <v>62</v>
+      </c>
+      <c r="W9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C10" t="s">
+        <v>705</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="s">
+        <v>695</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>611</v>
+      </c>
+      <c r="H10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I10" t="s">
+        <v>906</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>251</v>
+      </c>
+      <c r="R10" t="s">
+        <v>251</v>
+      </c>
+      <c r="S10" t="s">
+        <v>252</v>
+      </c>
+      <c r="T10" t="s">
+        <v>253</v>
+      </c>
+      <c r="U10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" t="s">
+        <v/>
+      </c>
+      <c r="W10" t="s">
+        <v/>
+      </c>
+      <c r="X10" t="s">
+        <v/>
+      </c>
+      <c r="Y10" t="s">
+        <v/>
+      </c>
+      <c r="Z10" t="s">
+        <v/>
+      </c>
+      <c r="AA10" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B11" t="s">
+        <v>655</v>
+      </c>
+      <c r="C11" t="s">
+        <v>671</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>656</v>
+      </c>
+      <c r="F11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" t="s">
+        <v>414</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1323</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1324</v>
+      </c>
+      <c r="K11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>140</v>
+      </c>
+      <c r="R11" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" t="s">
+        <v>142</v>
+      </c>
+      <c r="T11" t="s">
+        <v>143</v>
+      </c>
+      <c r="U11" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1327</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>180</v>
+      </c>
+      <c r="R12" t="s">
+        <v>181</v>
+      </c>
+      <c r="S12" t="s">
+        <v>182</v>
+      </c>
+      <c r="T12" t="s">
+        <v>183</v>
+      </c>
+      <c r="U12" t="s">
+        <v>47</v>
+      </c>
+      <c r="V12" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" t="s">
+        <v>254</v>
+      </c>
+      <c r="X12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" t="s">
+        <v>611</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K13" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" t="s">
+        <v>269</v>
+      </c>
+      <c r="M13" t="s">
+        <v>270</v>
+      </c>
+      <c r="N13" t="s">
+        <v>271</v>
+      </c>
+      <c r="O13" t="s">
+        <v>272</v>
+      </c>
+      <c r="P13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>125</v>
+      </c>
+      <c r="R13" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" t="s">
+        <v>127</v>
+      </c>
+      <c r="T13" t="s">
+        <v>128</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="V13" t="s">
+        <v>199</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="X13" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" t="s">
+        <v>537</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" t="s">
+        <v/>
+      </c>
+      <c r="W14" t="s">
+        <v/>
+      </c>
+      <c r="X14" t="s">
+        <v/>
+      </c>
+      <c r="Y14" t="s">
+        <v/>
+      </c>
+      <c r="Z14" t="s">
+        <v/>
+      </c>
+      <c r="AA14" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="28.3464567" customHeight="true">
+      <c r="A15" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>870</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I15" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" t="s">
+        <v>169</v>
+      </c>
+      <c r="P15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" t="s">
+        <v/>
+      </c>
+      <c r="W15" t="s">
+        <v/>
+      </c>
+      <c r="X15" t="s">
+        <v/>
+      </c>
+      <c r="Y15" t="s">
+        <v/>
+      </c>
+      <c r="Z15" t="s">
+        <v/>
+      </c>
+      <c r="AA15" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="28.3464567" customHeight="true">
+      <c r="A16" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
+        <v>770</v>
+      </c>
+      <c r="I16" t="s">
+        <v>536</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K16" t="s">
+        <v>227</v>
+      </c>
+      <c r="L16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M16" t="s">
+        <v>229</v>
+      </c>
+      <c r="N16" t="s">
+        <v>230</v>
+      </c>
+      <c r="O16" t="s">
+        <v>231</v>
+      </c>
+      <c r="P16" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>125</v>
+      </c>
+      <c r="R16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T16" t="s">
+        <v>128</v>
+      </c>
+      <c r="U16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" t="s">
+        <v/>
+      </c>
+      <c r="W16" t="s">
+        <v/>
+      </c>
+      <c r="X16" t="s">
+        <v/>
+      </c>
+      <c r="Y16" t="s">
+        <v/>
+      </c>
+      <c r="Z16" t="s">
+        <v/>
+      </c>
+      <c r="AA16" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="28.3464567" customHeight="true">
+      <c r="A17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>537</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K17" t="s">
+        <v>674</v>
+      </c>
+      <c r="L17" t="s">
+        <v>675</v>
+      </c>
+      <c r="M17" t="s">
+        <v>676</v>
+      </c>
+      <c r="N17" t="s">
+        <v>677</v>
+      </c>
+      <c r="O17" t="s">
+        <v>678</v>
+      </c>
+      <c r="P17" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>269</v>
+      </c>
+      <c r="R17" t="s">
+        <v>270</v>
+      </c>
+      <c r="S17" t="s">
+        <v>271</v>
+      </c>
+      <c r="T17" t="s">
+        <v>272</v>
+      </c>
+      <c r="U17" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W17" t="s">
+        <v>211</v>
+      </c>
+      <c r="X17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" ht="28.3464567" customHeight="true">
+      <c r="A18" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>455</v>
+      </c>
+      <c r="H18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" t="s">
+        <v>826</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L18" t="s">
+        <v>228</v>
+      </c>
+      <c r="M18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N18" t="s">
+        <v>230</v>
+      </c>
+      <c r="O18" t="s">
+        <v>231</v>
+      </c>
+      <c r="P18" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>287</v>
+      </c>
+      <c r="R18" t="s">
+        <v>288</v>
+      </c>
+      <c r="S18" t="s">
+        <v>289</v>
+      </c>
+      <c r="T18" t="s">
+        <v>290</v>
+      </c>
+      <c r="U18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" t="s">
+        <v/>
+      </c>
+      <c r="W18" t="s">
+        <v/>
+      </c>
+      <c r="X18" t="s">
+        <v/>
+      </c>
+      <c r="Y18" t="s">
+        <v/>
+      </c>
+      <c r="Z18" t="s">
+        <v/>
+      </c>
+      <c r="AA18" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="28.3464567" customHeight="true">
+      <c r="A19" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" t="s">
+        <v>536</v>
+      </c>
+      <c r="I19" t="s">
+        <v>822</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K19" t="s">
+        <v>227</v>
+      </c>
+      <c r="L19" t="s">
+        <v>228</v>
+      </c>
+      <c r="M19" t="s">
+        <v>229</v>
+      </c>
+      <c r="N19" t="s">
+        <v>230</v>
+      </c>
+      <c r="O19" t="s">
+        <v>231</v>
+      </c>
+      <c r="P19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>125</v>
+      </c>
+      <c r="R19" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19" t="s">
+        <v>127</v>
+      </c>
+      <c r="T19" t="s">
+        <v>128</v>
+      </c>
+      <c r="U19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" t="s">
+        <v>30</v>
+      </c>
+      <c r="W19" t="s">
+        <v>109</v>
+      </c>
+      <c r="X19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" ht="28.3464567" customHeight="true">
+      <c r="A20" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>233</v>
+      </c>
+      <c r="R20" t="s">
+        <v>234</v>
+      </c>
+      <c r="S20" t="s">
+        <v>235</v>
+      </c>
+      <c r="T20" t="s">
+        <v>236</v>
+      </c>
+      <c r="U20" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" t="s">
+        <v/>
+      </c>
+      <c r="W20" t="s">
+        <v/>
+      </c>
+      <c r="X20" t="s">
+        <v/>
+      </c>
+      <c r="Y20" t="s">
+        <v/>
+      </c>
+      <c r="Z20" t="s">
+        <v/>
+      </c>
+      <c r="AA20" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="28.3464567" customHeight="true">
+      <c r="A21" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K21" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" t="s">
+        <v>154</v>
+      </c>
+      <c r="M21" t="s">
+        <v>155</v>
+      </c>
+      <c r="N21" t="s">
+        <v>156</v>
+      </c>
+      <c r="O21" t="s">
+        <v>157</v>
+      </c>
+      <c r="P21" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>228</v>
+      </c>
+      <c r="R21" t="s">
+        <v>229</v>
+      </c>
+      <c r="S21" t="s">
+        <v>230</v>
+      </c>
+      <c r="T21" t="s">
+        <v>231</v>
+      </c>
+      <c r="U21" t="s">
+        <v>62</v>
+      </c>
+      <c r="V21" t="s">
+        <v/>
+      </c>
+      <c r="W21" t="s">
+        <v/>
+      </c>
+      <c r="X21" t="s">
+        <v/>
+      </c>
+      <c r="Y21" t="s">
+        <v/>
+      </c>
+      <c r="Z21" t="s">
+        <v/>
+      </c>
+      <c r="AA21" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="28.3464567" customHeight="true">
+      <c r="A22" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>597</v>
+      </c>
+      <c r="H22" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>598</v>
+      </c>
+      <c r="K22" t="s">
+        <v>245</v>
+      </c>
+      <c r="L22" t="s">
+        <v>246</v>
+      </c>
+      <c r="M22" t="s">
+        <v>247</v>
+      </c>
+      <c r="N22" t="s">
+        <v>248</v>
+      </c>
+      <c r="O22" t="s">
+        <v>249</v>
+      </c>
+      <c r="P22" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>166</v>
+      </c>
+      <c r="R22" t="s">
+        <v>167</v>
+      </c>
+      <c r="S22" t="s">
+        <v>168</v>
+      </c>
+      <c r="T22" t="s">
+        <v>169</v>
+      </c>
+      <c r="U22" t="s">
+        <v>62</v>
+      </c>
+      <c r="V22" t="s">
+        <v/>
+      </c>
+      <c r="W22" t="s">
+        <v/>
+      </c>
+      <c r="X22" t="s">
+        <v/>
+      </c>
+      <c r="Y22" t="s">
+        <v/>
+      </c>
+      <c r="Z22" t="s">
+        <v/>
+      </c>
+      <c r="AA22" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="28.3464567" customHeight="true">
+      <c r="A23" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B23" t="s">
+        <v>655</v>
+      </c>
+      <c r="C23" t="s">
+        <v>667</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>692</v>
+      </c>
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" t="s">
+        <v>884</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" t="s">
+        <v>62</v>
+      </c>
+      <c r="V23" t="s">
+        <v/>
+      </c>
+      <c r="W23" t="s">
+        <v/>
+      </c>
+      <c r="X23" t="s">
+        <v/>
+      </c>
+      <c r="Y23" t="s">
+        <v/>
+      </c>
+      <c r="Z23" t="s">
+        <v/>
+      </c>
+      <c r="AA23" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="28.3464567" customHeight="true">
+      <c r="A24" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H24" t="s">
+        <v>350</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K24" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" t="s">
+        <v/>
+      </c>
+      <c r="W24" t="s">
+        <v/>
+      </c>
+      <c r="X24" t="s">
+        <v/>
+      </c>
+      <c r="Y24" t="s">
+        <v/>
+      </c>
+      <c r="Z24" t="s">
+        <v/>
+      </c>
+      <c r="AA24" t="s">
         <v/>
       </c>
     </row>
@@ -32745,7 +34944,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="14" min="14" style="0" width="20.75" customWidth="true"/>
+    <col max="15" min="15" style="0" width="20.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -35670,8 +37869,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="9" min="9" style="0" width="24.25" customWidth="true"/>
-    <col hidden="true" max="28" min="19" style="0" width="0" customWidth="true"/>
+    <col max="10" min="10" style="0" width="24.25" customWidth="true"/>
+    <col hidden="true" max="29" min="20" style="0" width="0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">

--- a/file.xlsx
+++ b/file.xlsx
@@ -27,6 +27,11 @@
     <sheet name="2020-08-13" sheetId="17" r:id="rId17" state="visible"/>
     <sheet name="2020-08-17" sheetId="18" r:id="rId18" state="visible"/>
     <sheet name="2020-08-18" sheetId="19" r:id="rId19" state="visible"/>
+    <sheet name="2020-08-20" sheetId="20" r:id="rId20" state="visible"/>
+    <sheet name="2020-08-24" sheetId="21" r:id="rId21" state="visible"/>
+    <sheet name="2020-08-25" sheetId="22" r:id="rId22" state="visible"/>
+    <sheet name="2020-08-27" sheetId="23" r:id="rId23" state="visible"/>
+    <sheet name="2020-08-28" sheetId="24" r:id="rId24" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1534">
   <si>
     <t>比赛编号</t>
   </si>
@@ -4111,6 +4116,531 @@
   </si>
   <si>
     <t>4.950000</t>
+  </si>
+  <si>
+    <t>2020-08-20 21:40周四001</t>
+  </si>
+  <si>
+    <t>1.267572</t>
+  </si>
+  <si>
+    <t>2020-08-20 21:40周四002</t>
+  </si>
+  <si>
+    <t>塞阿拉</t>
+  </si>
+  <si>
+    <t>0.737704</t>
+  </si>
+  <si>
+    <t>2020-08-20 21:40周四003</t>
+  </si>
+  <si>
+    <t>巴伊亚</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>0.602138</t>
+  </si>
+  <si>
+    <t>2020-08-20 21:40周四004</t>
+  </si>
+  <si>
+    <t>纽约红牛</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>1.217260</t>
+  </si>
+  <si>
+    <t>2020-08-20 21:40周四005</t>
+  </si>
+  <si>
+    <t>哥伦布</t>
+  </si>
+  <si>
+    <t>芝加哥</t>
+  </si>
+  <si>
+    <t>1.004727</t>
+  </si>
+  <si>
+    <t>2020-08-20 21:40周四006</t>
+  </si>
+  <si>
+    <t>0.879040</t>
+  </si>
+  <si>
+    <t>2020-08-21 21:40周五001</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>9.615%</t>
+  </si>
+  <si>
+    <t>48.077%</t>
+  </si>
+  <si>
+    <t>42.308%</t>
+  </si>
+  <si>
+    <t>2020-08-24 21:40周一001</t>
+  </si>
+  <si>
+    <t>0.921200</t>
+  </si>
+  <si>
+    <t>2020-08-24 21:40周一002</t>
+  </si>
+  <si>
+    <t>0.951936</t>
+  </si>
+  <si>
+    <t>2020-08-24 21:40周一003</t>
+  </si>
+  <si>
+    <t>1.161015</t>
+  </si>
+  <si>
+    <t>2020-08-24 21:40周一004</t>
+  </si>
+  <si>
+    <t>法乙</t>
+  </si>
+  <si>
+    <t>特鲁瓦</t>
+  </si>
+  <si>
+    <t>勒阿弗尔</t>
+  </si>
+  <si>
+    <t>0.911635</t>
+  </si>
+  <si>
+    <t>2020-08-24 21:40周一005</t>
+  </si>
+  <si>
+    <t>0.749300</t>
+  </si>
+  <si>
+    <t>2020-08-25 21:40周二002</t>
+  </si>
+  <si>
+    <t>1.084864</t>
+  </si>
+  <si>
+    <t>2020-08-25 21:40周二003</t>
+  </si>
+  <si>
+    <t>0.889350</t>
+  </si>
+  <si>
+    <t>2020-08-25 21:40周二004</t>
+  </si>
+  <si>
+    <t>辛辛那提</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>0.615519</t>
+  </si>
+  <si>
+    <t>2020-08-25 21:40周二005</t>
+  </si>
+  <si>
+    <t>蒙特利尔</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>0.759876</t>
+  </si>
+  <si>
+    <t>2020-08-25 21:40周二006</t>
+  </si>
+  <si>
+    <t>休斯敦</t>
+  </si>
+  <si>
+    <t>0.861232</t>
+  </si>
+  <si>
+    <t>2020-08-26 14:40周三001</t>
+  </si>
+  <si>
+    <t>0.847938</t>
+  </si>
+  <si>
+    <t>2020-08-26 17:40周三002</t>
+  </si>
+  <si>
+    <t>1.446980</t>
+  </si>
+  <si>
+    <t>2020-08-26 17:40周三003</t>
+  </si>
+  <si>
+    <t>1.129779</t>
+  </si>
+  <si>
+    <t>2020-08-26 17:50周三004</t>
+  </si>
+  <si>
+    <t>0.848170</t>
+  </si>
+  <si>
+    <t>2020-08-26 18:10周三005</t>
+  </si>
+  <si>
+    <t>0.801040</t>
+  </si>
+  <si>
+    <t>2020-08-27 21:40周四001</t>
+  </si>
+  <si>
+    <t>明迪纳摩</t>
+  </si>
+  <si>
+    <t>8白超</t>
+  </si>
+  <si>
+    <t>格里维治</t>
+  </si>
+  <si>
+    <t>16波超</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>1.134000</t>
+  </si>
+  <si>
+    <t>2020-08-27 21:40周四002</t>
+  </si>
+  <si>
+    <t>4挪超</t>
+  </si>
+  <si>
+    <t>贝雷达比</t>
+  </si>
+  <si>
+    <t>3冰超</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>0.531000</t>
+  </si>
+  <si>
+    <t>2020-08-27 21:40周四003</t>
+  </si>
+  <si>
+    <t>新圣徒</t>
+  </si>
+  <si>
+    <t>2威超</t>
+  </si>
+  <si>
+    <t>日利纳</t>
+  </si>
+  <si>
+    <t>4斯超</t>
+  </si>
+  <si>
+    <t>1.935000</t>
+  </si>
+  <si>
+    <t>65.000%</t>
+  </si>
+  <si>
+    <t>2020-08-27 21:40周四004</t>
+  </si>
+  <si>
+    <t>马瑟韦尔</t>
+  </si>
+  <si>
+    <t>10苏超</t>
+  </si>
+  <si>
+    <t>格伦托兰</t>
+  </si>
+  <si>
+    <t>5北超</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>0.508500</t>
+  </si>
+  <si>
+    <t>2020-08-29 16:40周六001</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>1.076568</t>
+  </si>
+  <si>
+    <t>2020-08-29 16:40周六002</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>1.230724</t>
+  </si>
+  <si>
+    <t>2020-08-29 16:40周六003</t>
+  </si>
+  <si>
+    <t>1.165114</t>
+  </si>
+  <si>
+    <t>2020-08-29 17:40周六005</t>
+  </si>
+  <si>
+    <t>0.911610</t>
+  </si>
+  <si>
+    <t>2020-08-29 17:40周六006</t>
+  </si>
+  <si>
+    <t>1.071900</t>
+  </si>
+  <si>
+    <t>2020-08-29 17:40周六007</t>
+  </si>
+  <si>
+    <t>1.034005</t>
+  </si>
+  <si>
+    <t>2020-08-29 17:40周六008</t>
+  </si>
+  <si>
+    <t>0.667170</t>
+  </si>
+  <si>
+    <t>2020-08-29 17:40周六009</t>
+  </si>
+  <si>
+    <t>0.720936</t>
+  </si>
+  <si>
+    <t>2020-08-29 17:40周六010</t>
+  </si>
+  <si>
+    <t>0.872058</t>
+  </si>
+  <si>
+    <t>2020-08-29 17:40周六011</t>
+  </si>
+  <si>
+    <t>1.010848</t>
+  </si>
+  <si>
+    <t>2020-08-29 17:40周六012</t>
+  </si>
+  <si>
+    <t>2020-08-29 17:40周六013</t>
+  </si>
+  <si>
+    <t>0.915864</t>
+  </si>
+  <si>
+    <t>2020-08-29 17:40周六014</t>
+  </si>
+  <si>
+    <t>2020-08-29 17:40周六015</t>
+  </si>
+  <si>
+    <t>1.230952</t>
+  </si>
+  <si>
+    <t>2020-08-29 17:40周六016</t>
+  </si>
+  <si>
+    <t>1.122672</t>
+  </si>
+  <si>
+    <t>2020-08-29 20:40周六018</t>
+  </si>
+  <si>
+    <t>南　锡</t>
+  </si>
+  <si>
+    <t>甘　冈</t>
+  </si>
+  <si>
+    <t>1.220204</t>
+  </si>
+  <si>
+    <t>2020-08-29 20:40周六019</t>
+  </si>
+  <si>
+    <t>卡　昂</t>
+  </si>
+  <si>
+    <t>阿雅克肖</t>
+  </si>
+  <si>
+    <t>1.114652</t>
+  </si>
+  <si>
+    <t>2020-08-29 22:40周六029</t>
+  </si>
+  <si>
+    <t>亚　眠</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>0.865657</t>
+  </si>
+  <si>
+    <t>2020-08-29 22:40周六030</t>
+  </si>
+  <si>
+    <t>尼奥尔</t>
+  </si>
+  <si>
+    <t>尚布利</t>
+  </si>
+  <si>
+    <t>1.189934</t>
+  </si>
+  <si>
+    <t>2020-08-29 22:40周六031</t>
+  </si>
+  <si>
+    <t>索　肖</t>
+  </si>
+  <si>
+    <t>1.297605</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>37.037%</t>
+  </si>
+  <si>
+    <t>40.741%</t>
+  </si>
+  <si>
+    <t>2020-08-29 22:40周六032</t>
+  </si>
+  <si>
+    <t>格勒诺布</t>
+  </si>
+  <si>
+    <t>图卢兹</t>
+  </si>
+  <si>
+    <t>0.902928</t>
+  </si>
+  <si>
+    <t>2020-08-29 22:40周六033</t>
+  </si>
+  <si>
+    <t>沙托鲁</t>
+  </si>
+  <si>
+    <t>欧塞尔</t>
+  </si>
+  <si>
+    <t>1.694880</t>
+  </si>
+  <si>
+    <t>2020-08-29 22:40周六034</t>
+  </si>
+  <si>
+    <t>巴黎FC</t>
+  </si>
+  <si>
+    <t>瓦朗谢纳</t>
+  </si>
+  <si>
+    <t>2020-08-29 22:40周六035</t>
+  </si>
+  <si>
+    <t>波城</t>
+  </si>
+  <si>
+    <t>罗德兹</t>
+  </si>
+  <si>
+    <t>0.959665</t>
+  </si>
+  <si>
+    <t>2020-08-29 22:40周六036</t>
+  </si>
+  <si>
+    <t>敦刻尔克</t>
+  </si>
+  <si>
+    <t>克莱蒙</t>
+  </si>
+  <si>
+    <t>1.280468</t>
+  </si>
+  <si>
+    <t>34.615%</t>
+  </si>
+  <si>
+    <t>23.077%</t>
+  </si>
+  <si>
+    <t>2020-08-30 16:10周日001</t>
+  </si>
+  <si>
+    <t>1.106379</t>
+  </si>
+  <si>
+    <t>2020-08-30 16:40周日003</t>
+  </si>
+  <si>
+    <t>1.508600</t>
+  </si>
+  <si>
+    <t>2020-08-30 16:40周日004</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>0.910115</t>
+  </si>
+  <si>
+    <t>2020-08-30 17:40周日005</t>
+  </si>
+  <si>
+    <t>1.050168</t>
+  </si>
+  <si>
+    <t>2020-08-30 17:40周日006</t>
+  </si>
+  <si>
+    <t>1.709525</t>
   </si>
 </sst>
 </file>
@@ -4554,8 +5084,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="9" min="9" style="0" width="38.375" customWidth="true"/>
-    <col max="10" min="10" style="0" width="36.625" customWidth="true"/>
+    <col max="14" min="14" style="0" width="38.375" customWidth="true"/>
+    <col max="15" min="15" style="0" width="36.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -6430,10 +6960,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="9" min="9" style="0" width="25.5" customWidth="true"/>
-    <col hidden="true" max="28" min="14" style="0" width="0" customWidth="true"/>
-    <col max="29" min="29" style="0" width="17.25" customWidth="true"/>
-    <col max="30" min="30" style="0" width="13.375" customWidth="true"/>
+    <col max="14" min="14" style="0" width="25.5" customWidth="true"/>
+    <col hidden="true" max="33" min="19" style="0" width="0" customWidth="true"/>
+    <col max="34" min="34" style="0" width="17.25" customWidth="true"/>
+    <col max="35" min="35" style="0" width="13.375" customWidth="true"/>
   </cols>
   <autoFilter ref="A1:AA33"/>
   <sheetData>
@@ -17479,1994 +18009,1994 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="28.3464567" customHeight="true">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>1298</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V2" t="s">
-        <v/>
-      </c>
-      <c r="W2" t="s">
-        <v/>
-      </c>
-      <c r="X2" t="s">
-        <v/>
-      </c>
-      <c r="Y2" t="s">
-        <v/>
-      </c>
-      <c r="Z2" t="s">
-        <v/>
-      </c>
-      <c r="AA2" t="s">
+      <c r="V2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V3" t="s">
-        <v/>
-      </c>
-      <c r="W3" t="s">
-        <v/>
-      </c>
-      <c r="X3" t="s">
-        <v/>
-      </c>
-      <c r="Y3" t="s">
-        <v/>
-      </c>
-      <c r="Z3" t="s">
-        <v/>
-      </c>
-      <c r="AA3" t="s">
+      <c r="V3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="4" ht="28.3464567" customHeight="true">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>1304</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="3" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="5" ht="28.3464567" customHeight="true">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="3" t="s">
         <v>1308</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V5" t="s">
-        <v/>
-      </c>
-      <c r="W5" t="s">
-        <v/>
-      </c>
-      <c r="X5" t="s">
-        <v/>
-      </c>
-      <c r="Y5" t="s">
-        <v/>
-      </c>
-      <c r="Z5" t="s">
-        <v/>
-      </c>
-      <c r="AA5" t="s">
+      <c r="V5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="6" ht="28.3464567" customHeight="true">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V6" t="s">
-        <v/>
-      </c>
-      <c r="W6" t="s">
-        <v/>
-      </c>
-      <c r="X6" t="s">
-        <v/>
-      </c>
-      <c r="Y6" t="s">
-        <v/>
-      </c>
-      <c r="Z6" t="s">
-        <v/>
-      </c>
-      <c r="AA6" t="s">
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="7" ht="28.3464567" customHeight="true">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V7" t="s">
-        <v/>
-      </c>
-      <c r="W7" t="s">
-        <v/>
-      </c>
-      <c r="X7" t="s">
-        <v/>
-      </c>
-      <c r="Y7" t="s">
-        <v/>
-      </c>
-      <c r="Z7" t="s">
-        <v/>
-      </c>
-      <c r="AA7" t="s">
+      <c r="V7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA7" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="8" ht="28.3464567" customHeight="true">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" ht="28.3464567" customHeight="true">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" ht="28.3464567" customHeight="true">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V10" t="s">
-        <v/>
-      </c>
-      <c r="W10" t="s">
-        <v/>
-      </c>
-      <c r="X10" t="s">
-        <v/>
-      </c>
-      <c r="Y10" t="s">
-        <v/>
-      </c>
-      <c r="Z10" t="s">
-        <v/>
-      </c>
-      <c r="AA10" t="s">
+      <c r="V10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA10" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="11" ht="28.3464567" customHeight="true">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA11" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="12" ht="28.3464567" customHeight="true">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" ht="28.3464567" customHeight="true">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="X13" t="s">
+      <c r="X13" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="3" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="14" ht="28.3464567" customHeight="true">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V14" t="s">
-        <v/>
-      </c>
-      <c r="W14" t="s">
-        <v/>
-      </c>
-      <c r="X14" t="s">
-        <v/>
-      </c>
-      <c r="Y14" t="s">
-        <v/>
-      </c>
-      <c r="Z14" t="s">
-        <v/>
-      </c>
-      <c r="AA14" t="s">
+      <c r="V14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="15" ht="28.3464567" customHeight="true">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3" t="s">
         <v>1336</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V15" t="s">
-        <v/>
-      </c>
-      <c r="W15" t="s">
-        <v/>
-      </c>
-      <c r="X15" t="s">
-        <v/>
-      </c>
-      <c r="Y15" t="s">
-        <v/>
-      </c>
-      <c r="Z15" t="s">
-        <v/>
-      </c>
-      <c r="AA15" t="s">
+      <c r="V15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA15" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="16" ht="28.3464567" customHeight="true">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>1338</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V16" t="s">
-        <v/>
-      </c>
-      <c r="W16" t="s">
-        <v/>
-      </c>
-      <c r="X16" t="s">
-        <v/>
-      </c>
-      <c r="Y16" t="s">
-        <v/>
-      </c>
-      <c r="Z16" t="s">
-        <v/>
-      </c>
-      <c r="AA16" t="s">
+      <c r="V16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA16" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="17" ht="28.3464567" customHeight="true">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>1341</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T17" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="X17" t="s">
+      <c r="X17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Z17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AA17" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" ht="28.3464567" customHeight="true">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V18" t="s">
-        <v/>
-      </c>
-      <c r="W18" t="s">
-        <v/>
-      </c>
-      <c r="X18" t="s">
-        <v/>
-      </c>
-      <c r="Y18" t="s">
-        <v/>
-      </c>
-      <c r="Z18" t="s">
-        <v/>
-      </c>
-      <c r="AA18" t="s">
+      <c r="V18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA18" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="19" ht="28.3464567" customHeight="true">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Z19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AA19" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" ht="28.3464567" customHeight="true">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>1347</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3" t="s">
         <v>1348</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V20" t="s">
-        <v/>
-      </c>
-      <c r="W20" t="s">
-        <v/>
-      </c>
-      <c r="X20" t="s">
-        <v/>
-      </c>
-      <c r="Y20" t="s">
-        <v/>
-      </c>
-      <c r="Z20" t="s">
-        <v/>
-      </c>
-      <c r="AA20" t="s">
+      <c r="V20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA20" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="21" ht="28.3464567" customHeight="true">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>1350</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V21" t="s">
-        <v/>
-      </c>
-      <c r="W21" t="s">
-        <v/>
-      </c>
-      <c r="X21" t="s">
-        <v/>
-      </c>
-      <c r="Y21" t="s">
-        <v/>
-      </c>
-      <c r="Z21" t="s">
-        <v/>
-      </c>
-      <c r="AA21" t="s">
+      <c r="V21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA21" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="22" ht="28.3464567" customHeight="true">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>1352</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V22" t="s">
-        <v/>
-      </c>
-      <c r="W22" t="s">
-        <v/>
-      </c>
-      <c r="X22" t="s">
-        <v/>
-      </c>
-      <c r="Y22" t="s">
-        <v/>
-      </c>
-      <c r="Z22" t="s">
-        <v/>
-      </c>
-      <c r="AA22" t="s">
+      <c r="V22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA22" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="23" ht="28.3464567" customHeight="true">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>1353</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>1354</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>1355</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T23" t="s">
+      <c r="T23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V23" t="s">
-        <v/>
-      </c>
-      <c r="W23" t="s">
-        <v/>
-      </c>
-      <c r="X23" t="s">
-        <v/>
-      </c>
-      <c r="Y23" t="s">
-        <v/>
-      </c>
-      <c r="Z23" t="s">
-        <v/>
-      </c>
-      <c r="AA23" t="s">
+      <c r="V23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA23" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="24" ht="28.3464567" customHeight="true">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="3" t="s">
         <v>1358</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L24" t="s">
-        <v>60</v>
-      </c>
-      <c r="M24" t="s">
-        <v>60</v>
-      </c>
-      <c r="N24" t="s">
-        <v>60</v>
-      </c>
-      <c r="O24" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="L24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q24" t="s">
-        <v>60</v>
-      </c>
-      <c r="R24" t="s">
-        <v>60</v>
-      </c>
-      <c r="S24" t="s">
-        <v>60</v>
-      </c>
-      <c r="T24" t="s">
-        <v>60</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="Q24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V24" t="s">
-        <v/>
-      </c>
-      <c r="W24" t="s">
-        <v/>
-      </c>
-      <c r="X24" t="s">
-        <v/>
-      </c>
-      <c r="Y24" t="s">
-        <v/>
-      </c>
-      <c r="Z24" t="s">
-        <v/>
-      </c>
-      <c r="AA24" t="s">
+      <c r="V24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA24" s="3" t="s">
         <v/>
       </c>
     </row>
@@ -23309,6 +23839,5154 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA8"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA31"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" t="s">
+        <v>157</v>
+      </c>
+      <c r="U2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H3" t="s">
+        <v>969</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="K3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U3" t="s">
+        <v>484</v>
+      </c>
+      <c r="V3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W3" t="s">
+        <v>867</v>
+      </c>
+      <c r="X3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>992</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" t="s">
+        <v>969</v>
+      </c>
+      <c r="I4" t="s">
+        <v>823</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N4" t="s">
+        <v>252</v>
+      </c>
+      <c r="O4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" t="s">
+        <v>128</v>
+      </c>
+      <c r="U4" t="s">
+        <v>113</v>
+      </c>
+      <c r="V4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" t="s">
+        <v>776</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>686</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" t="s">
+        <v>294</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K5" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" t="s">
+        <v>296</v>
+      </c>
+      <c r="M5" t="s">
+        <v>297</v>
+      </c>
+      <c r="N5" t="s">
+        <v>298</v>
+      </c>
+      <c r="O5" t="s">
+        <v>299</v>
+      </c>
+      <c r="P5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>193</v>
+      </c>
+      <c r="R5" t="s">
+        <v>194</v>
+      </c>
+      <c r="S5" t="s">
+        <v>195</v>
+      </c>
+      <c r="T5" t="s">
+        <v>196</v>
+      </c>
+      <c r="U5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" t="s">
+        <v/>
+      </c>
+      <c r="W5" t="s">
+        <v/>
+      </c>
+      <c r="X5" t="s">
+        <v/>
+      </c>
+      <c r="Y5" t="s">
+        <v/>
+      </c>
+      <c r="Z5" t="s">
+        <v/>
+      </c>
+      <c r="AA5" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>661</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>762</v>
+      </c>
+      <c r="H6" t="s">
+        <v>636</v>
+      </c>
+      <c r="I6" t="s">
+        <v>989</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" t="s">
+        <v/>
+      </c>
+      <c r="W6" t="s">
+        <v/>
+      </c>
+      <c r="X6" t="s">
+        <v/>
+      </c>
+      <c r="Y6" t="s">
+        <v/>
+      </c>
+      <c r="Z6" t="s">
+        <v/>
+      </c>
+      <c r="AA6" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C7" t="s">
+        <v>695</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>656</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>702</v>
+      </c>
+      <c r="H7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I7" t="s">
+        <v>668</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="K7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M7" t="s">
+        <v>288</v>
+      </c>
+      <c r="N7" t="s">
+        <v>289</v>
+      </c>
+      <c r="O7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>193</v>
+      </c>
+      <c r="R7" t="s">
+        <v>194</v>
+      </c>
+      <c r="S7" t="s">
+        <v>195</v>
+      </c>
+      <c r="T7" t="s">
+        <v>196</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" t="s">
+        <v>170</v>
+      </c>
+      <c r="X7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C8" t="s">
+        <v>672</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" t="s">
+        <v>937</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K8" t="s">
+        <v>286</v>
+      </c>
+      <c r="L8" t="s">
+        <v>287</v>
+      </c>
+      <c r="M8" t="s">
+        <v>288</v>
+      </c>
+      <c r="N8" t="s">
+        <v>289</v>
+      </c>
+      <c r="O8" t="s">
+        <v>290</v>
+      </c>
+      <c r="P8" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>518</v>
+      </c>
+      <c r="R8" t="s">
+        <v>519</v>
+      </c>
+      <c r="S8" t="s">
+        <v>520</v>
+      </c>
+      <c r="T8" t="s">
+        <v>521</v>
+      </c>
+      <c r="U8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" t="s">
+        <v/>
+      </c>
+      <c r="W8" t="s">
+        <v/>
+      </c>
+      <c r="X8" t="s">
+        <v/>
+      </c>
+      <c r="Y8" t="s">
+        <v/>
+      </c>
+      <c r="Z8" t="s">
+        <v/>
+      </c>
+      <c r="AA8" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C9" t="s">
+        <v>700</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H9" t="s">
+        <v>456</v>
+      </c>
+      <c r="I9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K9" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M9" t="s">
+        <v>194</v>
+      </c>
+      <c r="N9" t="s">
+        <v>195</v>
+      </c>
+      <c r="O9" t="s">
+        <v>196</v>
+      </c>
+      <c r="P9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" t="s">
+        <v>128</v>
+      </c>
+      <c r="U9" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" t="s">
+        <v/>
+      </c>
+      <c r="W9" t="s">
+        <v/>
+      </c>
+      <c r="X9" t="s">
+        <v/>
+      </c>
+      <c r="Y9" t="s">
+        <v/>
+      </c>
+      <c r="Z9" t="s">
+        <v/>
+      </c>
+      <c r="AA9" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C10" t="s">
+        <v>687</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>692</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" t="s">
+        <v>861</v>
+      </c>
+      <c r="H10" t="s">
+        <v>463</v>
+      </c>
+      <c r="I10" t="s">
+        <v>463</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K10" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" t="s">
+        <v>264</v>
+      </c>
+      <c r="M10" t="s">
+        <v>265</v>
+      </c>
+      <c r="N10" t="s">
+        <v>266</v>
+      </c>
+      <c r="O10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>228</v>
+      </c>
+      <c r="R10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S10" t="s">
+        <v>230</v>
+      </c>
+      <c r="T10" t="s">
+        <v>231</v>
+      </c>
+      <c r="U10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" t="s">
+        <v/>
+      </c>
+      <c r="W10" t="s">
+        <v/>
+      </c>
+      <c r="X10" t="s">
+        <v/>
+      </c>
+      <c r="Y10" t="s">
+        <v/>
+      </c>
+      <c r="Z10" t="s">
+        <v/>
+      </c>
+      <c r="AA10" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>180</v>
+      </c>
+      <c r="R11" t="s">
+        <v>181</v>
+      </c>
+      <c r="S11" t="s">
+        <v>182</v>
+      </c>
+      <c r="T11" t="s">
+        <v>183</v>
+      </c>
+      <c r="U11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" t="s">
+        <v/>
+      </c>
+      <c r="W11" t="s">
+        <v/>
+      </c>
+      <c r="X11" t="s">
+        <v/>
+      </c>
+      <c r="Y11" t="s">
+        <v/>
+      </c>
+      <c r="Z11" t="s">
+        <v/>
+      </c>
+      <c r="AA11" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H12" t="s">
+        <v>683</v>
+      </c>
+      <c r="I12" t="s">
+        <v>611</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>264</v>
+      </c>
+      <c r="R12" t="s">
+        <v>265</v>
+      </c>
+      <c r="S12" t="s">
+        <v>266</v>
+      </c>
+      <c r="T12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U12" t="s">
+        <v>174</v>
+      </c>
+      <c r="V12" t="s">
+        <v>86</v>
+      </c>
+      <c r="W12" t="s">
+        <v>185</v>
+      </c>
+      <c r="X12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>571</v>
+      </c>
+      <c r="H13" t="s">
+        <v>366</v>
+      </c>
+      <c r="I13" t="s">
+        <v>366</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" t="s">
+        <v>123</v>
+      </c>
+      <c r="U13" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" t="s">
+        <v/>
+      </c>
+      <c r="W13" t="s">
+        <v/>
+      </c>
+      <c r="X13" t="s">
+        <v/>
+      </c>
+      <c r="Y13" t="s">
+        <v/>
+      </c>
+      <c r="Z13" t="s">
+        <v/>
+      </c>
+      <c r="AA13" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>456</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K14" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" t="s">
+        <v>228</v>
+      </c>
+      <c r="M14" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" t="s">
+        <v>230</v>
+      </c>
+      <c r="O14" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>233</v>
+      </c>
+      <c r="R14" t="s">
+        <v>234</v>
+      </c>
+      <c r="S14" t="s">
+        <v>235</v>
+      </c>
+      <c r="T14" t="s">
+        <v>236</v>
+      </c>
+      <c r="U14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" t="s">
+        <v/>
+      </c>
+      <c r="W14" t="s">
+        <v/>
+      </c>
+      <c r="X14" t="s">
+        <v/>
+      </c>
+      <c r="Y14" t="s">
+        <v/>
+      </c>
+      <c r="Z14" t="s">
+        <v/>
+      </c>
+      <c r="AA14" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="28.3464567" customHeight="true">
+      <c r="A15" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>536</v>
+      </c>
+      <c r="H15" t="s">
+        <v>732</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K15" t="s">
+        <v>245</v>
+      </c>
+      <c r="L15" t="s">
+        <v>246</v>
+      </c>
+      <c r="M15" t="s">
+        <v>247</v>
+      </c>
+      <c r="N15" t="s">
+        <v>248</v>
+      </c>
+      <c r="O15" t="s">
+        <v>249</v>
+      </c>
+      <c r="P15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>82</v>
+      </c>
+      <c r="R15" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" t="s">
+        <v>84</v>
+      </c>
+      <c r="T15" t="s">
+        <v>85</v>
+      </c>
+      <c r="U15" t="s">
+        <v>484</v>
+      </c>
+      <c r="V15" t="s">
+        <v>113</v>
+      </c>
+      <c r="W15" t="s">
+        <v>867</v>
+      </c>
+      <c r="X15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>992</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" ht="28.3464567" customHeight="true">
+      <c r="A16" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" t="s">
+        <v>823</v>
+      </c>
+      <c r="H16" t="s">
+        <v>201</v>
+      </c>
+      <c r="I16" t="s">
+        <v>906</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K16" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" t="s">
+        <v>246</v>
+      </c>
+      <c r="M16" t="s">
+        <v>247</v>
+      </c>
+      <c r="N16" t="s">
+        <v>248</v>
+      </c>
+      <c r="O16" t="s">
+        <v>249</v>
+      </c>
+      <c r="P16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V16" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" t="s">
+        <v>254</v>
+      </c>
+      <c r="X16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" ht="28.3464567" customHeight="true">
+      <c r="A17" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" t="s">
+        <v>97</v>
+      </c>
+      <c r="V17" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" t="s">
+        <v>109</v>
+      </c>
+      <c r="X17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" ht="28.3464567" customHeight="true">
+      <c r="A18" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>535</v>
+      </c>
+      <c r="H18" t="s">
+        <v>762</v>
+      </c>
+      <c r="I18" t="s">
+        <v>324</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" t="s">
+        <v>60</v>
+      </c>
+      <c r="T18" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" t="s">
+        <v/>
+      </c>
+      <c r="W18" t="s">
+        <v/>
+      </c>
+      <c r="X18" t="s">
+        <v/>
+      </c>
+      <c r="Y18" t="s">
+        <v/>
+      </c>
+      <c r="Z18" t="s">
+        <v/>
+      </c>
+      <c r="AA18" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="28.3464567" customHeight="true">
+      <c r="A19" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K19" t="s">
+        <v>232</v>
+      </c>
+      <c r="L19" t="s">
+        <v>233</v>
+      </c>
+      <c r="M19" t="s">
+        <v>234</v>
+      </c>
+      <c r="N19" t="s">
+        <v>235</v>
+      </c>
+      <c r="O19" t="s">
+        <v>236</v>
+      </c>
+      <c r="P19" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>264</v>
+      </c>
+      <c r="R19" t="s">
+        <v>265</v>
+      </c>
+      <c r="S19" t="s">
+        <v>266</v>
+      </c>
+      <c r="T19" t="s">
+        <v>267</v>
+      </c>
+      <c r="U19" t="s">
+        <v>62</v>
+      </c>
+      <c r="V19" t="s">
+        <v/>
+      </c>
+      <c r="W19" t="s">
+        <v/>
+      </c>
+      <c r="X19" t="s">
+        <v/>
+      </c>
+      <c r="Y19" t="s">
+        <v/>
+      </c>
+      <c r="Z19" t="s">
+        <v/>
+      </c>
+      <c r="AA19" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="28.3464567" customHeight="true">
+      <c r="A20" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H20" t="s">
+        <v>402</v>
+      </c>
+      <c r="I20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K20" t="s">
+        <v>232</v>
+      </c>
+      <c r="L20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M20" t="s">
+        <v>234</v>
+      </c>
+      <c r="N20" t="s">
+        <v>235</v>
+      </c>
+      <c r="O20" t="s">
+        <v>236</v>
+      </c>
+      <c r="P20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" t="s">
+        <v>79</v>
+      </c>
+      <c r="T20" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" t="s">
+        <v>64</v>
+      </c>
+      <c r="W20" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" ht="28.3464567" customHeight="true">
+      <c r="A21" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>324</v>
+      </c>
+      <c r="H21" t="s">
+        <v>325</v>
+      </c>
+      <c r="I21" t="s">
+        <v>771</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" t="s">
+        <v>60</v>
+      </c>
+      <c r="T21" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1499</v>
+      </c>
+      <c r="V21" t="s">
+        <v>92</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1500</v>
+      </c>
+      <c r="X21" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1501</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="22" ht="28.3464567" customHeight="true">
+      <c r="A22" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>611</v>
+      </c>
+      <c r="H22" t="s">
+        <v>324</v>
+      </c>
+      <c r="I22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N22" t="s">
+        <v>127</v>
+      </c>
+      <c r="O22" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>264</v>
+      </c>
+      <c r="R22" t="s">
+        <v>265</v>
+      </c>
+      <c r="S22" t="s">
+        <v>266</v>
+      </c>
+      <c r="T22" t="s">
+        <v>267</v>
+      </c>
+      <c r="U22" t="s">
+        <v>62</v>
+      </c>
+      <c r="V22" t="s">
+        <v/>
+      </c>
+      <c r="W22" t="s">
+        <v/>
+      </c>
+      <c r="X22" t="s">
+        <v/>
+      </c>
+      <c r="Y22" t="s">
+        <v/>
+      </c>
+      <c r="Z22" t="s">
+        <v/>
+      </c>
+      <c r="AA22" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="28.3464567" customHeight="true">
+      <c r="A23" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" t="s">
+        <v>324</v>
+      </c>
+      <c r="I23" t="s">
+        <v>611</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23" t="s">
+        <v>122</v>
+      </c>
+      <c r="T23" t="s">
+        <v>123</v>
+      </c>
+      <c r="U23" t="s">
+        <v>47</v>
+      </c>
+      <c r="V23" t="s">
+        <v>48</v>
+      </c>
+      <c r="W23" t="s">
+        <v>49</v>
+      </c>
+      <c r="X23" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" ht="28.3464567" customHeight="true">
+      <c r="A24" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>371</v>
+      </c>
+      <c r="H24" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" t="s">
+        <v>373</v>
+      </c>
+      <c r="K24" t="s">
+        <v>263</v>
+      </c>
+      <c r="L24" t="s">
+        <v>264</v>
+      </c>
+      <c r="M24" t="s">
+        <v>265</v>
+      </c>
+      <c r="N24" t="s">
+        <v>266</v>
+      </c>
+      <c r="O24" t="s">
+        <v>267</v>
+      </c>
+      <c r="P24" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>246</v>
+      </c>
+      <c r="R24" t="s">
+        <v>247</v>
+      </c>
+      <c r="S24" t="s">
+        <v>248</v>
+      </c>
+      <c r="T24" t="s">
+        <v>249</v>
+      </c>
+      <c r="U24" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" t="s">
+        <v/>
+      </c>
+      <c r="W24" t="s">
+        <v/>
+      </c>
+      <c r="X24" t="s">
+        <v/>
+      </c>
+      <c r="Y24" t="s">
+        <v/>
+      </c>
+      <c r="Z24" t="s">
+        <v/>
+      </c>
+      <c r="AA24" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="28.3464567" customHeight="true">
+      <c r="A25" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H25" t="s">
+        <v>822</v>
+      </c>
+      <c r="I25" t="s">
+        <v>294</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>60</v>
+      </c>
+      <c r="R25" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" t="s">
+        <v>60</v>
+      </c>
+      <c r="T25" t="s">
+        <v>60</v>
+      </c>
+      <c r="U25" t="s">
+        <v>62</v>
+      </c>
+      <c r="V25" t="s">
+        <v/>
+      </c>
+      <c r="W25" t="s">
+        <v/>
+      </c>
+      <c r="X25" t="s">
+        <v/>
+      </c>
+      <c r="Y25" t="s">
+        <v/>
+      </c>
+      <c r="Z25" t="s">
+        <v/>
+      </c>
+      <c r="AA25" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="28.3464567" customHeight="true">
+      <c r="A26" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>713</v>
+      </c>
+      <c r="H26" t="s">
+        <v>402</v>
+      </c>
+      <c r="I26" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K26" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>889</v>
+      </c>
+      <c r="R26" t="s">
+        <v>890</v>
+      </c>
+      <c r="S26" t="s">
+        <v>891</v>
+      </c>
+      <c r="T26" t="s">
+        <v>60</v>
+      </c>
+      <c r="U26" t="s">
+        <v>813</v>
+      </c>
+      <c r="V26" t="s">
+        <v>113</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1521</v>
+      </c>
+      <c r="X26" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="27" ht="28.3464567" customHeight="true">
+      <c r="A27" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B27" t="s">
+        <v>617</v>
+      </c>
+      <c r="C27" t="s">
+        <v>618</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" t="s">
+        <v>668</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="s">
+        <v>247</v>
+      </c>
+      <c r="N27" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" t="s">
+        <v>249</v>
+      </c>
+      <c r="P27" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>296</v>
+      </c>
+      <c r="R27" t="s">
+        <v>297</v>
+      </c>
+      <c r="S27" t="s">
+        <v>298</v>
+      </c>
+      <c r="T27" t="s">
+        <v>299</v>
+      </c>
+      <c r="U27" t="s">
+        <v>64</v>
+      </c>
+      <c r="V27" t="s">
+        <v>64</v>
+      </c>
+      <c r="W27" t="s">
+        <v>170</v>
+      </c>
+      <c r="X27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" ht="28.3464567" customHeight="true">
+      <c r="A28" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B28" t="s">
+        <v>655</v>
+      </c>
+      <c r="C28" t="s">
+        <v>671</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>701</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>414</v>
+      </c>
+      <c r="H28" t="s">
+        <v>208</v>
+      </c>
+      <c r="I28" t="s">
+        <v>663</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1526</v>
+      </c>
+      <c r="K28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" t="s">
+        <v>265</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>267</v>
+      </c>
+      <c r="P28" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>264</v>
+      </c>
+      <c r="R28" t="s">
+        <v>265</v>
+      </c>
+      <c r="S28" t="s">
+        <v>266</v>
+      </c>
+      <c r="T28" t="s">
+        <v>267</v>
+      </c>
+      <c r="U28" t="s">
+        <v>86</v>
+      </c>
+      <c r="V28" t="s">
+        <v>30</v>
+      </c>
+      <c r="W28" t="s">
+        <v>185</v>
+      </c>
+      <c r="X28" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" ht="28.3464567" customHeight="true">
+      <c r="A29" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H29" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1529</v>
+      </c>
+      <c r="K29" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" t="s">
+        <v>194</v>
+      </c>
+      <c r="N29" t="s">
+        <v>195</v>
+      </c>
+      <c r="O29" t="s">
+        <v>196</v>
+      </c>
+      <c r="P29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" t="s">
+        <v>62</v>
+      </c>
+      <c r="V29" t="s">
+        <v/>
+      </c>
+      <c r="W29" t="s">
+        <v/>
+      </c>
+      <c r="X29" t="s">
+        <v/>
+      </c>
+      <c r="Y29" t="s">
+        <v/>
+      </c>
+      <c r="Z29" t="s">
+        <v/>
+      </c>
+      <c r="AA29" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="28.3464567" customHeight="true">
+      <c r="A30" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>823</v>
+      </c>
+      <c r="H30" t="s">
+        <v>379</v>
+      </c>
+      <c r="I30" t="s">
+        <v>402</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="s">
+        <v>270</v>
+      </c>
+      <c r="N30" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s">
+        <v>272</v>
+      </c>
+      <c r="P30" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>120</v>
+      </c>
+      <c r="R30" t="s">
+        <v>121</v>
+      </c>
+      <c r="S30" t="s">
+        <v>122</v>
+      </c>
+      <c r="T30" t="s">
+        <v>123</v>
+      </c>
+      <c r="U30" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30" t="s">
+        <v>64</v>
+      </c>
+      <c r="W30" t="s">
+        <v>109</v>
+      </c>
+      <c r="X30" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" ht="28.3464567" customHeight="true">
+      <c r="A31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>443</v>
+      </c>
+      <c r="H31" t="s">
+        <v>242</v>
+      </c>
+      <c r="I31" t="s">
+        <v>455</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1533</v>
+      </c>
+      <c r="K31" t="s">
+        <v>179</v>
+      </c>
+      <c r="L31" t="s">
+        <v>180</v>
+      </c>
+      <c r="M31" t="s">
+        <v>181</v>
+      </c>
+      <c r="N31" t="s">
+        <v>182</v>
+      </c>
+      <c r="O31" t="s">
+        <v>183</v>
+      </c>
+      <c r="P31" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>82</v>
+      </c>
+      <c r="R31" t="s">
+        <v>83</v>
+      </c>
+      <c r="S31" t="s">
+        <v>84</v>
+      </c>
+      <c r="T31" t="s">
+        <v>85</v>
+      </c>
+      <c r="U31" t="s">
+        <v>61</v>
+      </c>
+      <c r="V31" t="s">
+        <v>62</v>
+      </c>
+      <c r="W31" t="s">
+        <v>63</v>
+      </c>
+      <c r="X31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -34944,7 +40622,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="15" min="15" style="0" width="20.75" customWidth="true"/>
+    <col max="20" min="20" style="0" width="20.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -37869,8 +43547,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="10" min="10" style="0" width="24.25" customWidth="true"/>
-    <col hidden="true" max="29" min="20" style="0" width="0" customWidth="true"/>
+    <col max="15" min="15" style="0" width="24.25" customWidth="true"/>
+    <col hidden="true" max="34" min="25" style="0" width="0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">

--- a/file.xlsx
+++ b/file.xlsx
@@ -32,6 +32,8 @@
     <sheet name="2020-08-25" sheetId="22" r:id="rId22" state="visible"/>
     <sheet name="2020-08-27" sheetId="23" r:id="rId23" state="visible"/>
     <sheet name="2020-08-28" sheetId="24" r:id="rId24" state="visible"/>
+    <sheet name="2020-09-02" sheetId="25" r:id="rId25" state="visible"/>
+    <sheet name="2020-09-03" sheetId="26" r:id="rId26" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1689">
   <si>
     <t>比赛编号</t>
   </si>
@@ -4641,6 +4643,471 @@
   </si>
   <si>
     <t>1.709525</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三001</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>0.837812</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三002</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>1.114830</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三003</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>1.062252</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三004</t>
+  </si>
+  <si>
+    <t>1.238416</t>
+  </si>
+  <si>
+    <t>34.483%</t>
+  </si>
+  <si>
+    <t>20.690%</t>
+  </si>
+  <si>
+    <t>44.828%</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三005</t>
+  </si>
+  <si>
+    <t>0.882130</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三006</t>
+  </si>
+  <si>
+    <t>0.920292</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三007</t>
+  </si>
+  <si>
+    <t>0.946338</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三008</t>
+  </si>
+  <si>
+    <t>1.338240</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三009</t>
+  </si>
+  <si>
+    <t>0.892508</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三010</t>
+  </si>
+  <si>
+    <t>0.985496</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三011</t>
+  </si>
+  <si>
+    <t>7日职</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>0.931500</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三012</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>1.075500</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三013</t>
+  </si>
+  <si>
+    <t>6日职</t>
+  </si>
+  <si>
+    <t>1.215000</t>
+  </si>
+  <si>
+    <t>2020-09-02 17:40周三014</t>
+  </si>
+  <si>
+    <t>10日职</t>
+  </si>
+  <si>
+    <t>1.710000</t>
+  </si>
+  <si>
+    <t>2020-09-02 18:10周三015</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>0.833199</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三016</t>
+  </si>
+  <si>
+    <t>1.062985</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三017</t>
+  </si>
+  <si>
+    <t>戈亚斯</t>
+  </si>
+  <si>
+    <t>科林蒂安</t>
+  </si>
+  <si>
+    <t>1.428050</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三018</t>
+  </si>
+  <si>
+    <t>弗鲁米嫩</t>
+  </si>
+  <si>
+    <t>戈竞技</t>
+  </si>
+  <si>
+    <t>0.887768</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三019</t>
+  </si>
+  <si>
+    <t>亚特联</t>
+  </si>
+  <si>
+    <t>0.975936</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三020</t>
+  </si>
+  <si>
+    <t>巴竞技</t>
+  </si>
+  <si>
+    <t>布拉干</t>
+  </si>
+  <si>
+    <t>0.950436</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三021</t>
+  </si>
+  <si>
+    <t>博塔弗戈</t>
+  </si>
+  <si>
+    <t>科里蒂巴</t>
+  </si>
+  <si>
+    <t>0.981078</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三022</t>
+  </si>
+  <si>
+    <t>弗拉门戈</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>1.525255</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三023</t>
+  </si>
+  <si>
+    <t>1.365087</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三024</t>
+  </si>
+  <si>
+    <t>0.865928</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三025</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>0.845807</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三026</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>0.800310</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三027</t>
+  </si>
+  <si>
+    <t>1.178782</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三028</t>
+  </si>
+  <si>
+    <t>0.672540</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三029</t>
+  </si>
+  <si>
+    <t>帕梅拉斯</t>
+  </si>
+  <si>
+    <t>0.813120</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三030</t>
+  </si>
+  <si>
+    <t>纳什威尔</t>
+  </si>
+  <si>
+    <t>0.883784</t>
+  </si>
+  <si>
+    <t>2020-09-02 21:40周三031</t>
+  </si>
+  <si>
+    <t>达拉斯</t>
+  </si>
+  <si>
+    <t>0.834980</t>
+  </si>
+  <si>
+    <t>2020-09-03 09:10周三032</t>
+  </si>
+  <si>
+    <t>西雅图</t>
+  </si>
+  <si>
+    <t>0.937283</t>
+  </si>
+  <si>
+    <t>2020-09-03 10:10周三033</t>
+  </si>
+  <si>
+    <t>洛城银河</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>0.960180</t>
+  </si>
+  <si>
+    <t>2020-09-03 10:40周三034</t>
+  </si>
+  <si>
+    <t>洛杉矶FC</t>
+  </si>
+  <si>
+    <t>圣何塞</t>
+  </si>
+  <si>
+    <t>0.694191</t>
+  </si>
+  <si>
+    <t>2020-09-03 21:40周四001</t>
+  </si>
+  <si>
+    <t>格雷米奥</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>0.657408</t>
+  </si>
+  <si>
+    <t>2020-09-03 21:40周四002</t>
+  </si>
+  <si>
+    <t>米竞技</t>
+  </si>
+  <si>
+    <t>0.833472</t>
+  </si>
+  <si>
+    <t>0.664192</t>
+  </si>
+  <si>
+    <t>0.782034</t>
+  </si>
+  <si>
+    <t>2020-09-03 21:40周四003</t>
+  </si>
+  <si>
+    <t>欧国联</t>
+  </si>
+  <si>
+    <t>德　国</t>
+  </si>
+  <si>
+    <t>14FIFA</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>9FIFA</t>
+  </si>
+  <si>
+    <t>0.981000</t>
+  </si>
+  <si>
+    <t>2020-09-03 21:40周四004</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>27FIFA</t>
+  </si>
+  <si>
+    <t>瑞　士</t>
+  </si>
+  <si>
+    <t>8FIFA</t>
+  </si>
+  <si>
+    <t>1.012500</t>
+  </si>
+  <si>
+    <t>2020-09-03 21:40周四005</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>41FIFA</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>35FIFA</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>0.922500</t>
+  </si>
+  <si>
+    <t>2020-09-03 21:40周四006</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>38FIFA</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>55FIFA</t>
+  </si>
+  <si>
+    <t>0.661500</t>
+  </si>
+  <si>
+    <t>2020-09-03 21:40周四007</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>45FIFA</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>33FIFA</t>
+  </si>
+  <si>
+    <t>1.642500</t>
+  </si>
+  <si>
+    <t>2020-09-03 21:40周四008</t>
+  </si>
+  <si>
+    <t>芬　兰</t>
+  </si>
+  <si>
+    <t>56FIFA</t>
+  </si>
+  <si>
+    <t>威尔士</t>
+  </si>
+  <si>
+    <t>18FIFA</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>1.309500</t>
+  </si>
+  <si>
+    <t>2020-09-03 21:40周四009</t>
+  </si>
+  <si>
+    <t>斯洛文尼</t>
+  </si>
+  <si>
+    <t>62FIFA</t>
+  </si>
+  <si>
+    <t>希　腊</t>
+  </si>
+  <si>
+    <t>42FIFA</t>
+  </si>
+  <si>
+    <t>1.125000</t>
   </si>
 </sst>
 </file>
@@ -5084,8 +5551,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="14" min="14" style="0" width="38.375" customWidth="true"/>
-    <col max="15" min="15" style="0" width="36.625" customWidth="true"/>
+    <col max="16" min="16" style="0" width="38.375" customWidth="true"/>
+    <col max="17" min="17" style="0" width="36.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -6960,10 +7427,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="14" min="14" style="0" width="25.5" customWidth="true"/>
-    <col hidden="true" max="33" min="19" style="0" width="0" customWidth="true"/>
-    <col max="34" min="34" style="0" width="17.25" customWidth="true"/>
-    <col max="35" min="35" style="0" width="13.375" customWidth="true"/>
+    <col max="16" min="16" style="0" width="25.5" customWidth="true"/>
+    <col hidden="true" max="35" min="21" style="0" width="0" customWidth="true"/>
+    <col max="36" min="36" style="0" width="17.25" customWidth="true"/>
+    <col max="37" min="37" style="0" width="13.375" customWidth="true"/>
   </cols>
   <autoFilter ref="A1:AA33"/>
   <sheetData>
@@ -26411,6 +26878,5684 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="28.3464567" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" ht="28.3464567" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" ht="28.3464567" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" ht="28.3464567" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="28.3464567" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="28.3464567" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" ht="28.3464567" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="22" ht="28.3464567" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="28.3464567" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" ht="28.3464567" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="28.3464567" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="28.3464567" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="27" ht="28.3464567" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" ht="28.3464567" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" ht="28.3464567" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="28.3464567" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" ht="28.3464567" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA37"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" ht="28.3464567" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" ht="28.3464567" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="28.3464567" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="28.3464567" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="19" ht="28.3464567" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="28.3464567" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="28.3464567" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="28.3464567" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="28.3464567" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" ht="28.3464567" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="28.3464567" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="28.3464567" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="28.3464567" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="28.3464567" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" ht="28.3464567" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="28.3464567" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="28.3464567" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="28.3464567" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="28.3464567" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="28.3464567" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="28.3464567" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="36" ht="28.3464567" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="28.3464567" customHeight="true">
+      <c r="A37" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26495,313 +32640,313 @@
     </row>
     <row r="2" ht="28.3464567" customHeight="true">
       <c r="A2" t="s">
-        <v>1450</v>
+        <v>1635</v>
       </c>
       <c r="B2" t="s">
-        <v>655</v>
+        <v>1260</v>
       </c>
       <c r="C2" t="s">
-        <v>705</v>
+        <v>1636</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>657</v>
+        <v>1272</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>1451</v>
+        <v>1637</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="I2" t="s">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="J2" t="s">
-        <v>1452</v>
+        <v>1642</v>
       </c>
       <c r="K2" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V2" t="s">
-        <v>62</v>
+        <v/>
       </c>
       <c r="W2" t="s">
-        <v>63</v>
+        <v/>
       </c>
       <c r="X2" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="Y2" t="s">
-        <v>170</v>
+        <v/>
       </c>
       <c r="Z2" t="s">
-        <v>62</v>
+        <v/>
       </c>
       <c r="AA2" t="s">
-        <v>63</v>
+        <v/>
       </c>
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
       <c r="A3" t="s">
-        <v>1453</v>
+        <v>1639</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>1260</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>1640</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>1261</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>1454</v>
+        <v>606</v>
       </c>
       <c r="H3" t="s">
-        <v>969</v>
+        <v>385</v>
       </c>
       <c r="I3" t="s">
-        <v>1143</v>
+        <v>208</v>
       </c>
       <c r="J3" t="s">
-        <v>1455</v>
+        <v>1643</v>
       </c>
       <c r="K3" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="Q3" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="R3" t="s">
-        <v>265</v>
+        <v>126</v>
       </c>
       <c r="S3" t="s">
-        <v>266</v>
+        <v>127</v>
       </c>
       <c r="T3" t="s">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="U3" t="s">
-        <v>484</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>113</v>
+        <v/>
       </c>
       <c r="W3" t="s">
-        <v>867</v>
+        <v/>
       </c>
       <c r="X3" t="s">
-        <v>47</v>
+        <v/>
       </c>
       <c r="Y3" t="s">
-        <v>992</v>
+        <v/>
       </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v/>
       </c>
       <c r="AA3" t="s">
-        <v>185</v>
+        <v/>
       </c>
     </row>
     <row r="4" ht="28.3464567" customHeight="true">
       <c r="A4" t="s">
-        <v>1456</v>
+        <v>1644</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>1645</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>1646</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>1647</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>1648</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>1649</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
-        <v>969</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>823</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>1457</v>
+        <v>1650</v>
       </c>
       <c r="K4" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="Q4" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="R4" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="S4" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="T4" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v/>
       </c>
       <c r="W4" t="s">
-        <v>776</v>
+        <v/>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="Y4" t="s">
-        <v>490</v>
+        <v/>
       </c>
       <c r="Z4" t="s">
-        <v>32</v>
+        <v/>
       </c>
       <c r="AA4" t="s">
-        <v>776</v>
+        <v/>
       </c>
     </row>
     <row r="5" ht="28.3464567" customHeight="true">
       <c r="A5" t="s">
-        <v>1458</v>
+        <v>1651</v>
       </c>
       <c r="B5" t="s">
-        <v>655</v>
+        <v>1645</v>
       </c>
       <c r="C5" t="s">
-        <v>691</v>
+        <v>1652</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>1653</v>
       </c>
       <c r="E5" t="s">
-        <v>686</v>
+        <v>1654</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>1655</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="I5" t="s">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>1459</v>
+        <v>1656</v>
       </c>
       <c r="K5" t="s">
-        <v>295</v>
+        <v>674</v>
       </c>
       <c r="L5" t="s">
-        <v>296</v>
+        <v>675</v>
       </c>
       <c r="M5" t="s">
-        <v>297</v>
+        <v>676</v>
       </c>
       <c r="N5" t="s">
-        <v>298</v>
+        <v>677</v>
       </c>
       <c r="O5" t="s">
-        <v>299</v>
+        <v>678</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="Q5" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="R5" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="S5" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="T5" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="U5" t="s">
         <v>62</v>
@@ -26827,64 +32972,64 @@
     </row>
     <row r="6" ht="28.3464567" customHeight="true">
       <c r="A6" t="s">
-        <v>1460</v>
+        <v>1657</v>
       </c>
       <c r="B6" t="s">
-        <v>655</v>
+        <v>1645</v>
       </c>
       <c r="C6" t="s">
-        <v>667</v>
+        <v>1658</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>1659</v>
       </c>
       <c r="E6" t="s">
-        <v>661</v>
+        <v>1660</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>1661</v>
       </c>
       <c r="G6" t="s">
-        <v>762</v>
+        <v>542</v>
       </c>
       <c r="H6" t="s">
-        <v>636</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>989</v>
+        <v>1662</v>
       </c>
       <c r="J6" t="s">
-        <v>1461</v>
+        <v>1663</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>674</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>675</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>676</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>677</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>678</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>674</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>675</v>
       </c>
       <c r="R6" t="s">
-        <v>39</v>
+        <v>676</v>
       </c>
       <c r="S6" t="s">
-        <v>40</v>
+        <v>677</v>
       </c>
       <c r="T6" t="s">
-        <v>41</v>
+        <v>678</v>
       </c>
       <c r="U6" t="s">
         <v>62</v>
@@ -26910,147 +33055,147 @@
     </row>
     <row r="7" ht="28.3464567" customHeight="true">
       <c r="A7" t="s">
-        <v>1462</v>
+        <v>1664</v>
       </c>
       <c r="B7" t="s">
-        <v>655</v>
+        <v>1645</v>
       </c>
       <c r="C7" t="s">
-        <v>695</v>
+        <v>1665</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>1666</v>
       </c>
       <c r="E7" t="s">
-        <v>656</v>
+        <v>1667</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>1668</v>
       </c>
       <c r="G7" t="s">
-        <v>702</v>
+        <v>749</v>
       </c>
       <c r="H7" t="s">
         <v>208</v>
       </c>
       <c r="I7" t="s">
-        <v>668</v>
+        <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>1463</v>
+        <v>1669</v>
       </c>
       <c r="K7" t="s">
-        <v>286</v>
+        <v>888</v>
       </c>
       <c r="L7" t="s">
-        <v>287</v>
+        <v>889</v>
       </c>
       <c r="M7" t="s">
-        <v>288</v>
+        <v>890</v>
       </c>
       <c r="N7" t="s">
-        <v>289</v>
+        <v>891</v>
       </c>
       <c r="O7" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="Q7" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="R7" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="S7" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="T7" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="U7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V7" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="W7" t="s">
-        <v>170</v>
+        <v/>
       </c>
       <c r="X7" t="s">
-        <v>62</v>
+        <v/>
       </c>
       <c r="Y7" t="s">
-        <v>63</v>
+        <v/>
       </c>
       <c r="Z7" t="s">
-        <v>62</v>
+        <v/>
       </c>
       <c r="AA7" t="s">
-        <v>63</v>
+        <v/>
       </c>
     </row>
     <row r="8" ht="28.3464567" customHeight="true">
       <c r="A8" t="s">
-        <v>1464</v>
+        <v>1670</v>
       </c>
       <c r="B8" t="s">
-        <v>655</v>
+        <v>1645</v>
       </c>
       <c r="C8" t="s">
-        <v>672</v>
+        <v>1671</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>1672</v>
       </c>
       <c r="E8" t="s">
-        <v>706</v>
+        <v>1673</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>1674</v>
       </c>
       <c r="G8" t="s">
-        <v>514</v>
+        <v>242</v>
       </c>
       <c r="H8" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>937</v>
+        <v>968</v>
       </c>
       <c r="J8" t="s">
-        <v>1465</v>
+        <v>1675</v>
       </c>
       <c r="K8" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="L8" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="M8" t="s">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="N8" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="O8" t="s">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="P8" t="s">
-        <v>517</v>
+        <v>217</v>
       </c>
       <c r="Q8" t="s">
-        <v>518</v>
+        <v>218</v>
       </c>
       <c r="R8" t="s">
-        <v>519</v>
+        <v>219</v>
       </c>
       <c r="S8" t="s">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="T8" t="s">
-        <v>521</v>
+        <v>221</v>
       </c>
       <c r="U8" t="s">
         <v>62</v>
@@ -27076,64 +33221,64 @@
     </row>
     <row r="9" ht="28.3464567" customHeight="true">
       <c r="A9" t="s">
-        <v>1466</v>
+        <v>1676</v>
       </c>
       <c r="B9" t="s">
-        <v>655</v>
+        <v>1645</v>
       </c>
       <c r="C9" t="s">
-        <v>700</v>
+        <v>1677</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>1678</v>
       </c>
       <c r="E9" t="s">
-        <v>666</v>
+        <v>1679</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>1680</v>
       </c>
       <c r="G9" t="s">
-        <v>1402</v>
+        <v>1681</v>
       </c>
       <c r="H9" t="s">
-        <v>456</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>278</v>
+        <v>718</v>
       </c>
       <c r="J9" t="s">
-        <v>1467</v>
+        <v>1682</v>
       </c>
       <c r="K9" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="N9" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="O9" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="Q9" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="R9" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="S9" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="T9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
         <v>62</v>
@@ -27159,64 +33304,64 @@
     </row>
     <row r="10" ht="28.3464567" customHeight="true">
       <c r="A10" t="s">
-        <v>1468</v>
+        <v>1683</v>
       </c>
       <c r="B10" t="s">
-        <v>655</v>
+        <v>1645</v>
       </c>
       <c r="C10" t="s">
-        <v>687</v>
+        <v>1684</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>1685</v>
       </c>
       <c r="E10" t="s">
-        <v>692</v>
+        <v>1686</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>1687</v>
       </c>
       <c r="G10" t="s">
-        <v>861</v>
+        <v>449</v>
       </c>
       <c r="H10" t="s">
-        <v>463</v>
+        <v>324</v>
       </c>
       <c r="I10" t="s">
-        <v>463</v>
+        <v>225</v>
       </c>
       <c r="J10" t="s">
-        <v>1469</v>
+        <v>1688</v>
       </c>
       <c r="K10" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="L10" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="M10" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="N10" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="O10" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="P10" t="s">
-        <v>227</v>
+        <v>674</v>
       </c>
       <c r="Q10" t="s">
-        <v>228</v>
+        <v>675</v>
       </c>
       <c r="R10" t="s">
-        <v>229</v>
+        <v>676</v>
       </c>
       <c r="S10" t="s">
-        <v>230</v>
+        <v>677</v>
       </c>
       <c r="T10" t="s">
-        <v>231</v>
+        <v>678</v>
       </c>
       <c r="U10" t="s">
         <v>62</v>
@@ -27238,1749 +33383,6 @@
       </c>
       <c r="AA10" t="s">
         <v/>
-      </c>
-    </row>
-    <row r="11" ht="28.3464567" customHeight="true">
-      <c r="A11" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1451</v>
-      </c>
-      <c r="H11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1451</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1471</v>
-      </c>
-      <c r="K11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" t="s">
-        <v>120</v>
-      </c>
-      <c r="M11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>180</v>
-      </c>
-      <c r="R11" t="s">
-        <v>181</v>
-      </c>
-      <c r="S11" t="s">
-        <v>182</v>
-      </c>
-      <c r="T11" t="s">
-        <v>183</v>
-      </c>
-      <c r="U11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V11" t="s">
-        <v/>
-      </c>
-      <c r="W11" t="s">
-        <v/>
-      </c>
-      <c r="X11" t="s">
-        <v/>
-      </c>
-      <c r="Y11" t="s">
-        <v/>
-      </c>
-      <c r="Z11" t="s">
-        <v/>
-      </c>
-      <c r="AA11" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="28.3464567" customHeight="true">
-      <c r="A12" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1252</v>
-      </c>
-      <c r="H12" t="s">
-        <v>683</v>
-      </c>
-      <c r="I12" t="s">
-        <v>611</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1253</v>
-      </c>
-      <c r="K12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>264</v>
-      </c>
-      <c r="R12" t="s">
-        <v>265</v>
-      </c>
-      <c r="S12" t="s">
-        <v>266</v>
-      </c>
-      <c r="T12" t="s">
-        <v>267</v>
-      </c>
-      <c r="U12" t="s">
-        <v>174</v>
-      </c>
-      <c r="V12" t="s">
-        <v>86</v>
-      </c>
-      <c r="W12" t="s">
-        <v>185</v>
-      </c>
-      <c r="X12" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" ht="28.3464567" customHeight="true">
-      <c r="A13" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>293</v>
-      </c>
-      <c r="F13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" t="s">
-        <v>571</v>
-      </c>
-      <c r="H13" t="s">
-        <v>366</v>
-      </c>
-      <c r="I13" t="s">
-        <v>366</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1474</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>120</v>
-      </c>
-      <c r="R13" t="s">
-        <v>121</v>
-      </c>
-      <c r="S13" t="s">
-        <v>122</v>
-      </c>
-      <c r="T13" t="s">
-        <v>123</v>
-      </c>
-      <c r="U13" t="s">
-        <v>62</v>
-      </c>
-      <c r="V13" t="s">
-        <v/>
-      </c>
-      <c r="W13" t="s">
-        <v/>
-      </c>
-      <c r="X13" t="s">
-        <v/>
-      </c>
-      <c r="Y13" t="s">
-        <v/>
-      </c>
-      <c r="Z13" t="s">
-        <v/>
-      </c>
-      <c r="AA13" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="28.3464567" customHeight="true">
-      <c r="A14" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" t="s">
-        <v>456</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1355</v>
-      </c>
-      <c r="K14" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" t="s">
-        <v>228</v>
-      </c>
-      <c r="M14" t="s">
-        <v>229</v>
-      </c>
-      <c r="N14" t="s">
-        <v>230</v>
-      </c>
-      <c r="O14" t="s">
-        <v>231</v>
-      </c>
-      <c r="P14" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>233</v>
-      </c>
-      <c r="R14" t="s">
-        <v>234</v>
-      </c>
-      <c r="S14" t="s">
-        <v>235</v>
-      </c>
-      <c r="T14" t="s">
-        <v>236</v>
-      </c>
-      <c r="U14" t="s">
-        <v>62</v>
-      </c>
-      <c r="V14" t="s">
-        <v/>
-      </c>
-      <c r="W14" t="s">
-        <v/>
-      </c>
-      <c r="X14" t="s">
-        <v/>
-      </c>
-      <c r="Y14" t="s">
-        <v/>
-      </c>
-      <c r="Z14" t="s">
-        <v/>
-      </c>
-      <c r="AA14" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="28.3464567" customHeight="true">
-      <c r="A15" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D15" t="s">
-        <v>240</v>
-      </c>
-      <c r="E15" t="s">
-        <v>292</v>
-      </c>
-      <c r="F15" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" t="s">
-        <v>536</v>
-      </c>
-      <c r="H15" t="s">
-        <v>732</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1143</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1477</v>
-      </c>
-      <c r="K15" t="s">
-        <v>245</v>
-      </c>
-      <c r="L15" t="s">
-        <v>246</v>
-      </c>
-      <c r="M15" t="s">
-        <v>247</v>
-      </c>
-      <c r="N15" t="s">
-        <v>248</v>
-      </c>
-      <c r="O15" t="s">
-        <v>249</v>
-      </c>
-      <c r="P15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>82</v>
-      </c>
-      <c r="R15" t="s">
-        <v>83</v>
-      </c>
-      <c r="S15" t="s">
-        <v>84</v>
-      </c>
-      <c r="T15" t="s">
-        <v>85</v>
-      </c>
-      <c r="U15" t="s">
-        <v>484</v>
-      </c>
-      <c r="V15" t="s">
-        <v>113</v>
-      </c>
-      <c r="W15" t="s">
-        <v>867</v>
-      </c>
-      <c r="X15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>992</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" ht="28.3464567" customHeight="true">
-      <c r="A16" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>258</v>
-      </c>
-      <c r="F16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" t="s">
-        <v>823</v>
-      </c>
-      <c r="H16" t="s">
-        <v>201</v>
-      </c>
-      <c r="I16" t="s">
-        <v>906</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1479</v>
-      </c>
-      <c r="K16" t="s">
-        <v>245</v>
-      </c>
-      <c r="L16" t="s">
-        <v>246</v>
-      </c>
-      <c r="M16" t="s">
-        <v>247</v>
-      </c>
-      <c r="N16" t="s">
-        <v>248</v>
-      </c>
-      <c r="O16" t="s">
-        <v>249</v>
-      </c>
-      <c r="P16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R16" t="s">
-        <v>44</v>
-      </c>
-      <c r="S16" t="s">
-        <v>45</v>
-      </c>
-      <c r="T16" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" t="s">
-        <v>47</v>
-      </c>
-      <c r="V16" t="s">
-        <v>32</v>
-      </c>
-      <c r="W16" t="s">
-        <v>254</v>
-      </c>
-      <c r="X16" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" ht="28.3464567" customHeight="true">
-      <c r="A17" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1482</v>
-      </c>
-      <c r="F17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1451</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="K17" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O17" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>60</v>
-      </c>
-      <c r="R17" t="s">
-        <v>60</v>
-      </c>
-      <c r="S17" t="s">
-        <v>60</v>
-      </c>
-      <c r="T17" t="s">
-        <v>60</v>
-      </c>
-      <c r="U17" t="s">
-        <v>97</v>
-      </c>
-      <c r="V17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W17" t="s">
-        <v>109</v>
-      </c>
-      <c r="X17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" ht="28.3464567" customHeight="true">
-      <c r="A18" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1485</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>535</v>
-      </c>
-      <c r="H18" t="s">
-        <v>762</v>
-      </c>
-      <c r="I18" t="s">
-        <v>324</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1487</v>
-      </c>
-      <c r="K18" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>60</v>
-      </c>
-      <c r="R18" t="s">
-        <v>60</v>
-      </c>
-      <c r="S18" t="s">
-        <v>60</v>
-      </c>
-      <c r="T18" t="s">
-        <v>60</v>
-      </c>
-      <c r="U18" t="s">
-        <v>62</v>
-      </c>
-      <c r="V18" t="s">
-        <v/>
-      </c>
-      <c r="W18" t="s">
-        <v/>
-      </c>
-      <c r="X18" t="s">
-        <v/>
-      </c>
-      <c r="Y18" t="s">
-        <v/>
-      </c>
-      <c r="Z18" t="s">
-        <v/>
-      </c>
-      <c r="AA18" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="28.3464567" customHeight="true">
-      <c r="A19" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1490</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1252</v>
-      </c>
-      <c r="I19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1491</v>
-      </c>
-      <c r="K19" t="s">
-        <v>232</v>
-      </c>
-      <c r="L19" t="s">
-        <v>233</v>
-      </c>
-      <c r="M19" t="s">
-        <v>234</v>
-      </c>
-      <c r="N19" t="s">
-        <v>235</v>
-      </c>
-      <c r="O19" t="s">
-        <v>236</v>
-      </c>
-      <c r="P19" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>264</v>
-      </c>
-      <c r="R19" t="s">
-        <v>265</v>
-      </c>
-      <c r="S19" t="s">
-        <v>266</v>
-      </c>
-      <c r="T19" t="s">
-        <v>267</v>
-      </c>
-      <c r="U19" t="s">
-        <v>62</v>
-      </c>
-      <c r="V19" t="s">
-        <v/>
-      </c>
-      <c r="W19" t="s">
-        <v/>
-      </c>
-      <c r="X19" t="s">
-        <v/>
-      </c>
-      <c r="Y19" t="s">
-        <v/>
-      </c>
-      <c r="Z19" t="s">
-        <v/>
-      </c>
-      <c r="AA19" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="28.3464567" customHeight="true">
-      <c r="A20" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F20" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1235</v>
-      </c>
-      <c r="H20" t="s">
-        <v>402</v>
-      </c>
-      <c r="I20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1495</v>
-      </c>
-      <c r="K20" t="s">
-        <v>232</v>
-      </c>
-      <c r="L20" t="s">
-        <v>233</v>
-      </c>
-      <c r="M20" t="s">
-        <v>234</v>
-      </c>
-      <c r="N20" t="s">
-        <v>235</v>
-      </c>
-      <c r="O20" t="s">
-        <v>236</v>
-      </c>
-      <c r="P20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>77</v>
-      </c>
-      <c r="R20" t="s">
-        <v>78</v>
-      </c>
-      <c r="S20" t="s">
-        <v>79</v>
-      </c>
-      <c r="T20" t="s">
-        <v>80</v>
-      </c>
-      <c r="U20" t="s">
-        <v>48</v>
-      </c>
-      <c r="V20" t="s">
-        <v>64</v>
-      </c>
-      <c r="W20" t="s">
-        <v>185</v>
-      </c>
-      <c r="X20" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" ht="28.3464567" customHeight="true">
-      <c r="A21" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>324</v>
-      </c>
-      <c r="H21" t="s">
-        <v>325</v>
-      </c>
-      <c r="I21" t="s">
-        <v>771</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1498</v>
-      </c>
-      <c r="K21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21" t="s">
-        <v>60</v>
-      </c>
-      <c r="O21" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>60</v>
-      </c>
-      <c r="R21" t="s">
-        <v>60</v>
-      </c>
-      <c r="S21" t="s">
-        <v>60</v>
-      </c>
-      <c r="T21" t="s">
-        <v>60</v>
-      </c>
-      <c r="U21" t="s">
-        <v>1499</v>
-      </c>
-      <c r="V21" t="s">
-        <v>92</v>
-      </c>
-      <c r="W21" t="s">
-        <v>1500</v>
-      </c>
-      <c r="X21" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>1501</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="22" ht="28.3464567" customHeight="true">
-      <c r="A22" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" t="s">
-        <v>611</v>
-      </c>
-      <c r="H22" t="s">
-        <v>324</v>
-      </c>
-      <c r="I22" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1505</v>
-      </c>
-      <c r="K22" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" t="s">
-        <v>125</v>
-      </c>
-      <c r="M22" t="s">
-        <v>126</v>
-      </c>
-      <c r="N22" t="s">
-        <v>127</v>
-      </c>
-      <c r="O22" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>264</v>
-      </c>
-      <c r="R22" t="s">
-        <v>265</v>
-      </c>
-      <c r="S22" t="s">
-        <v>266</v>
-      </c>
-      <c r="T22" t="s">
-        <v>267</v>
-      </c>
-      <c r="U22" t="s">
-        <v>62</v>
-      </c>
-      <c r="V22" t="s">
-        <v/>
-      </c>
-      <c r="W22" t="s">
-        <v/>
-      </c>
-      <c r="X22" t="s">
-        <v/>
-      </c>
-      <c r="Y22" t="s">
-        <v/>
-      </c>
-      <c r="Z22" t="s">
-        <v/>
-      </c>
-      <c r="AA22" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="28.3464567" customHeight="true">
-      <c r="A23" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I23" t="s">
-        <v>611</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1509</v>
-      </c>
-      <c r="K23" t="s">
-        <v>77</v>
-      </c>
-      <c r="L23" t="s">
-        <v>77</v>
-      </c>
-      <c r="M23" t="s">
-        <v>78</v>
-      </c>
-      <c r="N23" t="s">
-        <v>79</v>
-      </c>
-      <c r="O23" t="s">
-        <v>80</v>
-      </c>
-      <c r="P23" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>120</v>
-      </c>
-      <c r="R23" t="s">
-        <v>121</v>
-      </c>
-      <c r="S23" t="s">
-        <v>122</v>
-      </c>
-      <c r="T23" t="s">
-        <v>123</v>
-      </c>
-      <c r="U23" t="s">
-        <v>47</v>
-      </c>
-      <c r="V23" t="s">
-        <v>48</v>
-      </c>
-      <c r="W23" t="s">
-        <v>49</v>
-      </c>
-      <c r="X23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" ht="28.3464567" customHeight="true">
-      <c r="A24" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>371</v>
-      </c>
-      <c r="H24" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" t="s">
-        <v>151</v>
-      </c>
-      <c r="J24" t="s">
-        <v>373</v>
-      </c>
-      <c r="K24" t="s">
-        <v>263</v>
-      </c>
-      <c r="L24" t="s">
-        <v>264</v>
-      </c>
-      <c r="M24" t="s">
-        <v>265</v>
-      </c>
-      <c r="N24" t="s">
-        <v>266</v>
-      </c>
-      <c r="O24" t="s">
-        <v>267</v>
-      </c>
-      <c r="P24" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>246</v>
-      </c>
-      <c r="R24" t="s">
-        <v>247</v>
-      </c>
-      <c r="S24" t="s">
-        <v>248</v>
-      </c>
-      <c r="T24" t="s">
-        <v>249</v>
-      </c>
-      <c r="U24" t="s">
-        <v>62</v>
-      </c>
-      <c r="V24" t="s">
-        <v/>
-      </c>
-      <c r="W24" t="s">
-        <v/>
-      </c>
-      <c r="X24" t="s">
-        <v/>
-      </c>
-      <c r="Y24" t="s">
-        <v/>
-      </c>
-      <c r="Z24" t="s">
-        <v/>
-      </c>
-      <c r="AA24" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="28.3464567" customHeight="true">
-      <c r="A25" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H25" t="s">
-        <v>822</v>
-      </c>
-      <c r="I25" t="s">
-        <v>294</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1516</v>
-      </c>
-      <c r="K25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" t="s">
-        <v>60</v>
-      </c>
-      <c r="N25" t="s">
-        <v>60</v>
-      </c>
-      <c r="O25" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>60</v>
-      </c>
-      <c r="R25" t="s">
-        <v>60</v>
-      </c>
-      <c r="S25" t="s">
-        <v>60</v>
-      </c>
-      <c r="T25" t="s">
-        <v>60</v>
-      </c>
-      <c r="U25" t="s">
-        <v>62</v>
-      </c>
-      <c r="V25" t="s">
-        <v/>
-      </c>
-      <c r="W25" t="s">
-        <v/>
-      </c>
-      <c r="X25" t="s">
-        <v/>
-      </c>
-      <c r="Y25" t="s">
-        <v/>
-      </c>
-      <c r="Z25" t="s">
-        <v/>
-      </c>
-      <c r="AA25" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="28.3464567" customHeight="true">
-      <c r="A26" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F26" t="s">
-        <v>199</v>
-      </c>
-      <c r="G26" t="s">
-        <v>713</v>
-      </c>
-      <c r="H26" t="s">
-        <v>402</v>
-      </c>
-      <c r="I26" t="s">
-        <v>190</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K26" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" t="s">
-        <v>60</v>
-      </c>
-      <c r="N26" t="s">
-        <v>60</v>
-      </c>
-      <c r="O26" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" t="s">
-        <v>888</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>889</v>
-      </c>
-      <c r="R26" t="s">
-        <v>890</v>
-      </c>
-      <c r="S26" t="s">
-        <v>891</v>
-      </c>
-      <c r="T26" t="s">
-        <v>60</v>
-      </c>
-      <c r="U26" t="s">
-        <v>813</v>
-      </c>
-      <c r="V26" t="s">
-        <v>113</v>
-      </c>
-      <c r="W26" t="s">
-        <v>1521</v>
-      </c>
-      <c r="X26" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>1382</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="27" ht="28.3464567" customHeight="true">
-      <c r="A27" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B27" t="s">
-        <v>617</v>
-      </c>
-      <c r="C27" t="s">
-        <v>618</v>
-      </c>
-      <c r="D27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H27" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" t="s">
-        <v>668</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1524</v>
-      </c>
-      <c r="K27" t="s">
-        <v>245</v>
-      </c>
-      <c r="L27" t="s">
-        <v>246</v>
-      </c>
-      <c r="M27" t="s">
-        <v>247</v>
-      </c>
-      <c r="N27" t="s">
-        <v>248</v>
-      </c>
-      <c r="O27" t="s">
-        <v>249</v>
-      </c>
-      <c r="P27" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>296</v>
-      </c>
-      <c r="R27" t="s">
-        <v>297</v>
-      </c>
-      <c r="S27" t="s">
-        <v>298</v>
-      </c>
-      <c r="T27" t="s">
-        <v>299</v>
-      </c>
-      <c r="U27" t="s">
-        <v>64</v>
-      </c>
-      <c r="V27" t="s">
-        <v>64</v>
-      </c>
-      <c r="W27" t="s">
-        <v>170</v>
-      </c>
-      <c r="X27" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" ht="28.3464567" customHeight="true">
-      <c r="A28" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B28" t="s">
-        <v>655</v>
-      </c>
-      <c r="C28" t="s">
-        <v>671</v>
-      </c>
-      <c r="D28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" t="s">
-        <v>701</v>
-      </c>
-      <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>414</v>
-      </c>
-      <c r="H28" t="s">
-        <v>208</v>
-      </c>
-      <c r="I28" t="s">
-        <v>663</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1526</v>
-      </c>
-      <c r="K28" t="s">
-        <v>263</v>
-      </c>
-      <c r="L28" t="s">
-        <v>264</v>
-      </c>
-      <c r="M28" t="s">
-        <v>265</v>
-      </c>
-      <c r="N28" t="s">
-        <v>266</v>
-      </c>
-      <c r="O28" t="s">
-        <v>267</v>
-      </c>
-      <c r="P28" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>264</v>
-      </c>
-      <c r="R28" t="s">
-        <v>265</v>
-      </c>
-      <c r="S28" t="s">
-        <v>266</v>
-      </c>
-      <c r="T28" t="s">
-        <v>267</v>
-      </c>
-      <c r="U28" t="s">
-        <v>86</v>
-      </c>
-      <c r="V28" t="s">
-        <v>30</v>
-      </c>
-      <c r="W28" t="s">
-        <v>185</v>
-      </c>
-      <c r="X28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" ht="28.3464567" customHeight="true">
-      <c r="A29" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" t="s">
-        <v>282</v>
-      </c>
-      <c r="D29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" t="s">
-        <v>257</v>
-      </c>
-      <c r="F29" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1528</v>
-      </c>
-      <c r="H29" t="s">
-        <v>116</v>
-      </c>
-      <c r="I29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1529</v>
-      </c>
-      <c r="K29" t="s">
-        <v>192</v>
-      </c>
-      <c r="L29" t="s">
-        <v>193</v>
-      </c>
-      <c r="M29" t="s">
-        <v>194</v>
-      </c>
-      <c r="N29" t="s">
-        <v>195</v>
-      </c>
-      <c r="O29" t="s">
-        <v>196</v>
-      </c>
-      <c r="P29" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>43</v>
-      </c>
-      <c r="R29" t="s">
-        <v>44</v>
-      </c>
-      <c r="S29" t="s">
-        <v>45</v>
-      </c>
-      <c r="T29" t="s">
-        <v>46</v>
-      </c>
-      <c r="U29" t="s">
-        <v>62</v>
-      </c>
-      <c r="V29" t="s">
-        <v/>
-      </c>
-      <c r="W29" t="s">
-        <v/>
-      </c>
-      <c r="X29" t="s">
-        <v/>
-      </c>
-      <c r="Y29" t="s">
-        <v/>
-      </c>
-      <c r="Z29" t="s">
-        <v/>
-      </c>
-      <c r="AA29" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="28.3464567" customHeight="true">
-      <c r="A30" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" t="s">
-        <v>823</v>
-      </c>
-      <c r="H30" t="s">
-        <v>379</v>
-      </c>
-      <c r="I30" t="s">
-        <v>402</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1531</v>
-      </c>
-      <c r="K30" t="s">
-        <v>268</v>
-      </c>
-      <c r="L30" t="s">
-        <v>269</v>
-      </c>
-      <c r="M30" t="s">
-        <v>270</v>
-      </c>
-      <c r="N30" t="s">
-        <v>271</v>
-      </c>
-      <c r="O30" t="s">
-        <v>272</v>
-      </c>
-      <c r="P30" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>120</v>
-      </c>
-      <c r="R30" t="s">
-        <v>121</v>
-      </c>
-      <c r="S30" t="s">
-        <v>122</v>
-      </c>
-      <c r="T30" t="s">
-        <v>123</v>
-      </c>
-      <c r="U30" t="s">
-        <v>30</v>
-      </c>
-      <c r="V30" t="s">
-        <v>64</v>
-      </c>
-      <c r="W30" t="s">
-        <v>109</v>
-      </c>
-      <c r="X30" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" ht="28.3464567" customHeight="true">
-      <c r="A31" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" t="s">
-        <v>239</v>
-      </c>
-      <c r="D31" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>443</v>
-      </c>
-      <c r="H31" t="s">
-        <v>242</v>
-      </c>
-      <c r="I31" t="s">
-        <v>455</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1533</v>
-      </c>
-      <c r="K31" t="s">
-        <v>179</v>
-      </c>
-      <c r="L31" t="s">
-        <v>180</v>
-      </c>
-      <c r="M31" t="s">
-        <v>181</v>
-      </c>
-      <c r="N31" t="s">
-        <v>182</v>
-      </c>
-      <c r="O31" t="s">
-        <v>183</v>
-      </c>
-      <c r="P31" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>82</v>
-      </c>
-      <c r="R31" t="s">
-        <v>83</v>
-      </c>
-      <c r="S31" t="s">
-        <v>84</v>
-      </c>
-      <c r="T31" t="s">
-        <v>85</v>
-      </c>
-      <c r="U31" t="s">
-        <v>61</v>
-      </c>
-      <c r="V31" t="s">
-        <v>62</v>
-      </c>
-      <c r="W31" t="s">
-        <v>63</v>
-      </c>
-      <c r="X31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -40622,7 +45024,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="20" min="20" style="0" width="20.75" customWidth="true"/>
+    <col max="22" min="22" style="0" width="20.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -43547,8 +47949,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="15" min="15" style="0" width="24.25" customWidth="true"/>
-    <col hidden="true" max="34" min="25" style="0" width="0" customWidth="true"/>
+    <col max="17" min="17" style="0" width="24.25" customWidth="true"/>
+    <col hidden="true" max="36" min="27" style="0" width="0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">

--- a/file.xlsx
+++ b/file.xlsx
@@ -34,6 +34,10 @@
     <sheet name="2020-08-28" sheetId="24" r:id="rId24" state="visible"/>
     <sheet name="2020-09-02" sheetId="25" r:id="rId25" state="visible"/>
     <sheet name="2020-09-03" sheetId="26" r:id="rId26" state="visible"/>
+    <sheet name="2020-09-16" sheetId="27" r:id="rId27" state="visible"/>
+    <sheet name="2020-09-22" sheetId="28" r:id="rId28" state="visible"/>
+    <sheet name="2020-10-15" sheetId="29" r:id="rId29" state="visible"/>
+    <sheet name="2020-10-26" sheetId="30" r:id="rId30" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1931">
   <si>
     <t>比赛编号</t>
   </si>
@@ -5108,6 +5112,732 @@
   </si>
   <si>
     <t>1.125000</t>
+  </si>
+  <si>
+    <t>2020-09-16 17:40周三002</t>
+  </si>
+  <si>
+    <t>0.852876</t>
+  </si>
+  <si>
+    <t>2020-09-16 17:40周三003</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>0.914760</t>
+  </si>
+  <si>
+    <t>2020-09-16 17:40周三004</t>
+  </si>
+  <si>
+    <t>1.129140</t>
+  </si>
+  <si>
+    <t>2020-09-16 18:10周三005</t>
+  </si>
+  <si>
+    <t>0.669664</t>
+  </si>
+  <si>
+    <t>2020-09-16 18:40周三006</t>
+  </si>
+  <si>
+    <t>0.870534</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三007</t>
+  </si>
+  <si>
+    <t>卡拉巴赫</t>
+  </si>
+  <si>
+    <t>1阿超</t>
+  </si>
+  <si>
+    <t>2挪超</t>
+  </si>
+  <si>
+    <t>1.237500</t>
+  </si>
+  <si>
+    <t>23.810%</t>
+  </si>
+  <si>
+    <t>47.619%</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三008</t>
+  </si>
+  <si>
+    <t>费伦茨</t>
+  </si>
+  <si>
+    <t>2匈甲</t>
+  </si>
+  <si>
+    <t>萨迪纳摩</t>
+  </si>
+  <si>
+    <t>1克甲</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三009</t>
+  </si>
+  <si>
+    <t>英联杯</t>
+  </si>
+  <si>
+    <t>伊普斯</t>
+  </si>
+  <si>
+    <t>3英甲</t>
+  </si>
+  <si>
+    <t>20英超</t>
+  </si>
+  <si>
+    <t>1.845000</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三010</t>
+  </si>
+  <si>
+    <t>中日德兰</t>
+  </si>
+  <si>
+    <t>11丹超</t>
+  </si>
+  <si>
+    <t>年轻人</t>
+  </si>
+  <si>
+    <t>1瑞士</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三011</t>
+  </si>
+  <si>
+    <t>5英冠</t>
+  </si>
+  <si>
+    <t>北安普敦</t>
+  </si>
+  <si>
+    <t>9英甲</t>
+  </si>
+  <si>
+    <t>0.688500</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三012</t>
+  </si>
+  <si>
+    <t>13英超</t>
+  </si>
+  <si>
+    <t>赫尔城</t>
+  </si>
+  <si>
+    <t>4英甲</t>
+  </si>
+  <si>
+    <t>0.553500</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三013</t>
+  </si>
+  <si>
+    <t>14英超</t>
+  </si>
+  <si>
+    <t>19英冠</t>
+  </si>
+  <si>
+    <t>0.733500</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三014</t>
+  </si>
+  <si>
+    <t>法甲</t>
+  </si>
+  <si>
+    <t>梅　斯</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>0.515852</t>
+  </si>
+  <si>
+    <t>0.040770</t>
+  </si>
+  <si>
+    <t>0.130480</t>
+  </si>
+  <si>
+    <t>0.208770</t>
+  </si>
+  <si>
+    <t>0.222680</t>
+  </si>
+  <si>
+    <t>0.178150</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三015</t>
+  </si>
+  <si>
+    <t>解放者杯</t>
+  </si>
+  <si>
+    <t>1巴甲</t>
+  </si>
+  <si>
+    <t>卡利美洲</t>
+  </si>
+  <si>
+    <t>9哥甲</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三016</t>
+  </si>
+  <si>
+    <t>梅大学生</t>
+  </si>
+  <si>
+    <t>6委超</t>
+  </si>
+  <si>
+    <t>利马联盟</t>
+  </si>
+  <si>
+    <t>16秘甲</t>
+  </si>
+  <si>
+    <t>0.976500</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三017</t>
+  </si>
+  <si>
+    <t>玻利瓦尔</t>
+  </si>
+  <si>
+    <t>3玻利</t>
+  </si>
+  <si>
+    <t>5巴甲</t>
+  </si>
+  <si>
+    <t>1.246500</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三018</t>
+  </si>
+  <si>
+    <t>麦独立</t>
+  </si>
+  <si>
+    <t>10哥甲</t>
+  </si>
+  <si>
+    <t>加拉加斯</t>
+  </si>
+  <si>
+    <t>2委超</t>
+  </si>
+  <si>
+    <t>7.40</t>
+  </si>
+  <si>
+    <t>0.603000</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三019</t>
+  </si>
+  <si>
+    <t>天主大学</t>
+  </si>
+  <si>
+    <t>1智甲</t>
+  </si>
+  <si>
+    <t>10巴甲</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>1.350000</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三020</t>
+  </si>
+  <si>
+    <t>0.856716</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三021</t>
+  </si>
+  <si>
+    <t>0.865070</t>
+  </si>
+  <si>
+    <t>2020-09-17 09:10周三022</t>
+  </si>
+  <si>
+    <t>1.139424</t>
+  </si>
+  <si>
+    <t>45.455%</t>
+  </si>
+  <si>
+    <t>22.727%</t>
+  </si>
+  <si>
+    <t>31.818%</t>
+  </si>
+  <si>
+    <t>2020-09-17 09:10周三023</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三024</t>
+  </si>
+  <si>
+    <t>7瑞超</t>
+  </si>
+  <si>
+    <t>波兹南</t>
+  </si>
+  <si>
+    <t>10波超</t>
+  </si>
+  <si>
+    <t>1.156500</t>
+  </si>
+  <si>
+    <t>2020-09-16 21:40周三025</t>
+  </si>
+  <si>
+    <t>巴西杯</t>
+  </si>
+  <si>
+    <t>8巴甲</t>
+  </si>
+  <si>
+    <t>12巴甲</t>
+  </si>
+  <si>
+    <t>0.832500</t>
+  </si>
+  <si>
+    <t>2020-09-17 21:40周四002</t>
+  </si>
+  <si>
+    <t>1.039380</t>
+  </si>
+  <si>
+    <t>2020-09-17 21:40周四003</t>
+  </si>
+  <si>
+    <t>0.798844</t>
+  </si>
+  <si>
+    <t>2020-09-22 21:40周二002</t>
+  </si>
+  <si>
+    <t>克拉斯诺</t>
+  </si>
+  <si>
+    <t>7俄超</t>
+  </si>
+  <si>
+    <t>塞萨洛尼</t>
+  </si>
+  <si>
+    <t>3希超</t>
+  </si>
+  <si>
+    <t>0.828000</t>
+  </si>
+  <si>
+    <t>2020-09-22 21:40周二004</t>
+  </si>
+  <si>
+    <t>斯拉维亚</t>
+  </si>
+  <si>
+    <t>2捷甲</t>
+  </si>
+  <si>
+    <t>8丹超</t>
+  </si>
+  <si>
+    <t>0.751500</t>
+  </si>
+  <si>
+    <t>2020-09-22 21:40周二007</t>
+  </si>
+  <si>
+    <t>纽波特</t>
+  </si>
+  <si>
+    <t>9英乙</t>
+  </si>
+  <si>
+    <t>8英冠</t>
+  </si>
+  <si>
+    <t>2.340000</t>
+  </si>
+  <si>
+    <t>2020-09-22 21:40周二008</t>
+  </si>
+  <si>
+    <t>12英冠</t>
+  </si>
+  <si>
+    <t>0.963000</t>
+  </si>
+  <si>
+    <t>2020-09-22 21:40周二009</t>
+  </si>
+  <si>
+    <t>16英超</t>
+  </si>
+  <si>
+    <t>0.571500</t>
+  </si>
+  <si>
+    <t>2020-09-22 21:40周二010</t>
+  </si>
+  <si>
+    <t>3英冠</t>
+  </si>
+  <si>
+    <t>15英超</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>4.275000</t>
+  </si>
+  <si>
+    <t>2020-09-23 17:10周三001</t>
+  </si>
+  <si>
+    <t>0.887835</t>
+  </si>
+  <si>
+    <t>2020-09-23 17:40周三007</t>
+  </si>
+  <si>
+    <t>2020-09-23 17:40周三008</t>
+  </si>
+  <si>
+    <t>0.898464</t>
+  </si>
+  <si>
+    <t>2020-09-23 17:40周三009</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>1.248072</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>43.750%</t>
+  </si>
+  <si>
+    <t>28.125%</t>
+  </si>
+  <si>
+    <t>2020-09-23 17:40周三010</t>
+  </si>
+  <si>
+    <t>1.125091</t>
+  </si>
+  <si>
+    <t>2020-09-23 17:40周三011</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>1.123088</t>
+  </si>
+  <si>
+    <t>2020-09-23 17:40周三012</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>1.001222</t>
+  </si>
+  <si>
+    <t>2020-09-23 17:40周三013</t>
+  </si>
+  <si>
+    <t>1.006000</t>
+  </si>
+  <si>
+    <t>2020-09-23 17:40周三014</t>
+  </si>
+  <si>
+    <t>1.209432</t>
+  </si>
+  <si>
+    <t>39.130%</t>
+  </si>
+  <si>
+    <t>26.087%</t>
+  </si>
+  <si>
+    <t>2020-09-23 17:40周三015</t>
+  </si>
+  <si>
+    <t>0.997438</t>
+  </si>
+  <si>
+    <t>2020-09-23 18:10周三018</t>
+  </si>
+  <si>
+    <t>0.781380</t>
+  </si>
+  <si>
+    <t>2020-09-23 21:40周三023</t>
+  </si>
+  <si>
+    <t>0.655491</t>
+  </si>
+  <si>
+    <t>2020-09-23 21:40周三024</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>0.763268</t>
+  </si>
+  <si>
+    <t>2020-09-23 21:40周三025</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>0.911676</t>
+  </si>
+  <si>
+    <t>2020-09-23 21:40周三026</t>
+  </si>
+  <si>
+    <t>0.727901</t>
+  </si>
+  <si>
+    <t>2020-09-23 21:40周三027</t>
+  </si>
+  <si>
+    <t>0.750134</t>
+  </si>
+  <si>
+    <t>2020-09-23 21:40周三028</t>
+  </si>
+  <si>
+    <t>1.005984</t>
+  </si>
+  <si>
+    <t>2020-09-23 21:40周三029</t>
+  </si>
+  <si>
+    <t>0.794403</t>
+  </si>
+  <si>
+    <t>2020-09-23 21:40周三030</t>
+  </si>
+  <si>
+    <t>迈阿密</t>
+  </si>
+  <si>
+    <t>0.777039</t>
+  </si>
+  <si>
+    <t>2020-09-23 21:40周三032</t>
+  </si>
+  <si>
+    <t>0.768056</t>
+  </si>
+  <si>
+    <t>2020-09-23 21:40周三033</t>
+  </si>
+  <si>
+    <t>0.838720</t>
+  </si>
+  <si>
+    <t>2020-09-24 09:10周三034</t>
+  </si>
+  <si>
+    <t>2020-09-24 09:40周三035</t>
+  </si>
+  <si>
+    <t>1.102016</t>
+  </si>
+  <si>
+    <t>2020-09-24 10:10周三036</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>6.85</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>0.509936</t>
+  </si>
+  <si>
+    <t>2020-10-15 09:10周三042</t>
+  </si>
+  <si>
+    <t>0.852150</t>
+  </si>
+  <si>
+    <t>2020-10-15 09:40周三043</t>
+  </si>
+  <si>
+    <t>1.816080</t>
+  </si>
+  <si>
+    <t>2020-10-15 10:10周三044</t>
+  </si>
+  <si>
+    <t>0.635634</t>
+  </si>
+  <si>
+    <t>2020-10-26 21:40周一001</t>
+  </si>
+  <si>
+    <t>莫陆军</t>
+  </si>
+  <si>
+    <t>图兵工厂</t>
+  </si>
+  <si>
+    <t>5.75</t>
+  </si>
+  <si>
+    <t>0.718904</t>
+  </si>
+  <si>
+    <t>2020-10-26 21:40周一002</t>
+  </si>
+  <si>
+    <t>2020-10-26 21:40周一003</t>
+  </si>
+  <si>
+    <t>1.259345</t>
+  </si>
+  <si>
+    <t>2020-10-26 21:40周一004</t>
+  </si>
+  <si>
+    <t>德甲</t>
+  </si>
+  <si>
+    <t>奥格斯堡</t>
+  </si>
+  <si>
+    <t>0.638127</t>
+  </si>
+  <si>
+    <t>2020-10-26 21:40周一005</t>
+  </si>
+  <si>
+    <t>0.930361</t>
+  </si>
+  <si>
+    <t>2020-10-26 21:40周一006</t>
+  </si>
+  <si>
+    <t>1.118260</t>
+  </si>
+  <si>
+    <t>2020-10-26 21:40周一007</t>
+  </si>
+  <si>
+    <t>根　特</t>
+  </si>
+  <si>
+    <t>亨　克</t>
+  </si>
+  <si>
+    <t>0.830466</t>
+  </si>
+  <si>
+    <t>2020-10-26 21:40周一008</t>
+  </si>
+  <si>
+    <t>2.270950</t>
+  </si>
+  <si>
+    <t>2020-10-26 21:40周一009</t>
+  </si>
+  <si>
+    <t>2020-10-27 10:40周一011</t>
+  </si>
+  <si>
+    <t>墨超</t>
+  </si>
+  <si>
+    <t>帕丘卡</t>
+  </si>
+  <si>
+    <t>美洲狮</t>
+  </si>
+  <si>
+    <t>0.707520</t>
+  </si>
+  <si>
+    <t>2020-10-27 21:40周二008</t>
+  </si>
+  <si>
+    <t>门　兴</t>
+  </si>
+  <si>
+    <t>38.462%</t>
+  </si>
+  <si>
+    <t>2020-10-27 21:40周二009</t>
+  </si>
+  <si>
+    <t>马　赛</t>
+  </si>
+  <si>
+    <t>4法甲</t>
+  </si>
+  <si>
+    <t>8.95</t>
+  </si>
+  <si>
+    <t>4.027500</t>
   </si>
 </sst>
 </file>
@@ -5551,8 +6281,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="16" min="16" style="0" width="38.375" customWidth="true"/>
-    <col max="17" min="17" style="0" width="36.625" customWidth="true"/>
+    <col max="20" min="20" style="0" width="38.375" customWidth="true"/>
+    <col max="21" min="21" style="0" width="36.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -7427,10 +8157,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="16" min="16" style="0" width="25.5" customWidth="true"/>
-    <col hidden="true" max="35" min="21" style="0" width="0" customWidth="true"/>
-    <col max="36" min="36" style="0" width="17.25" customWidth="true"/>
-    <col max="37" min="37" style="0" width="13.375" customWidth="true"/>
+    <col max="20" min="20" style="0" width="25.5" customWidth="true"/>
+    <col hidden="true" max="39" min="25" style="0" width="0" customWidth="true"/>
+    <col max="40" min="40" style="0" width="17.25" customWidth="true"/>
+    <col max="41" min="41" style="0" width="13.375" customWidth="true"/>
   </cols>
   <autoFilter ref="A1:AA33"/>
   <sheetData>
@@ -32556,832 +33286,6029 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="28.3464567" customHeight="true">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1635</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1636</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>1637</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>1642</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V2" t="s">
-        <v/>
-      </c>
-      <c r="W2" t="s">
-        <v/>
-      </c>
-      <c r="X2" t="s">
-        <v/>
-      </c>
-      <c r="Y2" t="s">
-        <v/>
-      </c>
-      <c r="Z2" t="s">
-        <v/>
-      </c>
-      <c r="AA2" t="s">
+      <c r="V2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>1639</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1640</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>1643</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V3" t="s">
-        <v/>
-      </c>
-      <c r="W3" t="s">
-        <v/>
-      </c>
-      <c r="X3" t="s">
-        <v/>
-      </c>
-      <c r="Y3" t="s">
-        <v/>
-      </c>
-      <c r="Z3" t="s">
-        <v/>
-      </c>
-      <c r="AA3" t="s">
+      <c r="V3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="4" ht="28.3464567" customHeight="true">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1644</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1645</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1646</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1647</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>1648</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>1649</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>1650</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="L4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V4" t="s">
-        <v/>
-      </c>
-      <c r="W4" t="s">
-        <v/>
-      </c>
-      <c r="X4" t="s">
-        <v/>
-      </c>
-      <c r="Y4" t="s">
-        <v/>
-      </c>
-      <c r="Z4" t="s">
-        <v/>
-      </c>
-      <c r="AA4" t="s">
+      <c r="V4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="5" ht="28.3464567" customHeight="true">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>1651</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>1645</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>1652</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>1653</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>1654</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>1655</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="3" t="s">
         <v>1656</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V5" t="s">
-        <v/>
-      </c>
-      <c r="W5" t="s">
-        <v/>
-      </c>
-      <c r="X5" t="s">
-        <v/>
-      </c>
-      <c r="Y5" t="s">
-        <v/>
-      </c>
-      <c r="Z5" t="s">
-        <v/>
-      </c>
-      <c r="AA5" t="s">
+      <c r="V5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="6" ht="28.3464567" customHeight="true">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>1657</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>1645</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>1658</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>1659</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>1660</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>1661</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>1662</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>1663</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V6" t="s">
-        <v/>
-      </c>
-      <c r="W6" t="s">
-        <v/>
-      </c>
-      <c r="X6" t="s">
-        <v/>
-      </c>
-      <c r="Y6" t="s">
-        <v/>
-      </c>
-      <c r="Z6" t="s">
-        <v/>
-      </c>
-      <c r="AA6" t="s">
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="7" ht="28.3464567" customHeight="true">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>1664</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>1645</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>1665</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>1666</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>1667</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>1668</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>1669</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="O7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V7" t="s">
-        <v/>
-      </c>
-      <c r="W7" t="s">
-        <v/>
-      </c>
-      <c r="X7" t="s">
-        <v/>
-      </c>
-      <c r="Y7" t="s">
-        <v/>
-      </c>
-      <c r="Z7" t="s">
-        <v/>
-      </c>
-      <c r="AA7" t="s">
+      <c r="V7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA7" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="8" ht="28.3464567" customHeight="true">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>1670</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>1645</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>1671</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>1672</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>1673</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>1674</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="3" t="s">
         <v>1675</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V8" t="s">
-        <v/>
-      </c>
-      <c r="W8" t="s">
-        <v/>
-      </c>
-      <c r="X8" t="s">
-        <v/>
-      </c>
-      <c r="Y8" t="s">
-        <v/>
-      </c>
-      <c r="Z8" t="s">
-        <v/>
-      </c>
-      <c r="AA8" t="s">
+      <c r="V8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA8" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="9" ht="28.3464567" customHeight="true">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>1676</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>1645</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>1677</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>1678</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>1679</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>1680</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>1681</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>1682</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="L9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" t="s">
-        <v>60</v>
-      </c>
-      <c r="R9" t="s">
-        <v>60</v>
-      </c>
-      <c r="S9" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="Q9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V9" t="s">
-        <v/>
-      </c>
-      <c r="W9" t="s">
-        <v/>
-      </c>
-      <c r="X9" t="s">
-        <v/>
-      </c>
-      <c r="Y9" t="s">
-        <v/>
-      </c>
-      <c r="Z9" t="s">
-        <v/>
-      </c>
-      <c r="AA9" t="s">
+      <c r="V9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v/>
       </c>
     </row>
     <row r="10" ht="28.3464567" customHeight="true">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>1683</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>1645</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>1684</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>1685</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>1686</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>1687</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="3" t="s">
         <v>1688</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V10" t="s">
-        <v/>
-      </c>
-      <c r="W10" t="s">
-        <v/>
-      </c>
-      <c r="X10" t="s">
-        <v/>
-      </c>
-      <c r="Y10" t="s">
-        <v/>
-      </c>
-      <c r="Z10" t="s">
-        <v/>
-      </c>
-      <c r="AA10" t="s">
+      <c r="V10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA27"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="28.3464567" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="28.3464567" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="28.3464567" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="28.3464567" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="28.3464567" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="28.3464567" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="28.3464567" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="28.3464567" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="23" ht="28.3464567" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="28.3464567" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="25" ht="28.3464567" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="28.3464567" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="28.3464567" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA31"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1827</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1833</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="28.3464567" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" ht="28.3464567" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>1852</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>1853</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="17" ht="28.3464567" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="28.3464567" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="28.3464567" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="28.3464567" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>1861</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1862</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="28.3464567" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1865</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="28.3464567" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="28.3464567" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>1869</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="28.3464567" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="28.3464567" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="28.3464567" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="28.3464567" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>1878</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="28.3464567" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="28.3464567" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="28.3464567" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" ht="28.3464567" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>1888</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1894</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v/>
       </c>
     </row>
@@ -35315,6 +41242,1102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>947</v>
+      </c>
+      <c r="H2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>296</v>
+      </c>
+      <c r="R2" t="s">
+        <v>297</v>
+      </c>
+      <c r="S2" t="s">
+        <v>298</v>
+      </c>
+      <c r="T2" t="s">
+        <v>299</v>
+      </c>
+      <c r="U2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" t="s">
+        <v/>
+      </c>
+      <c r="W2" t="s">
+        <v/>
+      </c>
+      <c r="X2" t="s">
+        <v/>
+      </c>
+      <c r="Y2" t="s">
+        <v/>
+      </c>
+      <c r="Z2" t="s">
+        <v/>
+      </c>
+      <c r="AA2" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I3" t="s">
+        <v>366</v>
+      </c>
+      <c r="J3" t="s">
+        <v>498</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R3" t="s">
+        <v>167</v>
+      </c>
+      <c r="S3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" t="s">
+        <v/>
+      </c>
+      <c r="W3" t="s">
+        <v/>
+      </c>
+      <c r="X3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="K4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N4" t="s">
+        <v>248</v>
+      </c>
+      <c r="O4" t="s">
+        <v>249</v>
+      </c>
+      <c r="P4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" t="s">
+        <v>123</v>
+      </c>
+      <c r="U4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="X4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>749</v>
+      </c>
+      <c r="H5" t="s">
+        <v>994</v>
+      </c>
+      <c r="I5" t="s">
+        <v>826</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K5" t="s">
+        <v>286</v>
+      </c>
+      <c r="L5" t="s">
+        <v>287</v>
+      </c>
+      <c r="M5" t="s">
+        <v>288</v>
+      </c>
+      <c r="N5" t="s">
+        <v>289</v>
+      </c>
+      <c r="O5" t="s">
+        <v>290</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" t="s">
+        <v/>
+      </c>
+      <c r="W5" t="s">
+        <v/>
+      </c>
+      <c r="X5" t="s">
+        <v/>
+      </c>
+      <c r="Y5" t="s">
+        <v/>
+      </c>
+      <c r="Z5" t="s">
+        <v/>
+      </c>
+      <c r="AA5" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1908</v>
+      </c>
+      <c r="K6" t="s">
+        <v>357</v>
+      </c>
+      <c r="L6" t="s">
+        <v>358</v>
+      </c>
+      <c r="M6" t="s">
+        <v>359</v>
+      </c>
+      <c r="N6" t="s">
+        <v>360</v>
+      </c>
+      <c r="O6" t="s">
+        <v>361</v>
+      </c>
+      <c r="P6" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>341</v>
+      </c>
+      <c r="R6" t="s">
+        <v>342</v>
+      </c>
+      <c r="S6" t="s">
+        <v>343</v>
+      </c>
+      <c r="T6" t="s">
+        <v>344</v>
+      </c>
+      <c r="U6" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" t="s">
+        <v/>
+      </c>
+      <c r="W6" t="s">
+        <v/>
+      </c>
+      <c r="X6" t="s">
+        <v/>
+      </c>
+      <c r="Y6" t="s">
+        <v/>
+      </c>
+      <c r="Z6" t="s">
+        <v/>
+      </c>
+      <c r="AA6" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H7" t="s">
+        <v>762</v>
+      </c>
+      <c r="I7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>385</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1914</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" t="s">
+        <v/>
+      </c>
+      <c r="W8" t="s">
+        <v/>
+      </c>
+      <c r="X8" t="s">
+        <v/>
+      </c>
+      <c r="Y8" t="s">
+        <v/>
+      </c>
+      <c r="Z8" t="s">
+        <v/>
+      </c>
+      <c r="AA8" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" t="s">
+        <v>750</v>
+      </c>
+      <c r="H9" t="s">
+        <v>994</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>233</v>
+      </c>
+      <c r="R9" t="s">
+        <v>234</v>
+      </c>
+      <c r="S9" t="s">
+        <v>235</v>
+      </c>
+      <c r="T9" t="s">
+        <v>236</v>
+      </c>
+      <c r="U9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" t="s">
+        <v>185</v>
+      </c>
+      <c r="X9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C10" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>565</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>848</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" t="s">
+        <v>849</v>
+      </c>
+      <c r="K10" t="s">
+        <v>232</v>
+      </c>
+      <c r="L10" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" t="s">
+        <v>234</v>
+      </c>
+      <c r="N10" t="s">
+        <v>235</v>
+      </c>
+      <c r="O10" t="s">
+        <v>236</v>
+      </c>
+      <c r="P10" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>246</v>
+      </c>
+      <c r="R10" t="s">
+        <v>247</v>
+      </c>
+      <c r="S10" t="s">
+        <v>248</v>
+      </c>
+      <c r="T10" t="s">
+        <v>249</v>
+      </c>
+      <c r="U10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" t="s">
+        <v/>
+      </c>
+      <c r="W10" t="s">
+        <v/>
+      </c>
+      <c r="X10" t="s">
+        <v/>
+      </c>
+      <c r="Y10" t="s">
+        <v/>
+      </c>
+      <c r="Z10" t="s">
+        <v/>
+      </c>
+      <c r="AA10" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K11" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" t="s">
+        <v>156</v>
+      </c>
+      <c r="O11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>269</v>
+      </c>
+      <c r="R11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S11" t="s">
+        <v>271</v>
+      </c>
+      <c r="T11" t="s">
+        <v>272</v>
+      </c>
+      <c r="U11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" t="s">
+        <v/>
+      </c>
+      <c r="W11" t="s">
+        <v/>
+      </c>
+      <c r="X11" t="s">
+        <v/>
+      </c>
+      <c r="Y11" t="s">
+        <v/>
+      </c>
+      <c r="Z11" t="s">
+        <v/>
+      </c>
+      <c r="AA11" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E12" t="s">
+        <v>579</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V12" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1305</v>
+      </c>
+      <c r="X12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1925</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E13" t="s">
+        <v>855</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" t="s">
+        <v>857</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" t="s">
+        <v>63</v>
+      </c>
+      <c r="X13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -45024,7 +52047,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="22" min="22" style="0" width="20.75" customWidth="true"/>
+    <col max="26" min="26" style="0" width="20.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -47949,8 +54972,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="17" min="17" style="0" width="24.25" customWidth="true"/>
-    <col hidden="true" max="36" min="27" style="0" width="0" customWidth="true"/>
+    <col max="21" min="21" style="0" width="24.25" customWidth="true"/>
+    <col hidden="true" max="40" min="31" style="0" width="0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">

--- a/file.xlsx
+++ b/file.xlsx
@@ -38,6 +38,7 @@
     <sheet name="2020-09-22" sheetId="28" r:id="rId28" state="visible"/>
     <sheet name="2020-10-15" sheetId="29" r:id="rId29" state="visible"/>
     <sheet name="2020-10-26" sheetId="30" r:id="rId30" state="visible"/>
+    <sheet name="2020-11-10" sheetId="31" r:id="rId31" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="1961">
   <si>
     <t>比赛编号</t>
   </si>
@@ -5838,6 +5839,96 @@
   </si>
   <si>
     <t>4.027500</t>
+  </si>
+  <si>
+    <t>2020-11-11 17:40周三001</t>
+  </si>
+  <si>
+    <t>1.035216</t>
+  </si>
+  <si>
+    <t>2020-11-11 17:40周三002</t>
+  </si>
+  <si>
+    <t>2020-11-11 17:40周三003</t>
+  </si>
+  <si>
+    <t>0.834058</t>
+  </si>
+  <si>
+    <t>2020-11-11 17:40周三004</t>
+  </si>
+  <si>
+    <t>0.871724</t>
+  </si>
+  <si>
+    <t>2020-11-11 17:40周三005</t>
+  </si>
+  <si>
+    <t>0.881694</t>
+  </si>
+  <si>
+    <t>2020-11-11 17:40周三006</t>
+  </si>
+  <si>
+    <t>0.921330</t>
+  </si>
+  <si>
+    <t>2020-11-11 17:40周三007</t>
+  </si>
+  <si>
+    <t>2.81</t>
+  </si>
+  <si>
+    <t>0.953498</t>
+  </si>
+  <si>
+    <t>2020-11-11 17:40周三008</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>0.823878</t>
+  </si>
+  <si>
+    <t>2020-11-11 17:40周三009</t>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>0.740392</t>
+  </si>
+  <si>
+    <t>2020-11-11 17:40周三010</t>
+  </si>
+  <si>
+    <t>0.881396</t>
+  </si>
+  <si>
+    <t>2020-11-11 17:40周三011</t>
+  </si>
+  <si>
+    <t>1.095975</t>
+  </si>
+  <si>
+    <t>2020-11-11 17:40周三012</t>
+  </si>
+  <si>
+    <t>0.852786</t>
+  </si>
+  <si>
+    <t>2020-11-11 18:10周三013</t>
+  </si>
+  <si>
+    <t>1.890810</t>
+  </si>
+  <si>
+    <t>2020-11-11 17:40周三025</t>
+  </si>
+  <si>
+    <t>0.992508</t>
   </si>
 </sst>
 </file>
@@ -6281,8 +6372,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="20" min="20" style="0" width="38.375" customWidth="true"/>
-    <col max="21" min="21" style="0" width="36.625" customWidth="true"/>
+    <col max="21" min="21" style="0" width="38.375" customWidth="true"/>
+    <col max="22" min="22" style="0" width="36.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -8157,10 +8248,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="20" min="20" style="0" width="25.5" customWidth="true"/>
-    <col hidden="true" max="39" min="25" style="0" width="0" customWidth="true"/>
-    <col max="40" min="40" style="0" width="17.25" customWidth="true"/>
-    <col max="41" min="41" style="0" width="13.375" customWidth="true"/>
+    <col max="21" min="21" style="0" width="25.5" customWidth="true"/>
+    <col hidden="true" max="40" min="26" style="0" width="0" customWidth="true"/>
+    <col max="41" min="41" style="0" width="17.25" customWidth="true"/>
+    <col max="42" min="42" style="0" width="13.375" customWidth="true"/>
   </cols>
   <autoFilter ref="A1:AA33"/>
   <sheetData>
@@ -41256,6 +41347,1102 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="28.3464567" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v/>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="28.3464567" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="13" ht="28.3464567" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA15"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -41340,147 +42527,147 @@
     </row>
     <row r="2" ht="28.3464567" customHeight="true">
       <c r="A2" t="s">
-        <v>1895</v>
+        <v>1931</v>
       </c>
       <c r="B2" t="s">
-        <v>1108</v>
+        <v>655</v>
       </c>
       <c r="C2" t="s">
-        <v>1896</v>
+        <v>691</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>1897</v>
+        <v>705</v>
       </c>
       <c r="F2" t="s">
         <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>947</v>
+        <v>611</v>
       </c>
       <c r="H2" t="s">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>1898</v>
+        <v>537</v>
       </c>
       <c r="J2" t="s">
-        <v>1899</v>
+        <v>1932</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="P2" t="s">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s">
-        <v>299</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2" t="s">
         <v>62</v>
       </c>
-      <c r="V2" t="s">
-        <v/>
-      </c>
-      <c r="W2" t="s">
-        <v/>
-      </c>
-      <c r="X2" t="s">
-        <v/>
-      </c>
-      <c r="Y2" t="s">
-        <v/>
-      </c>
-      <c r="Z2" t="s">
-        <v/>
-      </c>
       <c r="AA2" t="s">
-        <v/>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="28.3464567" customHeight="true">
       <c r="A3" t="s">
-        <v>1900</v>
+        <v>1933</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>655</v>
       </c>
       <c r="C3" t="s">
-        <v>512</v>
+        <v>686</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>406</v>
+        <v>667</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>1528</v>
       </c>
       <c r="H3" t="s">
-        <v>378</v>
+        <v>636</v>
       </c>
       <c r="I3" t="s">
-        <v>366</v>
+        <v>754</v>
       </c>
       <c r="J3" t="s">
-        <v>498</v>
+        <v>1908</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="Q3" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="R3" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="S3" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="T3" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="U3" t="s">
         <v>62</v>
@@ -41506,147 +42693,147 @@
     </row>
     <row r="4" ht="28.3464567" customHeight="true">
       <c r="A4" t="s">
-        <v>1901</v>
+        <v>1934</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>655</v>
       </c>
       <c r="C4" t="s">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>507</v>
+        <v>661</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>508</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>1143</v>
+        <v>1427</v>
       </c>
       <c r="J4" t="s">
-        <v>1902</v>
+        <v>1935</v>
       </c>
       <c r="K4" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="L4" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="M4" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="N4" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="O4" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="Q4" t="s">
-        <v>120</v>
+        <v>233</v>
       </c>
       <c r="R4" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="S4" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="T4" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v/>
       </c>
       <c r="W4" t="s">
-        <v>1223</v>
+        <v/>
       </c>
       <c r="X4" t="s">
-        <v>47</v>
+        <v/>
       </c>
       <c r="Y4" t="s">
-        <v>1306</v>
+        <v/>
       </c>
       <c r="Z4" t="s">
-        <v>30</v>
+        <v/>
       </c>
       <c r="AA4" t="s">
-        <v>1305</v>
+        <v/>
       </c>
     </row>
     <row r="5" ht="28.3464567" customHeight="true">
       <c r="A5" t="s">
-        <v>1903</v>
+        <v>1936</v>
       </c>
       <c r="B5" t="s">
-        <v>1904</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>1026</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>1905</v>
+        <v>205</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="G5" t="s">
-        <v>749</v>
+        <v>392</v>
       </c>
       <c r="H5" t="s">
-        <v>994</v>
+        <v>1053</v>
       </c>
       <c r="I5" t="s">
-        <v>826</v>
+        <v>304</v>
       </c>
       <c r="J5" t="s">
-        <v>1906</v>
+        <v>1937</v>
       </c>
       <c r="K5" t="s">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s">
         <v>62</v>
@@ -41672,64 +42859,64 @@
     </row>
     <row r="6" ht="28.3464567" customHeight="true">
       <c r="A6" t="s">
-        <v>1907</v>
+        <v>1938</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>434</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>453</v>
+        <v>275</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="G6" t="s">
-        <v>1528</v>
+        <v>1574</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>366</v>
       </c>
       <c r="J6" t="s">
-        <v>1908</v>
+        <v>1939</v>
       </c>
       <c r="K6" t="s">
-        <v>357</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>359</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>340</v>
+        <v>263</v>
       </c>
       <c r="Q6" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="R6" t="s">
-        <v>342</v>
+        <v>265</v>
       </c>
       <c r="S6" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="T6" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="U6" t="s">
         <v>62</v>
@@ -41755,147 +42942,147 @@
     </row>
     <row r="7" ht="28.3464567" customHeight="true">
       <c r="A7" t="s">
-        <v>1909</v>
+        <v>1940</v>
       </c>
       <c r="B7" t="s">
-        <v>1390</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>1497</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>1489</v>
+        <v>187</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="G7" t="s">
-        <v>401</v>
+        <v>261</v>
       </c>
       <c r="H7" t="s">
-        <v>762</v>
+        <v>366</v>
       </c>
       <c r="I7" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="J7" t="s">
-        <v>1910</v>
+        <v>1941</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="Q7" t="s">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="R7" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="S7" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="U7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V7" t="s">
-        <v>62</v>
+        <v/>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v/>
       </c>
       <c r="X7" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="Y7" t="s">
-        <v>170</v>
+        <v/>
       </c>
       <c r="Z7" t="s">
-        <v>62</v>
+        <v/>
       </c>
       <c r="AA7" t="s">
-        <v>63</v>
+        <v/>
       </c>
     </row>
     <row r="8" ht="28.3464567" customHeight="true">
       <c r="A8" t="s">
-        <v>1911</v>
+        <v>1942</v>
       </c>
       <c r="B8" t="s">
-        <v>1113</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>1912</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>1913</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>284</v>
+        <v>702</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>385</v>
+        <v>1943</v>
       </c>
       <c r="J8" t="s">
-        <v>1914</v>
+        <v>1944</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="Q8" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R8" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="S8" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="T8" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="U8" t="s">
         <v>62</v>
@@ -41921,147 +43108,147 @@
     </row>
     <row r="9" ht="28.3464567" customHeight="true">
       <c r="A9" t="s">
-        <v>1915</v>
+        <v>1945</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>383</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>390</v>
+        <v>258</v>
       </c>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>750</v>
+        <v>1946</v>
       </c>
       <c r="H9" t="s">
-        <v>994</v>
+        <v>463</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>414</v>
       </c>
       <c r="J9" t="s">
-        <v>1916</v>
+        <v>1947</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="L9" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="M9" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="O9" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="P9" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="Q9" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="R9" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="S9" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="T9" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="U9" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="V9" t="s">
-        <v>64</v>
+        <v/>
       </c>
       <c r="W9" t="s">
-        <v>185</v>
+        <v/>
       </c>
       <c r="X9" t="s">
-        <v>62</v>
+        <v/>
       </c>
       <c r="Y9" t="s">
-        <v>63</v>
+        <v/>
       </c>
       <c r="Z9" t="s">
-        <v>30</v>
+        <v/>
       </c>
       <c r="AA9" t="s">
-        <v>184</v>
+        <v/>
       </c>
     </row>
     <row r="10" ht="28.3464567" customHeight="true">
       <c r="A10" t="s">
-        <v>1917</v>
+        <v>1948</v>
       </c>
       <c r="B10" t="s">
-        <v>550</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>566</v>
+        <v>274</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>565</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="I10" t="s">
-        <v>189</v>
+        <v>1949</v>
       </c>
       <c r="J10" t="s">
-        <v>849</v>
+        <v>1950</v>
       </c>
       <c r="K10" t="s">
-        <v>232</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="N10" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="Q10" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="R10" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="S10" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="T10" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="U10" t="s">
         <v>62</v>
@@ -42087,64 +43274,64 @@
     </row>
     <row r="11" ht="28.3464567" customHeight="true">
       <c r="A11" t="s">
-        <v>1918</v>
+        <v>1951</v>
       </c>
       <c r="B11" t="s">
-        <v>1919</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>1920</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>1921</v>
+        <v>188</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="G11" t="s">
-        <v>1354</v>
+        <v>1127</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="I11" t="s">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
-        <v>1922</v>
+        <v>1952</v>
       </c>
       <c r="K11" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="L11" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="M11" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="N11" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="O11" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="P11" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="Q11" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="R11" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="S11" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="T11" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="U11" t="s">
         <v>62</v>
@@ -42170,168 +43357,334 @@
     </row>
     <row r="12" ht="28.3464567" customHeight="true">
       <c r="A12" t="s">
-        <v>1923</v>
+        <v>1953</v>
       </c>
       <c r="B12" t="s">
-        <v>1072</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>1924</v>
+        <v>282</v>
       </c>
       <c r="D12" t="s">
-        <v>1027</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>579</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
-        <v>1278</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>371</v>
       </c>
       <c r="H12" t="s">
-        <v>242</v>
+        <v>366</v>
       </c>
       <c r="I12" t="s">
-        <v>1315</v>
+        <v>1067</v>
       </c>
       <c r="J12" t="s">
-        <v>1281</v>
+        <v>1954</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="P12" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="Q12" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="V12" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" t="s">
+        <v>776</v>
+      </c>
+      <c r="X12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z12" t="s">
         <v>30</v>
       </c>
-      <c r="W12" t="s">
-        <v>1305</v>
-      </c>
-      <c r="X12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>1925</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>86</v>
-      </c>
       <c r="AA12" t="s">
-        <v>979</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="13" ht="28.3464567" customHeight="true">
       <c r="A13" t="s">
-        <v>1926</v>
+        <v>1955</v>
       </c>
       <c r="B13" t="s">
-        <v>1072</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>1927</v>
+        <v>292</v>
       </c>
       <c r="D13" t="s">
-        <v>1928</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>855</v>
+        <v>239</v>
       </c>
       <c r="F13" t="s">
-        <v>1729</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>1929</v>
+        <v>1315</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>463</v>
       </c>
       <c r="I13" t="s">
-        <v>857</v>
+        <v>208</v>
       </c>
       <c r="J13" t="s">
-        <v>1930</v>
+        <v>1956</v>
       </c>
       <c r="K13" t="s">
+        <v>232</v>
+      </c>
+      <c r="L13" t="s">
+        <v>233</v>
+      </c>
+      <c r="M13" t="s">
+        <v>234</v>
+      </c>
+      <c r="N13" t="s">
+        <v>235</v>
+      </c>
+      <c r="O13" t="s">
+        <v>236</v>
+      </c>
+      <c r="P13" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>233</v>
+      </c>
+      <c r="R13" t="s">
+        <v>234</v>
+      </c>
+      <c r="S13" t="s">
+        <v>235</v>
+      </c>
+      <c r="T13" t="s">
+        <v>236</v>
+      </c>
+      <c r="U13" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" t="s">
+        <v/>
+      </c>
+      <c r="W13" t="s">
+        <v/>
+      </c>
+      <c r="X13" t="s">
+        <v/>
+      </c>
+      <c r="Y13" t="s">
+        <v/>
+      </c>
+      <c r="Z13" t="s">
+        <v/>
+      </c>
+      <c r="AA13" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="28.3464567" customHeight="true">
+      <c r="A14" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B14" t="s">
+        <v>655</v>
+      </c>
+      <c r="C14" t="s">
+        <v>696</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>657</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>547</v>
+      </c>
+      <c r="H14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" t="s">
+        <v>739</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1958</v>
+      </c>
+      <c r="K14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L14" t="s">
+        <v>269</v>
+      </c>
+      <c r="M14" t="s">
+        <v>270</v>
+      </c>
+      <c r="N14" t="s">
+        <v>271</v>
+      </c>
+      <c r="O14" t="s">
+        <v>272</v>
+      </c>
+      <c r="P14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>125</v>
+      </c>
+      <c r="R14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T14" t="s">
+        <v>128</v>
+      </c>
+      <c r="U14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" t="s">
+        <v>170</v>
+      </c>
+      <c r="X14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" ht="28.3464567" customHeight="true">
+      <c r="A15" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>377</v>
+      </c>
+      <c r="H15" t="s">
+        <v>378</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1960</v>
+      </c>
+      <c r="K15" t="s">
         <v>59</v>
       </c>
-      <c r="L13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="L15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s">
         <v>59</v>
       </c>
-      <c r="Q13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R13" t="s">
-        <v>60</v>
-      </c>
-      <c r="S13" t="s">
-        <v>60</v>
-      </c>
-      <c r="T13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U13" t="s">
-        <v>30</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="Q15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" t="s">
         <v>62</v>
       </c>
-      <c r="W13" t="s">
-        <v>63</v>
-      </c>
-      <c r="X13" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>170</v>
+      <c r="V15" t="s">
+        <v/>
+      </c>
+      <c r="W15" t="s">
+        <v/>
+      </c>
+      <c r="X15" t="s">
+        <v/>
+      </c>
+      <c r="Y15" t="s">
+        <v/>
+      </c>
+      <c r="Z15" t="s">
+        <v/>
+      </c>
+      <c r="AA15" t="s">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -52047,7 +53400,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="26" min="26" style="0" width="20.75" customWidth="true"/>
+    <col max="27" min="27" style="0" width="20.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">
@@ -54972,8 +56325,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col max="21" min="21" style="0" width="24.25" customWidth="true"/>
-    <col hidden="true" max="40" min="31" style="0" width="0" customWidth="true"/>
+    <col max="22" min="22" style="0" width="24.25" customWidth="true"/>
+    <col hidden="true" max="41" min="32" style="0" width="0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.35" customHeight="true">

--- a/file.xlsx
+++ b/file.xlsx
@@ -26,6 +26,7 @@
     <sheet name="2020-12-16" sheetId="16" r:id="rId16" state="visible"/>
     <sheet name="2021-01-21" sheetId="17" r:id="rId17" state="visible"/>
     <sheet name="2021-01-29" sheetId="18" r:id="rId18" state="visible"/>
+    <sheet name="2021-02-14" sheetId="19" r:id="rId19" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -16360,6 +16361,604 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>1402</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v/>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v/>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v/>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v/>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v/>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v/>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v/>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v/>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v/>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16440,504 +17039,6 @@
       </c>
       <c r="AA1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="2" ht="28.3464567" customHeight="true">
-      <c r="A2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" ht="28.3464567" customHeight="true">
-      <c r="A3" t="s">
-        <v>581</v>
-      </c>
-      <c r="B3" t="s">
-        <v>683</v>
-      </c>
-      <c r="C3" t="s">
-        <v>687</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1112</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1400</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" t="s">
-        <v>104</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" ht="28.3464567" customHeight="true">
-      <c r="A4" t="s">
-        <v>590</v>
-      </c>
-      <c r="B4" t="s">
-        <v>683</v>
-      </c>
-      <c r="C4" t="s">
-        <v>700</v>
-      </c>
-      <c r="D4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" t="s">
-        <v>684</v>
-      </c>
-      <c r="F4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" t="s">
-        <v>851</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1401</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1402</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" t="s">
-        <v/>
-      </c>
-      <c r="W4" t="s">
-        <v/>
-      </c>
-      <c r="X4" t="s">
-        <v/>
-      </c>
-      <c r="Y4" t="s">
-        <v/>
-      </c>
-      <c r="Z4" t="s">
-        <v/>
-      </c>
-      <c r="AA4" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="28.3464567" customHeight="true">
-      <c r="A5" t="s">
-        <v>596</v>
-      </c>
-      <c r="B5" t="s">
-        <v>741</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" t="s">
-        <v>441</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1273</v>
-      </c>
-      <c r="J5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" t="s">
-        <v/>
-      </c>
-      <c r="W5" t="s">
-        <v/>
-      </c>
-      <c r="X5" t="s">
-        <v/>
-      </c>
-      <c r="Y5" t="s">
-        <v/>
-      </c>
-      <c r="Z5" t="s">
-        <v/>
-      </c>
-      <c r="AA5" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="28.3464567" customHeight="true">
-      <c r="A6" t="s">
-        <v>603</v>
-      </c>
-      <c r="B6" t="s">
-        <v>671</v>
-      </c>
-      <c r="C6" t="s">
-        <v>730</v>
-      </c>
-      <c r="D6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" t="s">
-        <v>672</v>
-      </c>
-      <c r="F6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" t="s">
-        <v>857</v>
-      </c>
-      <c r="H6" t="s">
-        <v>262</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1063</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1404</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" t="s">
-        <v>133</v>
-      </c>
-      <c r="V6" t="s">
-        <v>138</v>
-      </c>
-      <c r="W6" t="s">
-        <v>104</v>
-      </c>
-      <c r="X6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>300</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" ht="28.3464567" customHeight="true">
-      <c r="A7" t="s">
-        <v>607</v>
-      </c>
-      <c r="B7" t="s">
-        <v>582</v>
-      </c>
-      <c r="C7" t="s">
-        <v>998</v>
-      </c>
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" t="s">
-        <v>459</v>
-      </c>
-      <c r="I7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1405</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" t="s">
-        <v>60</v>
-      </c>
-      <c r="V7" t="s">
-        <v>67</v>
-      </c>
-      <c r="W7" t="s">
-        <v>1343</v>
-      </c>
-      <c r="X7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>1343</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>1406</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -27,6 +27,7 @@
     <sheet name="2021-01-21" sheetId="17" r:id="rId17" state="visible"/>
     <sheet name="2021-01-29" sheetId="18" r:id="rId18" state="visible"/>
     <sheet name="2021-02-14" sheetId="19" r:id="rId19" state="visible"/>
+    <sheet name="2021-07-05" sheetId="20" r:id="rId20" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="1424">
   <si>
     <t>比赛编号</t>
   </si>
@@ -4255,6 +4256,57 @@
   </si>
   <si>
     <t>80.000%</t>
+  </si>
+  <si>
+    <t>周一101</t>
+  </si>
+  <si>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>9.17</t>
+  </si>
+  <si>
+    <t>0.676218</t>
+  </si>
+  <si>
+    <t>周一102</t>
+  </si>
+  <si>
+    <t>1.050280</t>
+  </si>
+  <si>
+    <t>周一103</t>
+  </si>
+  <si>
+    <t>布兰</t>
+  </si>
+  <si>
+    <t>0.980976</t>
+  </si>
+  <si>
+    <t>周一104</t>
+  </si>
+  <si>
+    <t>美洲杯</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>15.16</t>
+  </si>
+  <si>
+    <t>0.704184</t>
   </si>
 </sst>
 </file>
@@ -16959,85 +17011,85 @@
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData>
     <row r="1" ht="28.3464567" customHeight="true">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -19711,6 +19763,438 @@
         <v/>
       </c>
       <c r="AA32" s="1">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>716</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>884</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v/>
+      </c>
+      <c r="W2" t="s">
+        <v/>
+      </c>
+      <c r="X2" t="s">
+        <v/>
+      </c>
+      <c r="Y2" t="s">
+        <v/>
+      </c>
+      <c r="Z2" t="s">
+        <v/>
+      </c>
+      <c r="AA2" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C3" t="s">
+        <v>960</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>858</v>
+      </c>
+      <c r="H3" t="s">
+        <v>762</v>
+      </c>
+      <c r="I3" t="s">
+        <v>956</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s">
+        <v>131</v>
+      </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>355</v>
+      </c>
+      <c r="X3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s">
+        <v/>
+      </c>
+      <c r="W4" t="s">
+        <v/>
+      </c>
+      <c r="X4" t="s">
+        <v/>
+      </c>
+      <c r="Y4" t="s">
+        <v/>
+      </c>
+      <c r="Z4" t="s">
+        <v/>
+      </c>
+      <c r="AA4" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F5" t="s">
+        <v>988</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" t="s">
+        <v/>
+      </c>
+      <c r="W5" t="s">
+        <v/>
+      </c>
+      <c r="X5" t="s">
+        <v/>
+      </c>
+      <c r="Y5" t="s">
+        <v/>
+      </c>
+      <c r="Z5" t="s">
+        <v/>
+      </c>
+      <c r="AA5" t="s">
         <v/>
       </c>
     </row>
